--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2008500</v>
+        <v>2213600</v>
       </c>
       <c r="E8" s="3">
-        <v>2081000</v>
+        <v>2052700</v>
       </c>
       <c r="F8" s="3">
-        <v>2056800</v>
+        <v>2126800</v>
       </c>
       <c r="G8" s="3">
-        <v>2299400</v>
+        <v>2102100</v>
       </c>
       <c r="H8" s="3">
-        <v>2283400</v>
+        <v>2350000</v>
       </c>
       <c r="I8" s="3">
-        <v>2241700</v>
+        <v>2333600</v>
       </c>
       <c r="J8" s="3">
+        <v>2291000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2189100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2386100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2222700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2102500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2033500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2114700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1839400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1669700</v>
+        <v>1852200</v>
       </c>
       <c r="E9" s="3">
-        <v>1735200</v>
+        <v>1706500</v>
       </c>
       <c r="F9" s="3">
-        <v>1729400</v>
+        <v>1773300</v>
       </c>
       <c r="G9" s="3">
-        <v>1927800</v>
+        <v>1767400</v>
       </c>
       <c r="H9" s="3">
-        <v>1862100</v>
+        <v>1970200</v>
       </c>
       <c r="I9" s="3">
-        <v>1875800</v>
+        <v>1903100</v>
       </c>
       <c r="J9" s="3">
+        <v>1917100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1828800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2011100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1840300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1727900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1665600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1714700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1490900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>338800</v>
+        <v>361400</v>
       </c>
       <c r="E10" s="3">
-        <v>345800</v>
+        <v>346300</v>
       </c>
       <c r="F10" s="3">
-        <v>327400</v>
+        <v>353400</v>
       </c>
       <c r="G10" s="3">
-        <v>371600</v>
+        <v>334600</v>
       </c>
       <c r="H10" s="3">
-        <v>421200</v>
+        <v>379700</v>
       </c>
       <c r="I10" s="3">
-        <v>365800</v>
+        <v>430500</v>
       </c>
       <c r="J10" s="3">
+        <v>373900</v>
+      </c>
+      <c r="K10" s="3">
         <v>360400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>375000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>382400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>374600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>367900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>348500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8800</v>
+        <v>13500</v>
       </c>
       <c r="E14" s="3">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="F14" s="3">
-        <v>6500</v>
+        <v>13200</v>
       </c>
       <c r="G14" s="3">
-        <v>37900</v>
+        <v>6700</v>
       </c>
       <c r="H14" s="3">
-        <v>-3000</v>
+        <v>38800</v>
       </c>
       <c r="I14" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>106500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>142600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1976200</v>
+        <v>2150200</v>
       </c>
       <c r="E17" s="3">
-        <v>2040700</v>
+        <v>2019700</v>
       </c>
       <c r="F17" s="3">
-        <v>2018700</v>
+        <v>2085600</v>
       </c>
       <c r="G17" s="3">
-        <v>2245200</v>
+        <v>2063100</v>
       </c>
       <c r="H17" s="3">
-        <v>2160800</v>
+        <v>2294600</v>
       </c>
       <c r="I17" s="3">
-        <v>2161100</v>
+        <v>2208300</v>
       </c>
       <c r="J17" s="3">
+        <v>2208700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2114500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2388300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2141400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2002700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1941400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2125400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1701300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>32300</v>
+        <v>63400</v>
       </c>
       <c r="E18" s="3">
-        <v>40300</v>
+        <v>33000</v>
       </c>
       <c r="F18" s="3">
-        <v>38100</v>
+        <v>41100</v>
       </c>
       <c r="G18" s="3">
-        <v>54200</v>
+        <v>39000</v>
       </c>
       <c r="H18" s="3">
-        <v>122600</v>
+        <v>55400</v>
       </c>
       <c r="I18" s="3">
-        <v>80500</v>
+        <v>125300</v>
       </c>
       <c r="J18" s="3">
+        <v>82300</v>
+      </c>
+      <c r="K18" s="3">
         <v>74600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>81300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>99800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>138000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18600</v>
+        <v>92200</v>
       </c>
       <c r="E20" s="3">
-        <v>26700</v>
+        <v>19000</v>
       </c>
       <c r="F20" s="3">
-        <v>10600</v>
+        <v>27300</v>
       </c>
       <c r="G20" s="3">
-        <v>9900</v>
+        <v>10800</v>
       </c>
       <c r="H20" s="3">
-        <v>24200</v>
+        <v>10200</v>
       </c>
       <c r="I20" s="3">
-        <v>11300</v>
+        <v>24800</v>
       </c>
       <c r="J20" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>36300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>75200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>13000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>222700</v>
       </c>
       <c r="E21" s="3">
-        <v>129700</v>
+        <v>126500</v>
       </c>
       <c r="F21" s="3">
-        <v>114800</v>
+        <v>132600</v>
       </c>
       <c r="G21" s="3">
-        <v>119900</v>
+        <v>117400</v>
       </c>
       <c r="H21" s="3">
-        <v>211500</v>
+        <v>122600</v>
       </c>
       <c r="I21" s="3">
-        <v>149300</v>
+        <v>216200</v>
       </c>
       <c r="J21" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K21" s="3">
         <v>120100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>66900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>177600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>228900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>155400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>51500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>212000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="E22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G22" s="3">
         <v>10300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>10100</v>
       </c>
-      <c r="G22" s="3">
-        <v>9900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>9700</v>
-      </c>
       <c r="I22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="L22" s="3">
         <v>8900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>8500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>8900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>9200</v>
       </c>
       <c r="M22" s="3">
         <v>9200</v>
       </c>
       <c r="N22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="O22" s="3">
         <v>8700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>41100</v>
+        <v>146300</v>
       </c>
       <c r="E23" s="3">
-        <v>56600</v>
+        <v>42000</v>
       </c>
       <c r="F23" s="3">
-        <v>38700</v>
+        <v>57900</v>
       </c>
       <c r="G23" s="3">
-        <v>54300</v>
+        <v>39500</v>
       </c>
       <c r="H23" s="3">
-        <v>137100</v>
+        <v>55500</v>
       </c>
       <c r="I23" s="3">
-        <v>83000</v>
+        <v>140100</v>
       </c>
       <c r="J23" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K23" s="3">
         <v>50700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>108400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>165800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>89500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>148700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22400</v>
+        <v>47000</v>
       </c>
       <c r="E24" s="3">
-        <v>18500</v>
+        <v>22900</v>
       </c>
       <c r="F24" s="3">
-        <v>20000</v>
+        <v>18900</v>
       </c>
       <c r="G24" s="3">
-        <v>-47300</v>
+        <v>20400</v>
       </c>
       <c r="H24" s="3">
-        <v>47200</v>
+        <v>-48400</v>
       </c>
       <c r="I24" s="3">
-        <v>16200</v>
+        <v>48200</v>
       </c>
       <c r="J24" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K24" s="3">
         <v>14000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18700</v>
+        <v>99300</v>
       </c>
       <c r="E26" s="3">
-        <v>38100</v>
+        <v>19100</v>
       </c>
       <c r="F26" s="3">
-        <v>18700</v>
+        <v>39000</v>
       </c>
       <c r="G26" s="3">
-        <v>101600</v>
+        <v>19100</v>
       </c>
       <c r="H26" s="3">
-        <v>89900</v>
+        <v>103900</v>
       </c>
       <c r="I26" s="3">
-        <v>66700</v>
+        <v>91900</v>
       </c>
       <c r="J26" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K26" s="3">
         <v>36700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>79000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>141400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>68700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>118000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12400</v>
+        <v>94700</v>
       </c>
       <c r="E27" s="3">
-        <v>34700</v>
+        <v>12600</v>
       </c>
       <c r="F27" s="3">
-        <v>20600</v>
+        <v>35500</v>
       </c>
       <c r="G27" s="3">
-        <v>94700</v>
+        <v>21100</v>
       </c>
       <c r="H27" s="3">
-        <v>80400</v>
+        <v>96800</v>
       </c>
       <c r="I27" s="3">
-        <v>59300</v>
+        <v>82200</v>
       </c>
       <c r="J27" s="3">
+        <v>60700</v>
+      </c>
+      <c r="K27" s="3">
         <v>30100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>68100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>134300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>61800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>108400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18600</v>
+        <v>-92200</v>
       </c>
       <c r="E32" s="3">
-        <v>-26700</v>
+        <v>-19000</v>
       </c>
       <c r="F32" s="3">
-        <v>-10600</v>
+        <v>-27300</v>
       </c>
       <c r="G32" s="3">
-        <v>-9900</v>
+        <v>-10800</v>
       </c>
       <c r="H32" s="3">
-        <v>-24200</v>
+        <v>-10200</v>
       </c>
       <c r="I32" s="3">
-        <v>-11300</v>
+        <v>-24800</v>
       </c>
       <c r="J32" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K32" s="3">
         <v>15400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-36300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-75200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-13000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12400</v>
+        <v>94700</v>
       </c>
       <c r="E33" s="3">
-        <v>34700</v>
+        <v>12600</v>
       </c>
       <c r="F33" s="3">
-        <v>20600</v>
+        <v>35500</v>
       </c>
       <c r="G33" s="3">
-        <v>94700</v>
+        <v>21100</v>
       </c>
       <c r="H33" s="3">
-        <v>80400</v>
+        <v>96800</v>
       </c>
       <c r="I33" s="3">
-        <v>59300</v>
+        <v>82200</v>
       </c>
       <c r="J33" s="3">
+        <v>60700</v>
+      </c>
+      <c r="K33" s="3">
         <v>30100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>68100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>134300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>108400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12400</v>
+        <v>94700</v>
       </c>
       <c r="E35" s="3">
-        <v>34700</v>
+        <v>12600</v>
       </c>
       <c r="F35" s="3">
-        <v>20600</v>
+        <v>35500</v>
       </c>
       <c r="G35" s="3">
-        <v>94700</v>
+        <v>21100</v>
       </c>
       <c r="H35" s="3">
-        <v>80400</v>
+        <v>96800</v>
       </c>
       <c r="I35" s="3">
-        <v>59300</v>
+        <v>82200</v>
       </c>
       <c r="J35" s="3">
+        <v>60700</v>
+      </c>
+      <c r="K35" s="3">
         <v>30100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>68100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>134300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>108400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,72 +2139,76 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>345500</v>
+        <v>505000</v>
       </c>
       <c r="E41" s="3">
-        <v>364300</v>
+        <v>353100</v>
       </c>
       <c r="F41" s="3">
-        <v>392200</v>
+        <v>372400</v>
       </c>
       <c r="G41" s="3">
-        <v>405700</v>
+        <v>400900</v>
       </c>
       <c r="H41" s="3">
-        <v>426200</v>
+        <v>414600</v>
       </c>
       <c r="I41" s="3">
-        <v>435800</v>
+        <v>435600</v>
       </c>
       <c r="J41" s="3">
+        <v>445400</v>
+      </c>
+      <c r="K41" s="3">
         <v>374100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>457700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>471100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>479700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>390800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>418400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>496400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14100</v>
+        <v>8400</v>
       </c>
       <c r="E42" s="3">
-        <v>9200</v>
+        <v>14400</v>
       </c>
       <c r="F42" s="3">
-        <v>7300</v>
+        <v>9400</v>
       </c>
       <c r="G42" s="3">
-        <v>21600</v>
+        <v>7500</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2130,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>300</v>
@@ -2139,345 +2229,369 @@
         <v>300</v>
       </c>
       <c r="O42" s="3">
+        <v>300</v>
+      </c>
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1798100</v>
+        <v>1776800</v>
       </c>
       <c r="E43" s="3">
-        <v>1755100</v>
+        <v>1837700</v>
       </c>
       <c r="F43" s="3">
-        <v>1845700</v>
+        <v>1793700</v>
       </c>
       <c r="G43" s="3">
-        <v>1984000</v>
+        <v>1886300</v>
       </c>
       <c r="H43" s="3">
-        <v>1968800</v>
+        <v>2027600</v>
       </c>
       <c r="I43" s="3">
-        <v>1986300</v>
+        <v>2012200</v>
       </c>
       <c r="J43" s="3">
+        <v>2030100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1984900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2017000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2008900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1887000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1815800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1753000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1623600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1203900</v>
+        <v>1076300</v>
       </c>
       <c r="E44" s="3">
-        <v>1138100</v>
+        <v>1230400</v>
       </c>
       <c r="F44" s="3">
-        <v>1174000</v>
+        <v>1163100</v>
       </c>
       <c r="G44" s="3">
-        <v>1117100</v>
+        <v>1199900</v>
       </c>
       <c r="H44" s="3">
-        <v>1196300</v>
+        <v>1141600</v>
       </c>
       <c r="I44" s="3">
-        <v>1141800</v>
+        <v>1222600</v>
       </c>
       <c r="J44" s="3">
+        <v>1166900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1121800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1028700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1110200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1068000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1019900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>925600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>931400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>250200</v>
+        <v>221100</v>
       </c>
       <c r="E45" s="3">
-        <v>242400</v>
+        <v>255700</v>
       </c>
       <c r="F45" s="3">
-        <v>260500</v>
+        <v>247700</v>
       </c>
       <c r="G45" s="3">
-        <v>294200</v>
+        <v>266200</v>
       </c>
       <c r="H45" s="3">
-        <v>250500</v>
+        <v>300700</v>
       </c>
       <c r="I45" s="3">
-        <v>238300</v>
+        <v>256000</v>
       </c>
       <c r="J45" s="3">
+        <v>243600</v>
+      </c>
+      <c r="K45" s="3">
         <v>229600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>348700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>316300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>301900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>294400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>325300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3611800</v>
+        <v>3587600</v>
       </c>
       <c r="E46" s="3">
-        <v>3509100</v>
+        <v>3691300</v>
       </c>
       <c r="F46" s="3">
-        <v>3679700</v>
+        <v>3586300</v>
       </c>
       <c r="G46" s="3">
-        <v>3822500</v>
+        <v>3760700</v>
       </c>
       <c r="H46" s="3">
-        <v>3841700</v>
+        <v>3906600</v>
       </c>
       <c r="I46" s="3">
-        <v>3802300</v>
+        <v>3926300</v>
       </c>
       <c r="J46" s="3">
+        <v>3885900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3710500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3762400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3906800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3736800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3527600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3391900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3377000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1087900</v>
+        <v>987800</v>
       </c>
       <c r="E47" s="3">
-        <v>1054500</v>
+        <v>1111800</v>
       </c>
       <c r="F47" s="3">
-        <v>1054500</v>
+        <v>1077700</v>
       </c>
       <c r="G47" s="3">
-        <v>1129100</v>
+        <v>1077700</v>
       </c>
       <c r="H47" s="3">
-        <v>1115500</v>
+        <v>1154000</v>
       </c>
       <c r="I47" s="3">
-        <v>1210900</v>
+        <v>1140000</v>
       </c>
       <c r="J47" s="3">
+        <v>1237500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1200800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1239600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1221900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1137400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1096400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1162400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1059900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2269300</v>
+        <v>2361700</v>
       </c>
       <c r="E48" s="3">
-        <v>2232800</v>
+        <v>2319200</v>
       </c>
       <c r="F48" s="3">
-        <v>2196900</v>
+        <v>2282000</v>
       </c>
       <c r="G48" s="3">
-        <v>2084900</v>
+        <v>2245200</v>
       </c>
       <c r="H48" s="3">
-        <v>2016200</v>
+        <v>2130800</v>
       </c>
       <c r="I48" s="3">
-        <v>2036800</v>
+        <v>2060600</v>
       </c>
       <c r="J48" s="3">
+        <v>2081600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1996800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1959200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1941700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1933000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1907300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1822700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1766700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>127900</v>
+        <v>149500</v>
       </c>
       <c r="E49" s="3">
-        <v>121600</v>
+        <v>130700</v>
       </c>
       <c r="F49" s="3">
-        <v>112700</v>
+        <v>124300</v>
       </c>
       <c r="G49" s="3">
-        <v>110900</v>
+        <v>115200</v>
       </c>
       <c r="H49" s="3">
-        <v>92300</v>
+        <v>113400</v>
       </c>
       <c r="I49" s="3">
-        <v>90400</v>
+        <v>94300</v>
       </c>
       <c r="J49" s="3">
+        <v>92400</v>
+      </c>
+      <c r="K49" s="3">
         <v>90600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>102200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>96900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>87500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>86800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>86400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>79700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>303900</v>
+        <v>295300</v>
       </c>
       <c r="E52" s="3">
-        <v>336100</v>
+        <v>310600</v>
       </c>
       <c r="F52" s="3">
-        <v>336100</v>
+        <v>343500</v>
       </c>
       <c r="G52" s="3">
-        <v>288400</v>
+        <v>343500</v>
       </c>
       <c r="H52" s="3">
-        <v>263700</v>
+        <v>294800</v>
       </c>
       <c r="I52" s="3">
-        <v>273400</v>
+        <v>269500</v>
       </c>
       <c r="J52" s="3">
+        <v>279400</v>
+      </c>
+      <c r="K52" s="3">
         <v>276600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>301500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>261900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>263500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>260800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>190200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>240400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7400700</v>
+        <v>7382000</v>
       </c>
       <c r="E54" s="3">
-        <v>7254200</v>
+        <v>7563600</v>
       </c>
       <c r="F54" s="3">
-        <v>7379900</v>
+        <v>7413800</v>
       </c>
       <c r="G54" s="3">
-        <v>7435800</v>
+        <v>7542300</v>
       </c>
       <c r="H54" s="3">
-        <v>7329400</v>
+        <v>7599400</v>
       </c>
       <c r="I54" s="3">
-        <v>7413700</v>
+        <v>7490700</v>
       </c>
       <c r="J54" s="3">
+        <v>7576800</v>
+      </c>
+      <c r="K54" s="3">
         <v>7275300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7310000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7429200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7158200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6878900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6653600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6523700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1076800</v>
+        <v>1036600</v>
       </c>
       <c r="E57" s="3">
-        <v>1023400</v>
+        <v>1100500</v>
       </c>
       <c r="F57" s="3">
-        <v>1107000</v>
+        <v>1046000</v>
       </c>
       <c r="G57" s="3">
-        <v>1194600</v>
+        <v>1131300</v>
       </c>
       <c r="H57" s="3">
-        <v>1140300</v>
+        <v>1220900</v>
       </c>
       <c r="I57" s="3">
-        <v>1142400</v>
+        <v>1165300</v>
       </c>
       <c r="J57" s="3">
+        <v>1167500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1124900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1124500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1078800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1043900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>979900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>958700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>933000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1252500</v>
+        <v>1166000</v>
       </c>
       <c r="E58" s="3">
-        <v>1130500</v>
+        <v>1280000</v>
       </c>
       <c r="F58" s="3">
-        <v>1049700</v>
+        <v>1155400</v>
       </c>
       <c r="G58" s="3">
-        <v>970000</v>
+        <v>1072800</v>
       </c>
       <c r="H58" s="3">
-        <v>965000</v>
+        <v>991300</v>
       </c>
       <c r="I58" s="3">
-        <v>1018500</v>
+        <v>986200</v>
       </c>
       <c r="J58" s="3">
+        <v>1041000</v>
+      </c>
+      <c r="K58" s="3">
         <v>992900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2011900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1069900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1039900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1186800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>889700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>906300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>721200</v>
+        <v>766900</v>
       </c>
       <c r="E59" s="3">
-        <v>778600</v>
+        <v>737100</v>
       </c>
       <c r="F59" s="3">
-        <v>816800</v>
+        <v>795700</v>
       </c>
       <c r="G59" s="3">
-        <v>849800</v>
+        <v>834800</v>
       </c>
       <c r="H59" s="3">
-        <v>769800</v>
+        <v>868500</v>
       </c>
       <c r="I59" s="3">
-        <v>777900</v>
+        <v>786700</v>
       </c>
       <c r="J59" s="3">
+        <v>795000</v>
+      </c>
+      <c r="K59" s="3">
         <v>858300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>810600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>729400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>698800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>655700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>753700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>634400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3050500</v>
+        <v>2969500</v>
       </c>
       <c r="E60" s="3">
-        <v>2932600</v>
+        <v>3117700</v>
       </c>
       <c r="F60" s="3">
-        <v>2973500</v>
+        <v>2997100</v>
       </c>
       <c r="G60" s="3">
-        <v>3014400</v>
+        <v>3038900</v>
       </c>
       <c r="H60" s="3">
-        <v>2875000</v>
+        <v>3080800</v>
       </c>
       <c r="I60" s="3">
-        <v>2938800</v>
+        <v>2938300</v>
       </c>
       <c r="J60" s="3">
+        <v>3003400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2976100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2986200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2878200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2782600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2822400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2602100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2473700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1121800</v>
+        <v>1166600</v>
       </c>
       <c r="E61" s="3">
-        <v>1144200</v>
+        <v>1146500</v>
       </c>
       <c r="F61" s="3">
-        <v>1239900</v>
+        <v>1169400</v>
       </c>
       <c r="G61" s="3">
-        <v>1266200</v>
+        <v>1267200</v>
       </c>
       <c r="H61" s="3">
-        <v>1377100</v>
+        <v>1294100</v>
       </c>
       <c r="I61" s="3">
-        <v>1379400</v>
+        <v>1407400</v>
       </c>
       <c r="J61" s="3">
+        <v>1409800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1282300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1285700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1404900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1393400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1284400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1350300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1387100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>659200</v>
+        <v>709400</v>
       </c>
       <c r="E62" s="3">
-        <v>657300</v>
+        <v>673700</v>
       </c>
       <c r="F62" s="3">
-        <v>661400</v>
+        <v>671700</v>
       </c>
       <c r="G62" s="3">
-        <v>610800</v>
+        <v>676000</v>
       </c>
       <c r="H62" s="3">
-        <v>581000</v>
+        <v>624200</v>
       </c>
       <c r="I62" s="3">
-        <v>596900</v>
+        <v>593800</v>
       </c>
       <c r="J62" s="3">
+        <v>610100</v>
+      </c>
+      <c r="K62" s="3">
         <v>590600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>578600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>632000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>612200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>605000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>598500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>669800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5129400</v>
+        <v>5149800</v>
       </c>
       <c r="E66" s="3">
-        <v>5023400</v>
+        <v>5242300</v>
       </c>
       <c r="F66" s="3">
-        <v>5161900</v>
+        <v>5133900</v>
       </c>
       <c r="G66" s="3">
-        <v>5184600</v>
+        <v>5275400</v>
       </c>
       <c r="H66" s="3">
-        <v>5121500</v>
+        <v>5298700</v>
       </c>
       <c r="I66" s="3">
-        <v>5216400</v>
+        <v>5234200</v>
       </c>
       <c r="J66" s="3">
+        <v>5331200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5151200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5171900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5232100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5098300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4997900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4820100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4780100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1408100</v>
+        <v>1533800</v>
       </c>
       <c r="E72" s="3">
-        <v>1395800</v>
+        <v>1439100</v>
       </c>
       <c r="F72" s="3">
-        <v>1361100</v>
+        <v>1426500</v>
       </c>
       <c r="G72" s="3">
-        <v>1379400</v>
+        <v>1391000</v>
       </c>
       <c r="H72" s="3">
-        <v>1284600</v>
+        <v>1409700</v>
       </c>
       <c r="I72" s="3">
-        <v>1204600</v>
+        <v>1312900</v>
       </c>
       <c r="J72" s="3">
+        <v>1231100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1145200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1158300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1164400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1096400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>962100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>922000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>935100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2271300</v>
+        <v>2232200</v>
       </c>
       <c r="E76" s="3">
-        <v>2230800</v>
+        <v>2321300</v>
       </c>
       <c r="F76" s="3">
-        <v>2218100</v>
+        <v>2279900</v>
       </c>
       <c r="G76" s="3">
-        <v>2251200</v>
+        <v>2266900</v>
       </c>
       <c r="H76" s="3">
-        <v>2207900</v>
+        <v>2300800</v>
       </c>
       <c r="I76" s="3">
-        <v>2197300</v>
+        <v>2256500</v>
       </c>
       <c r="J76" s="3">
+        <v>2245600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2124100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2138100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2197100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2059900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1881000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1833500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1743600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12400</v>
+        <v>94700</v>
       </c>
       <c r="E81" s="3">
-        <v>34700</v>
+        <v>12600</v>
       </c>
       <c r="F81" s="3">
-        <v>20600</v>
+        <v>35500</v>
       </c>
       <c r="G81" s="3">
-        <v>94700</v>
+        <v>21100</v>
       </c>
       <c r="H81" s="3">
-        <v>80400</v>
+        <v>96800</v>
       </c>
       <c r="I81" s="3">
-        <v>59300</v>
+        <v>82200</v>
       </c>
       <c r="J81" s="3">
+        <v>60700</v>
+      </c>
+      <c r="K81" s="3">
         <v>30100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>68100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>134300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>108400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>67100</v>
       </c>
       <c r="E83" s="3">
-        <v>62800</v>
+        <v>74500</v>
       </c>
       <c r="F83" s="3">
+        <v>64200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>67600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>57000</v>
+      </c>
+      <c r="I83" s="3">
         <v>66100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>60900</v>
+      </c>
+      <c r="L83" s="3">
         <v>55800</v>
       </c>
-      <c r="H83" s="3">
-        <v>64700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>57400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>60900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>55800</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>53900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>57200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>49200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>55900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2213600</v>
+        <v>1666600</v>
       </c>
       <c r="E8" s="3">
-        <v>2052700</v>
+        <v>2249300</v>
       </c>
       <c r="F8" s="3">
-        <v>2126800</v>
+        <v>2085900</v>
       </c>
       <c r="G8" s="3">
-        <v>2102100</v>
+        <v>2161100</v>
       </c>
       <c r="H8" s="3">
-        <v>2350000</v>
+        <v>2136000</v>
       </c>
       <c r="I8" s="3">
-        <v>2333600</v>
+        <v>2387900</v>
       </c>
       <c r="J8" s="3">
+        <v>2371300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2291000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2189100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2386100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2222700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2102500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2033500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2114700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1839400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1852200</v>
+        <v>1405500</v>
       </c>
       <c r="E9" s="3">
-        <v>1706500</v>
+        <v>1882100</v>
       </c>
       <c r="F9" s="3">
-        <v>1773300</v>
+        <v>1734000</v>
       </c>
       <c r="G9" s="3">
-        <v>1767400</v>
+        <v>1802000</v>
       </c>
       <c r="H9" s="3">
-        <v>1970200</v>
+        <v>1796000</v>
       </c>
       <c r="I9" s="3">
-        <v>1903100</v>
+        <v>2002000</v>
       </c>
       <c r="J9" s="3">
+        <v>1933800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1917100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1828800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2011100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1840300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1727900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1665600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1714700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1490900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>361400</v>
+        <v>261100</v>
       </c>
       <c r="E10" s="3">
-        <v>346300</v>
+        <v>367200</v>
       </c>
       <c r="F10" s="3">
-        <v>353400</v>
+        <v>351900</v>
       </c>
       <c r="G10" s="3">
-        <v>334600</v>
+        <v>359100</v>
       </c>
       <c r="H10" s="3">
-        <v>379700</v>
+        <v>340000</v>
       </c>
       <c r="I10" s="3">
-        <v>430500</v>
+        <v>385900</v>
       </c>
       <c r="J10" s="3">
+        <v>437500</v>
+      </c>
+      <c r="K10" s="3">
         <v>373900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>360400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>375000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>382400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>374600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>367900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>348500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G14" s="3">
         <v>13500</v>
       </c>
-      <c r="E14" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>13200</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6700</v>
-      </c>
       <c r="H14" s="3">
-        <v>38800</v>
+        <v>6800</v>
       </c>
       <c r="I14" s="3">
+        <v>39400</v>
+      </c>
+      <c r="J14" s="3">
         <v>-3100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>106500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>142600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-45100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2150200</v>
+        <v>1722000</v>
       </c>
       <c r="E17" s="3">
-        <v>2019700</v>
+        <v>2184900</v>
       </c>
       <c r="F17" s="3">
-        <v>2085600</v>
+        <v>2052300</v>
       </c>
       <c r="G17" s="3">
-        <v>2063100</v>
+        <v>2119300</v>
       </c>
       <c r="H17" s="3">
-        <v>2294600</v>
+        <v>2096400</v>
       </c>
       <c r="I17" s="3">
-        <v>2208300</v>
+        <v>2331600</v>
       </c>
       <c r="J17" s="3">
+        <v>2244000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2208700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2114500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2388300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2141400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2002700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1941400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2125400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1701300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>63400</v>
+        <v>-55400</v>
       </c>
       <c r="E18" s="3">
-        <v>33000</v>
+        <v>64400</v>
       </c>
       <c r="F18" s="3">
-        <v>41100</v>
+        <v>33600</v>
       </c>
       <c r="G18" s="3">
-        <v>39000</v>
+        <v>41800</v>
       </c>
       <c r="H18" s="3">
-        <v>55400</v>
+        <v>39600</v>
       </c>
       <c r="I18" s="3">
-        <v>125300</v>
+        <v>56300</v>
       </c>
       <c r="J18" s="3">
+        <v>127300</v>
+      </c>
+      <c r="K18" s="3">
         <v>82300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>74600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>99800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>92100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>138000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>92200</v>
+        <v>179400</v>
       </c>
       <c r="E20" s="3">
-        <v>19000</v>
+        <v>93700</v>
       </c>
       <c r="F20" s="3">
-        <v>27300</v>
+        <v>19300</v>
       </c>
       <c r="G20" s="3">
-        <v>10800</v>
+        <v>27700</v>
       </c>
       <c r="H20" s="3">
-        <v>10200</v>
+        <v>11000</v>
       </c>
       <c r="I20" s="3">
-        <v>24800</v>
+        <v>10300</v>
       </c>
       <c r="J20" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K20" s="3">
         <v>11600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>36300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>75200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>222700</v>
+        <v>199100</v>
       </c>
       <c r="E21" s="3">
-        <v>126500</v>
+        <v>226300</v>
       </c>
       <c r="F21" s="3">
-        <v>132600</v>
+        <v>128600</v>
       </c>
       <c r="G21" s="3">
-        <v>117400</v>
+        <v>134700</v>
       </c>
       <c r="H21" s="3">
-        <v>122600</v>
+        <v>119300</v>
       </c>
       <c r="I21" s="3">
-        <v>216200</v>
+        <v>124600</v>
       </c>
       <c r="J21" s="3">
+        <v>219700</v>
+      </c>
+      <c r="K21" s="3">
         <v>152600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>120100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>66900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>177600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>228900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>155400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>51500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>212000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9300</v>
+        <v>8600</v>
       </c>
       <c r="E22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J22" s="3">
         <v>10100</v>
       </c>
-      <c r="F22" s="3">
-        <v>10500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>9200</v>
       </c>
       <c r="N22" s="3">
         <v>9200</v>
       </c>
       <c r="O22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="P22" s="3">
         <v>8700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>146300</v>
+        <v>115400</v>
       </c>
       <c r="E23" s="3">
-        <v>42000</v>
+        <v>148700</v>
       </c>
       <c r="F23" s="3">
-        <v>57900</v>
+        <v>42600</v>
       </c>
       <c r="G23" s="3">
-        <v>39500</v>
+        <v>58800</v>
       </c>
       <c r="H23" s="3">
-        <v>55500</v>
+        <v>40200</v>
       </c>
       <c r="I23" s="3">
-        <v>140100</v>
+        <v>56400</v>
       </c>
       <c r="J23" s="3">
+        <v>142400</v>
+      </c>
+      <c r="K23" s="3">
         <v>84800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>50700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>108400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>165800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>89500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>148700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47000</v>
+        <v>38000</v>
       </c>
       <c r="E24" s="3">
-        <v>22900</v>
+        <v>47800</v>
       </c>
       <c r="F24" s="3">
-        <v>18900</v>
+        <v>23200</v>
       </c>
       <c r="G24" s="3">
-        <v>20400</v>
+        <v>19200</v>
       </c>
       <c r="H24" s="3">
-        <v>-48400</v>
+        <v>20700</v>
       </c>
       <c r="I24" s="3">
-        <v>48200</v>
+        <v>-49200</v>
       </c>
       <c r="J24" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K24" s="3">
         <v>16600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>99300</v>
+        <v>77400</v>
       </c>
       <c r="E26" s="3">
-        <v>19100</v>
+        <v>100900</v>
       </c>
       <c r="F26" s="3">
-        <v>39000</v>
+        <v>19400</v>
       </c>
       <c r="G26" s="3">
-        <v>19100</v>
+        <v>39600</v>
       </c>
       <c r="H26" s="3">
-        <v>103900</v>
+        <v>19400</v>
       </c>
       <c r="I26" s="3">
-        <v>91900</v>
+        <v>105500</v>
       </c>
       <c r="J26" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K26" s="3">
         <v>68200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>79000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>141400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>68700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>118000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>94700</v>
+        <v>73900</v>
       </c>
       <c r="E27" s="3">
-        <v>12600</v>
+        <v>96200</v>
       </c>
       <c r="F27" s="3">
-        <v>35500</v>
+        <v>12800</v>
       </c>
       <c r="G27" s="3">
-        <v>21100</v>
+        <v>36000</v>
       </c>
       <c r="H27" s="3">
-        <v>96800</v>
+        <v>21400</v>
       </c>
       <c r="I27" s="3">
-        <v>82200</v>
+        <v>98400</v>
       </c>
       <c r="J27" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K27" s="3">
         <v>60700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>68100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>134300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>61800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>108400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-92200</v>
+        <v>-179400</v>
       </c>
       <c r="E32" s="3">
-        <v>-19000</v>
+        <v>-93700</v>
       </c>
       <c r="F32" s="3">
-        <v>-27300</v>
+        <v>-19300</v>
       </c>
       <c r="G32" s="3">
-        <v>-10800</v>
+        <v>-27700</v>
       </c>
       <c r="H32" s="3">
-        <v>-10200</v>
+        <v>-11000</v>
       </c>
       <c r="I32" s="3">
-        <v>-24800</v>
+        <v>-10300</v>
       </c>
       <c r="J32" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-36300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-75200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>94700</v>
+        <v>73900</v>
       </c>
       <c r="E33" s="3">
-        <v>12600</v>
+        <v>96200</v>
       </c>
       <c r="F33" s="3">
-        <v>35500</v>
+        <v>12800</v>
       </c>
       <c r="G33" s="3">
-        <v>21100</v>
+        <v>36000</v>
       </c>
       <c r="H33" s="3">
-        <v>96800</v>
+        <v>21400</v>
       </c>
       <c r="I33" s="3">
-        <v>82200</v>
+        <v>98400</v>
       </c>
       <c r="J33" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K33" s="3">
         <v>60700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>68100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>134300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>61800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>108400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>94700</v>
+        <v>73900</v>
       </c>
       <c r="E35" s="3">
-        <v>12600</v>
+        <v>96200</v>
       </c>
       <c r="F35" s="3">
-        <v>35500</v>
+        <v>12800</v>
       </c>
       <c r="G35" s="3">
-        <v>21100</v>
+        <v>36000</v>
       </c>
       <c r="H35" s="3">
-        <v>96800</v>
+        <v>21400</v>
       </c>
       <c r="I35" s="3">
-        <v>82200</v>
+        <v>98400</v>
       </c>
       <c r="J35" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K35" s="3">
         <v>60700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>68100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>134300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>61800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>108400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,78 +2226,82 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>505000</v>
+        <v>1064800</v>
       </c>
       <c r="E41" s="3">
-        <v>353100</v>
+        <v>513100</v>
       </c>
       <c r="F41" s="3">
-        <v>372400</v>
+        <v>358800</v>
       </c>
       <c r="G41" s="3">
-        <v>400900</v>
+        <v>378400</v>
       </c>
       <c r="H41" s="3">
-        <v>414600</v>
+        <v>407300</v>
       </c>
       <c r="I41" s="3">
-        <v>435600</v>
+        <v>421300</v>
       </c>
       <c r="J41" s="3">
+        <v>442600</v>
+      </c>
+      <c r="K41" s="3">
         <v>445400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>374100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>457700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>471100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>479700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>390800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>418400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>496400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8400</v>
+        <v>15400</v>
       </c>
       <c r="E42" s="3">
-        <v>14400</v>
+        <v>8500</v>
       </c>
       <c r="F42" s="3">
-        <v>9400</v>
+        <v>14700</v>
       </c>
       <c r="G42" s="3">
-        <v>7500</v>
+        <v>9600</v>
       </c>
       <c r="H42" s="3">
-        <v>22000</v>
+        <v>7600</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>22400</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2223,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
         <v>300</v>
@@ -2232,366 +2322,390 @@
         <v>300</v>
       </c>
       <c r="P42" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q42" s="3">
         <v>500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1776800</v>
+        <v>1478500</v>
       </c>
       <c r="E43" s="3">
-        <v>1837700</v>
+        <v>1805500</v>
       </c>
       <c r="F43" s="3">
-        <v>1793700</v>
+        <v>1867300</v>
       </c>
       <c r="G43" s="3">
-        <v>1886300</v>
+        <v>1822600</v>
       </c>
       <c r="H43" s="3">
-        <v>2027600</v>
+        <v>1916700</v>
       </c>
       <c r="I43" s="3">
-        <v>2012200</v>
+        <v>2060300</v>
       </c>
       <c r="J43" s="3">
+        <v>2044600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2030100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1984900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2017000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2008900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1887000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1815800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1753000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1623600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1076300</v>
+        <v>1154000</v>
       </c>
       <c r="E44" s="3">
-        <v>1230400</v>
+        <v>1093700</v>
       </c>
       <c r="F44" s="3">
-        <v>1163100</v>
+        <v>1250300</v>
       </c>
       <c r="G44" s="3">
-        <v>1199900</v>
+        <v>1181900</v>
       </c>
       <c r="H44" s="3">
-        <v>1141600</v>
+        <v>1219300</v>
       </c>
       <c r="I44" s="3">
-        <v>1222600</v>
+        <v>1160100</v>
       </c>
       <c r="J44" s="3">
+        <v>1242300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1166900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1121800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1028700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1110200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1068000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1019900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>925600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>931400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>221100</v>
+        <v>275000</v>
       </c>
       <c r="E45" s="3">
-        <v>255700</v>
+        <v>224700</v>
       </c>
       <c r="F45" s="3">
-        <v>247700</v>
+        <v>259800</v>
       </c>
       <c r="G45" s="3">
-        <v>266200</v>
+        <v>251700</v>
       </c>
       <c r="H45" s="3">
-        <v>300700</v>
+        <v>270500</v>
       </c>
       <c r="I45" s="3">
-        <v>256000</v>
+        <v>305600</v>
       </c>
       <c r="J45" s="3">
+        <v>260100</v>
+      </c>
+      <c r="K45" s="3">
         <v>243600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>229600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>348700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>316300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>301900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>294400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>325300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3587600</v>
+        <v>3987700</v>
       </c>
       <c r="E46" s="3">
-        <v>3691300</v>
+        <v>3645500</v>
       </c>
       <c r="F46" s="3">
-        <v>3586300</v>
+        <v>3750900</v>
       </c>
       <c r="G46" s="3">
-        <v>3760700</v>
+        <v>3644200</v>
       </c>
       <c r="H46" s="3">
-        <v>3906600</v>
+        <v>3821400</v>
       </c>
       <c r="I46" s="3">
-        <v>3926300</v>
+        <v>3969600</v>
       </c>
       <c r="J46" s="3">
+        <v>3989700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3885900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3710500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3762400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3906800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3736800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3527600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3391900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3377000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>987800</v>
+        <v>927700</v>
       </c>
       <c r="E47" s="3">
-        <v>1111800</v>
+        <v>1003800</v>
       </c>
       <c r="F47" s="3">
-        <v>1077700</v>
+        <v>1129700</v>
       </c>
       <c r="G47" s="3">
-        <v>1077700</v>
+        <v>1095100</v>
       </c>
       <c r="H47" s="3">
-        <v>1154000</v>
+        <v>1095100</v>
       </c>
       <c r="I47" s="3">
-        <v>1140000</v>
+        <v>1172600</v>
       </c>
       <c r="J47" s="3">
+        <v>1158400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1237500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1200800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1239600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1221900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1137400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1096400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1162400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1059900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2361700</v>
+        <v>2345000</v>
       </c>
       <c r="E48" s="3">
-        <v>2319200</v>
+        <v>2399800</v>
       </c>
       <c r="F48" s="3">
-        <v>2282000</v>
+        <v>2356700</v>
       </c>
       <c r="G48" s="3">
-        <v>2245200</v>
+        <v>2318800</v>
       </c>
       <c r="H48" s="3">
-        <v>2130800</v>
+        <v>2281500</v>
       </c>
       <c r="I48" s="3">
-        <v>2060600</v>
+        <v>2165200</v>
       </c>
       <c r="J48" s="3">
+        <v>2093800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2081600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1996800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1959200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1941700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1933000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1907300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1822700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1766700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>149500</v>
+        <v>162600</v>
       </c>
       <c r="E49" s="3">
-        <v>130700</v>
+        <v>151900</v>
       </c>
       <c r="F49" s="3">
-        <v>124300</v>
+        <v>132800</v>
       </c>
       <c r="G49" s="3">
+        <v>126300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>117100</v>
+      </c>
+      <c r="I49" s="3">
         <v>115200</v>
       </c>
-      <c r="H49" s="3">
-        <v>113400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>94300</v>
-      </c>
       <c r="J49" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K49" s="3">
         <v>92400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>90600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>102200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>96900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>87500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>86800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>86400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>79700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>295300</v>
+        <v>321000</v>
       </c>
       <c r="E52" s="3">
-        <v>310600</v>
+        <v>300100</v>
       </c>
       <c r="F52" s="3">
-        <v>343500</v>
+        <v>315600</v>
       </c>
       <c r="G52" s="3">
-        <v>343500</v>
+        <v>349100</v>
       </c>
       <c r="H52" s="3">
-        <v>294800</v>
+        <v>349100</v>
       </c>
       <c r="I52" s="3">
-        <v>269500</v>
+        <v>299500</v>
       </c>
       <c r="J52" s="3">
+        <v>273800</v>
+      </c>
+      <c r="K52" s="3">
         <v>279400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>276600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>301500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>261900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>263500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>260800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>190200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>240400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7382000</v>
+        <v>7744000</v>
       </c>
       <c r="E54" s="3">
-        <v>7563600</v>
+        <v>7501200</v>
       </c>
       <c r="F54" s="3">
-        <v>7413800</v>
+        <v>7685700</v>
       </c>
       <c r="G54" s="3">
-        <v>7542300</v>
+        <v>7533500</v>
       </c>
       <c r="H54" s="3">
-        <v>7599400</v>
+        <v>7664100</v>
       </c>
       <c r="I54" s="3">
-        <v>7490700</v>
+        <v>7722100</v>
       </c>
       <c r="J54" s="3">
+        <v>7611600</v>
+      </c>
+      <c r="K54" s="3">
         <v>7576800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7275300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7310000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7429200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7158200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6878900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6653600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6523700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1036600</v>
+        <v>903900</v>
       </c>
       <c r="E57" s="3">
-        <v>1100500</v>
+        <v>1053400</v>
       </c>
       <c r="F57" s="3">
-        <v>1046000</v>
+        <v>1118300</v>
       </c>
       <c r="G57" s="3">
-        <v>1131300</v>
+        <v>1062800</v>
       </c>
       <c r="H57" s="3">
-        <v>1220900</v>
+        <v>1149600</v>
       </c>
       <c r="I57" s="3">
-        <v>1165300</v>
+        <v>1240600</v>
       </c>
       <c r="J57" s="3">
+        <v>1184200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1167500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1124900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1124500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1078800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1043900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>979900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>958700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>933000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1166000</v>
+        <v>1473700</v>
       </c>
       <c r="E58" s="3">
-        <v>1280000</v>
+        <v>1199600</v>
       </c>
       <c r="F58" s="3">
-        <v>1155400</v>
+        <v>1300700</v>
       </c>
       <c r="G58" s="3">
-        <v>1072800</v>
+        <v>1174100</v>
       </c>
       <c r="H58" s="3">
-        <v>991300</v>
+        <v>1090100</v>
       </c>
       <c r="I58" s="3">
-        <v>986200</v>
+        <v>1007300</v>
       </c>
       <c r="J58" s="3">
+        <v>1002200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1041000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>992900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2011900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1069900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1039900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1186800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>889700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>906300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>766900</v>
+        <v>780800</v>
       </c>
       <c r="E59" s="3">
-        <v>737100</v>
+        <v>764500</v>
       </c>
       <c r="F59" s="3">
-        <v>795700</v>
+        <v>749000</v>
       </c>
       <c r="G59" s="3">
-        <v>834800</v>
+        <v>808600</v>
       </c>
       <c r="H59" s="3">
-        <v>868500</v>
+        <v>848300</v>
       </c>
       <c r="I59" s="3">
-        <v>786700</v>
+        <v>882500</v>
       </c>
       <c r="J59" s="3">
+        <v>799400</v>
+      </c>
+      <c r="K59" s="3">
         <v>795000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>858300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>810600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>729400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>698800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>655700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>753700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>634400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2969500</v>
+        <v>3158400</v>
       </c>
       <c r="E60" s="3">
-        <v>3117700</v>
+        <v>3017500</v>
       </c>
       <c r="F60" s="3">
-        <v>2997100</v>
+        <v>3168000</v>
       </c>
       <c r="G60" s="3">
-        <v>3038900</v>
+        <v>3045500</v>
       </c>
       <c r="H60" s="3">
-        <v>3080800</v>
+        <v>3088000</v>
       </c>
       <c r="I60" s="3">
-        <v>2938300</v>
+        <v>3130500</v>
       </c>
       <c r="J60" s="3">
+        <v>2985700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3003400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2976100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2986200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2878200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2782600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2822400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2602100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2473700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1166600</v>
+        <v>1321600</v>
       </c>
       <c r="E61" s="3">
-        <v>1146500</v>
+        <v>1246400</v>
       </c>
       <c r="F61" s="3">
-        <v>1169400</v>
+        <v>1165000</v>
       </c>
       <c r="G61" s="3">
-        <v>1267200</v>
+        <v>1188300</v>
       </c>
       <c r="H61" s="3">
-        <v>1294100</v>
+        <v>1287700</v>
       </c>
       <c r="I61" s="3">
-        <v>1407400</v>
+        <v>1315000</v>
       </c>
       <c r="J61" s="3">
+        <v>1430100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1409800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1282300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1285700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1404900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1393400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1284400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1350300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1387100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>709400</v>
+        <v>711600</v>
       </c>
       <c r="E62" s="3">
-        <v>673700</v>
+        <v>659900</v>
       </c>
       <c r="F62" s="3">
-        <v>671700</v>
+        <v>684600</v>
       </c>
       <c r="G62" s="3">
-        <v>676000</v>
+        <v>682600</v>
       </c>
       <c r="H62" s="3">
-        <v>624200</v>
+        <v>686900</v>
       </c>
       <c r="I62" s="3">
-        <v>593800</v>
+        <v>634300</v>
       </c>
       <c r="J62" s="3">
+        <v>603400</v>
+      </c>
+      <c r="K62" s="3">
         <v>610100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>590600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>578600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>632000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>612200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>605000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>598500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>669800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5149800</v>
+        <v>5463300</v>
       </c>
       <c r="E66" s="3">
-        <v>5242300</v>
+        <v>5232900</v>
       </c>
       <c r="F66" s="3">
-        <v>5133900</v>
+        <v>5326900</v>
       </c>
       <c r="G66" s="3">
-        <v>5275400</v>
+        <v>5216800</v>
       </c>
       <c r="H66" s="3">
-        <v>5298700</v>
+        <v>5360600</v>
       </c>
       <c r="I66" s="3">
-        <v>5234200</v>
+        <v>5384200</v>
       </c>
       <c r="J66" s="3">
+        <v>5318700</v>
+      </c>
+      <c r="K66" s="3">
         <v>5331200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5151200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5171900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5232100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5098300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4997900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4820100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4780100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1533800</v>
+        <v>1572600</v>
       </c>
       <c r="E72" s="3">
-        <v>1439100</v>
+        <v>1558600</v>
       </c>
       <c r="F72" s="3">
-        <v>1426500</v>
+        <v>1462300</v>
       </c>
       <c r="G72" s="3">
-        <v>1391000</v>
+        <v>1449500</v>
       </c>
       <c r="H72" s="3">
-        <v>1409700</v>
+        <v>1413500</v>
       </c>
       <c r="I72" s="3">
-        <v>1312900</v>
+        <v>1432500</v>
       </c>
       <c r="J72" s="3">
+        <v>1334100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1231100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1145200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1158300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1164400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1096400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>962100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>922000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>935100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2232200</v>
+        <v>2280600</v>
       </c>
       <c r="E76" s="3">
-        <v>2321300</v>
+        <v>2268200</v>
       </c>
       <c r="F76" s="3">
-        <v>2279900</v>
+        <v>2358800</v>
       </c>
       <c r="G76" s="3">
-        <v>2266900</v>
+        <v>2316700</v>
       </c>
       <c r="H76" s="3">
-        <v>2300800</v>
+        <v>2303500</v>
       </c>
       <c r="I76" s="3">
-        <v>2256500</v>
+        <v>2337900</v>
       </c>
       <c r="J76" s="3">
+        <v>2292900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2245600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2124100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2138100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2197100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2059900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1881000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1833500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1743600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>94700</v>
+        <v>73900</v>
       </c>
       <c r="E81" s="3">
-        <v>12600</v>
+        <v>96200</v>
       </c>
       <c r="F81" s="3">
-        <v>35500</v>
+        <v>12800</v>
       </c>
       <c r="G81" s="3">
-        <v>21100</v>
+        <v>36000</v>
       </c>
       <c r="H81" s="3">
-        <v>96800</v>
+        <v>21400</v>
       </c>
       <c r="I81" s="3">
-        <v>82200</v>
+        <v>98400</v>
       </c>
       <c r="J81" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K81" s="3">
         <v>60700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>68100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>134300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>61800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>108400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>67100</v>
+        <v>75100</v>
       </c>
       <c r="E83" s="3">
-        <v>74500</v>
+        <v>68200</v>
       </c>
       <c r="F83" s="3">
-        <v>64200</v>
+        <v>75700</v>
       </c>
       <c r="G83" s="3">
-        <v>67600</v>
+        <v>65200</v>
       </c>
       <c r="H83" s="3">
-        <v>57000</v>
+        <v>68700</v>
       </c>
       <c r="I83" s="3">
-        <v>66100</v>
+        <v>57900</v>
       </c>
       <c r="J83" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K83" s="3">
         <v>58700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>55800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>60000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>53900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>57200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>49200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>55900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1666600</v>
+        <v>1709900</v>
       </c>
       <c r="E8" s="3">
-        <v>2249300</v>
+        <v>1696600</v>
       </c>
       <c r="F8" s="3">
-        <v>2085900</v>
+        <v>2289800</v>
       </c>
       <c r="G8" s="3">
-        <v>2161100</v>
+        <v>2123400</v>
       </c>
       <c r="H8" s="3">
-        <v>2136000</v>
+        <v>2200000</v>
       </c>
       <c r="I8" s="3">
-        <v>2387900</v>
+        <v>2174500</v>
       </c>
       <c r="J8" s="3">
+        <v>2430900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2371300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2291000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2189100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2386100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2222700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2102500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2033500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2114700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1839400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1405500</v>
+        <v>1448400</v>
       </c>
       <c r="E9" s="3">
-        <v>1882100</v>
+        <v>1430800</v>
       </c>
       <c r="F9" s="3">
-        <v>1734000</v>
+        <v>1916000</v>
       </c>
       <c r="G9" s="3">
-        <v>1802000</v>
+        <v>1765300</v>
       </c>
       <c r="H9" s="3">
-        <v>1796000</v>
+        <v>1834400</v>
       </c>
       <c r="I9" s="3">
-        <v>2002000</v>
+        <v>1828300</v>
       </c>
       <c r="J9" s="3">
+        <v>2038100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1933800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1917100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1828800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2011100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1840300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1727900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1665600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1714700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1490900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>261100</v>
+        <v>261500</v>
       </c>
       <c r="E10" s="3">
-        <v>367200</v>
+        <v>265800</v>
       </c>
       <c r="F10" s="3">
-        <v>351900</v>
+        <v>373800</v>
       </c>
       <c r="G10" s="3">
-        <v>359100</v>
+        <v>358200</v>
       </c>
       <c r="H10" s="3">
-        <v>340000</v>
+        <v>365600</v>
       </c>
       <c r="I10" s="3">
-        <v>385900</v>
+        <v>346200</v>
       </c>
       <c r="J10" s="3">
+        <v>392800</v>
+      </c>
+      <c r="K10" s="3">
         <v>437500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>373900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>360400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>375000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>382400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>374600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>367900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>348500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>43700</v>
+        <v>15800</v>
       </c>
       <c r="E14" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>13900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H14" s="3">
         <v>13700</v>
       </c>
-      <c r="F14" s="3">
-        <v>9100</v>
-      </c>
-      <c r="G14" s="3">
-        <v>13500</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6800</v>
-      </c>
       <c r="I14" s="3">
-        <v>39400</v>
+        <v>6900</v>
       </c>
       <c r="J14" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>106500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>142600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-45100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1722000</v>
+        <v>1745800</v>
       </c>
       <c r="E17" s="3">
-        <v>2184900</v>
+        <v>1753000</v>
       </c>
       <c r="F17" s="3">
-        <v>2052300</v>
+        <v>2224300</v>
       </c>
       <c r="G17" s="3">
-        <v>2119300</v>
+        <v>2089300</v>
       </c>
       <c r="H17" s="3">
-        <v>2096400</v>
+        <v>2157500</v>
       </c>
       <c r="I17" s="3">
-        <v>2331600</v>
+        <v>2134200</v>
       </c>
       <c r="J17" s="3">
+        <v>2373600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2244000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2208700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2114500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2388300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2141400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2002700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1941400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2125400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1701300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-55400</v>
+        <v>-35900</v>
       </c>
       <c r="E18" s="3">
-        <v>64400</v>
+        <v>-56400</v>
       </c>
       <c r="F18" s="3">
-        <v>33600</v>
+        <v>65600</v>
       </c>
       <c r="G18" s="3">
-        <v>41800</v>
+        <v>34200</v>
       </c>
       <c r="H18" s="3">
-        <v>39600</v>
+        <v>42600</v>
       </c>
       <c r="I18" s="3">
-        <v>56300</v>
+        <v>40300</v>
       </c>
       <c r="J18" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K18" s="3">
         <v>127300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>82300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>74600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>99800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>92100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>138000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>179400</v>
+        <v>-19200</v>
       </c>
       <c r="E20" s="3">
-        <v>93700</v>
+        <v>182600</v>
       </c>
       <c r="F20" s="3">
-        <v>19300</v>
+        <v>95400</v>
       </c>
       <c r="G20" s="3">
-        <v>27700</v>
+        <v>19700</v>
       </c>
       <c r="H20" s="3">
-        <v>11000</v>
+        <v>28200</v>
       </c>
       <c r="I20" s="3">
-        <v>10300</v>
+        <v>11200</v>
       </c>
       <c r="J20" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K20" s="3">
         <v>25200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>36300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>75200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>199100</v>
+        <v>20300</v>
       </c>
       <c r="E21" s="3">
-        <v>226300</v>
+        <v>202700</v>
       </c>
       <c r="F21" s="3">
-        <v>128600</v>
+        <v>230400</v>
       </c>
       <c r="G21" s="3">
-        <v>134700</v>
+        <v>130900</v>
       </c>
       <c r="H21" s="3">
-        <v>119300</v>
+        <v>137200</v>
       </c>
       <c r="I21" s="3">
-        <v>124600</v>
+        <v>121400</v>
       </c>
       <c r="J21" s="3">
+        <v>126800</v>
+      </c>
+      <c r="K21" s="3">
         <v>219700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>152600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>120100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>66900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>177600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>228900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>155400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>51500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>212000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8600</v>
+        <v>9300</v>
       </c>
       <c r="E22" s="3">
-        <v>9400</v>
+        <v>8700</v>
       </c>
       <c r="F22" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="G22" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="H22" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J22" s="3">
         <v>10400</v>
       </c>
-      <c r="I22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>9200</v>
       </c>
       <c r="O22" s="3">
         <v>9200</v>
       </c>
       <c r="P22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>8700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>115400</v>
+        <v>-64400</v>
       </c>
       <c r="E23" s="3">
+        <v>117500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>151300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>43400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>59900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>40900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>142400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>84800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>50700</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>108400</v>
+      </c>
+      <c r="P23" s="3">
+        <v>165800</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>89500</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="S23" s="3">
         <v>148700</v>
       </c>
-      <c r="F23" s="3">
-        <v>42600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>58800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>40200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>56400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>142400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>84800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>50700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>108400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>165800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>89500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>148700</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38000</v>
+        <v>-6400</v>
       </c>
       <c r="E24" s="3">
-        <v>47800</v>
+        <v>38700</v>
       </c>
       <c r="F24" s="3">
-        <v>23200</v>
+        <v>48600</v>
       </c>
       <c r="G24" s="3">
-        <v>19200</v>
+        <v>23600</v>
       </c>
       <c r="H24" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>16600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>29400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>24400</v>
+      </c>
+      <c r="Q24" s="3">
         <v>20700</v>
       </c>
-      <c r="I24" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>49000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>16600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>14000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>29400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>24400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>20700</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-8200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>77400</v>
+        <v>-58000</v>
       </c>
       <c r="E26" s="3">
-        <v>100900</v>
+        <v>78800</v>
       </c>
       <c r="F26" s="3">
-        <v>19400</v>
+        <v>102700</v>
       </c>
       <c r="G26" s="3">
-        <v>39600</v>
+        <v>19800</v>
       </c>
       <c r="H26" s="3">
-        <v>19400</v>
+        <v>40300</v>
       </c>
       <c r="I26" s="3">
-        <v>105500</v>
+        <v>19800</v>
       </c>
       <c r="J26" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K26" s="3">
         <v>93400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>68200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>79000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>141400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>68700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>118000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73900</v>
+        <v>-60200</v>
       </c>
       <c r="E27" s="3">
-        <v>96200</v>
+        <v>75200</v>
       </c>
       <c r="F27" s="3">
-        <v>12800</v>
+        <v>97900</v>
       </c>
       <c r="G27" s="3">
-        <v>36000</v>
+        <v>13100</v>
       </c>
       <c r="H27" s="3">
-        <v>21400</v>
+        <v>36700</v>
       </c>
       <c r="I27" s="3">
-        <v>98400</v>
+        <v>21800</v>
       </c>
       <c r="J27" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K27" s="3">
         <v>83500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>68100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>134300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>61800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>108400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-179400</v>
+        <v>19200</v>
       </c>
       <c r="E32" s="3">
-        <v>-93700</v>
+        <v>-182600</v>
       </c>
       <c r="F32" s="3">
-        <v>-19300</v>
+        <v>-95400</v>
       </c>
       <c r="G32" s="3">
-        <v>-27700</v>
+        <v>-19700</v>
       </c>
       <c r="H32" s="3">
-        <v>-11000</v>
+        <v>-28200</v>
       </c>
       <c r="I32" s="3">
-        <v>-10300</v>
+        <v>-11200</v>
       </c>
       <c r="J32" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-25200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-36300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-75200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73900</v>
+        <v>-60200</v>
       </c>
       <c r="E33" s="3">
-        <v>96200</v>
+        <v>75200</v>
       </c>
       <c r="F33" s="3">
-        <v>12800</v>
+        <v>97900</v>
       </c>
       <c r="G33" s="3">
-        <v>36000</v>
+        <v>13100</v>
       </c>
       <c r="H33" s="3">
-        <v>21400</v>
+        <v>36700</v>
       </c>
       <c r="I33" s="3">
-        <v>98400</v>
+        <v>21800</v>
       </c>
       <c r="J33" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K33" s="3">
         <v>83500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>68100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>134300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>61800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>108400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73900</v>
+        <v>-60200</v>
       </c>
       <c r="E35" s="3">
-        <v>96200</v>
+        <v>75200</v>
       </c>
       <c r="F35" s="3">
-        <v>12800</v>
+        <v>97900</v>
       </c>
       <c r="G35" s="3">
-        <v>36000</v>
+        <v>13100</v>
       </c>
       <c r="H35" s="3">
-        <v>21400</v>
+        <v>36700</v>
       </c>
       <c r="I35" s="3">
-        <v>98400</v>
+        <v>21800</v>
       </c>
       <c r="J35" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K35" s="3">
         <v>83500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>68100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>134300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>61800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>108400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,84 +2313,88 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1064800</v>
+        <v>785900</v>
       </c>
       <c r="E41" s="3">
-        <v>513100</v>
+        <v>1083900</v>
       </c>
       <c r="F41" s="3">
-        <v>358800</v>
+        <v>522400</v>
       </c>
       <c r="G41" s="3">
-        <v>378400</v>
+        <v>365200</v>
       </c>
       <c r="H41" s="3">
-        <v>407300</v>
+        <v>385200</v>
       </c>
       <c r="I41" s="3">
-        <v>421300</v>
+        <v>414700</v>
       </c>
       <c r="J41" s="3">
+        <v>428900</v>
+      </c>
+      <c r="K41" s="3">
         <v>442600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>445400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>374100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>457700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>471100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>479700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>390800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>418400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>496400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15400</v>
+        <v>20400</v>
       </c>
       <c r="E42" s="3">
-        <v>8500</v>
+        <v>15700</v>
       </c>
       <c r="F42" s="3">
-        <v>14700</v>
+        <v>8600</v>
       </c>
       <c r="G42" s="3">
-        <v>9600</v>
+        <v>14900</v>
       </c>
       <c r="H42" s="3">
-        <v>7600</v>
+        <v>9800</v>
       </c>
       <c r="I42" s="3">
-        <v>22400</v>
+        <v>7700</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>22800</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2316,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3">
         <v>300</v>
@@ -2325,387 +2415,411 @@
         <v>300</v>
       </c>
       <c r="Q42" s="3">
+        <v>300</v>
+      </c>
+      <c r="R42" s="3">
         <v>500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1478500</v>
+        <v>1506200</v>
       </c>
       <c r="E43" s="3">
-        <v>1805500</v>
+        <v>1505100</v>
       </c>
       <c r="F43" s="3">
-        <v>1867300</v>
+        <v>1838000</v>
       </c>
       <c r="G43" s="3">
-        <v>1822600</v>
+        <v>1901000</v>
       </c>
       <c r="H43" s="3">
-        <v>1916700</v>
+        <v>1855500</v>
       </c>
       <c r="I43" s="3">
-        <v>2060300</v>
+        <v>1951200</v>
       </c>
       <c r="J43" s="3">
+        <v>2097400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2044600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2030100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1984900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2017000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2008900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1887000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1815800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1753000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1623600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1154000</v>
+        <v>1137500</v>
       </c>
       <c r="E44" s="3">
-        <v>1093700</v>
+        <v>1174700</v>
       </c>
       <c r="F44" s="3">
-        <v>1250300</v>
+        <v>1113400</v>
       </c>
       <c r="G44" s="3">
-        <v>1181900</v>
+        <v>1272800</v>
       </c>
       <c r="H44" s="3">
-        <v>1219300</v>
+        <v>1203200</v>
       </c>
       <c r="I44" s="3">
-        <v>1160100</v>
+        <v>1241200</v>
       </c>
       <c r="J44" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1242300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1166900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1121800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1028700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1110200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1068000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1019900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>925600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>931400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>275000</v>
+        <v>252000</v>
       </c>
       <c r="E45" s="3">
-        <v>224700</v>
+        <v>279900</v>
       </c>
       <c r="F45" s="3">
-        <v>259800</v>
+        <v>228700</v>
       </c>
       <c r="G45" s="3">
-        <v>251700</v>
+        <v>264500</v>
       </c>
       <c r="H45" s="3">
-        <v>270500</v>
+        <v>256300</v>
       </c>
       <c r="I45" s="3">
-        <v>305600</v>
+        <v>275400</v>
       </c>
       <c r="J45" s="3">
+        <v>311100</v>
+      </c>
+      <c r="K45" s="3">
         <v>260100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>243600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>229600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>348700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>316300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>301900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>294400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>325300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3987700</v>
+        <v>3702000</v>
       </c>
       <c r="E46" s="3">
-        <v>3645500</v>
+        <v>4059500</v>
       </c>
       <c r="F46" s="3">
-        <v>3750900</v>
+        <v>3711200</v>
       </c>
       <c r="G46" s="3">
-        <v>3644200</v>
+        <v>3818400</v>
       </c>
       <c r="H46" s="3">
-        <v>3821400</v>
+        <v>3709800</v>
       </c>
       <c r="I46" s="3">
-        <v>3969600</v>
+        <v>3890200</v>
       </c>
       <c r="J46" s="3">
+        <v>4041100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3989700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3885900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3710500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3762400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3906800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3736800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3527600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3391900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3377000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>927700</v>
+        <v>955200</v>
       </c>
       <c r="E47" s="3">
-        <v>1003800</v>
+        <v>944400</v>
       </c>
       <c r="F47" s="3">
-        <v>1129700</v>
+        <v>1021900</v>
       </c>
       <c r="G47" s="3">
-        <v>1095100</v>
+        <v>1150100</v>
       </c>
       <c r="H47" s="3">
-        <v>1095100</v>
+        <v>1114900</v>
       </c>
       <c r="I47" s="3">
-        <v>1172600</v>
+        <v>1114800</v>
       </c>
       <c r="J47" s="3">
+        <v>1193700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1158400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1237500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1200800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1239600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1221900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1137400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1096400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1162400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1059900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2345000</v>
+        <v>2397900</v>
       </c>
       <c r="E48" s="3">
-        <v>2399800</v>
+        <v>2387200</v>
       </c>
       <c r="F48" s="3">
-        <v>2356700</v>
+        <v>2443000</v>
       </c>
       <c r="G48" s="3">
-        <v>2318800</v>
+        <v>2399100</v>
       </c>
       <c r="H48" s="3">
-        <v>2281500</v>
+        <v>2360600</v>
       </c>
       <c r="I48" s="3">
-        <v>2165200</v>
+        <v>2322500</v>
       </c>
       <c r="J48" s="3">
+        <v>2204100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2093800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2081600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1996800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1959200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1941700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1933000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1907300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1822700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1766700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>162600</v>
+        <v>180700</v>
       </c>
       <c r="E49" s="3">
-        <v>151900</v>
+        <v>165500</v>
       </c>
       <c r="F49" s="3">
-        <v>132800</v>
+        <v>154700</v>
       </c>
       <c r="G49" s="3">
-        <v>126300</v>
+        <v>135200</v>
       </c>
       <c r="H49" s="3">
-        <v>117100</v>
+        <v>128500</v>
       </c>
       <c r="I49" s="3">
-        <v>115200</v>
+        <v>119200</v>
       </c>
       <c r="J49" s="3">
+        <v>117300</v>
+      </c>
+      <c r="K49" s="3">
         <v>95900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>92400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>90600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>102200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>96900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>87500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>86800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>86400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>79700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>321000</v>
+        <v>321800</v>
       </c>
       <c r="E52" s="3">
-        <v>300100</v>
+        <v>326800</v>
       </c>
       <c r="F52" s="3">
-        <v>315600</v>
+        <v>305500</v>
       </c>
       <c r="G52" s="3">
-        <v>349100</v>
+        <v>321300</v>
       </c>
       <c r="H52" s="3">
-        <v>349100</v>
+        <v>355400</v>
       </c>
       <c r="I52" s="3">
-        <v>299500</v>
+        <v>355300</v>
       </c>
       <c r="J52" s="3">
+        <v>304900</v>
+      </c>
+      <c r="K52" s="3">
         <v>273800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>279400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>276600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>301500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>261900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>263500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>260800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>190200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>240400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7744000</v>
+        <v>7557500</v>
       </c>
       <c r="E54" s="3">
-        <v>7501200</v>
+        <v>7883400</v>
       </c>
       <c r="F54" s="3">
-        <v>7685700</v>
+        <v>7636300</v>
       </c>
       <c r="G54" s="3">
-        <v>7533500</v>
+        <v>7824100</v>
       </c>
       <c r="H54" s="3">
-        <v>7664100</v>
+        <v>7669200</v>
       </c>
       <c r="I54" s="3">
-        <v>7722100</v>
+        <v>7802100</v>
       </c>
       <c r="J54" s="3">
+        <v>7861200</v>
+      </c>
+      <c r="K54" s="3">
         <v>7611600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7576800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7275300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7310000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7429200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7158200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6878900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6653600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6523700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>903900</v>
+        <v>890200</v>
       </c>
       <c r="E57" s="3">
-        <v>1053400</v>
+        <v>920100</v>
       </c>
       <c r="F57" s="3">
-        <v>1118300</v>
+        <v>1072300</v>
       </c>
       <c r="G57" s="3">
-        <v>1062800</v>
+        <v>1138400</v>
       </c>
       <c r="H57" s="3">
-        <v>1149600</v>
+        <v>1082000</v>
       </c>
       <c r="I57" s="3">
-        <v>1240600</v>
+        <v>1170300</v>
       </c>
       <c r="J57" s="3">
+        <v>1263000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1184200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1167500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1124900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1124500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1078800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1043900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>979900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>958700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>933000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1473700</v>
+        <v>1490400</v>
       </c>
       <c r="E58" s="3">
-        <v>1199600</v>
+        <v>1500200</v>
       </c>
       <c r="F58" s="3">
-        <v>1300700</v>
+        <v>1221200</v>
       </c>
       <c r="G58" s="3">
-        <v>1174100</v>
+        <v>1324100</v>
       </c>
       <c r="H58" s="3">
-        <v>1090100</v>
+        <v>1195200</v>
       </c>
       <c r="I58" s="3">
-        <v>1007300</v>
+        <v>1109700</v>
       </c>
       <c r="J58" s="3">
+        <v>1025500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1002200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1041000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>992900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2011900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1069900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1039900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1186800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>889700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>906300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>780800</v>
+        <v>602400</v>
       </c>
       <c r="E59" s="3">
-        <v>764500</v>
+        <v>794900</v>
       </c>
       <c r="F59" s="3">
-        <v>749000</v>
+        <v>778300</v>
       </c>
       <c r="G59" s="3">
-        <v>808600</v>
+        <v>762500</v>
       </c>
       <c r="H59" s="3">
-        <v>848300</v>
+        <v>823100</v>
       </c>
       <c r="I59" s="3">
-        <v>882500</v>
+        <v>863600</v>
       </c>
       <c r="J59" s="3">
+        <v>898400</v>
+      </c>
+      <c r="K59" s="3">
         <v>799400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>795000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>858300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>810600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>729400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>698800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>655700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>753700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>634400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3158400</v>
+        <v>2983000</v>
       </c>
       <c r="E60" s="3">
-        <v>3017500</v>
+        <v>3215200</v>
       </c>
       <c r="F60" s="3">
-        <v>3168000</v>
+        <v>3071800</v>
       </c>
       <c r="G60" s="3">
-        <v>3045500</v>
+        <v>3225100</v>
       </c>
       <c r="H60" s="3">
-        <v>3088000</v>
+        <v>3100300</v>
       </c>
       <c r="I60" s="3">
-        <v>3130500</v>
+        <v>3143600</v>
       </c>
       <c r="J60" s="3">
+        <v>3186900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2985700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3003400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2976100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2986200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2878200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2782600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2822400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2602100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2473700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1321600</v>
+        <v>1272300</v>
       </c>
       <c r="E61" s="3">
-        <v>1246400</v>
+        <v>1345400</v>
       </c>
       <c r="F61" s="3">
-        <v>1165000</v>
+        <v>1268800</v>
       </c>
       <c r="G61" s="3">
-        <v>1188300</v>
+        <v>1186000</v>
       </c>
       <c r="H61" s="3">
-        <v>1287700</v>
+        <v>1209600</v>
       </c>
       <c r="I61" s="3">
-        <v>1315000</v>
+        <v>1310900</v>
       </c>
       <c r="J61" s="3">
+        <v>1338700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1430100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1409800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1282300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1285700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1404900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1393400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1284400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1350300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1387100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>711600</v>
+        <v>731700</v>
       </c>
       <c r="E62" s="3">
-        <v>659900</v>
+        <v>724400</v>
       </c>
       <c r="F62" s="3">
-        <v>684600</v>
+        <v>671800</v>
       </c>
       <c r="G62" s="3">
-        <v>682600</v>
+        <v>696900</v>
       </c>
       <c r="H62" s="3">
-        <v>686900</v>
+        <v>694900</v>
       </c>
       <c r="I62" s="3">
-        <v>634300</v>
+        <v>699300</v>
       </c>
       <c r="J62" s="3">
+        <v>645700</v>
+      </c>
+      <c r="K62" s="3">
         <v>603400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>610100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>590600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>578600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>632000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>612200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>605000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>598500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>669800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5463300</v>
+        <v>5270100</v>
       </c>
       <c r="E66" s="3">
-        <v>5232900</v>
+        <v>5561700</v>
       </c>
       <c r="F66" s="3">
-        <v>5326900</v>
+        <v>5327200</v>
       </c>
       <c r="G66" s="3">
-        <v>5216800</v>
+        <v>5422800</v>
       </c>
       <c r="H66" s="3">
-        <v>5360600</v>
+        <v>5310700</v>
       </c>
       <c r="I66" s="3">
-        <v>5384200</v>
+        <v>5457200</v>
       </c>
       <c r="J66" s="3">
+        <v>5481200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5318700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5331200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5151200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5171900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5232100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5098300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4997900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4820100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4780100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1572600</v>
+        <v>1540800</v>
       </c>
       <c r="E72" s="3">
-        <v>1558600</v>
+        <v>1600900</v>
       </c>
       <c r="F72" s="3">
-        <v>1462300</v>
+        <v>1586600</v>
       </c>
       <c r="G72" s="3">
-        <v>1449500</v>
+        <v>1488700</v>
       </c>
       <c r="H72" s="3">
-        <v>1413500</v>
+        <v>1475600</v>
       </c>
       <c r="I72" s="3">
-        <v>1432500</v>
+        <v>1438900</v>
       </c>
       <c r="J72" s="3">
+        <v>1458300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1334100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1231100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1145200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1158300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1164400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1096400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>962100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>922000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>935100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2280600</v>
+        <v>2287400</v>
       </c>
       <c r="E76" s="3">
-        <v>2268200</v>
+        <v>2321700</v>
       </c>
       <c r="F76" s="3">
-        <v>2358800</v>
+        <v>2309100</v>
       </c>
       <c r="G76" s="3">
-        <v>2316700</v>
+        <v>2401300</v>
       </c>
       <c r="H76" s="3">
-        <v>2303500</v>
+        <v>2358400</v>
       </c>
       <c r="I76" s="3">
-        <v>2337900</v>
+        <v>2344900</v>
       </c>
       <c r="J76" s="3">
+        <v>2380000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2292900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2245600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2124100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2138100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2197100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2059900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1881000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1833500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1743600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73900</v>
+        <v>-60200</v>
       </c>
       <c r="E81" s="3">
-        <v>96200</v>
+        <v>75200</v>
       </c>
       <c r="F81" s="3">
-        <v>12800</v>
+        <v>97900</v>
       </c>
       <c r="G81" s="3">
-        <v>36000</v>
+        <v>13100</v>
       </c>
       <c r="H81" s="3">
-        <v>21400</v>
+        <v>36700</v>
       </c>
       <c r="I81" s="3">
-        <v>98400</v>
+        <v>21800</v>
       </c>
       <c r="J81" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K81" s="3">
         <v>83500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>68100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>134300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>61800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>108400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>75100</v>
+        <v>75500</v>
       </c>
       <c r="E83" s="3">
-        <v>68200</v>
+        <v>76500</v>
       </c>
       <c r="F83" s="3">
-        <v>75700</v>
+        <v>69400</v>
       </c>
       <c r="G83" s="3">
-        <v>65200</v>
+        <v>77100</v>
       </c>
       <c r="H83" s="3">
-        <v>68700</v>
+        <v>66400</v>
       </c>
       <c r="I83" s="3">
-        <v>57900</v>
+        <v>69900</v>
       </c>
       <c r="J83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K83" s="3">
         <v>67200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>55800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>60000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>53900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>57200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>49200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>55900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1709900</v>
+        <v>1910400</v>
       </c>
       <c r="E8" s="3">
-        <v>1696600</v>
+        <v>1629800</v>
       </c>
       <c r="F8" s="3">
-        <v>2289800</v>
+        <v>1617100</v>
       </c>
       <c r="G8" s="3">
-        <v>2123400</v>
+        <v>2182600</v>
       </c>
       <c r="H8" s="3">
-        <v>2200000</v>
+        <v>2024000</v>
       </c>
       <c r="I8" s="3">
-        <v>2174500</v>
+        <v>2097000</v>
       </c>
       <c r="J8" s="3">
+        <v>2072600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2430900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2371300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2291000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2189100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2386100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2222700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2102500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2033500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2114700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1839400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1448400</v>
+        <v>1596900</v>
       </c>
       <c r="E9" s="3">
-        <v>1430800</v>
+        <v>1380600</v>
       </c>
       <c r="F9" s="3">
-        <v>1916000</v>
+        <v>1363800</v>
       </c>
       <c r="G9" s="3">
-        <v>1765300</v>
+        <v>1826300</v>
       </c>
       <c r="H9" s="3">
-        <v>1834400</v>
+        <v>1682600</v>
       </c>
       <c r="I9" s="3">
-        <v>1828300</v>
+        <v>1748500</v>
       </c>
       <c r="J9" s="3">
+        <v>1742700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2038100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1933800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1917100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1828800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2011100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1840300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1727900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1665600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1714700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1490900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>261500</v>
+        <v>313500</v>
       </c>
       <c r="E10" s="3">
-        <v>265800</v>
+        <v>249200</v>
       </c>
       <c r="F10" s="3">
-        <v>373800</v>
+        <v>253300</v>
       </c>
       <c r="G10" s="3">
-        <v>358200</v>
+        <v>356300</v>
       </c>
       <c r="H10" s="3">
-        <v>365600</v>
+        <v>341400</v>
       </c>
       <c r="I10" s="3">
-        <v>346200</v>
+        <v>348500</v>
       </c>
       <c r="J10" s="3">
+        <v>330000</v>
+      </c>
+      <c r="K10" s="3">
         <v>392800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>437500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>373900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>360400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>375000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>382400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>374600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>367900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>348500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15800</v>
+        <v>7800</v>
       </c>
       <c r="E14" s="3">
-        <v>44500</v>
+        <v>15000</v>
       </c>
       <c r="F14" s="3">
-        <v>13900</v>
+        <v>42400</v>
       </c>
       <c r="G14" s="3">
-        <v>9300</v>
+        <v>13300</v>
       </c>
       <c r="H14" s="3">
-        <v>13700</v>
+        <v>8900</v>
       </c>
       <c r="I14" s="3">
-        <v>6900</v>
+        <v>13100</v>
       </c>
       <c r="J14" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K14" s="3">
         <v>40100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>106500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>142600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-45100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1745800</v>
+        <v>1894100</v>
       </c>
       <c r="E17" s="3">
-        <v>1753000</v>
+        <v>1664100</v>
       </c>
       <c r="F17" s="3">
-        <v>2224300</v>
+        <v>1670900</v>
       </c>
       <c r="G17" s="3">
-        <v>2089300</v>
+        <v>2120100</v>
       </c>
       <c r="H17" s="3">
-        <v>2157500</v>
+        <v>1991400</v>
       </c>
       <c r="I17" s="3">
-        <v>2134200</v>
+        <v>2056400</v>
       </c>
       <c r="J17" s="3">
+        <v>2034200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2373600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2244000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2208700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2114500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2388300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2141400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2002700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1941400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2125400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1701300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-35900</v>
+        <v>16300</v>
       </c>
       <c r="E18" s="3">
-        <v>-56400</v>
+        <v>-34200</v>
       </c>
       <c r="F18" s="3">
-        <v>65600</v>
+        <v>-53800</v>
       </c>
       <c r="G18" s="3">
-        <v>34200</v>
+        <v>62500</v>
       </c>
       <c r="H18" s="3">
-        <v>42600</v>
+        <v>32600</v>
       </c>
       <c r="I18" s="3">
-        <v>40300</v>
+        <v>40600</v>
       </c>
       <c r="J18" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K18" s="3">
         <v>57300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>127300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>82300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>99800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>92100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>138000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-19200</v>
+        <v>1800</v>
       </c>
       <c r="E20" s="3">
-        <v>182600</v>
+        <v>-18300</v>
       </c>
       <c r="F20" s="3">
-        <v>95400</v>
+        <v>174100</v>
       </c>
       <c r="G20" s="3">
-        <v>19700</v>
+        <v>90900</v>
       </c>
       <c r="H20" s="3">
-        <v>28200</v>
+        <v>18800</v>
       </c>
       <c r="I20" s="3">
-        <v>11200</v>
+        <v>26900</v>
       </c>
       <c r="J20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K20" s="3">
         <v>10500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>13300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>36300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>75200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>13000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>20300</v>
+        <v>97700</v>
       </c>
       <c r="E21" s="3">
-        <v>202700</v>
+        <v>19400</v>
       </c>
       <c r="F21" s="3">
-        <v>230400</v>
+        <v>193200</v>
       </c>
       <c r="G21" s="3">
-        <v>130900</v>
+        <v>219600</v>
       </c>
       <c r="H21" s="3">
-        <v>137200</v>
+        <v>124800</v>
       </c>
       <c r="I21" s="3">
-        <v>121400</v>
+        <v>130700</v>
       </c>
       <c r="J21" s="3">
+        <v>115700</v>
+      </c>
+      <c r="K21" s="3">
         <v>126800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>219700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>152600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>120100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>66900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>177600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>228900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>155400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>51500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>212000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9300</v>
+        <v>7800</v>
       </c>
       <c r="E22" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="F22" s="3">
-        <v>9600</v>
+        <v>8300</v>
       </c>
       <c r="G22" s="3">
-        <v>10500</v>
+        <v>9100</v>
       </c>
       <c r="H22" s="3">
-        <v>10900</v>
+        <v>10000</v>
       </c>
       <c r="I22" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="J22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K22" s="3">
         <v>10400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>9200</v>
       </c>
       <c r="P22" s="3">
         <v>9200</v>
       </c>
       <c r="Q22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="R22" s="3">
         <v>8700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-64400</v>
+        <v>10300</v>
       </c>
       <c r="E23" s="3">
-        <v>117500</v>
+        <v>-61400</v>
       </c>
       <c r="F23" s="3">
-        <v>151300</v>
+        <v>112000</v>
       </c>
       <c r="G23" s="3">
-        <v>43400</v>
+        <v>144300</v>
       </c>
       <c r="H23" s="3">
-        <v>59900</v>
+        <v>41400</v>
       </c>
       <c r="I23" s="3">
-        <v>40900</v>
+        <v>57100</v>
       </c>
       <c r="J23" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K23" s="3">
         <v>57400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>142400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>84800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>50700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>108400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>165800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>89500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>148700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6400</v>
+        <v>11500</v>
       </c>
       <c r="E24" s="3">
-        <v>38700</v>
+        <v>-6100</v>
       </c>
       <c r="F24" s="3">
-        <v>48600</v>
+        <v>36900</v>
       </c>
       <c r="G24" s="3">
-        <v>23600</v>
+        <v>46300</v>
       </c>
       <c r="H24" s="3">
-        <v>19600</v>
+        <v>22500</v>
       </c>
       <c r="I24" s="3">
-        <v>21100</v>
+        <v>18700</v>
       </c>
       <c r="J24" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-50000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>49000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>29400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-8200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-58000</v>
+        <v>-1200</v>
       </c>
       <c r="E26" s="3">
-        <v>78800</v>
+        <v>-55200</v>
       </c>
       <c r="F26" s="3">
-        <v>102700</v>
+        <v>75100</v>
       </c>
       <c r="G26" s="3">
-        <v>19800</v>
+        <v>97900</v>
       </c>
       <c r="H26" s="3">
-        <v>40300</v>
+        <v>18800</v>
       </c>
       <c r="I26" s="3">
-        <v>19800</v>
+        <v>38400</v>
       </c>
       <c r="J26" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K26" s="3">
         <v>107400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>93400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>68200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>79000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>141400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>68700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>118000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-60200</v>
+        <v>-10100</v>
       </c>
       <c r="E27" s="3">
-        <v>75200</v>
+        <v>-57300</v>
       </c>
       <c r="F27" s="3">
-        <v>97900</v>
+        <v>71700</v>
       </c>
       <c r="G27" s="3">
-        <v>13100</v>
+        <v>93400</v>
       </c>
       <c r="H27" s="3">
-        <v>36700</v>
+        <v>12400</v>
       </c>
       <c r="I27" s="3">
-        <v>21800</v>
+        <v>35000</v>
       </c>
       <c r="J27" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K27" s="3">
         <v>100200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>83500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>68100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>134300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>61800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>108400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>19200</v>
+        <v>-1800</v>
       </c>
       <c r="E32" s="3">
-        <v>-182600</v>
+        <v>18300</v>
       </c>
       <c r="F32" s="3">
-        <v>-95400</v>
+        <v>-174100</v>
       </c>
       <c r="G32" s="3">
-        <v>-19700</v>
+        <v>-90900</v>
       </c>
       <c r="H32" s="3">
-        <v>-28200</v>
+        <v>-18800</v>
       </c>
       <c r="I32" s="3">
-        <v>-11200</v>
+        <v>-26900</v>
       </c>
       <c r="J32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-13300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-36300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-75200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-13000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-60200</v>
+        <v>-10100</v>
       </c>
       <c r="E33" s="3">
-        <v>75200</v>
+        <v>-57300</v>
       </c>
       <c r="F33" s="3">
-        <v>97900</v>
+        <v>71700</v>
       </c>
       <c r="G33" s="3">
-        <v>13100</v>
+        <v>93400</v>
       </c>
       <c r="H33" s="3">
-        <v>36700</v>
+        <v>12400</v>
       </c>
       <c r="I33" s="3">
-        <v>21800</v>
+        <v>35000</v>
       </c>
       <c r="J33" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K33" s="3">
         <v>100200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>83500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>68100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>134300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>61800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>108400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-60200</v>
+        <v>-10100</v>
       </c>
       <c r="E35" s="3">
-        <v>75200</v>
+        <v>-57300</v>
       </c>
       <c r="F35" s="3">
-        <v>97900</v>
+        <v>71700</v>
       </c>
       <c r="G35" s="3">
-        <v>13100</v>
+        <v>93400</v>
       </c>
       <c r="H35" s="3">
-        <v>36700</v>
+        <v>12400</v>
       </c>
       <c r="I35" s="3">
-        <v>21800</v>
+        <v>35000</v>
       </c>
       <c r="J35" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K35" s="3">
         <v>100200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>83500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>68100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>134300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>61800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>108400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,91 +2399,95 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>785900</v>
+        <v>698800</v>
       </c>
       <c r="E41" s="3">
-        <v>1083900</v>
+        <v>749100</v>
       </c>
       <c r="F41" s="3">
-        <v>522400</v>
+        <v>1033200</v>
       </c>
       <c r="G41" s="3">
-        <v>365200</v>
+        <v>497900</v>
       </c>
       <c r="H41" s="3">
-        <v>385200</v>
+        <v>348100</v>
       </c>
       <c r="I41" s="3">
-        <v>414700</v>
+        <v>367100</v>
       </c>
       <c r="J41" s="3">
+        <v>395300</v>
+      </c>
+      <c r="K41" s="3">
         <v>428900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>442600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>445400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>374100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>457700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>471100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>479700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>390800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>418400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>496400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20400</v>
+        <v>21400</v>
       </c>
       <c r="E42" s="3">
-        <v>15700</v>
+        <v>19500</v>
       </c>
       <c r="F42" s="3">
-        <v>8600</v>
+        <v>15000</v>
       </c>
       <c r="G42" s="3">
-        <v>14900</v>
+        <v>8200</v>
       </c>
       <c r="H42" s="3">
-        <v>9800</v>
+        <v>14200</v>
       </c>
       <c r="I42" s="3">
-        <v>7700</v>
+        <v>9300</v>
       </c>
       <c r="J42" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K42" s="3">
         <v>22800</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
@@ -2409,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3">
         <v>300</v>
@@ -2418,408 +2507,432 @@
         <v>300</v>
       </c>
       <c r="R42" s="3">
+        <v>300</v>
+      </c>
+      <c r="S42" s="3">
         <v>500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1506200</v>
+        <v>1623700</v>
       </c>
       <c r="E43" s="3">
-        <v>1505100</v>
+        <v>1435700</v>
       </c>
       <c r="F43" s="3">
-        <v>1838000</v>
+        <v>1434700</v>
       </c>
       <c r="G43" s="3">
-        <v>1901000</v>
+        <v>1751900</v>
       </c>
       <c r="H43" s="3">
-        <v>1855500</v>
+        <v>1811900</v>
       </c>
       <c r="I43" s="3">
-        <v>1951200</v>
+        <v>1768600</v>
       </c>
       <c r="J43" s="3">
+        <v>1859900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2097400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2044600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2030100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1984900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2017000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2008900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1887000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1815800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1753000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1623600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1137500</v>
+        <v>1104200</v>
       </c>
       <c r="E44" s="3">
-        <v>1174700</v>
+        <v>1084200</v>
       </c>
       <c r="F44" s="3">
-        <v>1113400</v>
+        <v>1119700</v>
       </c>
       <c r="G44" s="3">
-        <v>1272800</v>
+        <v>1061300</v>
       </c>
       <c r="H44" s="3">
-        <v>1203200</v>
+        <v>1213200</v>
       </c>
       <c r="I44" s="3">
-        <v>1241200</v>
+        <v>1146800</v>
       </c>
       <c r="J44" s="3">
+        <v>1183100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1181000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1242300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1166900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1121800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1028700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1110200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1068000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1019900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>925600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>931400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>252000</v>
+        <v>280100</v>
       </c>
       <c r="E45" s="3">
-        <v>279900</v>
+        <v>240200</v>
       </c>
       <c r="F45" s="3">
-        <v>228700</v>
+        <v>266800</v>
       </c>
       <c r="G45" s="3">
-        <v>264500</v>
+        <v>218000</v>
       </c>
       <c r="H45" s="3">
-        <v>256300</v>
+        <v>252100</v>
       </c>
       <c r="I45" s="3">
-        <v>275400</v>
+        <v>244300</v>
       </c>
       <c r="J45" s="3">
+        <v>262500</v>
+      </c>
+      <c r="K45" s="3">
         <v>311100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>260100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>243600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>229600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>348700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>316300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>301900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>294400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>325300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3702000</v>
+        <v>3728300</v>
       </c>
       <c r="E46" s="3">
-        <v>4059500</v>
+        <v>3528600</v>
       </c>
       <c r="F46" s="3">
-        <v>3711200</v>
+        <v>3869400</v>
       </c>
       <c r="G46" s="3">
-        <v>3818400</v>
+        <v>3537400</v>
       </c>
       <c r="H46" s="3">
-        <v>3709800</v>
+        <v>3639600</v>
       </c>
       <c r="I46" s="3">
-        <v>3890200</v>
+        <v>3536100</v>
       </c>
       <c r="J46" s="3">
+        <v>3708100</v>
+      </c>
+      <c r="K46" s="3">
         <v>4041100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3989700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3885900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3710500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3762400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3906800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3736800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3527600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3391900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3377000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>955200</v>
+        <v>986500</v>
       </c>
       <c r="E47" s="3">
-        <v>944400</v>
+        <v>910400</v>
       </c>
       <c r="F47" s="3">
-        <v>1021900</v>
+        <v>900200</v>
       </c>
       <c r="G47" s="3">
-        <v>1150100</v>
+        <v>974000</v>
       </c>
       <c r="H47" s="3">
-        <v>1114900</v>
+        <v>1096200</v>
       </c>
       <c r="I47" s="3">
-        <v>1114800</v>
+        <v>1062700</v>
       </c>
       <c r="J47" s="3">
+        <v>1062600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1193700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1158400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1237500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1200800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1239600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1221900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1137400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1096400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1162400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1059900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2397900</v>
+        <v>2233000</v>
       </c>
       <c r="E48" s="3">
-        <v>2387200</v>
+        <v>2285600</v>
       </c>
       <c r="F48" s="3">
-        <v>2443000</v>
+        <v>2275400</v>
       </c>
       <c r="G48" s="3">
-        <v>2399100</v>
+        <v>2328600</v>
       </c>
       <c r="H48" s="3">
-        <v>2360600</v>
+        <v>2286800</v>
       </c>
       <c r="I48" s="3">
-        <v>2322500</v>
+        <v>2250000</v>
       </c>
       <c r="J48" s="3">
+        <v>2213800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2204100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2093800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2081600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1996800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1959200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1941700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1933000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1907300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1822700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1766700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>180700</v>
+        <v>177800</v>
       </c>
       <c r="E49" s="3">
-        <v>165500</v>
+        <v>172200</v>
       </c>
       <c r="F49" s="3">
-        <v>154700</v>
+        <v>157800</v>
       </c>
       <c r="G49" s="3">
-        <v>135200</v>
+        <v>147400</v>
       </c>
       <c r="H49" s="3">
-        <v>128500</v>
+        <v>128900</v>
       </c>
       <c r="I49" s="3">
-        <v>119200</v>
+        <v>122500</v>
       </c>
       <c r="J49" s="3">
+        <v>113600</v>
+      </c>
+      <c r="K49" s="3">
         <v>117300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>95900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>92400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>90600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>102200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>96900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>87500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>86800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>86400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>79700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>321800</v>
+        <v>290500</v>
       </c>
       <c r="E52" s="3">
-        <v>326800</v>
+        <v>306700</v>
       </c>
       <c r="F52" s="3">
-        <v>305500</v>
+        <v>311500</v>
       </c>
       <c r="G52" s="3">
-        <v>321300</v>
+        <v>291200</v>
       </c>
       <c r="H52" s="3">
-        <v>355400</v>
+        <v>306200</v>
       </c>
       <c r="I52" s="3">
-        <v>355300</v>
+        <v>338700</v>
       </c>
       <c r="J52" s="3">
+        <v>338700</v>
+      </c>
+      <c r="K52" s="3">
         <v>304900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>273800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>279400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>276600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>301500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>261900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>263500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>260800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>190200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>240400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7557500</v>
+        <v>7416100</v>
       </c>
       <c r="E54" s="3">
-        <v>7883400</v>
+        <v>7203600</v>
       </c>
       <c r="F54" s="3">
-        <v>7636300</v>
+        <v>7514300</v>
       </c>
       <c r="G54" s="3">
-        <v>7824100</v>
+        <v>7278700</v>
       </c>
       <c r="H54" s="3">
-        <v>7669200</v>
+        <v>7457700</v>
       </c>
       <c r="I54" s="3">
-        <v>7802100</v>
+        <v>7310100</v>
       </c>
       <c r="J54" s="3">
+        <v>7436800</v>
+      </c>
+      <c r="K54" s="3">
         <v>7861200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7611600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7576800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7275300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7310000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7429200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7158200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6878900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6653600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6523700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>890200</v>
+        <v>962000</v>
       </c>
       <c r="E57" s="3">
-        <v>920100</v>
+        <v>848500</v>
       </c>
       <c r="F57" s="3">
-        <v>1072300</v>
+        <v>877000</v>
       </c>
       <c r="G57" s="3">
-        <v>1138400</v>
+        <v>1022100</v>
       </c>
       <c r="H57" s="3">
-        <v>1082000</v>
+        <v>1085100</v>
       </c>
       <c r="I57" s="3">
-        <v>1170300</v>
+        <v>1031300</v>
       </c>
       <c r="J57" s="3">
+        <v>1115500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1263000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1184200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1167500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1124900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1124500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1078800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1043900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>979900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>958700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>933000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1490400</v>
+        <v>1435100</v>
       </c>
       <c r="E58" s="3">
-        <v>1500200</v>
+        <v>1420600</v>
       </c>
       <c r="F58" s="3">
-        <v>1221200</v>
+        <v>1430000</v>
       </c>
       <c r="G58" s="3">
-        <v>1324100</v>
+        <v>1164000</v>
       </c>
       <c r="H58" s="3">
-        <v>1195200</v>
+        <v>1262100</v>
       </c>
       <c r="I58" s="3">
-        <v>1109700</v>
+        <v>1139200</v>
       </c>
       <c r="J58" s="3">
+        <v>1057800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1025500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1002200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1041000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>992900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2011900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1069900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1039900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1186800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>889700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>906300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>602400</v>
+        <v>652900</v>
       </c>
       <c r="E59" s="3">
-        <v>794900</v>
+        <v>574200</v>
       </c>
       <c r="F59" s="3">
-        <v>778300</v>
+        <v>757600</v>
       </c>
       <c r="G59" s="3">
-        <v>762500</v>
+        <v>741800</v>
       </c>
       <c r="H59" s="3">
+        <v>726800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>784600</v>
+      </c>
+      <c r="J59" s="3">
         <v>823100</v>
       </c>
-      <c r="I59" s="3">
-        <v>863600</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>898400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>799400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>795000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>858300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>810600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>729400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>698800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>655700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>753700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>634400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2983000</v>
+        <v>3050000</v>
       </c>
       <c r="E60" s="3">
-        <v>3215200</v>
+        <v>2843300</v>
       </c>
       <c r="F60" s="3">
-        <v>3071800</v>
+        <v>3064700</v>
       </c>
       <c r="G60" s="3">
-        <v>3225100</v>
+        <v>2928000</v>
       </c>
       <c r="H60" s="3">
-        <v>3100300</v>
+        <v>3074000</v>
       </c>
       <c r="I60" s="3">
-        <v>3143600</v>
+        <v>2955200</v>
       </c>
       <c r="J60" s="3">
+        <v>2996400</v>
+      </c>
+      <c r="K60" s="3">
         <v>3186900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2985700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3003400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2976100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2986200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2878200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2782600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2822400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2602100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2473700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1272300</v>
+        <v>1212300</v>
       </c>
       <c r="E61" s="3">
-        <v>1345400</v>
+        <v>1212700</v>
       </c>
       <c r="F61" s="3">
-        <v>1268800</v>
+        <v>1282400</v>
       </c>
       <c r="G61" s="3">
-        <v>1186000</v>
+        <v>1209400</v>
       </c>
       <c r="H61" s="3">
-        <v>1209600</v>
+        <v>1130400</v>
       </c>
       <c r="I61" s="3">
-        <v>1310900</v>
+        <v>1153000</v>
       </c>
       <c r="J61" s="3">
+        <v>1249500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1338700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1430100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1409800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1282300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1285700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1404900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1393400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1284400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1350300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1387100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>731700</v>
+        <v>690600</v>
       </c>
       <c r="E62" s="3">
-        <v>724400</v>
+        <v>697400</v>
       </c>
       <c r="F62" s="3">
-        <v>671800</v>
+        <v>690500</v>
       </c>
       <c r="G62" s="3">
-        <v>696900</v>
+        <v>640300</v>
       </c>
       <c r="H62" s="3">
-        <v>694900</v>
+        <v>664300</v>
       </c>
       <c r="I62" s="3">
-        <v>699300</v>
+        <v>662300</v>
       </c>
       <c r="J62" s="3">
+        <v>666500</v>
+      </c>
+      <c r="K62" s="3">
         <v>645700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>603400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>610100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>590600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>578600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>632000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>612200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>605000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>598500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>669800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5270100</v>
+        <v>5230100</v>
       </c>
       <c r="E66" s="3">
-        <v>5561700</v>
+        <v>5023300</v>
       </c>
       <c r="F66" s="3">
-        <v>5327200</v>
+        <v>5301300</v>
       </c>
       <c r="G66" s="3">
-        <v>5422800</v>
+        <v>5077700</v>
       </c>
       <c r="H66" s="3">
-        <v>5310700</v>
+        <v>5168900</v>
       </c>
       <c r="I66" s="3">
-        <v>5457200</v>
+        <v>5062000</v>
       </c>
       <c r="J66" s="3">
+        <v>5201600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5481200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5318700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5331200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5151200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5171900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5232100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5098300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4997900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4820100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4780100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1540800</v>
+        <v>1456500</v>
       </c>
       <c r="E72" s="3">
-        <v>1600900</v>
+        <v>1468600</v>
       </c>
       <c r="F72" s="3">
-        <v>1586600</v>
+        <v>1525900</v>
       </c>
       <c r="G72" s="3">
-        <v>1488700</v>
+        <v>1512300</v>
       </c>
       <c r="H72" s="3">
-        <v>1475600</v>
+        <v>1419000</v>
       </c>
       <c r="I72" s="3">
-        <v>1438900</v>
+        <v>1406500</v>
       </c>
       <c r="J72" s="3">
+        <v>1371500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1458300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1334100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1231100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1145200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1158300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1164400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1096400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>962100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>922000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>935100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2287400</v>
+        <v>2185900</v>
       </c>
       <c r="E76" s="3">
-        <v>2321700</v>
+        <v>2180300</v>
       </c>
       <c r="F76" s="3">
-        <v>2309100</v>
+        <v>2213000</v>
       </c>
       <c r="G76" s="3">
-        <v>2401300</v>
+        <v>2201000</v>
       </c>
       <c r="H76" s="3">
-        <v>2358400</v>
+        <v>2288800</v>
       </c>
       <c r="I76" s="3">
-        <v>2344900</v>
+        <v>2248000</v>
       </c>
       <c r="J76" s="3">
+        <v>2235100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2380000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2292900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2245600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2124100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2138100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2197100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2059900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1881000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1833500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1743600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-60200</v>
+        <v>-10100</v>
       </c>
       <c r="E81" s="3">
-        <v>75200</v>
+        <v>-57300</v>
       </c>
       <c r="F81" s="3">
-        <v>97900</v>
+        <v>71700</v>
       </c>
       <c r="G81" s="3">
-        <v>13100</v>
+        <v>93400</v>
       </c>
       <c r="H81" s="3">
-        <v>36700</v>
+        <v>12400</v>
       </c>
       <c r="I81" s="3">
-        <v>21800</v>
+        <v>35000</v>
       </c>
       <c r="J81" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K81" s="3">
         <v>100200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>83500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>68100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>134300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>61800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>108400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>75500</v>
+        <v>79600</v>
       </c>
       <c r="E83" s="3">
-        <v>76500</v>
+        <v>71900</v>
       </c>
       <c r="F83" s="3">
-        <v>69400</v>
+        <v>72900</v>
       </c>
       <c r="G83" s="3">
-        <v>77100</v>
+        <v>66200</v>
       </c>
       <c r="H83" s="3">
-        <v>66400</v>
+        <v>73400</v>
       </c>
       <c r="I83" s="3">
-        <v>69900</v>
+        <v>63300</v>
       </c>
       <c r="J83" s="3">
+        <v>66600</v>
+      </c>
+      <c r="K83" s="3">
         <v>59000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>58700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>60900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>55800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>60000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>53900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>57200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>49200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>55900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1910400</v>
+        <v>2284400</v>
       </c>
       <c r="E8" s="3">
-        <v>1629800</v>
+        <v>1916700</v>
       </c>
       <c r="F8" s="3">
-        <v>1617100</v>
+        <v>1635100</v>
       </c>
       <c r="G8" s="3">
-        <v>2182600</v>
+        <v>1622400</v>
       </c>
       <c r="H8" s="3">
-        <v>2024000</v>
+        <v>2189800</v>
       </c>
       <c r="I8" s="3">
-        <v>2097000</v>
+        <v>2030600</v>
       </c>
       <c r="J8" s="3">
+        <v>2103900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2072600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2430900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2371300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2291000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2189100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2386100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2222700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2102500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2033500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2114700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1839400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1596900</v>
+        <v>1914800</v>
       </c>
       <c r="E9" s="3">
-        <v>1380600</v>
+        <v>1602100</v>
       </c>
       <c r="F9" s="3">
-        <v>1363800</v>
+        <v>1385100</v>
       </c>
       <c r="G9" s="3">
-        <v>1826300</v>
+        <v>1368300</v>
       </c>
       <c r="H9" s="3">
-        <v>1682600</v>
+        <v>1832300</v>
       </c>
       <c r="I9" s="3">
-        <v>1748500</v>
+        <v>1688100</v>
       </c>
       <c r="J9" s="3">
+        <v>1754200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1742700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2038100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1933800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1917100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1828800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2011100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1840300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1727900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1665600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1714700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1490900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>313500</v>
+        <v>369600</v>
       </c>
       <c r="E10" s="3">
-        <v>249200</v>
+        <v>314600</v>
       </c>
       <c r="F10" s="3">
-        <v>253300</v>
+        <v>250000</v>
       </c>
       <c r="G10" s="3">
-        <v>356300</v>
+        <v>254100</v>
       </c>
       <c r="H10" s="3">
-        <v>341400</v>
+        <v>357500</v>
       </c>
       <c r="I10" s="3">
+        <v>342500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>349600</v>
+      </c>
+      <c r="K10" s="3">
+        <v>330000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>392800</v>
+      </c>
+      <c r="M10" s="3">
+        <v>437500</v>
+      </c>
+      <c r="N10" s="3">
+        <v>373900</v>
+      </c>
+      <c r="O10" s="3">
+        <v>360400</v>
+      </c>
+      <c r="P10" s="3">
+        <v>375000</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>382400</v>
+      </c>
+      <c r="R10" s="3">
+        <v>374600</v>
+      </c>
+      <c r="S10" s="3">
+        <v>367900</v>
+      </c>
+      <c r="T10" s="3">
+        <v>400000</v>
+      </c>
+      <c r="U10" s="3">
         <v>348500</v>
       </c>
-      <c r="J10" s="3">
-        <v>330000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>392800</v>
-      </c>
-      <c r="L10" s="3">
-        <v>437500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>373900</v>
-      </c>
-      <c r="N10" s="3">
-        <v>360400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>375000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>382400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>374600</v>
-      </c>
-      <c r="R10" s="3">
-        <v>367900</v>
-      </c>
-      <c r="S10" s="3">
-        <v>400000</v>
-      </c>
-      <c r="T10" s="3">
-        <v>348500</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,67 +1084,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7800</v>
+        <v>30700</v>
       </c>
       <c r="E14" s="3">
-        <v>15000</v>
+        <v>7900</v>
       </c>
       <c r="F14" s="3">
-        <v>42400</v>
+        <v>15100</v>
       </c>
       <c r="G14" s="3">
+        <v>42600</v>
+      </c>
+      <c r="H14" s="3">
         <v>13300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>40100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>106500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>142600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-45100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1894100</v>
+        <v>2231100</v>
       </c>
       <c r="E17" s="3">
-        <v>1664100</v>
+        <v>1900300</v>
       </c>
       <c r="F17" s="3">
-        <v>1670900</v>
+        <v>1669500</v>
       </c>
       <c r="G17" s="3">
-        <v>2120100</v>
+        <v>1676400</v>
       </c>
       <c r="H17" s="3">
-        <v>1991400</v>
+        <v>2127000</v>
       </c>
       <c r="I17" s="3">
-        <v>2056400</v>
+        <v>1998000</v>
       </c>
       <c r="J17" s="3">
+        <v>2063200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2034200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2373600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2244000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2208700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2114500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2388300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2141400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2002700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1941400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2125400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1701300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E18" s="3">
         <v>16300</v>
       </c>
-      <c r="E18" s="3">
-        <v>-34200</v>
-      </c>
       <c r="F18" s="3">
-        <v>-53800</v>
+        <v>-34400</v>
       </c>
       <c r="G18" s="3">
-        <v>62500</v>
+        <v>-54000</v>
       </c>
       <c r="H18" s="3">
-        <v>32600</v>
+        <v>62700</v>
       </c>
       <c r="I18" s="3">
-        <v>40600</v>
+        <v>32700</v>
       </c>
       <c r="J18" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K18" s="3">
         <v>38400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>57300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>127300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>82300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>99800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>92100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>138000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-18300</v>
-      </c>
       <c r="F20" s="3">
-        <v>174100</v>
+        <v>-18400</v>
       </c>
       <c r="G20" s="3">
-        <v>90900</v>
+        <v>174700</v>
       </c>
       <c r="H20" s="3">
+        <v>91200</v>
+      </c>
+      <c r="I20" s="3">
         <v>18800</v>
       </c>
-      <c r="I20" s="3">
-        <v>26900</v>
-      </c>
       <c r="J20" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K20" s="3">
         <v>10700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>13300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>36300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>75200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>13000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>18100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>97700</v>
+        <v>213100</v>
       </c>
       <c r="E21" s="3">
+        <v>98000</v>
+      </c>
+      <c r="F21" s="3">
         <v>19400</v>
       </c>
-      <c r="F21" s="3">
-        <v>193200</v>
-      </c>
       <c r="G21" s="3">
-        <v>219600</v>
+        <v>193800</v>
       </c>
       <c r="H21" s="3">
-        <v>124800</v>
+        <v>220300</v>
       </c>
       <c r="I21" s="3">
-        <v>130700</v>
+        <v>125200</v>
       </c>
       <c r="J21" s="3">
+        <v>131200</v>
+      </c>
+      <c r="K21" s="3">
         <v>115700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>126800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>219700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>152600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>120100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>66900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>177600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>228900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>155400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>51500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>212000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
         <v>7800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="N22" s="3">
         <v>9100</v>
       </c>
-      <c r="H22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>10400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>9200</v>
       </c>
       <c r="Q22" s="3">
         <v>9200</v>
       </c>
       <c r="R22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="S22" s="3">
         <v>8700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10300</v>
+        <v>134700</v>
       </c>
       <c r="E23" s="3">
-        <v>-61400</v>
+        <v>10400</v>
       </c>
       <c r="F23" s="3">
-        <v>112000</v>
+        <v>-61600</v>
       </c>
       <c r="G23" s="3">
-        <v>144300</v>
+        <v>112400</v>
       </c>
       <c r="H23" s="3">
-        <v>41400</v>
+        <v>144700</v>
       </c>
       <c r="I23" s="3">
-        <v>57100</v>
+        <v>41500</v>
       </c>
       <c r="J23" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K23" s="3">
         <v>39000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>142400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>84800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>50700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>108400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>165800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>89500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>148700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E24" s="3">
         <v>11500</v>
       </c>
-      <c r="E24" s="3">
-        <v>-6100</v>
-      </c>
       <c r="F24" s="3">
-        <v>36900</v>
+        <v>-6200</v>
       </c>
       <c r="G24" s="3">
-        <v>46300</v>
+        <v>37000</v>
       </c>
       <c r="H24" s="3">
-        <v>22500</v>
+        <v>46500</v>
       </c>
       <c r="I24" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J24" s="3">
         <v>18700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-50000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>49000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>29400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-8200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-55200</v>
-      </c>
       <c r="F26" s="3">
-        <v>75100</v>
+        <v>-55400</v>
       </c>
       <c r="G26" s="3">
-        <v>97900</v>
+        <v>75300</v>
       </c>
       <c r="H26" s="3">
+        <v>98200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K26" s="3">
         <v>18800</v>
       </c>
-      <c r="I26" s="3">
-        <v>38400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>18800</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>107400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>68200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>79000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>141400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>68700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>118000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10100</v>
+        <v>87700</v>
       </c>
       <c r="E27" s="3">
-        <v>-57300</v>
+        <v>-10200</v>
       </c>
       <c r="F27" s="3">
-        <v>71700</v>
+        <v>-57500</v>
       </c>
       <c r="G27" s="3">
-        <v>93400</v>
+        <v>72000</v>
       </c>
       <c r="H27" s="3">
-        <v>12400</v>
+        <v>93700</v>
       </c>
       <c r="I27" s="3">
-        <v>35000</v>
+        <v>12500</v>
       </c>
       <c r="J27" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K27" s="3">
         <v>20800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>83500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>68100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>134300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>61800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>108400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
-        <v>18300</v>
-      </c>
       <c r="F32" s="3">
-        <v>-174100</v>
+        <v>18400</v>
       </c>
       <c r="G32" s="3">
-        <v>-90900</v>
+        <v>-174700</v>
       </c>
       <c r="H32" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-18800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-26900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-13300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-75200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-13000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-18100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10100</v>
+        <v>87700</v>
       </c>
       <c r="E33" s="3">
-        <v>-57300</v>
+        <v>-10200</v>
       </c>
       <c r="F33" s="3">
-        <v>71700</v>
+        <v>-57500</v>
       </c>
       <c r="G33" s="3">
-        <v>93400</v>
+        <v>72000</v>
       </c>
       <c r="H33" s="3">
-        <v>12400</v>
+        <v>93700</v>
       </c>
       <c r="I33" s="3">
-        <v>35000</v>
+        <v>12500</v>
       </c>
       <c r="J33" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K33" s="3">
         <v>20800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>83500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>68100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>134300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>61800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>108400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10100</v>
+        <v>87700</v>
       </c>
       <c r="E35" s="3">
-        <v>-57300</v>
+        <v>-10200</v>
       </c>
       <c r="F35" s="3">
-        <v>71700</v>
+        <v>-57500</v>
       </c>
       <c r="G35" s="3">
-        <v>93400</v>
+        <v>72000</v>
       </c>
       <c r="H35" s="3">
-        <v>12400</v>
+        <v>93700</v>
       </c>
       <c r="I35" s="3">
-        <v>35000</v>
+        <v>12500</v>
       </c>
       <c r="J35" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K35" s="3">
         <v>20800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>83500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>68100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>134300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>61800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>108400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,97 +2486,101 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>698800</v>
+        <v>775300</v>
       </c>
       <c r="E41" s="3">
-        <v>749100</v>
+        <v>701100</v>
       </c>
       <c r="F41" s="3">
-        <v>1033200</v>
+        <v>751600</v>
       </c>
       <c r="G41" s="3">
-        <v>497900</v>
+        <v>1036600</v>
       </c>
       <c r="H41" s="3">
-        <v>348100</v>
+        <v>499500</v>
       </c>
       <c r="I41" s="3">
-        <v>367100</v>
+        <v>349300</v>
       </c>
       <c r="J41" s="3">
+        <v>368300</v>
+      </c>
+      <c r="K41" s="3">
         <v>395300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>428900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>442600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>445400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>374100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>457700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>471100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>479700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>390800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>418400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>496400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21400</v>
+        <v>26900</v>
       </c>
       <c r="E42" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F42" s="3">
         <v>19500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15000</v>
       </c>
-      <c r="G42" s="3">
-        <v>8200</v>
-      </c>
       <c r="H42" s="3">
-        <v>14200</v>
+        <v>8300</v>
       </c>
       <c r="I42" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J42" s="3">
         <v>9300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22800</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
@@ -2501,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="3">
         <v>300</v>
@@ -2510,429 +2600,453 @@
         <v>300</v>
       </c>
       <c r="S42" s="3">
+        <v>300</v>
+      </c>
+      <c r="T42" s="3">
         <v>500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1623700</v>
+        <v>1755600</v>
       </c>
       <c r="E43" s="3">
-        <v>1435700</v>
+        <v>1629100</v>
       </c>
       <c r="F43" s="3">
-        <v>1434700</v>
+        <v>1440400</v>
       </c>
       <c r="G43" s="3">
-        <v>1751900</v>
+        <v>1439400</v>
       </c>
       <c r="H43" s="3">
-        <v>1811900</v>
+        <v>1757700</v>
       </c>
       <c r="I43" s="3">
-        <v>1768600</v>
+        <v>1817900</v>
       </c>
       <c r="J43" s="3">
+        <v>1774400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1859900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2097400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2044600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2030100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1984900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2017000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2008900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1887000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1815800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1753000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1623600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1104200</v>
+        <v>1110500</v>
       </c>
       <c r="E44" s="3">
-        <v>1084200</v>
+        <v>1107800</v>
       </c>
       <c r="F44" s="3">
-        <v>1119700</v>
+        <v>1087800</v>
       </c>
       <c r="G44" s="3">
-        <v>1061300</v>
+        <v>1123400</v>
       </c>
       <c r="H44" s="3">
-        <v>1213200</v>
+        <v>1064800</v>
       </c>
       <c r="I44" s="3">
-        <v>1146800</v>
+        <v>1217200</v>
       </c>
       <c r="J44" s="3">
+        <v>1150600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1183100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1181000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1242300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1166900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1121800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1028700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1110200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1068000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1019900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>925600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>931400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>280100</v>
+        <v>281700</v>
       </c>
       <c r="E45" s="3">
-        <v>240200</v>
+        <v>281100</v>
       </c>
       <c r="F45" s="3">
-        <v>266800</v>
+        <v>240900</v>
       </c>
       <c r="G45" s="3">
-        <v>218000</v>
+        <v>267700</v>
       </c>
       <c r="H45" s="3">
-        <v>252100</v>
+        <v>218700</v>
       </c>
       <c r="I45" s="3">
-        <v>244300</v>
+        <v>252900</v>
       </c>
       <c r="J45" s="3">
+        <v>245100</v>
+      </c>
+      <c r="K45" s="3">
         <v>262500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>311100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>260100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>243600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>229600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>348700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>316300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>301900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>294400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>325300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3728300</v>
+        <v>3950000</v>
       </c>
       <c r="E46" s="3">
-        <v>3528600</v>
+        <v>3740500</v>
       </c>
       <c r="F46" s="3">
-        <v>3869400</v>
+        <v>3540200</v>
       </c>
       <c r="G46" s="3">
-        <v>3537400</v>
+        <v>3882100</v>
       </c>
       <c r="H46" s="3">
-        <v>3639600</v>
+        <v>3549000</v>
       </c>
       <c r="I46" s="3">
-        <v>3536100</v>
+        <v>3651500</v>
       </c>
       <c r="J46" s="3">
+        <v>3547700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3708100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4041100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3989700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3885900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3710500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3762400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3906800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3736800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3527600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3391900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3377000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>986500</v>
+        <v>1007600</v>
       </c>
       <c r="E47" s="3">
-        <v>910400</v>
+        <v>989800</v>
       </c>
       <c r="F47" s="3">
-        <v>900200</v>
+        <v>913400</v>
       </c>
       <c r="G47" s="3">
-        <v>974000</v>
+        <v>903200</v>
       </c>
       <c r="H47" s="3">
-        <v>1096200</v>
+        <v>977200</v>
       </c>
       <c r="I47" s="3">
-        <v>1062700</v>
+        <v>1099800</v>
       </c>
       <c r="J47" s="3">
+        <v>1066100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1062600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1193700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1158400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1237500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1200800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1239600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1221900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1137400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1096400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1162400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1059900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2233000</v>
+        <v>2267600</v>
       </c>
       <c r="E48" s="3">
-        <v>2285600</v>
+        <v>2240300</v>
       </c>
       <c r="F48" s="3">
-        <v>2275400</v>
+        <v>2293100</v>
       </c>
       <c r="G48" s="3">
-        <v>2328600</v>
+        <v>2282900</v>
       </c>
       <c r="H48" s="3">
-        <v>2286800</v>
+        <v>2336300</v>
       </c>
       <c r="I48" s="3">
-        <v>2250000</v>
+        <v>2294300</v>
       </c>
       <c r="J48" s="3">
+        <v>2257400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2213800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2204100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2093800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2081600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1996800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1959200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1941700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1933000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1907300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1822700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1766700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>177800</v>
+        <v>186100</v>
       </c>
       <c r="E49" s="3">
-        <v>172200</v>
+        <v>178400</v>
       </c>
       <c r="F49" s="3">
-        <v>157800</v>
+        <v>172800</v>
       </c>
       <c r="G49" s="3">
-        <v>147400</v>
+        <v>158300</v>
       </c>
       <c r="H49" s="3">
-        <v>128900</v>
+        <v>147900</v>
       </c>
       <c r="I49" s="3">
-        <v>122500</v>
+        <v>129300</v>
       </c>
       <c r="J49" s="3">
+        <v>122900</v>
+      </c>
+      <c r="K49" s="3">
         <v>113600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>117300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>95900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>92400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>90600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>102200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>96900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>87500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>86800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>86400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>79700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>290500</v>
+        <v>235300</v>
       </c>
       <c r="E52" s="3">
-        <v>306700</v>
+        <v>291400</v>
       </c>
       <c r="F52" s="3">
-        <v>311500</v>
+        <v>307700</v>
       </c>
       <c r="G52" s="3">
-        <v>291200</v>
+        <v>312500</v>
       </c>
       <c r="H52" s="3">
-        <v>306200</v>
+        <v>292100</v>
       </c>
       <c r="I52" s="3">
+        <v>307200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>339800</v>
+      </c>
+      <c r="K52" s="3">
         <v>338700</v>
       </c>
-      <c r="J52" s="3">
-        <v>338700</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>304900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>273800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>279400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>276600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>301500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>261900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>263500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>260800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>190200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>240400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7416100</v>
+        <v>7646500</v>
       </c>
       <c r="E54" s="3">
-        <v>7203600</v>
+        <v>7440400</v>
       </c>
       <c r="F54" s="3">
-        <v>7514300</v>
+        <v>7227200</v>
       </c>
       <c r="G54" s="3">
-        <v>7278700</v>
+        <v>7538900</v>
       </c>
       <c r="H54" s="3">
-        <v>7457700</v>
+        <v>7302500</v>
       </c>
       <c r="I54" s="3">
-        <v>7310100</v>
+        <v>7482100</v>
       </c>
       <c r="J54" s="3">
+        <v>7334000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7436800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7861200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7611600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7576800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7275300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7310000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7429200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7158200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6878900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6653600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6523700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>962000</v>
+        <v>1061500</v>
       </c>
       <c r="E57" s="3">
-        <v>848500</v>
+        <v>965200</v>
       </c>
       <c r="F57" s="3">
-        <v>877000</v>
+        <v>851300</v>
       </c>
       <c r="G57" s="3">
-        <v>1022100</v>
+        <v>879900</v>
       </c>
       <c r="H57" s="3">
-        <v>1085100</v>
+        <v>1025500</v>
       </c>
       <c r="I57" s="3">
-        <v>1031300</v>
+        <v>1088700</v>
       </c>
       <c r="J57" s="3">
+        <v>1034700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1115500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1263000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1184200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1167500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1124900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1124500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1078800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1043900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>979900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>958700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>933000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1435100</v>
+        <v>1227100</v>
       </c>
       <c r="E58" s="3">
-        <v>1420600</v>
+        <v>1439800</v>
       </c>
       <c r="F58" s="3">
-        <v>1430000</v>
+        <v>1425300</v>
       </c>
       <c r="G58" s="3">
-        <v>1164000</v>
+        <v>1434700</v>
       </c>
       <c r="H58" s="3">
-        <v>1262100</v>
+        <v>1167800</v>
       </c>
       <c r="I58" s="3">
-        <v>1139200</v>
+        <v>1266300</v>
       </c>
       <c r="J58" s="3">
+        <v>1143000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1057800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1025500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1002200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1041000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>992900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2011900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1069900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1039900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1186800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>889700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>906300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>652900</v>
+        <v>608200</v>
       </c>
       <c r="E59" s="3">
-        <v>574200</v>
+        <v>655000</v>
       </c>
       <c r="F59" s="3">
-        <v>757600</v>
+        <v>576000</v>
       </c>
       <c r="G59" s="3">
-        <v>741800</v>
+        <v>760100</v>
       </c>
       <c r="H59" s="3">
-        <v>726800</v>
+        <v>744300</v>
       </c>
       <c r="I59" s="3">
-        <v>784600</v>
+        <v>729200</v>
       </c>
       <c r="J59" s="3">
+        <v>787200</v>
+      </c>
+      <c r="K59" s="3">
         <v>823100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>898400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>799400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>795000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>858300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>810600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>729400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>698800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>655700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>753700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>634400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3050000</v>
+        <v>2896700</v>
       </c>
       <c r="E60" s="3">
-        <v>2843300</v>
+        <v>3060000</v>
       </c>
       <c r="F60" s="3">
-        <v>3064700</v>
+        <v>2852600</v>
       </c>
       <c r="G60" s="3">
-        <v>2928000</v>
+        <v>3074700</v>
       </c>
       <c r="H60" s="3">
-        <v>3074000</v>
+        <v>2937600</v>
       </c>
       <c r="I60" s="3">
-        <v>2955200</v>
+        <v>3084100</v>
       </c>
       <c r="J60" s="3">
+        <v>2964900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2996400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3186900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2985700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3003400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2976100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2986200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2878200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2782600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2822400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2602100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2473700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1212300</v>
+        <v>1443700</v>
       </c>
       <c r="E61" s="3">
-        <v>1212700</v>
+        <v>1216300</v>
       </c>
       <c r="F61" s="3">
-        <v>1282400</v>
+        <v>1216700</v>
       </c>
       <c r="G61" s="3">
-        <v>1209400</v>
+        <v>1286600</v>
       </c>
       <c r="H61" s="3">
-        <v>1130400</v>
+        <v>1213400</v>
       </c>
       <c r="I61" s="3">
-        <v>1153000</v>
+        <v>1134100</v>
       </c>
       <c r="J61" s="3">
+        <v>1156800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1249500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1338700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1430100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1409800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1282300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1285700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1404900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1393400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1284400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1350300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1387100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>690600</v>
+        <v>626100</v>
       </c>
       <c r="E62" s="3">
-        <v>697400</v>
+        <v>692900</v>
       </c>
       <c r="F62" s="3">
-        <v>690500</v>
+        <v>699700</v>
       </c>
       <c r="G62" s="3">
-        <v>640300</v>
+        <v>692700</v>
       </c>
       <c r="H62" s="3">
-        <v>664300</v>
+        <v>642400</v>
       </c>
       <c r="I62" s="3">
-        <v>662300</v>
+        <v>666500</v>
       </c>
       <c r="J62" s="3">
+        <v>664500</v>
+      </c>
+      <c r="K62" s="3">
         <v>666500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>645700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>603400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>610100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>590600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>578600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>632000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>612200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>605000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>598500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>669800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5230100</v>
+        <v>5258300</v>
       </c>
       <c r="E66" s="3">
-        <v>5023300</v>
+        <v>5247300</v>
       </c>
       <c r="F66" s="3">
-        <v>5301300</v>
+        <v>5039800</v>
       </c>
       <c r="G66" s="3">
-        <v>5077700</v>
+        <v>5318600</v>
       </c>
       <c r="H66" s="3">
-        <v>5168900</v>
+        <v>5094300</v>
       </c>
       <c r="I66" s="3">
-        <v>5062000</v>
+        <v>5185800</v>
       </c>
       <c r="J66" s="3">
+        <v>5078600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5201600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5481200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5318700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5331200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5151200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5171900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5232100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5098300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4997900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4820100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4780100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1456500</v>
+        <v>1548900</v>
       </c>
       <c r="E72" s="3">
-        <v>1468600</v>
+        <v>1461200</v>
       </c>
       <c r="F72" s="3">
-        <v>1525900</v>
+        <v>1473400</v>
       </c>
       <c r="G72" s="3">
-        <v>1512300</v>
+        <v>1530900</v>
       </c>
       <c r="H72" s="3">
-        <v>1419000</v>
+        <v>1517300</v>
       </c>
       <c r="I72" s="3">
-        <v>1406500</v>
+        <v>1423600</v>
       </c>
       <c r="J72" s="3">
+        <v>1411100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1371500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1458300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1334100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1231100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1145200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1158300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1164400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1096400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>962100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>922000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>935100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2185900</v>
+        <v>2388200</v>
       </c>
       <c r="E76" s="3">
-        <v>2180300</v>
+        <v>2193100</v>
       </c>
       <c r="F76" s="3">
-        <v>2213000</v>
+        <v>2187400</v>
       </c>
       <c r="G76" s="3">
-        <v>2201000</v>
+        <v>2220200</v>
       </c>
       <c r="H76" s="3">
-        <v>2288800</v>
+        <v>2208200</v>
       </c>
       <c r="I76" s="3">
-        <v>2248000</v>
+        <v>2296300</v>
       </c>
       <c r="J76" s="3">
+        <v>2255400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2235100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2380000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2292900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2245600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2124100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2138100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2197100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2059900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1881000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1833500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1743600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10100</v>
+        <v>87700</v>
       </c>
       <c r="E81" s="3">
-        <v>-57300</v>
+        <v>-10200</v>
       </c>
       <c r="F81" s="3">
-        <v>71700</v>
+        <v>-57500</v>
       </c>
       <c r="G81" s="3">
-        <v>93400</v>
+        <v>72000</v>
       </c>
       <c r="H81" s="3">
-        <v>12400</v>
+        <v>93700</v>
       </c>
       <c r="I81" s="3">
-        <v>35000</v>
+        <v>12500</v>
       </c>
       <c r="J81" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K81" s="3">
         <v>20800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>83500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>68100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>134300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>61800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>108400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>79600</v>
+        <v>70400</v>
       </c>
       <c r="E83" s="3">
-        <v>71900</v>
+        <v>79900</v>
       </c>
       <c r="F83" s="3">
-        <v>72900</v>
+        <v>72200</v>
       </c>
       <c r="G83" s="3">
-        <v>66200</v>
+        <v>73100</v>
       </c>
       <c r="H83" s="3">
-        <v>73400</v>
+        <v>66400</v>
       </c>
       <c r="I83" s="3">
-        <v>63300</v>
+        <v>73700</v>
       </c>
       <c r="J83" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K83" s="3">
         <v>66600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>59000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>67200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>58700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>60900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>55800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>60000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>53900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>57200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>49200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>55900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2284400</v>
+        <v>1993400</v>
       </c>
       <c r="E8" s="3">
-        <v>1916700</v>
+        <v>2264500</v>
       </c>
       <c r="F8" s="3">
-        <v>1635100</v>
+        <v>1900000</v>
       </c>
       <c r="G8" s="3">
-        <v>1622400</v>
+        <v>1620900</v>
       </c>
       <c r="H8" s="3">
-        <v>2189800</v>
+        <v>1608300</v>
       </c>
       <c r="I8" s="3">
-        <v>2030600</v>
+        <v>2170700</v>
       </c>
       <c r="J8" s="3">
+        <v>2013000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2103900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2072600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2430900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2371300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2291000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2189100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2386100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2222700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2102500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2033500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2114700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1839400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1914800</v>
+        <v>1671300</v>
       </c>
       <c r="E9" s="3">
-        <v>1602100</v>
+        <v>1898100</v>
       </c>
       <c r="F9" s="3">
-        <v>1385100</v>
+        <v>1588100</v>
       </c>
       <c r="G9" s="3">
-        <v>1368300</v>
+        <v>1373100</v>
       </c>
       <c r="H9" s="3">
-        <v>1832300</v>
+        <v>1356400</v>
       </c>
       <c r="I9" s="3">
-        <v>1688100</v>
+        <v>1816300</v>
       </c>
       <c r="J9" s="3">
+        <v>1673400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1754200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1742700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2038100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1933800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1917100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1828800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2011100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1840300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1727900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1665600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1714700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1490900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>369600</v>
+        <v>322100</v>
       </c>
       <c r="E10" s="3">
-        <v>314600</v>
+        <v>366400</v>
       </c>
       <c r="F10" s="3">
-        <v>250000</v>
+        <v>311800</v>
       </c>
       <c r="G10" s="3">
-        <v>254100</v>
+        <v>247900</v>
       </c>
       <c r="H10" s="3">
-        <v>357500</v>
+        <v>251900</v>
       </c>
       <c r="I10" s="3">
-        <v>342500</v>
+        <v>354400</v>
       </c>
       <c r="J10" s="3">
+        <v>339600</v>
+      </c>
+      <c r="K10" s="3">
         <v>349600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>330000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>392800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>437500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>373900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>360400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>375000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>382400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>374600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>367900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>348500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>30700</v>
+        <v>-14800</v>
       </c>
       <c r="E14" s="3">
-        <v>7900</v>
+        <v>30400</v>
       </c>
       <c r="F14" s="3">
-        <v>15100</v>
+        <v>7800</v>
       </c>
       <c r="G14" s="3">
-        <v>42600</v>
+        <v>14900</v>
       </c>
       <c r="H14" s="3">
-        <v>13300</v>
+        <v>42200</v>
       </c>
       <c r="I14" s="3">
-        <v>8900</v>
+        <v>13200</v>
       </c>
       <c r="J14" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K14" s="3">
         <v>13100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>40100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>106500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>142600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-45100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2231100</v>
+        <v>1944100</v>
       </c>
       <c r="E17" s="3">
-        <v>1900300</v>
+        <v>2211700</v>
       </c>
       <c r="F17" s="3">
-        <v>1669500</v>
+        <v>1883800</v>
       </c>
       <c r="G17" s="3">
-        <v>1676400</v>
+        <v>1655000</v>
       </c>
       <c r="H17" s="3">
-        <v>2127000</v>
+        <v>1661800</v>
       </c>
       <c r="I17" s="3">
-        <v>1998000</v>
+        <v>2108500</v>
       </c>
       <c r="J17" s="3">
+        <v>1980600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2063200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2034200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2373600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2244000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2208700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2114500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2388300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2141400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2002700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1941400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2125400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1701300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>53300</v>
+        <v>49200</v>
       </c>
       <c r="E18" s="3">
-        <v>16300</v>
+        <v>52800</v>
       </c>
       <c r="F18" s="3">
-        <v>-34400</v>
+        <v>16200</v>
       </c>
       <c r="G18" s="3">
-        <v>-54000</v>
+        <v>-34100</v>
       </c>
       <c r="H18" s="3">
-        <v>62700</v>
+        <v>-53500</v>
       </c>
       <c r="I18" s="3">
-        <v>32700</v>
+        <v>62200</v>
       </c>
       <c r="J18" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K18" s="3">
         <v>40700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>57300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>127300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>82300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>74600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>99800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>92100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>138000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>89400</v>
+        <v>27100</v>
       </c>
       <c r="E20" s="3">
+        <v>88700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
-        <v>-18400</v>
-      </c>
       <c r="G20" s="3">
-        <v>174700</v>
+        <v>-18200</v>
       </c>
       <c r="H20" s="3">
-        <v>91200</v>
+        <v>173100</v>
       </c>
       <c r="I20" s="3">
-        <v>18800</v>
+        <v>90400</v>
       </c>
       <c r="J20" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K20" s="3">
         <v>27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>25200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>36300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>75200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>13000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>18100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>213100</v>
+        <v>153900</v>
       </c>
       <c r="E21" s="3">
-        <v>98000</v>
+        <v>211300</v>
       </c>
       <c r="F21" s="3">
-        <v>19400</v>
+        <v>97200</v>
       </c>
       <c r="G21" s="3">
-        <v>193800</v>
+        <v>19300</v>
       </c>
       <c r="H21" s="3">
-        <v>220300</v>
+        <v>192100</v>
       </c>
       <c r="I21" s="3">
-        <v>125200</v>
+        <v>218400</v>
       </c>
       <c r="J21" s="3">
+        <v>124100</v>
+      </c>
+      <c r="K21" s="3">
         <v>131200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>115700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>126800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>219700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>152600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>120100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>66900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>177600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>228900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>155400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>51500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>212000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8000</v>
+        <v>7200</v>
       </c>
       <c r="E22" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="F22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G22" s="3">
         <v>8800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8300</v>
       </c>
-      <c r="H22" s="3">
-        <v>9200</v>
-      </c>
       <c r="I22" s="3">
-        <v>10000</v>
+        <v>9100</v>
       </c>
       <c r="J22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K22" s="3">
         <v>10400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8900</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>9200</v>
       </c>
       <c r="R22" s="3">
         <v>9200</v>
       </c>
       <c r="S22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="T22" s="3">
         <v>8700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>134700</v>
+        <v>69200</v>
       </c>
       <c r="E23" s="3">
-        <v>10400</v>
+        <v>133600</v>
       </c>
       <c r="F23" s="3">
-        <v>-61600</v>
+        <v>10300</v>
       </c>
       <c r="G23" s="3">
-        <v>112400</v>
+        <v>-61100</v>
       </c>
       <c r="H23" s="3">
-        <v>144700</v>
+        <v>111400</v>
       </c>
       <c r="I23" s="3">
-        <v>41500</v>
+        <v>143500</v>
       </c>
       <c r="J23" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K23" s="3">
         <v>57300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>142400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>84800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>50700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>108400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>165800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>89500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>148700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42300</v>
+        <v>26100</v>
       </c>
       <c r="E24" s="3">
-        <v>11500</v>
+        <v>42000</v>
       </c>
       <c r="F24" s="3">
-        <v>-6200</v>
+        <v>11400</v>
       </c>
       <c r="G24" s="3">
-        <v>37000</v>
+        <v>-6100</v>
       </c>
       <c r="H24" s="3">
-        <v>46500</v>
+        <v>36700</v>
       </c>
       <c r="I24" s="3">
-        <v>22600</v>
+        <v>46100</v>
       </c>
       <c r="J24" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K24" s="3">
         <v>18700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-50000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>49000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>29400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-8200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>30600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>92400</v>
+        <v>43100</v>
       </c>
       <c r="E26" s="3">
+        <v>91600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-55400</v>
-      </c>
       <c r="G26" s="3">
-        <v>75300</v>
+        <v>-54900</v>
       </c>
       <c r="H26" s="3">
-        <v>98200</v>
+        <v>74700</v>
       </c>
       <c r="I26" s="3">
-        <v>18900</v>
+        <v>97400</v>
       </c>
       <c r="J26" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K26" s="3">
         <v>38600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>107400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>68200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>79000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>141400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>68700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>118000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>87700</v>
+        <v>38500</v>
       </c>
       <c r="E27" s="3">
-        <v>-10200</v>
+        <v>86900</v>
       </c>
       <c r="F27" s="3">
-        <v>-57500</v>
+        <v>-10100</v>
       </c>
       <c r="G27" s="3">
-        <v>72000</v>
+        <v>-57000</v>
       </c>
       <c r="H27" s="3">
-        <v>93700</v>
+        <v>71300</v>
       </c>
       <c r="I27" s="3">
-        <v>12500</v>
+        <v>92800</v>
       </c>
       <c r="J27" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K27" s="3">
         <v>35100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>83500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>68100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>134300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>61800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>108400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-89400</v>
+        <v>-27100</v>
       </c>
       <c r="E32" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
-        <v>18400</v>
-      </c>
       <c r="G32" s="3">
-        <v>-174700</v>
+        <v>18200</v>
       </c>
       <c r="H32" s="3">
-        <v>-91200</v>
+        <v>-173100</v>
       </c>
       <c r="I32" s="3">
-        <v>-18800</v>
+        <v>-90400</v>
       </c>
       <c r="J32" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-25200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-36300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-75200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-13000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-18100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>87700</v>
+        <v>38500</v>
       </c>
       <c r="E33" s="3">
-        <v>-10200</v>
+        <v>86900</v>
       </c>
       <c r="F33" s="3">
-        <v>-57500</v>
+        <v>-10100</v>
       </c>
       <c r="G33" s="3">
-        <v>72000</v>
+        <v>-57000</v>
       </c>
       <c r="H33" s="3">
-        <v>93700</v>
+        <v>71300</v>
       </c>
       <c r="I33" s="3">
-        <v>12500</v>
+        <v>92800</v>
       </c>
       <c r="J33" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K33" s="3">
         <v>35100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>83500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>68100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>134300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>61800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>108400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>87700</v>
+        <v>38500</v>
       </c>
       <c r="E35" s="3">
-        <v>-10200</v>
+        <v>86900</v>
       </c>
       <c r="F35" s="3">
-        <v>-57500</v>
+        <v>-10100</v>
       </c>
       <c r="G35" s="3">
-        <v>72000</v>
+        <v>-57000</v>
       </c>
       <c r="H35" s="3">
-        <v>93700</v>
+        <v>71300</v>
       </c>
       <c r="I35" s="3">
-        <v>12500</v>
+        <v>92800</v>
       </c>
       <c r="J35" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K35" s="3">
         <v>35100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>83500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>68100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>134300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>61800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>108400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,103 +2573,107 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>775300</v>
+        <v>794900</v>
       </c>
       <c r="E41" s="3">
-        <v>701100</v>
+        <v>768500</v>
       </c>
       <c r="F41" s="3">
-        <v>751600</v>
+        <v>695000</v>
       </c>
       <c r="G41" s="3">
-        <v>1036600</v>
+        <v>745000</v>
       </c>
       <c r="H41" s="3">
-        <v>499500</v>
+        <v>1027500</v>
       </c>
       <c r="I41" s="3">
-        <v>349300</v>
+        <v>495200</v>
       </c>
       <c r="J41" s="3">
+        <v>346200</v>
+      </c>
+      <c r="K41" s="3">
         <v>368300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>395300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>428900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>442600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>445400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>374100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>457700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>471100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>479700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>390800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>418400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>496400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26900</v>
+        <v>30600</v>
       </c>
       <c r="E42" s="3">
-        <v>21500</v>
+        <v>26600</v>
       </c>
       <c r="F42" s="3">
-        <v>19500</v>
+        <v>21300</v>
       </c>
       <c r="G42" s="3">
-        <v>15000</v>
+        <v>19300</v>
       </c>
       <c r="H42" s="3">
-        <v>8300</v>
+        <v>14900</v>
       </c>
       <c r="I42" s="3">
-        <v>14300</v>
+        <v>8200</v>
       </c>
       <c r="J42" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K42" s="3">
         <v>9300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22800</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
@@ -2594,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
         <v>300</v>
@@ -2603,450 +2693,474 @@
         <v>300</v>
       </c>
       <c r="T42" s="3">
+        <v>300</v>
+      </c>
+      <c r="U42" s="3">
         <v>500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1755600</v>
+        <v>1817300</v>
       </c>
       <c r="E43" s="3">
-        <v>1629100</v>
+        <v>1740300</v>
       </c>
       <c r="F43" s="3">
-        <v>1440400</v>
+        <v>1614900</v>
       </c>
       <c r="G43" s="3">
-        <v>1439400</v>
+        <v>1427800</v>
       </c>
       <c r="H43" s="3">
-        <v>1757700</v>
+        <v>1426800</v>
       </c>
       <c r="I43" s="3">
-        <v>1817900</v>
+        <v>1742400</v>
       </c>
       <c r="J43" s="3">
+        <v>1802000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1774400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1859900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2097400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2044600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2030100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1984900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2017000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2008900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1887000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1815800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1753000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1623600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1110500</v>
+        <v>1258000</v>
       </c>
       <c r="E44" s="3">
-        <v>1107800</v>
+        <v>1100800</v>
       </c>
       <c r="F44" s="3">
-        <v>1087800</v>
+        <v>1098200</v>
       </c>
       <c r="G44" s="3">
-        <v>1123400</v>
+        <v>1078300</v>
       </c>
       <c r="H44" s="3">
-        <v>1064800</v>
+        <v>1113600</v>
       </c>
       <c r="I44" s="3">
-        <v>1217200</v>
+        <v>1055500</v>
       </c>
       <c r="J44" s="3">
+        <v>1206600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1150600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1183100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1181000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1242300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1166900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1121800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1028700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1110200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1068000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1019900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>925600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>931400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>281700</v>
+        <v>335300</v>
       </c>
       <c r="E45" s="3">
-        <v>281100</v>
+        <v>279300</v>
       </c>
       <c r="F45" s="3">
-        <v>240900</v>
+        <v>278600</v>
       </c>
       <c r="G45" s="3">
-        <v>267700</v>
+        <v>238800</v>
       </c>
       <c r="H45" s="3">
-        <v>218700</v>
+        <v>265400</v>
       </c>
       <c r="I45" s="3">
-        <v>252900</v>
+        <v>216800</v>
       </c>
       <c r="J45" s="3">
+        <v>250700</v>
+      </c>
+      <c r="K45" s="3">
         <v>245100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>262500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>311100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>260100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>243600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>229600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>348700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>316300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>301900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>294400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>325300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3950000</v>
+        <v>4236200</v>
       </c>
       <c r="E46" s="3">
-        <v>3740500</v>
+        <v>3915600</v>
       </c>
       <c r="F46" s="3">
-        <v>3540200</v>
+        <v>3707900</v>
       </c>
       <c r="G46" s="3">
-        <v>3882100</v>
+        <v>3509300</v>
       </c>
       <c r="H46" s="3">
-        <v>3549000</v>
+        <v>3848300</v>
       </c>
       <c r="I46" s="3">
-        <v>3651500</v>
+        <v>3518100</v>
       </c>
       <c r="J46" s="3">
+        <v>3619700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3547700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3708100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4041100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3989700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3885900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3710500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3762400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3906800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3736800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3527600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3391900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3377000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1007600</v>
+        <v>952500</v>
       </c>
       <c r="E47" s="3">
-        <v>989800</v>
+        <v>998800</v>
       </c>
       <c r="F47" s="3">
-        <v>913400</v>
+        <v>981100</v>
       </c>
       <c r="G47" s="3">
-        <v>903200</v>
+        <v>905500</v>
       </c>
       <c r="H47" s="3">
-        <v>977200</v>
+        <v>895300</v>
       </c>
       <c r="I47" s="3">
-        <v>1099800</v>
+        <v>968700</v>
       </c>
       <c r="J47" s="3">
+        <v>1090200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1066100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1062600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1193700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1158400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1237500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1200800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1239600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1221900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1137400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1096400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1162400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1059900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2267600</v>
+        <v>2280000</v>
       </c>
       <c r="E48" s="3">
-        <v>2240300</v>
+        <v>2247800</v>
       </c>
       <c r="F48" s="3">
-        <v>2293100</v>
+        <v>2220800</v>
       </c>
       <c r="G48" s="3">
-        <v>2282900</v>
+        <v>2273100</v>
       </c>
       <c r="H48" s="3">
-        <v>2336300</v>
+        <v>2263000</v>
       </c>
       <c r="I48" s="3">
-        <v>2294300</v>
+        <v>2315900</v>
       </c>
       <c r="J48" s="3">
+        <v>2274300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2257400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2213800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2204100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2093800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2081600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1996800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1959200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1941700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1933000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1907300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1822700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1766700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>186100</v>
+        <v>185800</v>
       </c>
       <c r="E49" s="3">
-        <v>178400</v>
+        <v>184500</v>
       </c>
       <c r="F49" s="3">
-        <v>172800</v>
+        <v>176800</v>
       </c>
       <c r="G49" s="3">
-        <v>158300</v>
+        <v>171300</v>
       </c>
       <c r="H49" s="3">
-        <v>147900</v>
+        <v>156900</v>
       </c>
       <c r="I49" s="3">
-        <v>129300</v>
+        <v>146600</v>
       </c>
       <c r="J49" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K49" s="3">
         <v>122900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>113600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>117300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>95900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>92400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>90600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>102200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>96900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>87500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>86800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>86400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>79700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>235300</v>
+        <v>315300</v>
       </c>
       <c r="E52" s="3">
-        <v>291400</v>
+        <v>233200</v>
       </c>
       <c r="F52" s="3">
-        <v>307700</v>
+        <v>288900</v>
       </c>
       <c r="G52" s="3">
-        <v>312500</v>
+        <v>305000</v>
       </c>
       <c r="H52" s="3">
-        <v>292100</v>
+        <v>309800</v>
       </c>
       <c r="I52" s="3">
-        <v>307200</v>
+        <v>289600</v>
       </c>
       <c r="J52" s="3">
+        <v>304600</v>
+      </c>
+      <c r="K52" s="3">
         <v>339800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>338700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>304900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>273800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>279400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>276600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>301500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>261900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>263500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>260800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>190200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>240400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7646500</v>
+        <v>7969800</v>
       </c>
       <c r="E54" s="3">
-        <v>7440400</v>
+        <v>7579900</v>
       </c>
       <c r="F54" s="3">
-        <v>7227200</v>
+        <v>7375600</v>
       </c>
       <c r="G54" s="3">
-        <v>7538900</v>
+        <v>7164300</v>
       </c>
       <c r="H54" s="3">
-        <v>7302500</v>
+        <v>7473300</v>
       </c>
       <c r="I54" s="3">
-        <v>7482100</v>
+        <v>7239000</v>
       </c>
       <c r="J54" s="3">
+        <v>7417000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7334000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7436800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7861200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7611600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7576800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7275300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7310000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7429200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7158200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6878900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6653600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6523700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1061500</v>
+        <v>1098900</v>
       </c>
       <c r="E57" s="3">
-        <v>965200</v>
+        <v>1052200</v>
       </c>
       <c r="F57" s="3">
-        <v>851300</v>
+        <v>956800</v>
       </c>
       <c r="G57" s="3">
-        <v>879900</v>
+        <v>843900</v>
       </c>
       <c r="H57" s="3">
-        <v>1025500</v>
+        <v>872300</v>
       </c>
       <c r="I57" s="3">
-        <v>1088700</v>
+        <v>1016500</v>
       </c>
       <c r="J57" s="3">
+        <v>1079200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1034700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1115500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1263000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1184200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1167500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1124900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1124500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1078800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1043900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>979900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>958700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>933000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1227100</v>
+        <v>1483500</v>
       </c>
       <c r="E58" s="3">
-        <v>1439800</v>
+        <v>1230200</v>
       </c>
       <c r="F58" s="3">
-        <v>1425300</v>
+        <v>1427300</v>
       </c>
       <c r="G58" s="3">
-        <v>1434700</v>
+        <v>1412900</v>
       </c>
       <c r="H58" s="3">
-        <v>1167800</v>
+        <v>1422200</v>
       </c>
       <c r="I58" s="3">
-        <v>1266300</v>
+        <v>1157700</v>
       </c>
       <c r="J58" s="3">
+        <v>1255200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1143000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1057800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1025500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1002200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1041000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>992900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2011900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1069900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1039900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1186800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>889700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>906300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>608200</v>
+        <v>623100</v>
       </c>
       <c r="E59" s="3">
-        <v>655000</v>
+        <v>589100</v>
       </c>
       <c r="F59" s="3">
-        <v>576000</v>
+        <v>649300</v>
       </c>
       <c r="G59" s="3">
-        <v>760100</v>
+        <v>571000</v>
       </c>
       <c r="H59" s="3">
-        <v>744300</v>
+        <v>753500</v>
       </c>
       <c r="I59" s="3">
-        <v>729200</v>
+        <v>737800</v>
       </c>
       <c r="J59" s="3">
+        <v>722800</v>
+      </c>
+      <c r="K59" s="3">
         <v>787200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>823100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>898400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>799400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>795000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>858300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>810600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>729400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>698800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>655700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>753700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>634400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2896700</v>
+        <v>3205500</v>
       </c>
       <c r="E60" s="3">
-        <v>3060000</v>
+        <v>2871500</v>
       </c>
       <c r="F60" s="3">
-        <v>2852600</v>
+        <v>3033300</v>
       </c>
       <c r="G60" s="3">
-        <v>3074700</v>
+        <v>2827800</v>
       </c>
       <c r="H60" s="3">
-        <v>2937600</v>
+        <v>3048000</v>
       </c>
       <c r="I60" s="3">
-        <v>3084100</v>
+        <v>2912000</v>
       </c>
       <c r="J60" s="3">
+        <v>3057300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2964900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2996400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3186900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2985700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3003400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2976100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2986200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2878200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2782600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2822400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2602100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2473700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1443700</v>
+        <v>1419200</v>
       </c>
       <c r="E61" s="3">
-        <v>1216300</v>
+        <v>1486600</v>
       </c>
       <c r="F61" s="3">
-        <v>1216700</v>
+        <v>1205700</v>
       </c>
       <c r="G61" s="3">
-        <v>1286600</v>
+        <v>1206100</v>
       </c>
       <c r="H61" s="3">
-        <v>1213400</v>
+        <v>1275400</v>
       </c>
       <c r="I61" s="3">
-        <v>1134100</v>
+        <v>1202800</v>
       </c>
       <c r="J61" s="3">
+        <v>1124300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1156800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1249500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1338700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1430100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1409800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1282300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1285700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1404900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1393400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1284400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1350300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1387100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>626100</v>
+        <v>632900</v>
       </c>
       <c r="E62" s="3">
-        <v>692900</v>
+        <v>565200</v>
       </c>
       <c r="F62" s="3">
-        <v>699700</v>
+        <v>686900</v>
       </c>
       <c r="G62" s="3">
-        <v>692700</v>
+        <v>693600</v>
       </c>
       <c r="H62" s="3">
-        <v>642400</v>
+        <v>686700</v>
       </c>
       <c r="I62" s="3">
+        <v>636800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>660700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>664500</v>
+      </c>
+      <c r="L62" s="3">
         <v>666500</v>
       </c>
-      <c r="J62" s="3">
-        <v>664500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>666500</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>645700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>603400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>610100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>590600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>578600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>632000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>612200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>605000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>598500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>669800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5258300</v>
+        <v>5549300</v>
       </c>
       <c r="E66" s="3">
-        <v>5247300</v>
+        <v>5212500</v>
       </c>
       <c r="F66" s="3">
-        <v>5039800</v>
+        <v>5201600</v>
       </c>
       <c r="G66" s="3">
-        <v>5318600</v>
+        <v>4995900</v>
       </c>
       <c r="H66" s="3">
-        <v>5094300</v>
+        <v>5272300</v>
       </c>
       <c r="I66" s="3">
-        <v>5185800</v>
+        <v>5050000</v>
       </c>
       <c r="J66" s="3">
+        <v>5140700</v>
+      </c>
+      <c r="K66" s="3">
         <v>5078600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5201600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5481200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5318700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5331200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5151200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5171900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5232100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5098300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4997900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4820100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4780100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1548900</v>
+        <v>1533800</v>
       </c>
       <c r="E72" s="3">
-        <v>1461200</v>
+        <v>1535400</v>
       </c>
       <c r="F72" s="3">
-        <v>1473400</v>
+        <v>1448500</v>
       </c>
       <c r="G72" s="3">
-        <v>1530900</v>
+        <v>1460600</v>
       </c>
       <c r="H72" s="3">
-        <v>1517300</v>
+        <v>1517600</v>
       </c>
       <c r="I72" s="3">
-        <v>1423600</v>
+        <v>1504100</v>
       </c>
       <c r="J72" s="3">
+        <v>1411200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1411100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1371500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1458300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1334100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1231100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1145200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1158300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1164400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1096400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>962100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>922000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>935100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2388200</v>
+        <v>2420500</v>
       </c>
       <c r="E76" s="3">
-        <v>2193100</v>
+        <v>2367400</v>
       </c>
       <c r="F76" s="3">
-        <v>2187400</v>
+        <v>2174000</v>
       </c>
       <c r="G76" s="3">
-        <v>2220200</v>
+        <v>2168400</v>
       </c>
       <c r="H76" s="3">
-        <v>2208200</v>
+        <v>2200900</v>
       </c>
       <c r="I76" s="3">
-        <v>2296300</v>
+        <v>2189000</v>
       </c>
       <c r="J76" s="3">
+        <v>2276300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2255400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2235100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2380000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2292900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2245600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2124100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2138100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2197100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2059900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1881000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1833500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1743600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>87700</v>
+        <v>38500</v>
       </c>
       <c r="E81" s="3">
-        <v>-10200</v>
+        <v>86900</v>
       </c>
       <c r="F81" s="3">
-        <v>-57500</v>
+        <v>-10100</v>
       </c>
       <c r="G81" s="3">
-        <v>72000</v>
+        <v>-57000</v>
       </c>
       <c r="H81" s="3">
-        <v>93700</v>
+        <v>71300</v>
       </c>
       <c r="I81" s="3">
-        <v>12500</v>
+        <v>92800</v>
       </c>
       <c r="J81" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K81" s="3">
         <v>35100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>83500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>68100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>134300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>61800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>108400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>70400</v>
+        <v>77600</v>
       </c>
       <c r="E83" s="3">
-        <v>79900</v>
+        <v>69800</v>
       </c>
       <c r="F83" s="3">
-        <v>72200</v>
+        <v>79200</v>
       </c>
       <c r="G83" s="3">
-        <v>73100</v>
+        <v>71500</v>
       </c>
       <c r="H83" s="3">
-        <v>66400</v>
+        <v>72500</v>
       </c>
       <c r="I83" s="3">
-        <v>73700</v>
+        <v>65800</v>
       </c>
       <c r="J83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K83" s="3">
         <v>63500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>66600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>59000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>67200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>58700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>60900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>55800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>60000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>57200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>49200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>55900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1993400</v>
+        <v>2012600</v>
       </c>
       <c r="E8" s="3">
-        <v>2264500</v>
+        <v>1927700</v>
       </c>
       <c r="F8" s="3">
-        <v>1900000</v>
+        <v>2189900</v>
       </c>
       <c r="G8" s="3">
-        <v>1620900</v>
+        <v>1837400</v>
       </c>
       <c r="H8" s="3">
-        <v>1608300</v>
+        <v>1567500</v>
       </c>
       <c r="I8" s="3">
-        <v>2170700</v>
+        <v>1555300</v>
       </c>
       <c r="J8" s="3">
+        <v>2099200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2013000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2103900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2072600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2430900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2371300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2291000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2189100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2386100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2222700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2102500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2033500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2114700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1839400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1671300</v>
+        <v>1703800</v>
       </c>
       <c r="E9" s="3">
-        <v>1898100</v>
+        <v>1616300</v>
       </c>
       <c r="F9" s="3">
-        <v>1588100</v>
+        <v>1835600</v>
       </c>
       <c r="G9" s="3">
-        <v>1373100</v>
+        <v>1535800</v>
       </c>
       <c r="H9" s="3">
-        <v>1356400</v>
+        <v>1327800</v>
       </c>
       <c r="I9" s="3">
-        <v>1816300</v>
+        <v>1311700</v>
       </c>
       <c r="J9" s="3">
+        <v>1756500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1673400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1754200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1742700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2038100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1933800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1917100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1828800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2011100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1840300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1727900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1665600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1714700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1490900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>322100</v>
+        <v>308800</v>
       </c>
       <c r="E10" s="3">
-        <v>366400</v>
+        <v>311500</v>
       </c>
       <c r="F10" s="3">
-        <v>311800</v>
+        <v>354300</v>
       </c>
       <c r="G10" s="3">
-        <v>247900</v>
+        <v>301600</v>
       </c>
       <c r="H10" s="3">
-        <v>251900</v>
+        <v>239700</v>
       </c>
       <c r="I10" s="3">
-        <v>354400</v>
+        <v>243600</v>
       </c>
       <c r="J10" s="3">
+        <v>342700</v>
+      </c>
+      <c r="K10" s="3">
         <v>339600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>349600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>330000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>392800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>437500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>373900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>360400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>375000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>382400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>374600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>367900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>348500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-14800</v>
+        <v>-5800</v>
       </c>
       <c r="E14" s="3">
-        <v>30400</v>
+        <v>-14300</v>
       </c>
       <c r="F14" s="3">
-        <v>7800</v>
+        <v>29400</v>
       </c>
       <c r="G14" s="3">
-        <v>14900</v>
+        <v>7500</v>
       </c>
       <c r="H14" s="3">
-        <v>42200</v>
+        <v>14400</v>
       </c>
       <c r="I14" s="3">
-        <v>13200</v>
+        <v>40800</v>
       </c>
       <c r="J14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K14" s="3">
         <v>8800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>40100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-3100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>106500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>22900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>142600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-45100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1944100</v>
+        <v>1976300</v>
       </c>
       <c r="E17" s="3">
-        <v>2211700</v>
+        <v>1880100</v>
       </c>
       <c r="F17" s="3">
-        <v>1883800</v>
+        <v>2138900</v>
       </c>
       <c r="G17" s="3">
-        <v>1655000</v>
+        <v>1821700</v>
       </c>
       <c r="H17" s="3">
-        <v>1661800</v>
+        <v>1600500</v>
       </c>
       <c r="I17" s="3">
-        <v>2108500</v>
+        <v>1607100</v>
       </c>
       <c r="J17" s="3">
+        <v>2039100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1980600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2063200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2034200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2373600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2244000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2208700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2114500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2388300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2141400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2002700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1941400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2125400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1701300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49200</v>
+        <v>36200</v>
       </c>
       <c r="E18" s="3">
-        <v>52800</v>
+        <v>47600</v>
       </c>
       <c r="F18" s="3">
-        <v>16200</v>
+        <v>51100</v>
       </c>
       <c r="G18" s="3">
-        <v>-34100</v>
+        <v>15700</v>
       </c>
       <c r="H18" s="3">
-        <v>-53500</v>
+        <v>-32900</v>
       </c>
       <c r="I18" s="3">
-        <v>62200</v>
+        <v>-51700</v>
       </c>
       <c r="J18" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K18" s="3">
         <v>32400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>57300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>127300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>82300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>99800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>92100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>138000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27100</v>
+        <v>19200</v>
       </c>
       <c r="E20" s="3">
-        <v>88700</v>
+        <v>26200</v>
       </c>
       <c r="F20" s="3">
+        <v>85700</v>
+      </c>
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-18200</v>
-      </c>
       <c r="H20" s="3">
-        <v>173100</v>
+        <v>-17600</v>
       </c>
       <c r="I20" s="3">
-        <v>90400</v>
+        <v>167400</v>
       </c>
       <c r="J20" s="3">
+        <v>87400</v>
+      </c>
+      <c r="K20" s="3">
         <v>18700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>36300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>75200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>13000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>18100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>153900</v>
+        <v>130300</v>
       </c>
       <c r="E21" s="3">
-        <v>211300</v>
+        <v>148900</v>
       </c>
       <c r="F21" s="3">
-        <v>97200</v>
+        <v>204300</v>
       </c>
       <c r="G21" s="3">
-        <v>19300</v>
+        <v>94000</v>
       </c>
       <c r="H21" s="3">
-        <v>192100</v>
+        <v>18600</v>
       </c>
       <c r="I21" s="3">
-        <v>218400</v>
+        <v>185800</v>
       </c>
       <c r="J21" s="3">
+        <v>211200</v>
+      </c>
+      <c r="K21" s="3">
         <v>124100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>131200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>115700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>126800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>219700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>152600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>120100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>66900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>177600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>228900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>155400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>51500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>212000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="E22" s="3">
-        <v>7900</v>
+        <v>6900</v>
       </c>
       <c r="F22" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J22" s="3">
         <v>8800</v>
       </c>
-      <c r="H22" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="O22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="P22" s="3">
         <v>9100</v>
       </c>
-      <c r="J22" s="3">
-        <v>9900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>10400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>10400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8900</v>
-      </c>
-      <c r="R22" s="3">
-        <v>9200</v>
       </c>
       <c r="S22" s="3">
         <v>9200</v>
       </c>
       <c r="T22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="U22" s="3">
         <v>8700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>69200</v>
+        <v>48300</v>
       </c>
       <c r="E23" s="3">
-        <v>133600</v>
+        <v>66900</v>
       </c>
       <c r="F23" s="3">
-        <v>10300</v>
+        <v>129200</v>
       </c>
       <c r="G23" s="3">
-        <v>-61100</v>
+        <v>9900</v>
       </c>
       <c r="H23" s="3">
-        <v>111400</v>
+        <v>-59000</v>
       </c>
       <c r="I23" s="3">
-        <v>143500</v>
+        <v>107700</v>
       </c>
       <c r="J23" s="3">
+        <v>138700</v>
+      </c>
+      <c r="K23" s="3">
         <v>41100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>142400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>84800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>50700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>108400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>165800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>89500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>148700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26100</v>
+        <v>16800</v>
       </c>
       <c r="E24" s="3">
-        <v>42000</v>
+        <v>25200</v>
       </c>
       <c r="F24" s="3">
-        <v>11400</v>
+        <v>40600</v>
       </c>
       <c r="G24" s="3">
-        <v>-6100</v>
+        <v>11100</v>
       </c>
       <c r="H24" s="3">
-        <v>36700</v>
+        <v>-5900</v>
       </c>
       <c r="I24" s="3">
-        <v>46100</v>
+        <v>35500</v>
       </c>
       <c r="J24" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K24" s="3">
         <v>22400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-50000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>49000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>29400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-8200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>30600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>43100</v>
+        <v>31500</v>
       </c>
       <c r="E26" s="3">
-        <v>91600</v>
+        <v>41700</v>
       </c>
       <c r="F26" s="3">
-        <v>-1200</v>
+        <v>88600</v>
       </c>
       <c r="G26" s="3">
-        <v>-54900</v>
+        <v>-1100</v>
       </c>
       <c r="H26" s="3">
-        <v>74700</v>
+        <v>-53100</v>
       </c>
       <c r="I26" s="3">
-        <v>97400</v>
+        <v>72200</v>
       </c>
       <c r="J26" s="3">
+        <v>94200</v>
+      </c>
+      <c r="K26" s="3">
         <v>18700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>107400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>93400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>68200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>79000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>141400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>68700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>118000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38500</v>
+        <v>26100</v>
       </c>
       <c r="E27" s="3">
-        <v>86900</v>
+        <v>37300</v>
       </c>
       <c r="F27" s="3">
-        <v>-10100</v>
+        <v>84000</v>
       </c>
       <c r="G27" s="3">
-        <v>-57000</v>
+        <v>-9800</v>
       </c>
       <c r="H27" s="3">
-        <v>71300</v>
+        <v>-55200</v>
       </c>
       <c r="I27" s="3">
-        <v>92800</v>
+        <v>69000</v>
       </c>
       <c r="J27" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K27" s="3">
         <v>12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>83500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>68100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>134300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>61800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>108400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27100</v>
+        <v>-19200</v>
       </c>
       <c r="E32" s="3">
-        <v>-88700</v>
+        <v>-26200</v>
       </c>
       <c r="F32" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
-        <v>18200</v>
-      </c>
       <c r="H32" s="3">
-        <v>-173100</v>
+        <v>17600</v>
       </c>
       <c r="I32" s="3">
-        <v>-90400</v>
+        <v>-167400</v>
       </c>
       <c r="J32" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-18700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-36300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-75200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-13000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-18100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38500</v>
+        <v>26100</v>
       </c>
       <c r="E33" s="3">
-        <v>86900</v>
+        <v>37300</v>
       </c>
       <c r="F33" s="3">
-        <v>-10100</v>
+        <v>84000</v>
       </c>
       <c r="G33" s="3">
-        <v>-57000</v>
+        <v>-9800</v>
       </c>
       <c r="H33" s="3">
-        <v>71300</v>
+        <v>-55200</v>
       </c>
       <c r="I33" s="3">
-        <v>92800</v>
+        <v>69000</v>
       </c>
       <c r="J33" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K33" s="3">
         <v>12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>83500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>68100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>134300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>61800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>108400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38500</v>
+        <v>26100</v>
       </c>
       <c r="E35" s="3">
-        <v>86900</v>
+        <v>37300</v>
       </c>
       <c r="F35" s="3">
-        <v>-10100</v>
+        <v>84000</v>
       </c>
       <c r="G35" s="3">
-        <v>-57000</v>
+        <v>-9800</v>
       </c>
       <c r="H35" s="3">
-        <v>71300</v>
+        <v>-55200</v>
       </c>
       <c r="I35" s="3">
-        <v>92800</v>
+        <v>69000</v>
       </c>
       <c r="J35" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K35" s="3">
         <v>12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>83500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>68100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>134300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>61800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>108400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,109 +2660,113 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>794900</v>
+        <v>471100</v>
       </c>
       <c r="E41" s="3">
-        <v>768500</v>
+        <v>768800</v>
       </c>
       <c r="F41" s="3">
-        <v>695000</v>
+        <v>743200</v>
       </c>
       <c r="G41" s="3">
-        <v>745000</v>
+        <v>672100</v>
       </c>
       <c r="H41" s="3">
-        <v>1027500</v>
+        <v>720500</v>
       </c>
       <c r="I41" s="3">
-        <v>495200</v>
+        <v>993700</v>
       </c>
       <c r="J41" s="3">
+        <v>478900</v>
+      </c>
+      <c r="K41" s="3">
         <v>346200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>368300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>395300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>428900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>442600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>445400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>374100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>457700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>471100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>479700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>390800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>418400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>496400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30600</v>
+        <v>28800</v>
       </c>
       <c r="E42" s="3">
-        <v>26600</v>
+        <v>29600</v>
       </c>
       <c r="F42" s="3">
-        <v>21300</v>
+        <v>25800</v>
       </c>
       <c r="G42" s="3">
-        <v>19300</v>
+        <v>20600</v>
       </c>
       <c r="H42" s="3">
-        <v>14900</v>
+        <v>18700</v>
       </c>
       <c r="I42" s="3">
-        <v>8200</v>
+        <v>14400</v>
       </c>
       <c r="J42" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K42" s="3">
         <v>14100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22800</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
@@ -2687,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S42" s="3">
         <v>300</v>
@@ -2696,471 +2786,495 @@
         <v>300</v>
       </c>
       <c r="U42" s="3">
+        <v>300</v>
+      </c>
+      <c r="V42" s="3">
         <v>500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1817300</v>
+        <v>1762100</v>
       </c>
       <c r="E43" s="3">
-        <v>1740300</v>
+        <v>1757400</v>
       </c>
       <c r="F43" s="3">
-        <v>1614900</v>
+        <v>1683000</v>
       </c>
       <c r="G43" s="3">
-        <v>1427800</v>
+        <v>1561700</v>
       </c>
       <c r="H43" s="3">
-        <v>1426800</v>
+        <v>1380800</v>
       </c>
       <c r="I43" s="3">
-        <v>1742400</v>
+        <v>1379800</v>
       </c>
       <c r="J43" s="3">
+        <v>1685000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1802000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1774400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1859900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2097400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2044600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2030100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1984900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2017000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2008900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1887000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1815800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1753000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1623600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1258000</v>
+        <v>1293400</v>
       </c>
       <c r="E44" s="3">
-        <v>1100800</v>
+        <v>1216600</v>
       </c>
       <c r="F44" s="3">
-        <v>1098200</v>
+        <v>1064600</v>
       </c>
       <c r="G44" s="3">
-        <v>1078300</v>
+        <v>1062000</v>
       </c>
       <c r="H44" s="3">
-        <v>1113600</v>
+        <v>1042800</v>
       </c>
       <c r="I44" s="3">
-        <v>1055500</v>
+        <v>1077000</v>
       </c>
       <c r="J44" s="3">
+        <v>1020700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1206600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1150600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1183100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1181000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1242300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1166900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1121800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1028700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1110200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1068000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1019900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>925600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>931400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>335300</v>
+        <v>275300</v>
       </c>
       <c r="E45" s="3">
-        <v>279300</v>
+        <v>324300</v>
       </c>
       <c r="F45" s="3">
-        <v>278600</v>
+        <v>270100</v>
       </c>
       <c r="G45" s="3">
-        <v>238800</v>
+        <v>269400</v>
       </c>
       <c r="H45" s="3">
-        <v>265400</v>
+        <v>231000</v>
       </c>
       <c r="I45" s="3">
-        <v>216800</v>
+        <v>256600</v>
       </c>
       <c r="J45" s="3">
+        <v>209700</v>
+      </c>
+      <c r="K45" s="3">
         <v>250700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>245100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>262500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>311100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>260100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>243600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>229600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>348700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>316300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>301900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>294400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>325300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4236200</v>
+        <v>3830600</v>
       </c>
       <c r="E46" s="3">
-        <v>3915600</v>
+        <v>4096700</v>
       </c>
       <c r="F46" s="3">
-        <v>3707900</v>
+        <v>3786600</v>
       </c>
       <c r="G46" s="3">
-        <v>3509300</v>
+        <v>3585800</v>
       </c>
       <c r="H46" s="3">
-        <v>3848300</v>
+        <v>3393800</v>
       </c>
       <c r="I46" s="3">
-        <v>3518100</v>
+        <v>3721600</v>
       </c>
       <c r="J46" s="3">
+        <v>3402200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3619700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3547700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3708100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4041100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3989700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3885900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3710500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3762400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3906800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3736800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3527600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3391900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3377000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>952500</v>
+        <v>944000</v>
       </c>
       <c r="E47" s="3">
-        <v>998800</v>
+        <v>921200</v>
       </c>
       <c r="F47" s="3">
-        <v>981100</v>
+        <v>965900</v>
       </c>
       <c r="G47" s="3">
-        <v>905500</v>
+        <v>948800</v>
       </c>
       <c r="H47" s="3">
-        <v>895300</v>
+        <v>875700</v>
       </c>
       <c r="I47" s="3">
-        <v>968700</v>
+        <v>865800</v>
       </c>
       <c r="J47" s="3">
+        <v>936800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1090200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1066100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1062600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1193700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1158400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1237500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1200800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1239600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1221900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1137400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1096400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1162400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1059900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2280000</v>
+        <v>2222100</v>
       </c>
       <c r="E48" s="3">
-        <v>2247800</v>
+        <v>2204900</v>
       </c>
       <c r="F48" s="3">
-        <v>2220800</v>
+        <v>2173800</v>
       </c>
       <c r="G48" s="3">
-        <v>2273100</v>
+        <v>2147700</v>
       </c>
       <c r="H48" s="3">
-        <v>2263000</v>
+        <v>2198300</v>
       </c>
       <c r="I48" s="3">
-        <v>2315900</v>
+        <v>2188500</v>
       </c>
       <c r="J48" s="3">
+        <v>2239700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2274300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2257400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2213800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2204100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2093800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2081600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1996800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1959200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1941700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1933000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1907300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1822700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1766700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>185800</v>
+        <v>175600</v>
       </c>
       <c r="E49" s="3">
-        <v>184500</v>
+        <v>179600</v>
       </c>
       <c r="F49" s="3">
-        <v>176800</v>
+        <v>178400</v>
       </c>
       <c r="G49" s="3">
-        <v>171300</v>
+        <v>171000</v>
       </c>
       <c r="H49" s="3">
-        <v>156900</v>
+        <v>165600</v>
       </c>
       <c r="I49" s="3">
-        <v>146600</v>
+        <v>151700</v>
       </c>
       <c r="J49" s="3">
+        <v>141800</v>
+      </c>
+      <c r="K49" s="3">
         <v>128200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>122900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>113600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>117300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>95900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>92400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>90600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>102200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>96900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>87500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>86800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>86400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>79700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>315300</v>
+        <v>304300</v>
       </c>
       <c r="E52" s="3">
-        <v>233200</v>
+        <v>304900</v>
       </c>
       <c r="F52" s="3">
-        <v>288900</v>
+        <v>225500</v>
       </c>
       <c r="G52" s="3">
-        <v>305000</v>
+        <v>279400</v>
       </c>
       <c r="H52" s="3">
-        <v>309800</v>
+        <v>295000</v>
       </c>
       <c r="I52" s="3">
-        <v>289600</v>
+        <v>299600</v>
       </c>
       <c r="J52" s="3">
+        <v>280100</v>
+      </c>
+      <c r="K52" s="3">
         <v>304600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>339800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>338700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>304900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>273800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>279400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>276600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>301500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>261900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>263500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>260800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>190200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>240400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7969800</v>
+        <v>7476700</v>
       </c>
       <c r="E54" s="3">
-        <v>7579900</v>
+        <v>7707400</v>
       </c>
       <c r="F54" s="3">
-        <v>7375600</v>
+        <v>7330300</v>
       </c>
       <c r="G54" s="3">
-        <v>7164300</v>
+        <v>7132700</v>
       </c>
       <c r="H54" s="3">
-        <v>7473300</v>
+        <v>6928300</v>
       </c>
       <c r="I54" s="3">
-        <v>7239000</v>
+        <v>7227200</v>
       </c>
       <c r="J54" s="3">
+        <v>7000600</v>
+      </c>
+      <c r="K54" s="3">
         <v>7417000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7334000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7436800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7861200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7611600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7576800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7275300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7310000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7429200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7158200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6878900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6653600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6523700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1098900</v>
+        <v>944800</v>
       </c>
       <c r="E57" s="3">
-        <v>1052200</v>
+        <v>1062700</v>
       </c>
       <c r="F57" s="3">
-        <v>956800</v>
+        <v>1017600</v>
       </c>
       <c r="G57" s="3">
-        <v>843900</v>
+        <v>925200</v>
       </c>
       <c r="H57" s="3">
-        <v>872300</v>
+        <v>816100</v>
       </c>
       <c r="I57" s="3">
-        <v>1016500</v>
+        <v>843500</v>
       </c>
       <c r="J57" s="3">
+        <v>983100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1079200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1034700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1115500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1263000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1184200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1167500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1124900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1124500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1078800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1043900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>979900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>958700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>933000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1483500</v>
+        <v>1216500</v>
       </c>
       <c r="E58" s="3">
-        <v>1230200</v>
+        <v>1434700</v>
       </c>
       <c r="F58" s="3">
-        <v>1427300</v>
+        <v>1189700</v>
       </c>
       <c r="G58" s="3">
-        <v>1412900</v>
+        <v>1380300</v>
       </c>
       <c r="H58" s="3">
-        <v>1422200</v>
+        <v>1366300</v>
       </c>
       <c r="I58" s="3">
-        <v>1157700</v>
+        <v>1375400</v>
       </c>
       <c r="J58" s="3">
+        <v>1119500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1255200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1143000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1057800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1025500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1002200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1041000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>992900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2011900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1069900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1039900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1186800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>889700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>906300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>623100</v>
+        <v>618300</v>
       </c>
       <c r="E59" s="3">
-        <v>589100</v>
+        <v>602600</v>
       </c>
       <c r="F59" s="3">
-        <v>649300</v>
+        <v>569700</v>
       </c>
       <c r="G59" s="3">
-        <v>571000</v>
+        <v>627900</v>
       </c>
       <c r="H59" s="3">
-        <v>753500</v>
+        <v>552200</v>
       </c>
       <c r="I59" s="3">
-        <v>737800</v>
+        <v>728700</v>
       </c>
       <c r="J59" s="3">
+        <v>713500</v>
+      </c>
+      <c r="K59" s="3">
         <v>722800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>787200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>823100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>898400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>799400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>795000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>858300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>810600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>729400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>698800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>655700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>753700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>634400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3205500</v>
+        <v>2779700</v>
       </c>
       <c r="E60" s="3">
-        <v>2871500</v>
+        <v>3099900</v>
       </c>
       <c r="F60" s="3">
-        <v>3033300</v>
+        <v>2776900</v>
       </c>
       <c r="G60" s="3">
-        <v>2827800</v>
+        <v>2933400</v>
       </c>
       <c r="H60" s="3">
-        <v>3048000</v>
+        <v>2734700</v>
       </c>
       <c r="I60" s="3">
-        <v>2912000</v>
+        <v>2947600</v>
       </c>
       <c r="J60" s="3">
+        <v>2816100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3057300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2964900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2996400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3186900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2985700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3003400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2976100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2986200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2878200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2782600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2822400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2602100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2473700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1419200</v>
+        <v>1441700</v>
       </c>
       <c r="E61" s="3">
-        <v>1486600</v>
+        <v>1372400</v>
       </c>
       <c r="F61" s="3">
-        <v>1205700</v>
+        <v>1437700</v>
       </c>
       <c r="G61" s="3">
-        <v>1206100</v>
+        <v>1166000</v>
       </c>
       <c r="H61" s="3">
-        <v>1275400</v>
+        <v>1166400</v>
       </c>
       <c r="I61" s="3">
-        <v>1202800</v>
+        <v>1233400</v>
       </c>
       <c r="J61" s="3">
+        <v>1163200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1124300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1156800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1249500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1338700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1430100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1409800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1282300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1285700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1404900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1393400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1284400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1350300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1387100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>632900</v>
+        <v>619700</v>
       </c>
       <c r="E62" s="3">
-        <v>565200</v>
+        <v>612100</v>
       </c>
       <c r="F62" s="3">
-        <v>686900</v>
+        <v>546500</v>
       </c>
       <c r="G62" s="3">
-        <v>693600</v>
+        <v>664200</v>
       </c>
       <c r="H62" s="3">
-        <v>686700</v>
+        <v>670800</v>
       </c>
       <c r="I62" s="3">
-        <v>636800</v>
+        <v>664100</v>
       </c>
       <c r="J62" s="3">
+        <v>615900</v>
+      </c>
+      <c r="K62" s="3">
         <v>660700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>664500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>666500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>645700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>603400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>610100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>590600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>578600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>632000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>612200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>605000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>598500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>669800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5549300</v>
+        <v>5128800</v>
       </c>
       <c r="E66" s="3">
-        <v>5212500</v>
+        <v>5366500</v>
       </c>
       <c r="F66" s="3">
+        <v>5040900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>5030300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4831400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>5098700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4883700</v>
+      </c>
+      <c r="K66" s="3">
+        <v>5140700</v>
+      </c>
+      <c r="L66" s="3">
+        <v>5078600</v>
+      </c>
+      <c r="M66" s="3">
         <v>5201600</v>
       </c>
-      <c r="G66" s="3">
-        <v>4995900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5272300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>5050000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5140700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>5078600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>5201600</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5481200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5318700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5331200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5151200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5171900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5232100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5098300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4997900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4820100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4780100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1533800</v>
+        <v>1509300</v>
       </c>
       <c r="E72" s="3">
-        <v>1535400</v>
+        <v>1483300</v>
       </c>
       <c r="F72" s="3">
-        <v>1448500</v>
+        <v>1484900</v>
       </c>
       <c r="G72" s="3">
-        <v>1460600</v>
+        <v>1400800</v>
       </c>
       <c r="H72" s="3">
-        <v>1517600</v>
+        <v>1412500</v>
       </c>
       <c r="I72" s="3">
-        <v>1504100</v>
+        <v>1467600</v>
       </c>
       <c r="J72" s="3">
+        <v>1454500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1411200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1411100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1371500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1458300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1334100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1231100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1145200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1158300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1164400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1096400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>962100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>922000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>935100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2420500</v>
+        <v>2347900</v>
       </c>
       <c r="E76" s="3">
-        <v>2367400</v>
+        <v>2340800</v>
       </c>
       <c r="F76" s="3">
-        <v>2174000</v>
+        <v>2289500</v>
       </c>
       <c r="G76" s="3">
-        <v>2168400</v>
+        <v>2102400</v>
       </c>
       <c r="H76" s="3">
-        <v>2200900</v>
+        <v>2097000</v>
       </c>
       <c r="I76" s="3">
-        <v>2189000</v>
+        <v>2128400</v>
       </c>
       <c r="J76" s="3">
+        <v>2116900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2276300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2255400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2235100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2380000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2292900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2245600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2124100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2138100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2197100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2059900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1881000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1833500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1743600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38500</v>
+        <v>26100</v>
       </c>
       <c r="E81" s="3">
-        <v>86900</v>
+        <v>37300</v>
       </c>
       <c r="F81" s="3">
-        <v>-10100</v>
+        <v>84000</v>
       </c>
       <c r="G81" s="3">
-        <v>-57000</v>
+        <v>-9800</v>
       </c>
       <c r="H81" s="3">
-        <v>71300</v>
+        <v>-55200</v>
       </c>
       <c r="I81" s="3">
-        <v>92800</v>
+        <v>69000</v>
       </c>
       <c r="J81" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K81" s="3">
         <v>12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>83500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>68100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>134300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>61800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>108400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>77600</v>
+        <v>74900</v>
       </c>
       <c r="E83" s="3">
-        <v>69800</v>
+        <v>75000</v>
       </c>
       <c r="F83" s="3">
-        <v>79200</v>
+        <v>67500</v>
       </c>
       <c r="G83" s="3">
-        <v>71500</v>
+        <v>76600</v>
       </c>
       <c r="H83" s="3">
-        <v>72500</v>
+        <v>69200</v>
       </c>
       <c r="I83" s="3">
-        <v>65800</v>
+        <v>70100</v>
       </c>
       <c r="J83" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K83" s="3">
         <v>73000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>66600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>59000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>67200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>58700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>60900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>55800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>60000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>57200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>49200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>55900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2012600</v>
+        <v>1908000</v>
       </c>
       <c r="E8" s="3">
-        <v>1927700</v>
+        <v>1948600</v>
       </c>
       <c r="F8" s="3">
-        <v>2189900</v>
+        <v>1866500</v>
       </c>
       <c r="G8" s="3">
-        <v>1837400</v>
+        <v>2120300</v>
       </c>
       <c r="H8" s="3">
-        <v>1567500</v>
+        <v>1779000</v>
       </c>
       <c r="I8" s="3">
-        <v>1555300</v>
+        <v>1517700</v>
       </c>
       <c r="J8" s="3">
+        <v>1505900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2099200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2013000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2103900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2072600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2430900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2371300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2291000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2189100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2386100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2222700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2102500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2033500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2114700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1839400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1703800</v>
+        <v>1649200</v>
       </c>
       <c r="E9" s="3">
-        <v>1616300</v>
+        <v>1649700</v>
       </c>
       <c r="F9" s="3">
-        <v>1835600</v>
+        <v>1564900</v>
       </c>
       <c r="G9" s="3">
-        <v>1535800</v>
+        <v>1777200</v>
       </c>
       <c r="H9" s="3">
-        <v>1327800</v>
+        <v>1487000</v>
       </c>
       <c r="I9" s="3">
-        <v>1311700</v>
+        <v>1285600</v>
       </c>
       <c r="J9" s="3">
+        <v>1270000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1756500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1673400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1754200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1742700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2038100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1933800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1917100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1828800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2011100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1840300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1727900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1665600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1714700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1490900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>308800</v>
+        <v>258800</v>
       </c>
       <c r="E10" s="3">
-        <v>311500</v>
+        <v>298900</v>
       </c>
       <c r="F10" s="3">
-        <v>354300</v>
+        <v>301600</v>
       </c>
       <c r="G10" s="3">
-        <v>301600</v>
+        <v>343100</v>
       </c>
       <c r="H10" s="3">
-        <v>239700</v>
+        <v>292000</v>
       </c>
       <c r="I10" s="3">
-        <v>243600</v>
+        <v>232100</v>
       </c>
       <c r="J10" s="3">
+        <v>235900</v>
+      </c>
+      <c r="K10" s="3">
         <v>342700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>339600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>349600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>330000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>392800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>437500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>373900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>360400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>375000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>382400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>374600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>367900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>348500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1143,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-5800</v>
+        <v>11400</v>
       </c>
       <c r="E14" s="3">
-        <v>-14300</v>
+        <v>-5600</v>
       </c>
       <c r="F14" s="3">
-        <v>29400</v>
+        <v>-13800</v>
       </c>
       <c r="G14" s="3">
-        <v>7500</v>
+        <v>28500</v>
       </c>
       <c r="H14" s="3">
-        <v>14400</v>
+        <v>7300</v>
       </c>
       <c r="I14" s="3">
-        <v>40800</v>
+        <v>14000</v>
       </c>
       <c r="J14" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K14" s="3">
         <v>12800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>40100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-3100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>106500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>22900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>142600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-45100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1976300</v>
+        <v>1937800</v>
       </c>
       <c r="E17" s="3">
-        <v>1880100</v>
+        <v>1913500</v>
       </c>
       <c r="F17" s="3">
-        <v>2138900</v>
+        <v>1820400</v>
       </c>
       <c r="G17" s="3">
-        <v>1821700</v>
+        <v>2070900</v>
       </c>
       <c r="H17" s="3">
-        <v>1600500</v>
+        <v>1763900</v>
       </c>
       <c r="I17" s="3">
-        <v>1607100</v>
+        <v>1549600</v>
       </c>
       <c r="J17" s="3">
+        <v>1556000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2039100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1980600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2063200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2034200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2373600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2244000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2208700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2114500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2388300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2141400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2002700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1941400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2125400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1701300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>36200</v>
+        <v>-29800</v>
       </c>
       <c r="E18" s="3">
-        <v>47600</v>
+        <v>35100</v>
       </c>
       <c r="F18" s="3">
-        <v>51100</v>
+        <v>46100</v>
       </c>
       <c r="G18" s="3">
-        <v>15700</v>
+        <v>49400</v>
       </c>
       <c r="H18" s="3">
-        <v>-32900</v>
+        <v>15200</v>
       </c>
       <c r="I18" s="3">
-        <v>-51700</v>
+        <v>-31900</v>
       </c>
       <c r="J18" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="K18" s="3">
         <v>60100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>40700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>57300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>127300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>82300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>81300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>99800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>92100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>138000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19200</v>
+        <v>16900</v>
       </c>
       <c r="E20" s="3">
-        <v>26200</v>
+        <v>18600</v>
       </c>
       <c r="F20" s="3">
-        <v>85700</v>
+        <v>25400</v>
       </c>
       <c r="G20" s="3">
-        <v>1800</v>
+        <v>83000</v>
       </c>
       <c r="H20" s="3">
-        <v>-17600</v>
+        <v>1700</v>
       </c>
       <c r="I20" s="3">
-        <v>167400</v>
+        <v>-17100</v>
       </c>
       <c r="J20" s="3">
+        <v>162100</v>
+      </c>
+      <c r="K20" s="3">
         <v>87400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>25200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>13300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>36300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>75200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>13000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>18100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>130300</v>
+        <v>63700</v>
       </c>
       <c r="E21" s="3">
-        <v>148900</v>
+        <v>126200</v>
       </c>
       <c r="F21" s="3">
-        <v>204300</v>
+        <v>144100</v>
       </c>
       <c r="G21" s="3">
-        <v>94000</v>
+        <v>197800</v>
       </c>
       <c r="H21" s="3">
-        <v>18600</v>
+        <v>91000</v>
       </c>
       <c r="I21" s="3">
-        <v>185800</v>
+        <v>18000</v>
       </c>
       <c r="J21" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K21" s="3">
         <v>211200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>131200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>115700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>126800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>219700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>152600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>120100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>66900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>177600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>228900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>155400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>51500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>212000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="E22" s="3">
         <v>6900</v>
       </c>
       <c r="F22" s="3">
-        <v>7600</v>
+        <v>6700</v>
       </c>
       <c r="G22" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="H22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="L22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="M22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="N22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R22" s="3">
         <v>8500</v>
       </c>
-      <c r="I22" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>8800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>9900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>10400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>10400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>8500</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>9200</v>
       </c>
       <c r="T22" s="3">
         <v>9200</v>
       </c>
       <c r="U22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="V22" s="3">
         <v>8700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>48300</v>
+        <v>-20400</v>
       </c>
       <c r="E23" s="3">
-        <v>66900</v>
+        <v>46800</v>
       </c>
       <c r="F23" s="3">
-        <v>129200</v>
+        <v>64800</v>
       </c>
       <c r="G23" s="3">
-        <v>9900</v>
+        <v>125100</v>
       </c>
       <c r="H23" s="3">
-        <v>-59000</v>
+        <v>9600</v>
       </c>
       <c r="I23" s="3">
-        <v>107700</v>
+        <v>-57200</v>
       </c>
       <c r="J23" s="3">
+        <v>104300</v>
+      </c>
+      <c r="K23" s="3">
         <v>138700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>41100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>57400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>142400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>84800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>50700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>108400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>165800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>89500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>148700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16800</v>
+        <v>5200</v>
       </c>
       <c r="E24" s="3">
-        <v>25200</v>
+        <v>16300</v>
       </c>
       <c r="F24" s="3">
-        <v>40600</v>
+        <v>24400</v>
       </c>
       <c r="G24" s="3">
-        <v>11100</v>
+        <v>39300</v>
       </c>
       <c r="H24" s="3">
-        <v>-5900</v>
+        <v>10700</v>
       </c>
       <c r="I24" s="3">
-        <v>35500</v>
+        <v>-5700</v>
       </c>
       <c r="J24" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K24" s="3">
         <v>44600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-50000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>49000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>29400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-8200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>30600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>31500</v>
+        <v>-25600</v>
       </c>
       <c r="E26" s="3">
-        <v>41700</v>
+        <v>30500</v>
       </c>
       <c r="F26" s="3">
-        <v>88600</v>
+        <v>40400</v>
       </c>
       <c r="G26" s="3">
+        <v>85800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-53100</v>
-      </c>
       <c r="I26" s="3">
-        <v>72200</v>
+        <v>-51400</v>
       </c>
       <c r="J26" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K26" s="3">
         <v>94200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>107400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>93400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>68200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>79000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>141400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>68700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>118000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26100</v>
+        <v>-32900</v>
       </c>
       <c r="E27" s="3">
-        <v>37300</v>
+        <v>25300</v>
       </c>
       <c r="F27" s="3">
-        <v>84000</v>
+        <v>36100</v>
       </c>
       <c r="G27" s="3">
-        <v>-9800</v>
+        <v>81400</v>
       </c>
       <c r="H27" s="3">
-        <v>-55200</v>
+        <v>-9400</v>
       </c>
       <c r="I27" s="3">
-        <v>69000</v>
+        <v>-53400</v>
       </c>
       <c r="J27" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K27" s="3">
         <v>89800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>83500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>68100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>134300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>61800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>108400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19200</v>
+        <v>-16900</v>
       </c>
       <c r="E32" s="3">
-        <v>-26200</v>
+        <v>-18600</v>
       </c>
       <c r="F32" s="3">
-        <v>-85700</v>
+        <v>-25400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1800</v>
+        <v>-83000</v>
       </c>
       <c r="H32" s="3">
-        <v>17600</v>
+        <v>-1700</v>
       </c>
       <c r="I32" s="3">
-        <v>-167400</v>
+        <v>17100</v>
       </c>
       <c r="J32" s="3">
+        <v>-162100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-87400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-25200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-13300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-36300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-75200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-13000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-18100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26100</v>
+        <v>-32900</v>
       </c>
       <c r="E33" s="3">
-        <v>37300</v>
+        <v>25300</v>
       </c>
       <c r="F33" s="3">
-        <v>84000</v>
+        <v>36100</v>
       </c>
       <c r="G33" s="3">
-        <v>-9800</v>
+        <v>81400</v>
       </c>
       <c r="H33" s="3">
-        <v>-55200</v>
+        <v>-9400</v>
       </c>
       <c r="I33" s="3">
-        <v>69000</v>
+        <v>-53400</v>
       </c>
       <c r="J33" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K33" s="3">
         <v>89800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>83500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>30100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>68100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>134300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>61800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>108400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26100</v>
+        <v>-32900</v>
       </c>
       <c r="E35" s="3">
-        <v>37300</v>
+        <v>25300</v>
       </c>
       <c r="F35" s="3">
-        <v>84000</v>
+        <v>36100</v>
       </c>
       <c r="G35" s="3">
-        <v>-9800</v>
+        <v>81400</v>
       </c>
       <c r="H35" s="3">
-        <v>-55200</v>
+        <v>-9400</v>
       </c>
       <c r="I35" s="3">
-        <v>69000</v>
+        <v>-53400</v>
       </c>
       <c r="J35" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K35" s="3">
         <v>89800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>83500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>30100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>68100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>134300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>61800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>108400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,115 +2746,119 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>549200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>456100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>744300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>719600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>650700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>697600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>962100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>478900</v>
+      </c>
+      <c r="L41" s="3">
+        <v>346200</v>
+      </c>
+      <c r="M41" s="3">
+        <v>368300</v>
+      </c>
+      <c r="N41" s="3">
+        <v>395300</v>
+      </c>
+      <c r="O41" s="3">
+        <v>428900</v>
+      </c>
+      <c r="P41" s="3">
+        <v>442600</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>445400</v>
+      </c>
+      <c r="R41" s="3">
+        <v>374100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>457700</v>
+      </c>
+      <c r="T41" s="3">
         <v>471100</v>
       </c>
-      <c r="E41" s="3">
-        <v>768800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>743200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>672100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>720500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>993700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>478900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>346200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>368300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>395300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>428900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>442600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>445400</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>374100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>457700</v>
-      </c>
-      <c r="S41" s="3">
-        <v>471100</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>479700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>390800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>418400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>496400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28800</v>
+        <v>26700</v>
       </c>
       <c r="E42" s="3">
-        <v>29600</v>
+        <v>27900</v>
       </c>
       <c r="F42" s="3">
-        <v>25800</v>
+        <v>28700</v>
       </c>
       <c r="G42" s="3">
-        <v>20600</v>
+        <v>24900</v>
       </c>
       <c r="H42" s="3">
-        <v>18700</v>
+        <v>19900</v>
       </c>
       <c r="I42" s="3">
-        <v>14400</v>
+        <v>18100</v>
       </c>
       <c r="J42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K42" s="3">
         <v>7900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22800</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
@@ -2780,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T42" s="3">
         <v>300</v>
@@ -2789,492 +2878,516 @@
         <v>300</v>
       </c>
       <c r="V42" s="3">
+        <v>300</v>
+      </c>
+      <c r="W42" s="3">
         <v>500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1762100</v>
+        <v>1778300</v>
       </c>
       <c r="E43" s="3">
-        <v>1757400</v>
+        <v>1706100</v>
       </c>
       <c r="F43" s="3">
-        <v>1683000</v>
+        <v>1701600</v>
       </c>
       <c r="G43" s="3">
-        <v>1561700</v>
+        <v>1629500</v>
       </c>
       <c r="H43" s="3">
-        <v>1380800</v>
+        <v>1512100</v>
       </c>
       <c r="I43" s="3">
-        <v>1379800</v>
+        <v>1336900</v>
       </c>
       <c r="J43" s="3">
+        <v>1336000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1685000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1802000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1774400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1859900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2097400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2044600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2030100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1984900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2017000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2008900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1887000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1815800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1753000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1623600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1293400</v>
+        <v>1323500</v>
       </c>
       <c r="E44" s="3">
-        <v>1216600</v>
+        <v>1252300</v>
       </c>
       <c r="F44" s="3">
-        <v>1064600</v>
+        <v>1177900</v>
       </c>
       <c r="G44" s="3">
-        <v>1062000</v>
+        <v>1030700</v>
       </c>
       <c r="H44" s="3">
-        <v>1042800</v>
+        <v>1028300</v>
       </c>
       <c r="I44" s="3">
-        <v>1077000</v>
+        <v>1009600</v>
       </c>
       <c r="J44" s="3">
+        <v>1042700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1020700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1206600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1150600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1183100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1181000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1242300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1166900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1121800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1028700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1110200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1068000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1019900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>925600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>931400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>275300</v>
+        <v>313800</v>
       </c>
       <c r="E45" s="3">
-        <v>324300</v>
+        <v>266600</v>
       </c>
       <c r="F45" s="3">
-        <v>270100</v>
+        <v>314000</v>
       </c>
       <c r="G45" s="3">
-        <v>269400</v>
+        <v>261500</v>
       </c>
       <c r="H45" s="3">
-        <v>231000</v>
+        <v>260900</v>
       </c>
       <c r="I45" s="3">
-        <v>256600</v>
+        <v>223600</v>
       </c>
       <c r="J45" s="3">
+        <v>248500</v>
+      </c>
+      <c r="K45" s="3">
         <v>209700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>250700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>245100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>262500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>311100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>260100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>243600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>229600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>348700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>316300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>301900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>294400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>325300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3830600</v>
+        <v>3991500</v>
       </c>
       <c r="E46" s="3">
-        <v>4096700</v>
+        <v>3708900</v>
       </c>
       <c r="F46" s="3">
-        <v>3786600</v>
+        <v>3966500</v>
       </c>
       <c r="G46" s="3">
-        <v>3585800</v>
+        <v>3666300</v>
       </c>
       <c r="H46" s="3">
-        <v>3393800</v>
+        <v>3471900</v>
       </c>
       <c r="I46" s="3">
-        <v>3721600</v>
+        <v>3285900</v>
       </c>
       <c r="J46" s="3">
+        <v>3603300</v>
+      </c>
+      <c r="K46" s="3">
         <v>3402200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3619700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3547700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3708100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4041100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3989700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3885900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3710500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3762400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3906800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3736800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3527600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3391900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3377000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>944000</v>
+        <v>938200</v>
       </c>
       <c r="E47" s="3">
-        <v>921200</v>
+        <v>914000</v>
       </c>
       <c r="F47" s="3">
-        <v>965900</v>
+        <v>891900</v>
       </c>
       <c r="G47" s="3">
-        <v>948800</v>
+        <v>935200</v>
       </c>
       <c r="H47" s="3">
-        <v>875700</v>
+        <v>918700</v>
       </c>
       <c r="I47" s="3">
-        <v>865800</v>
+        <v>847800</v>
       </c>
       <c r="J47" s="3">
+        <v>838300</v>
+      </c>
+      <c r="K47" s="3">
         <v>936800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1090200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1066100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1062600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1193700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1158400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1237500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1200800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1239600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1221900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1137400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1096400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1162400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1059900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2222100</v>
+        <v>2147200</v>
       </c>
       <c r="E48" s="3">
-        <v>2204900</v>
+        <v>2151500</v>
       </c>
       <c r="F48" s="3">
-        <v>2173800</v>
+        <v>2134900</v>
       </c>
       <c r="G48" s="3">
-        <v>2147700</v>
+        <v>2104700</v>
       </c>
       <c r="H48" s="3">
-        <v>2198300</v>
+        <v>2079400</v>
       </c>
       <c r="I48" s="3">
-        <v>2188500</v>
+        <v>2128400</v>
       </c>
       <c r="J48" s="3">
+        <v>2118900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2239700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2274300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2257400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2213800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2204100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2093800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2081600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1996800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1959200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1941700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1933000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1907300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1822700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1766700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>175600</v>
+        <v>167800</v>
       </c>
       <c r="E49" s="3">
-        <v>179600</v>
+        <v>170100</v>
       </c>
       <c r="F49" s="3">
-        <v>178400</v>
+        <v>173900</v>
       </c>
       <c r="G49" s="3">
-        <v>171000</v>
+        <v>172700</v>
       </c>
       <c r="H49" s="3">
         <v>165600</v>
       </c>
       <c r="I49" s="3">
-        <v>151700</v>
+        <v>160400</v>
       </c>
       <c r="J49" s="3">
+        <v>146900</v>
+      </c>
+      <c r="K49" s="3">
         <v>141800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>128200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>122900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>113600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>117300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>95900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>92400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>90600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>102200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>96900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>87500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>86800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>86400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>79700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>304300</v>
+        <v>294900</v>
       </c>
       <c r="E52" s="3">
+        <v>294700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>295200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>218400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>270500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>285600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>290100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>280100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>304600</v>
+      </c>
+      <c r="M52" s="3">
+        <v>339800</v>
+      </c>
+      <c r="N52" s="3">
+        <v>338700</v>
+      </c>
+      <c r="O52" s="3">
         <v>304900</v>
       </c>
-      <c r="F52" s="3">
-        <v>225500</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="P52" s="3">
+        <v>273800</v>
+      </c>
+      <c r="Q52" s="3">
         <v>279400</v>
       </c>
-      <c r="H52" s="3">
-        <v>295000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>299600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>280100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>304600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>339800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>338700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>304900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>273800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>279400</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>276600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>301500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>261900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>263500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>260800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>190200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>240400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7476700</v>
+        <v>7539700</v>
       </c>
       <c r="E54" s="3">
-        <v>7707400</v>
+        <v>7239000</v>
       </c>
       <c r="F54" s="3">
-        <v>7330300</v>
+        <v>7462400</v>
       </c>
       <c r="G54" s="3">
-        <v>7132700</v>
+        <v>7097300</v>
       </c>
       <c r="H54" s="3">
-        <v>6928300</v>
+        <v>6906000</v>
       </c>
       <c r="I54" s="3">
-        <v>7227200</v>
+        <v>6708100</v>
       </c>
       <c r="J54" s="3">
+        <v>6997500</v>
+      </c>
+      <c r="K54" s="3">
         <v>7000600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7417000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7334000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7436800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7861200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7611600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7576800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7275300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7310000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7429200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7158200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6878900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6653600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6523700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>944800</v>
+        <v>1006900</v>
       </c>
       <c r="E57" s="3">
-        <v>1062700</v>
+        <v>914700</v>
       </c>
       <c r="F57" s="3">
-        <v>1017600</v>
+        <v>1028900</v>
       </c>
       <c r="G57" s="3">
-        <v>925200</v>
+        <v>985200</v>
       </c>
       <c r="H57" s="3">
-        <v>816100</v>
+        <v>895800</v>
       </c>
       <c r="I57" s="3">
-        <v>843500</v>
+        <v>790200</v>
       </c>
       <c r="J57" s="3">
+        <v>816700</v>
+      </c>
+      <c r="K57" s="3">
         <v>983100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1079200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1034700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1115500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1263000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1184200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1167500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1124900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1124500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1078800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1043900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>979900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>958700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>933000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1216500</v>
+        <v>1327000</v>
       </c>
       <c r="E58" s="3">
-        <v>1434700</v>
+        <v>1177900</v>
       </c>
       <c r="F58" s="3">
-        <v>1189700</v>
+        <v>1389100</v>
       </c>
       <c r="G58" s="3">
-        <v>1380300</v>
+        <v>1151900</v>
       </c>
       <c r="H58" s="3">
-        <v>1366300</v>
+        <v>1336400</v>
       </c>
       <c r="I58" s="3">
-        <v>1375400</v>
+        <v>1322900</v>
       </c>
       <c r="J58" s="3">
+        <v>1331600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1119500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1255200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1143000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1057800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1025500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1002200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1041000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>992900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2011900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1069900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1039900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1186800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>889700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>906300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>618300</v>
+        <v>638700</v>
       </c>
       <c r="E59" s="3">
-        <v>602600</v>
+        <v>598700</v>
       </c>
       <c r="F59" s="3">
-        <v>569700</v>
+        <v>583400</v>
       </c>
       <c r="G59" s="3">
-        <v>627900</v>
+        <v>551600</v>
       </c>
       <c r="H59" s="3">
-        <v>552200</v>
+        <v>608000</v>
       </c>
       <c r="I59" s="3">
-        <v>728700</v>
+        <v>534700</v>
       </c>
       <c r="J59" s="3">
+        <v>705500</v>
+      </c>
+      <c r="K59" s="3">
         <v>713500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>722800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>787200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>823100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>898400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>799400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>795000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>858300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>810600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>729400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>698800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>655700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>753700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>634400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2779700</v>
+        <v>2972600</v>
       </c>
       <c r="E60" s="3">
-        <v>3099900</v>
+        <v>2691300</v>
       </c>
       <c r="F60" s="3">
-        <v>2776900</v>
+        <v>3001400</v>
       </c>
       <c r="G60" s="3">
-        <v>2933400</v>
+        <v>2688700</v>
       </c>
       <c r="H60" s="3">
-        <v>2734700</v>
+        <v>2840200</v>
       </c>
       <c r="I60" s="3">
-        <v>2947600</v>
+        <v>2647800</v>
       </c>
       <c r="J60" s="3">
+        <v>2853900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2816100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3057300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2964900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2996400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3186900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2985700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3003400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2976100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2986200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2878200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2782600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2822400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2602100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2473700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1441700</v>
+        <v>1452400</v>
       </c>
       <c r="E61" s="3">
-        <v>1372400</v>
+        <v>1395800</v>
       </c>
       <c r="F61" s="3">
-        <v>1437700</v>
+        <v>1328800</v>
       </c>
       <c r="G61" s="3">
-        <v>1166000</v>
+        <v>1392000</v>
       </c>
       <c r="H61" s="3">
-        <v>1166400</v>
+        <v>1128900</v>
       </c>
       <c r="I61" s="3">
-        <v>1233400</v>
+        <v>1129300</v>
       </c>
       <c r="J61" s="3">
+        <v>1194200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1163200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1124300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1156800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1249500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1338700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1430100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1409800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1282300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1285700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1404900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1393400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1284400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1350300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1387100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>619700</v>
+        <v>593500</v>
       </c>
       <c r="E62" s="3">
-        <v>612100</v>
+        <v>600100</v>
       </c>
       <c r="F62" s="3">
-        <v>546500</v>
+        <v>592600</v>
       </c>
       <c r="G62" s="3">
-        <v>664200</v>
+        <v>529200</v>
       </c>
       <c r="H62" s="3">
-        <v>670800</v>
+        <v>643100</v>
       </c>
       <c r="I62" s="3">
-        <v>664100</v>
+        <v>649400</v>
       </c>
       <c r="J62" s="3">
+        <v>643000</v>
+      </c>
+      <c r="K62" s="3">
         <v>615900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>660700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>664500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>666500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>645700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>603400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>610100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>590600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>578600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>632000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>612200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>605000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>598500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>669800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5128800</v>
+        <v>5304000</v>
       </c>
       <c r="E66" s="3">
-        <v>5366500</v>
+        <v>4965800</v>
       </c>
       <c r="F66" s="3">
-        <v>5040900</v>
+        <v>5196000</v>
       </c>
       <c r="G66" s="3">
-        <v>5030300</v>
+        <v>4880600</v>
       </c>
       <c r="H66" s="3">
-        <v>4831400</v>
+        <v>4870400</v>
       </c>
       <c r="I66" s="3">
-        <v>5098700</v>
+        <v>4677800</v>
       </c>
       <c r="J66" s="3">
+        <v>4936700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4883700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5140700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5078600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5201600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5481200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5318700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5331200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5151200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5171900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5232100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5098300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4997900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4820100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4780100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1509300</v>
+        <v>1429100</v>
       </c>
       <c r="E72" s="3">
-        <v>1483300</v>
+        <v>1461400</v>
       </c>
       <c r="F72" s="3">
-        <v>1484900</v>
+        <v>1436100</v>
       </c>
       <c r="G72" s="3">
-        <v>1400800</v>
+        <v>1437700</v>
       </c>
       <c r="H72" s="3">
-        <v>1412500</v>
+        <v>1356300</v>
       </c>
       <c r="I72" s="3">
-        <v>1467600</v>
+        <v>1367600</v>
       </c>
       <c r="J72" s="3">
+        <v>1421000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1454500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1411200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1411100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1371500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1458300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1334100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1231100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1145200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1158300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1164400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1096400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>962100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>922000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>935100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2347900</v>
+        <v>2235700</v>
       </c>
       <c r="E76" s="3">
-        <v>2340800</v>
+        <v>2273300</v>
       </c>
       <c r="F76" s="3">
-        <v>2289500</v>
+        <v>2266400</v>
       </c>
       <c r="G76" s="3">
-        <v>2102400</v>
+        <v>2216700</v>
       </c>
       <c r="H76" s="3">
-        <v>2097000</v>
+        <v>2035600</v>
       </c>
       <c r="I76" s="3">
-        <v>2128400</v>
+        <v>2030300</v>
       </c>
       <c r="J76" s="3">
+        <v>2060800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2116900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2276300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2255400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2235100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2380000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2292900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2245600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2124100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2138100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2197100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2059900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1881000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1833500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1743600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26100</v>
+        <v>-32900</v>
       </c>
       <c r="E81" s="3">
-        <v>37300</v>
+        <v>25300</v>
       </c>
       <c r="F81" s="3">
-        <v>84000</v>
+        <v>36100</v>
       </c>
       <c r="G81" s="3">
-        <v>-9800</v>
+        <v>81400</v>
       </c>
       <c r="H81" s="3">
-        <v>-55200</v>
+        <v>-9400</v>
       </c>
       <c r="I81" s="3">
-        <v>69000</v>
+        <v>-53400</v>
       </c>
       <c r="J81" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K81" s="3">
         <v>89800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>83500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>30100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>68100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>134300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>61800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>108400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>74900</v>
+        <v>76600</v>
       </c>
       <c r="E83" s="3">
-        <v>75000</v>
+        <v>72500</v>
       </c>
       <c r="F83" s="3">
-        <v>67500</v>
+        <v>72700</v>
       </c>
       <c r="G83" s="3">
-        <v>76600</v>
+        <v>65400</v>
       </c>
       <c r="H83" s="3">
-        <v>69200</v>
+        <v>74100</v>
       </c>
       <c r="I83" s="3">
-        <v>70100</v>
+        <v>67000</v>
       </c>
       <c r="J83" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K83" s="3">
         <v>63700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>73000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>66600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>59000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>67200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>58700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>60900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>55800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>60000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>57200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>49200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>55900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1908000</v>
+        <v>2022000</v>
       </c>
       <c r="E8" s="3">
-        <v>1948600</v>
+        <v>1742500</v>
       </c>
       <c r="F8" s="3">
-        <v>1866500</v>
+        <v>1779500</v>
       </c>
       <c r="G8" s="3">
-        <v>2120300</v>
+        <v>1704500</v>
       </c>
       <c r="H8" s="3">
-        <v>1779000</v>
+        <v>1936400</v>
       </c>
       <c r="I8" s="3">
-        <v>1517700</v>
+        <v>1624700</v>
       </c>
       <c r="J8" s="3">
+        <v>1386100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1505900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2099200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2013000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2103900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2072600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2430900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2371300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2291000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2189100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2386100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2222700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2102500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2033500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2114700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1839400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1649200</v>
+        <v>1726400</v>
       </c>
       <c r="E9" s="3">
-        <v>1649700</v>
+        <v>1506100</v>
       </c>
       <c r="F9" s="3">
-        <v>1564900</v>
+        <v>1506500</v>
       </c>
       <c r="G9" s="3">
-        <v>1777200</v>
+        <v>1429100</v>
       </c>
       <c r="H9" s="3">
-        <v>1487000</v>
+        <v>1623100</v>
       </c>
       <c r="I9" s="3">
-        <v>1285600</v>
+        <v>1358000</v>
       </c>
       <c r="J9" s="3">
+        <v>1174100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1270000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1756500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1673400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1754200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1742700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2038100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1933800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1917100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1828800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2011100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1840300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1727900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1665600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1714700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1490900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>258800</v>
+        <v>295700</v>
       </c>
       <c r="E10" s="3">
-        <v>298900</v>
+        <v>236400</v>
       </c>
       <c r="F10" s="3">
-        <v>301600</v>
+        <v>273000</v>
       </c>
       <c r="G10" s="3">
-        <v>343100</v>
+        <v>275400</v>
       </c>
       <c r="H10" s="3">
-        <v>292000</v>
+        <v>313300</v>
       </c>
       <c r="I10" s="3">
-        <v>232100</v>
+        <v>266700</v>
       </c>
       <c r="J10" s="3">
+        <v>212000</v>
+      </c>
+      <c r="K10" s="3">
         <v>235900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>342700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>339600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>349600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>330000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>392800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>437500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>373900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>360400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>375000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>382400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>374600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>367900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>400000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>348500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,79 +1163,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11400</v>
+        <v>3800</v>
       </c>
       <c r="E14" s="3">
-        <v>-5600</v>
+        <v>10400</v>
       </c>
       <c r="F14" s="3">
-        <v>-13800</v>
+        <v>-5100</v>
       </c>
       <c r="G14" s="3">
-        <v>28500</v>
+        <v>-12600</v>
       </c>
       <c r="H14" s="3">
-        <v>7300</v>
+        <v>26000</v>
       </c>
       <c r="I14" s="3">
-        <v>14000</v>
+        <v>6700</v>
       </c>
       <c r="J14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K14" s="3">
         <v>39500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>40100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>106500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>22900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>142600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-45100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1937800</v>
+        <v>1976400</v>
       </c>
       <c r="E17" s="3">
-        <v>1913500</v>
+        <v>1769700</v>
       </c>
       <c r="F17" s="3">
-        <v>1820400</v>
+        <v>1747500</v>
       </c>
       <c r="G17" s="3">
-        <v>2070900</v>
+        <v>1662400</v>
       </c>
       <c r="H17" s="3">
-        <v>1763900</v>
+        <v>1891200</v>
       </c>
       <c r="I17" s="3">
-        <v>1549600</v>
+        <v>1610800</v>
       </c>
       <c r="J17" s="3">
+        <v>1415200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1556000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2039100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1980600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2063200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2034200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2373600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2244000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2208700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2114500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2388300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2141400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2002700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1941400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2125400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1701300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-29800</v>
+        <v>45700</v>
       </c>
       <c r="E18" s="3">
-        <v>35100</v>
+        <v>-27300</v>
       </c>
       <c r="F18" s="3">
-        <v>46100</v>
+        <v>32000</v>
       </c>
       <c r="G18" s="3">
-        <v>49400</v>
+        <v>42100</v>
       </c>
       <c r="H18" s="3">
-        <v>15200</v>
+        <v>45200</v>
       </c>
       <c r="I18" s="3">
-        <v>-31900</v>
+        <v>13800</v>
       </c>
       <c r="J18" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-50100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>60100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>40700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>57300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>127300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>82300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>81300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>99800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>92100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-10700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>138000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16900</v>
+        <v>37300</v>
       </c>
       <c r="E20" s="3">
-        <v>18600</v>
+        <v>15400</v>
       </c>
       <c r="F20" s="3">
-        <v>25400</v>
+        <v>17000</v>
       </c>
       <c r="G20" s="3">
-        <v>83000</v>
+        <v>23200</v>
       </c>
       <c r="H20" s="3">
-        <v>1700</v>
+        <v>75800</v>
       </c>
       <c r="I20" s="3">
-        <v>-17100</v>
+        <v>1600</v>
       </c>
       <c r="J20" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K20" s="3">
         <v>162100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>87400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>13300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>36300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>75200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>13000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>18100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>63700</v>
+        <v>143100</v>
       </c>
       <c r="E21" s="3">
-        <v>126200</v>
+        <v>58100</v>
       </c>
       <c r="F21" s="3">
-        <v>144100</v>
+        <v>115200</v>
       </c>
       <c r="G21" s="3">
-        <v>197800</v>
+        <v>131600</v>
       </c>
       <c r="H21" s="3">
-        <v>91000</v>
+        <v>180700</v>
       </c>
       <c r="I21" s="3">
-        <v>18000</v>
+        <v>83100</v>
       </c>
       <c r="J21" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K21" s="3">
         <v>179900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>211200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>124100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>131200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>115700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>126800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>219700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>152600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>120100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>66900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>177600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>228900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>155400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>51500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>212000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="E22" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="F22" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="G22" s="3">
-        <v>7400</v>
+        <v>6100</v>
       </c>
       <c r="H22" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="I22" s="3">
-        <v>8200</v>
+        <v>6600</v>
       </c>
       <c r="J22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>9200</v>
       </c>
       <c r="U22" s="3">
         <v>9200</v>
       </c>
       <c r="V22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="W22" s="3">
         <v>8700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20400</v>
+        <v>75900</v>
       </c>
       <c r="E23" s="3">
-        <v>46800</v>
+        <v>-18600</v>
       </c>
       <c r="F23" s="3">
-        <v>64800</v>
+        <v>42700</v>
       </c>
       <c r="G23" s="3">
-        <v>125100</v>
+        <v>59200</v>
       </c>
       <c r="H23" s="3">
-        <v>9600</v>
+        <v>114200</v>
       </c>
       <c r="I23" s="3">
-        <v>-57200</v>
+        <v>8800</v>
       </c>
       <c r="J23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K23" s="3">
         <v>104300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>138700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>41100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>142400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>84800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>50700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>108400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>165800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>89500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>148700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5200</v>
+        <v>14100</v>
       </c>
       <c r="E24" s="3">
-        <v>16300</v>
+        <v>4800</v>
       </c>
       <c r="F24" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>22300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>35900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>34400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>44600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>22400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>18700</v>
+      </c>
+      <c r="O24" s="3">
+        <v>20100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>49000</v>
+      </c>
+      <c r="R24" s="3">
+        <v>16600</v>
+      </c>
+      <c r="S24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U24" s="3">
+        <v>29400</v>
+      </c>
+      <c r="V24" s="3">
         <v>24400</v>
       </c>
-      <c r="G24" s="3">
-        <v>39300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>10700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>34400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>44600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>22400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>18700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>20100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>49000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>16600</v>
-      </c>
-      <c r="R24" s="3">
-        <v>14000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-800</v>
-      </c>
-      <c r="T24" s="3">
-        <v>29400</v>
-      </c>
-      <c r="U24" s="3">
-        <v>24400</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-8200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>30600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25600</v>
+        <v>61800</v>
       </c>
       <c r="E26" s="3">
-        <v>30500</v>
+        <v>-23400</v>
       </c>
       <c r="F26" s="3">
-        <v>40400</v>
+        <v>27800</v>
       </c>
       <c r="G26" s="3">
-        <v>85800</v>
+        <v>36900</v>
       </c>
       <c r="H26" s="3">
-        <v>-1100</v>
+        <v>78300</v>
       </c>
       <c r="I26" s="3">
-        <v>-51400</v>
+        <v>-1000</v>
       </c>
       <c r="J26" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="K26" s="3">
         <v>69900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>94200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>107400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>93400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>68200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>36700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>79000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>141400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>68700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>118000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-32900</v>
+        <v>52600</v>
       </c>
       <c r="E27" s="3">
-        <v>25300</v>
+        <v>-30000</v>
       </c>
       <c r="F27" s="3">
-        <v>36100</v>
+        <v>23100</v>
       </c>
       <c r="G27" s="3">
-        <v>81400</v>
+        <v>32900</v>
       </c>
       <c r="H27" s="3">
-        <v>-9400</v>
+        <v>74300</v>
       </c>
       <c r="I27" s="3">
-        <v>-53400</v>
+        <v>-8600</v>
       </c>
       <c r="J27" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K27" s="3">
         <v>66800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>89800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>83500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>68100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>134300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>61800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>108400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16900</v>
+        <v>-37300</v>
       </c>
       <c r="E32" s="3">
-        <v>-18600</v>
+        <v>-15400</v>
       </c>
       <c r="F32" s="3">
-        <v>-25400</v>
+        <v>-17000</v>
       </c>
       <c r="G32" s="3">
-        <v>-83000</v>
+        <v>-23200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1700</v>
+        <v>-75800</v>
       </c>
       <c r="I32" s="3">
-        <v>17100</v>
+        <v>-1600</v>
       </c>
       <c r="J32" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-162100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-87400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-13300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-36300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-75200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-13000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-18100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-32900</v>
+        <v>52600</v>
       </c>
       <c r="E33" s="3">
-        <v>25300</v>
+        <v>-30000</v>
       </c>
       <c r="F33" s="3">
-        <v>36100</v>
+        <v>23100</v>
       </c>
       <c r="G33" s="3">
-        <v>81400</v>
+        <v>32900</v>
       </c>
       <c r="H33" s="3">
-        <v>-9400</v>
+        <v>74300</v>
       </c>
       <c r="I33" s="3">
-        <v>-53400</v>
+        <v>-8600</v>
       </c>
       <c r="J33" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K33" s="3">
         <v>66800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>89800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>83500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>68100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>134300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>61800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>108400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-32900</v>
+        <v>52600</v>
       </c>
       <c r="E35" s="3">
-        <v>25300</v>
+        <v>-30000</v>
       </c>
       <c r="F35" s="3">
-        <v>36100</v>
+        <v>23100</v>
       </c>
       <c r="G35" s="3">
-        <v>81400</v>
+        <v>32900</v>
       </c>
       <c r="H35" s="3">
-        <v>-9400</v>
+        <v>74300</v>
       </c>
       <c r="I35" s="3">
-        <v>-53400</v>
+        <v>-8600</v>
       </c>
       <c r="J35" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K35" s="3">
         <v>66800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>89800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>83500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>68100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>134300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>61800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>108400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,121 +2833,125 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>549200</v>
+        <v>507500</v>
       </c>
       <c r="E41" s="3">
-        <v>456100</v>
+        <v>501500</v>
       </c>
       <c r="F41" s="3">
-        <v>744300</v>
+        <v>416500</v>
       </c>
       <c r="G41" s="3">
-        <v>719600</v>
+        <v>679800</v>
       </c>
       <c r="H41" s="3">
-        <v>650700</v>
+        <v>657200</v>
       </c>
       <c r="I41" s="3">
-        <v>697600</v>
+        <v>594300</v>
       </c>
       <c r="J41" s="3">
+        <v>637100</v>
+      </c>
+      <c r="K41" s="3">
         <v>962100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>478900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>346200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>368300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>395300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>428900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>442600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>445400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>374100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>457700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>471100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>479700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>390800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>418400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>496400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26700</v>
+        <v>25400</v>
       </c>
       <c r="E42" s="3">
-        <v>27900</v>
+        <v>24400</v>
       </c>
       <c r="F42" s="3">
-        <v>28700</v>
+        <v>25400</v>
       </c>
       <c r="G42" s="3">
-        <v>24900</v>
+        <v>26200</v>
       </c>
       <c r="H42" s="3">
-        <v>19900</v>
+        <v>22800</v>
       </c>
       <c r="I42" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="J42" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K42" s="3">
         <v>14000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22800</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
@@ -2872,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U42" s="3">
         <v>300</v>
@@ -2881,513 +2971,537 @@
         <v>300</v>
       </c>
       <c r="W42" s="3">
+        <v>300</v>
+      </c>
+      <c r="X42" s="3">
         <v>500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1778300</v>
+        <v>1786100</v>
       </c>
       <c r="E43" s="3">
-        <v>1706100</v>
+        <v>1624000</v>
       </c>
       <c r="F43" s="3">
-        <v>1701600</v>
+        <v>1558100</v>
       </c>
       <c r="G43" s="3">
-        <v>1629500</v>
+        <v>1553900</v>
       </c>
       <c r="H43" s="3">
-        <v>1512100</v>
+        <v>1488200</v>
       </c>
       <c r="I43" s="3">
-        <v>1336900</v>
+        <v>1380900</v>
       </c>
       <c r="J43" s="3">
+        <v>1221000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1336000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1685000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1802000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1774400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1859900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2097400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2044600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2030100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1984900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2017000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2008900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1887000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1815800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1753000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1623600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1323500</v>
+        <v>1278500</v>
       </c>
       <c r="E44" s="3">
-        <v>1252300</v>
+        <v>1208700</v>
       </c>
       <c r="F44" s="3">
-        <v>1177900</v>
+        <v>1143600</v>
       </c>
       <c r="G44" s="3">
-        <v>1030700</v>
+        <v>1075700</v>
       </c>
       <c r="H44" s="3">
-        <v>1028300</v>
+        <v>941300</v>
       </c>
       <c r="I44" s="3">
-        <v>1009600</v>
+        <v>939100</v>
       </c>
       <c r="J44" s="3">
+        <v>922000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1042700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1020700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1206600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1150600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1183100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1181000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1242300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1166900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1121800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1028700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1110200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1068000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1019900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>925600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>931400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>313800</v>
+        <v>320600</v>
       </c>
       <c r="E45" s="3">
-        <v>266600</v>
+        <v>286600</v>
       </c>
       <c r="F45" s="3">
-        <v>314000</v>
+        <v>243500</v>
       </c>
       <c r="G45" s="3">
-        <v>261500</v>
+        <v>286800</v>
       </c>
       <c r="H45" s="3">
-        <v>260900</v>
+        <v>238800</v>
       </c>
       <c r="I45" s="3">
-        <v>223600</v>
+        <v>238200</v>
       </c>
       <c r="J45" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K45" s="3">
         <v>248500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>209700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>250700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>245100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>262500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>311100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>260100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>243600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>229600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>348700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>316300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>301900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>294400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>325300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3991500</v>
+        <v>3918100</v>
       </c>
       <c r="E46" s="3">
-        <v>3708900</v>
+        <v>3645200</v>
       </c>
       <c r="F46" s="3">
-        <v>3966500</v>
+        <v>3387100</v>
       </c>
       <c r="G46" s="3">
-        <v>3666300</v>
+        <v>3622400</v>
       </c>
       <c r="H46" s="3">
-        <v>3471900</v>
+        <v>3348200</v>
       </c>
       <c r="I46" s="3">
-        <v>3285900</v>
+        <v>3170700</v>
       </c>
       <c r="J46" s="3">
+        <v>3000900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3603300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3402200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3619700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3547700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3708100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4041100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3989700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3885900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3710500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3762400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3906800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3736800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3527600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3391900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3377000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>938200</v>
+        <v>949900</v>
       </c>
       <c r="E47" s="3">
-        <v>914000</v>
+        <v>856800</v>
       </c>
       <c r="F47" s="3">
-        <v>891900</v>
+        <v>834700</v>
       </c>
       <c r="G47" s="3">
-        <v>935200</v>
+        <v>814500</v>
       </c>
       <c r="H47" s="3">
-        <v>918700</v>
+        <v>854100</v>
       </c>
       <c r="I47" s="3">
-        <v>847800</v>
+        <v>839000</v>
       </c>
       <c r="J47" s="3">
+        <v>774300</v>
+      </c>
+      <c r="K47" s="3">
         <v>838300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>936800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1090200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1066100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1062600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1193700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1158400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1237500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1200800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1239600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1221900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1137400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1096400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1162400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1059900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2147200</v>
+        <v>2026700</v>
       </c>
       <c r="E48" s="3">
-        <v>2151500</v>
+        <v>1961000</v>
       </c>
       <c r="F48" s="3">
-        <v>2134900</v>
+        <v>1964800</v>
       </c>
       <c r="G48" s="3">
-        <v>2104700</v>
+        <v>1949700</v>
       </c>
       <c r="H48" s="3">
-        <v>2079400</v>
+        <v>1922100</v>
       </c>
       <c r="I48" s="3">
-        <v>2128400</v>
+        <v>1899000</v>
       </c>
       <c r="J48" s="3">
+        <v>1943800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2118900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2239700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2274300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2257400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2213800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2204100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2093800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2081600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1996800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1959200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1941700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1933000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1907300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1822700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1766700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>167800</v>
+        <v>159900</v>
       </c>
       <c r="E49" s="3">
-        <v>170100</v>
+        <v>153300</v>
       </c>
       <c r="F49" s="3">
-        <v>173900</v>
+        <v>155300</v>
       </c>
       <c r="G49" s="3">
-        <v>172700</v>
+        <v>158800</v>
       </c>
       <c r="H49" s="3">
-        <v>165600</v>
+        <v>157700</v>
       </c>
       <c r="I49" s="3">
-        <v>160400</v>
+        <v>151200</v>
       </c>
       <c r="J49" s="3">
+        <v>146500</v>
+      </c>
+      <c r="K49" s="3">
         <v>146900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>141800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>122900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>113600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>117300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>95900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>92400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>90600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>102200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>96900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>87500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>86800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>86400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>79700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>294900</v>
+        <v>236000</v>
       </c>
       <c r="E52" s="3">
-        <v>294700</v>
+        <v>269300</v>
       </c>
       <c r="F52" s="3">
-        <v>295200</v>
+        <v>269100</v>
       </c>
       <c r="G52" s="3">
-        <v>218400</v>
+        <v>269600</v>
       </c>
       <c r="H52" s="3">
-        <v>270500</v>
+        <v>199400</v>
       </c>
       <c r="I52" s="3">
-        <v>285600</v>
+        <v>247000</v>
       </c>
       <c r="J52" s="3">
+        <v>260800</v>
+      </c>
+      <c r="K52" s="3">
         <v>290100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>280100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>304600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>339800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>338700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>304900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>273800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>279400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>276600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>301500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>261900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>263500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>260800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>190200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>240400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7539700</v>
+        <v>7290500</v>
       </c>
       <c r="E54" s="3">
-        <v>7239000</v>
+        <v>6885600</v>
       </c>
       <c r="F54" s="3">
-        <v>7462400</v>
+        <v>6611000</v>
       </c>
       <c r="G54" s="3">
-        <v>7097300</v>
+        <v>6815000</v>
       </c>
       <c r="H54" s="3">
-        <v>6906000</v>
+        <v>6481600</v>
       </c>
       <c r="I54" s="3">
-        <v>6708100</v>
+        <v>6306900</v>
       </c>
       <c r="J54" s="3">
+        <v>6126200</v>
+      </c>
+      <c r="K54" s="3">
         <v>6997500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7000600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7417000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7334000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7436800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7861200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7611600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7576800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7275300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7310000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7429200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7158200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6878900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6653600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6523700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1006900</v>
+        <v>997000</v>
       </c>
       <c r="E57" s="3">
-        <v>914700</v>
+        <v>919500</v>
       </c>
       <c r="F57" s="3">
-        <v>1028900</v>
+        <v>835400</v>
       </c>
       <c r="G57" s="3">
-        <v>985200</v>
+        <v>939700</v>
       </c>
       <c r="H57" s="3">
-        <v>895800</v>
+        <v>899800</v>
       </c>
       <c r="I57" s="3">
-        <v>790200</v>
+        <v>818100</v>
       </c>
       <c r="J57" s="3">
+        <v>721600</v>
+      </c>
+      <c r="K57" s="3">
         <v>816700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>983100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1079200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1034700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1115500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1263000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1184200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1167500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1124900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1124500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1078800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1043900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>979900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>958700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>933000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1327000</v>
+        <v>1316500</v>
       </c>
       <c r="E58" s="3">
-        <v>1177900</v>
+        <v>1211900</v>
       </c>
       <c r="F58" s="3">
-        <v>1389100</v>
+        <v>1075700</v>
       </c>
       <c r="G58" s="3">
-        <v>1151900</v>
+        <v>1268600</v>
       </c>
       <c r="H58" s="3">
-        <v>1336400</v>
+        <v>1051900</v>
       </c>
       <c r="I58" s="3">
-        <v>1322900</v>
+        <v>1220500</v>
       </c>
       <c r="J58" s="3">
+        <v>1208100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1331600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1119500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1255200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1143000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1057800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1025500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1002200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1041000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>992900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2011900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1069900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1039900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1186800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>889700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>906300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>638700</v>
+        <v>644500</v>
       </c>
       <c r="E59" s="3">
-        <v>598700</v>
+        <v>583300</v>
       </c>
       <c r="F59" s="3">
-        <v>583400</v>
+        <v>546700</v>
       </c>
       <c r="G59" s="3">
-        <v>551600</v>
+        <v>532800</v>
       </c>
       <c r="H59" s="3">
-        <v>608000</v>
+        <v>503700</v>
       </c>
       <c r="I59" s="3">
-        <v>534700</v>
+        <v>555200</v>
       </c>
       <c r="J59" s="3">
+        <v>488300</v>
+      </c>
+      <c r="K59" s="3">
         <v>705500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>713500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>722800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>787200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>823100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>898400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>799400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>795000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>858300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>810600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>729400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>698800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>655700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>753700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>634400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2972600</v>
+        <v>2958000</v>
       </c>
       <c r="E60" s="3">
-        <v>2691300</v>
+        <v>2714700</v>
       </c>
       <c r="F60" s="3">
-        <v>3001400</v>
+        <v>2457800</v>
       </c>
       <c r="G60" s="3">
-        <v>2688700</v>
+        <v>2741000</v>
       </c>
       <c r="H60" s="3">
-        <v>2840200</v>
+        <v>2455400</v>
       </c>
       <c r="I60" s="3">
-        <v>2647800</v>
+        <v>2593800</v>
       </c>
       <c r="J60" s="3">
+        <v>2418100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2853900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2816100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3057300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2964900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2996400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3186900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2985700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3003400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2976100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2986200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2878200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2782600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2822400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2602100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2473700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1452400</v>
+        <v>1348600</v>
       </c>
       <c r="E61" s="3">
-        <v>1395800</v>
+        <v>1326400</v>
       </c>
       <c r="F61" s="3">
-        <v>1328800</v>
+        <v>1274700</v>
       </c>
       <c r="G61" s="3">
-        <v>1392000</v>
+        <v>1213500</v>
       </c>
       <c r="H61" s="3">
-        <v>1128900</v>
+        <v>1271200</v>
       </c>
       <c r="I61" s="3">
-        <v>1129300</v>
+        <v>1031000</v>
       </c>
       <c r="J61" s="3">
+        <v>1031400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1194200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1163200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1124300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1156800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1249500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1338700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1430100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1409800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1282300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1285700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1404900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1393400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1284400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1350300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1387100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>593500</v>
+        <v>537300</v>
       </c>
       <c r="E62" s="3">
-        <v>600100</v>
+        <v>542000</v>
       </c>
       <c r="F62" s="3">
-        <v>592600</v>
+        <v>548000</v>
       </c>
       <c r="G62" s="3">
-        <v>529200</v>
+        <v>541200</v>
       </c>
       <c r="H62" s="3">
-        <v>643100</v>
+        <v>483300</v>
       </c>
       <c r="I62" s="3">
-        <v>649400</v>
+        <v>587300</v>
       </c>
       <c r="J62" s="3">
+        <v>593100</v>
+      </c>
+      <c r="K62" s="3">
         <v>643000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>615900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>660700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>664500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>666500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>645700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>603400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>610100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>590600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>578600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>632000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>612200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>605000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>598500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>669800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5304000</v>
+        <v>5115400</v>
       </c>
       <c r="E66" s="3">
-        <v>4965800</v>
+        <v>4843800</v>
       </c>
       <c r="F66" s="3">
-        <v>5196000</v>
+        <v>4535000</v>
       </c>
       <c r="G66" s="3">
-        <v>4880600</v>
+        <v>4745200</v>
       </c>
       <c r="H66" s="3">
-        <v>4870400</v>
+        <v>4457200</v>
       </c>
       <c r="I66" s="3">
-        <v>4677800</v>
+        <v>4447900</v>
       </c>
       <c r="J66" s="3">
+        <v>4272000</v>
+      </c>
+      <c r="K66" s="3">
         <v>4936700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4883700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5140700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5078600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5201600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5481200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5318700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5331200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5151200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5171900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5232100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5098300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4997900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4820100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4780100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1429100</v>
+        <v>1358200</v>
       </c>
       <c r="E72" s="3">
-        <v>1461400</v>
+        <v>1305100</v>
       </c>
       <c r="F72" s="3">
-        <v>1436100</v>
+        <v>1334600</v>
       </c>
       <c r="G72" s="3">
-        <v>1437700</v>
+        <v>1311500</v>
       </c>
       <c r="H72" s="3">
-        <v>1356300</v>
+        <v>1312900</v>
       </c>
       <c r="I72" s="3">
-        <v>1367600</v>
+        <v>1238600</v>
       </c>
       <c r="J72" s="3">
+        <v>1249000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1421000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1454500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1411200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1411100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1371500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1458300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1334100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1231100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1145200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1158300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1164400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1096400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>962100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>922000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>935100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2235700</v>
+        <v>2175100</v>
       </c>
       <c r="E76" s="3">
-        <v>2273300</v>
+        <v>2041700</v>
       </c>
       <c r="F76" s="3">
-        <v>2266400</v>
+        <v>2076000</v>
       </c>
       <c r="G76" s="3">
-        <v>2216700</v>
+        <v>2069800</v>
       </c>
       <c r="H76" s="3">
-        <v>2035600</v>
+        <v>2024400</v>
       </c>
       <c r="I76" s="3">
-        <v>2030300</v>
+        <v>1859000</v>
       </c>
       <c r="J76" s="3">
+        <v>1854200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2060800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2116900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2276300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2255400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2235100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2380000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2292900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2245600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2124100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2138100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2197100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2059900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1881000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1833500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1743600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-32900</v>
+        <v>52600</v>
       </c>
       <c r="E81" s="3">
-        <v>25300</v>
+        <v>-30000</v>
       </c>
       <c r="F81" s="3">
-        <v>36100</v>
+        <v>23100</v>
       </c>
       <c r="G81" s="3">
-        <v>81400</v>
+        <v>32900</v>
       </c>
       <c r="H81" s="3">
-        <v>-9400</v>
+        <v>74300</v>
       </c>
       <c r="I81" s="3">
-        <v>-53400</v>
+        <v>-8600</v>
       </c>
       <c r="J81" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K81" s="3">
         <v>66800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>89800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>83500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>68100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>134300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>61800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>108400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>76600</v>
+        <v>60100</v>
       </c>
       <c r="E83" s="3">
-        <v>72500</v>
+        <v>70000</v>
       </c>
       <c r="F83" s="3">
-        <v>72700</v>
+        <v>66200</v>
       </c>
       <c r="G83" s="3">
-        <v>65400</v>
+        <v>66300</v>
       </c>
       <c r="H83" s="3">
-        <v>74100</v>
+        <v>59700</v>
       </c>
       <c r="I83" s="3">
-        <v>67000</v>
+        <v>67700</v>
       </c>
       <c r="J83" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K83" s="3">
         <v>67900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>73000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>66600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>59000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>67200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>58700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>60900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>55800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>60000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>57200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>49200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>55900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2022000</v>
+        <v>1907900</v>
       </c>
       <c r="E8" s="3">
-        <v>1742500</v>
+        <v>1902600</v>
       </c>
       <c r="F8" s="3">
-        <v>1779500</v>
+        <v>1639600</v>
       </c>
       <c r="G8" s="3">
-        <v>1704500</v>
+        <v>1674500</v>
       </c>
       <c r="H8" s="3">
-        <v>1936400</v>
+        <v>1603900</v>
       </c>
       <c r="I8" s="3">
-        <v>1624700</v>
+        <v>1822000</v>
       </c>
       <c r="J8" s="3">
+        <v>1528700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1386100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1505900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2099200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2013000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2103900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2072600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2430900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2371300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2291000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2189100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2386100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2222700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2102500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2033500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2114700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1839400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1726400</v>
+        <v>1638000</v>
       </c>
       <c r="E9" s="3">
-        <v>1506100</v>
+        <v>1624400</v>
       </c>
       <c r="F9" s="3">
-        <v>1506500</v>
+        <v>1417200</v>
       </c>
       <c r="G9" s="3">
-        <v>1429100</v>
+        <v>1417600</v>
       </c>
       <c r="H9" s="3">
-        <v>1623100</v>
+        <v>1344800</v>
       </c>
       <c r="I9" s="3">
-        <v>1358000</v>
+        <v>1527200</v>
       </c>
       <c r="J9" s="3">
+        <v>1277800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1174100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1270000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1756500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1673400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1754200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1742700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2038100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1933800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1917100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1828800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2011100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1840300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1727900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1665600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1714700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1490900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>295700</v>
+        <v>269900</v>
       </c>
       <c r="E10" s="3">
-        <v>236400</v>
+        <v>278200</v>
       </c>
       <c r="F10" s="3">
-        <v>273000</v>
+        <v>222400</v>
       </c>
       <c r="G10" s="3">
-        <v>275400</v>
+        <v>256900</v>
       </c>
       <c r="H10" s="3">
-        <v>313300</v>
+        <v>259100</v>
       </c>
       <c r="I10" s="3">
-        <v>266700</v>
+        <v>294800</v>
       </c>
       <c r="J10" s="3">
+        <v>250900</v>
+      </c>
+      <c r="K10" s="3">
         <v>212000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>235900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>342700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>339600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>349600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>330000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>392800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>437500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>373900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>360400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>375000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>382400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>374600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>367900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>400000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>348500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3800</v>
+        <v>-3800</v>
       </c>
       <c r="E14" s="3">
-        <v>10400</v>
+        <v>3600</v>
       </c>
       <c r="F14" s="3">
-        <v>-5100</v>
+        <v>9800</v>
       </c>
       <c r="G14" s="3">
-        <v>-12600</v>
+        <v>-4800</v>
       </c>
       <c r="H14" s="3">
-        <v>26000</v>
+        <v>-11900</v>
       </c>
       <c r="I14" s="3">
-        <v>6700</v>
+        <v>24500</v>
       </c>
       <c r="J14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K14" s="3">
         <v>12800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>40100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-3100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>106500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>22900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>142600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-45100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1976400</v>
+        <v>1896400</v>
       </c>
       <c r="E17" s="3">
-        <v>1769700</v>
+        <v>1859700</v>
       </c>
       <c r="F17" s="3">
-        <v>1747500</v>
+        <v>1665200</v>
       </c>
       <c r="G17" s="3">
-        <v>1662400</v>
+        <v>1644300</v>
       </c>
       <c r="H17" s="3">
-        <v>1891200</v>
+        <v>1564300</v>
       </c>
       <c r="I17" s="3">
-        <v>1610800</v>
+        <v>1779500</v>
       </c>
       <c r="J17" s="3">
+        <v>1515700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1415200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1556000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2039100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1980600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2063200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2034200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2373600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2244000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2208700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2114500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2388300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2141400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2002700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1941400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2125400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1701300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45700</v>
+        <v>11600</v>
       </c>
       <c r="E18" s="3">
-        <v>-27300</v>
+        <v>43000</v>
       </c>
       <c r="F18" s="3">
-        <v>32000</v>
+        <v>-25600</v>
       </c>
       <c r="G18" s="3">
-        <v>42100</v>
+        <v>30100</v>
       </c>
       <c r="H18" s="3">
-        <v>45200</v>
+        <v>39600</v>
       </c>
       <c r="I18" s="3">
-        <v>13800</v>
+        <v>42500</v>
       </c>
       <c r="J18" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-29100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-50100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>60100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>57300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>127300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>82300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>74600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>81300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>99800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>92100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>138000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>37300</v>
+        <v>59800</v>
       </c>
       <c r="E20" s="3">
-        <v>15400</v>
+        <v>35100</v>
       </c>
       <c r="F20" s="3">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="G20" s="3">
-        <v>23200</v>
+        <v>16000</v>
       </c>
       <c r="H20" s="3">
-        <v>75800</v>
+        <v>21800</v>
       </c>
       <c r="I20" s="3">
-        <v>1600</v>
+        <v>71300</v>
       </c>
       <c r="J20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>162100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>87400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>13300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>36300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>75200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>13000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>18100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>143100</v>
+        <v>139700</v>
       </c>
       <c r="E21" s="3">
-        <v>58100</v>
+        <v>134700</v>
       </c>
       <c r="F21" s="3">
-        <v>115200</v>
+        <v>54700</v>
       </c>
       <c r="G21" s="3">
-        <v>131600</v>
+        <v>108400</v>
       </c>
       <c r="H21" s="3">
-        <v>180700</v>
+        <v>123900</v>
       </c>
       <c r="I21" s="3">
-        <v>83100</v>
+        <v>170000</v>
       </c>
       <c r="J21" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K21" s="3">
         <v>16500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>179900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>211200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>124100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>131200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>115700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>126800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>219700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>152600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>120100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>66900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>177600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>228900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>155400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>51500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>212000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="E22" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="F22" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G22" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="H22" s="3">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="I22" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="J22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8900</v>
-      </c>
-      <c r="U22" s="3">
-        <v>9200</v>
       </c>
       <c r="V22" s="3">
         <v>9200</v>
       </c>
       <c r="W22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="X22" s="3">
         <v>8700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>75900</v>
+        <v>63800</v>
       </c>
       <c r="E23" s="3">
-        <v>-18600</v>
+        <v>71400</v>
       </c>
       <c r="F23" s="3">
-        <v>42700</v>
+        <v>-17500</v>
       </c>
       <c r="G23" s="3">
-        <v>59200</v>
+        <v>40200</v>
       </c>
       <c r="H23" s="3">
-        <v>114200</v>
+        <v>55700</v>
       </c>
       <c r="I23" s="3">
-        <v>8800</v>
+        <v>107500</v>
       </c>
       <c r="J23" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-52200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>104300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>138700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>41100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>57300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>142400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>84800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>50700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>108400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>165800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>89500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>148700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14100</v>
+        <v>21800</v>
       </c>
       <c r="E24" s="3">
-        <v>4800</v>
+        <v>13200</v>
       </c>
       <c r="F24" s="3">
-        <v>14900</v>
+        <v>4500</v>
       </c>
       <c r="G24" s="3">
-        <v>22300</v>
+        <v>14000</v>
       </c>
       <c r="H24" s="3">
-        <v>35900</v>
+        <v>21000</v>
       </c>
       <c r="I24" s="3">
-        <v>9800</v>
+        <v>33800</v>
       </c>
       <c r="J24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>49000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>29400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>30600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>61800</v>
+        <v>42100</v>
       </c>
       <c r="E26" s="3">
-        <v>-23400</v>
+        <v>58100</v>
       </c>
       <c r="F26" s="3">
-        <v>27800</v>
+        <v>-22000</v>
       </c>
       <c r="G26" s="3">
-        <v>36900</v>
+        <v>26200</v>
       </c>
       <c r="H26" s="3">
-        <v>78300</v>
+        <v>34700</v>
       </c>
       <c r="I26" s="3">
-        <v>-1000</v>
+        <v>73700</v>
       </c>
       <c r="J26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-47000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>69900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>94200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>107400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>93400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>68200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>36700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>79000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>141400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>68700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>118000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>52600</v>
+        <v>42100</v>
       </c>
       <c r="E27" s="3">
-        <v>-30000</v>
+        <v>49500</v>
       </c>
       <c r="F27" s="3">
-        <v>23100</v>
+        <v>-28200</v>
       </c>
       <c r="G27" s="3">
-        <v>32900</v>
+        <v>21800</v>
       </c>
       <c r="H27" s="3">
-        <v>74300</v>
+        <v>31000</v>
       </c>
       <c r="I27" s="3">
-        <v>-8600</v>
+        <v>69900</v>
       </c>
       <c r="J27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-48800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>66800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>89800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>83500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>68100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>134300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>61800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>108400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-37300</v>
+        <v>-59800</v>
       </c>
       <c r="E32" s="3">
-        <v>-15400</v>
+        <v>-35100</v>
       </c>
       <c r="F32" s="3">
-        <v>-17000</v>
+        <v>-14500</v>
       </c>
       <c r="G32" s="3">
-        <v>-23200</v>
+        <v>-16000</v>
       </c>
       <c r="H32" s="3">
-        <v>-75800</v>
+        <v>-21800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1600</v>
+        <v>-71300</v>
       </c>
       <c r="J32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K32" s="3">
         <v>15600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-162100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-87400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-13300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-36300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-75200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-18100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>52600</v>
+        <v>42100</v>
       </c>
       <c r="E33" s="3">
-        <v>-30000</v>
+        <v>49500</v>
       </c>
       <c r="F33" s="3">
-        <v>23100</v>
+        <v>-28200</v>
       </c>
       <c r="G33" s="3">
-        <v>32900</v>
+        <v>21800</v>
       </c>
       <c r="H33" s="3">
-        <v>74300</v>
+        <v>31000</v>
       </c>
       <c r="I33" s="3">
-        <v>-8600</v>
+        <v>69900</v>
       </c>
       <c r="J33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-48800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>66800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>89800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>83500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>30100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>68100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>134300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>61800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>108400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>52600</v>
+        <v>42100</v>
       </c>
       <c r="E35" s="3">
-        <v>-30000</v>
+        <v>49500</v>
       </c>
       <c r="F35" s="3">
-        <v>23100</v>
+        <v>-28200</v>
       </c>
       <c r="G35" s="3">
-        <v>32900</v>
+        <v>21800</v>
       </c>
       <c r="H35" s="3">
-        <v>74300</v>
+        <v>31000</v>
       </c>
       <c r="I35" s="3">
-        <v>-8600</v>
+        <v>69900</v>
       </c>
       <c r="J35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-48800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>66800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>89800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>83500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>30100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>68100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>134300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>61800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>108400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,127 +2920,131 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>507500</v>
+        <v>430500</v>
       </c>
       <c r="E41" s="3">
-        <v>501500</v>
+        <v>477600</v>
       </c>
       <c r="F41" s="3">
-        <v>416500</v>
+        <v>471900</v>
       </c>
       <c r="G41" s="3">
-        <v>679800</v>
+        <v>391900</v>
       </c>
       <c r="H41" s="3">
-        <v>657200</v>
+        <v>639600</v>
       </c>
       <c r="I41" s="3">
-        <v>594300</v>
+        <v>618400</v>
       </c>
       <c r="J41" s="3">
+        <v>559200</v>
+      </c>
+      <c r="K41" s="3">
         <v>637100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>962100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>478900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>346200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>368300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>395300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>428900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>442600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>445400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>374100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>457700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>471100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>479700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>390800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>418400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>496400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25400</v>
+        <v>22900</v>
       </c>
       <c r="E42" s="3">
-        <v>24400</v>
+        <v>23900</v>
       </c>
       <c r="F42" s="3">
-        <v>25400</v>
+        <v>23000</v>
       </c>
       <c r="G42" s="3">
-        <v>26200</v>
+        <v>23900</v>
       </c>
       <c r="H42" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K42" s="3">
+        <v>16500</v>
+      </c>
+      <c r="L42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M42" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N42" s="3">
+        <v>14100</v>
+      </c>
+      <c r="O42" s="3">
+        <v>9300</v>
+      </c>
+      <c r="P42" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Q42" s="3">
         <v>22800</v>
       </c>
-      <c r="I42" s="3">
-        <v>18200</v>
-      </c>
-      <c r="J42" s="3">
-        <v>16500</v>
-      </c>
-      <c r="K42" s="3">
-        <v>14000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>7900</v>
-      </c>
-      <c r="M42" s="3">
-        <v>14100</v>
-      </c>
-      <c r="N42" s="3">
-        <v>9300</v>
-      </c>
-      <c r="O42" s="3">
-        <v>7400</v>
-      </c>
-      <c r="P42" s="3">
-        <v>22800</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
@@ -2965,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V42" s="3">
         <v>300</v>
@@ -2974,534 +3064,558 @@
         <v>300</v>
       </c>
       <c r="X42" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y42" s="3">
         <v>500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1786100</v>
+        <v>1707400</v>
       </c>
       <c r="E43" s="3">
-        <v>1624000</v>
+        <v>1680600</v>
       </c>
       <c r="F43" s="3">
-        <v>1558100</v>
+        <v>1528100</v>
       </c>
       <c r="G43" s="3">
-        <v>1553900</v>
+        <v>1466100</v>
       </c>
       <c r="H43" s="3">
-        <v>1488200</v>
+        <v>1462200</v>
       </c>
       <c r="I43" s="3">
-        <v>1380900</v>
+        <v>1400300</v>
       </c>
       <c r="J43" s="3">
+        <v>1299400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1221000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1336000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1685000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1802000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1774400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1859900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2097400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2044600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2030100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1984900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2017000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2008900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1887000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1815800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1753000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1623600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1278500</v>
+        <v>1338600</v>
       </c>
       <c r="E44" s="3">
-        <v>1208700</v>
+        <v>1203000</v>
       </c>
       <c r="F44" s="3">
-        <v>1143600</v>
+        <v>1137300</v>
       </c>
       <c r="G44" s="3">
-        <v>1075700</v>
+        <v>1076100</v>
       </c>
       <c r="H44" s="3">
-        <v>941300</v>
+        <v>1012200</v>
       </c>
       <c r="I44" s="3">
-        <v>939100</v>
+        <v>885700</v>
       </c>
       <c r="J44" s="3">
+        <v>883600</v>
+      </c>
+      <c r="K44" s="3">
         <v>922000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1042700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1020700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1206600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1150600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1183100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1181000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1242300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1166900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1121800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1028700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1110200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1068000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1019900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>925600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>931400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>320600</v>
+        <v>279900</v>
       </c>
       <c r="E45" s="3">
-        <v>286600</v>
+        <v>301700</v>
       </c>
       <c r="F45" s="3">
-        <v>243500</v>
+        <v>269600</v>
       </c>
       <c r="G45" s="3">
-        <v>286800</v>
+        <v>229100</v>
       </c>
       <c r="H45" s="3">
-        <v>238800</v>
+        <v>269800</v>
       </c>
       <c r="I45" s="3">
-        <v>238200</v>
+        <v>224700</v>
       </c>
       <c r="J45" s="3">
+        <v>224200</v>
+      </c>
+      <c r="K45" s="3">
         <v>204200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>248500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>209700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>250700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>245100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>262500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>311100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>260100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>243600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>229600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>348700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>316300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>301900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>294400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>325300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3918100</v>
+        <v>3779300</v>
       </c>
       <c r="E46" s="3">
-        <v>3645200</v>
+        <v>3686700</v>
       </c>
       <c r="F46" s="3">
-        <v>3387100</v>
+        <v>3430000</v>
       </c>
       <c r="G46" s="3">
-        <v>3622400</v>
+        <v>3187100</v>
       </c>
       <c r="H46" s="3">
-        <v>3348200</v>
+        <v>3408500</v>
       </c>
       <c r="I46" s="3">
-        <v>3170700</v>
+        <v>3150500</v>
       </c>
       <c r="J46" s="3">
+        <v>2983400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3000900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3603300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3402200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3619700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3547700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3708100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4041100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3989700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3885900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3710500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3762400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3906800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3736800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3527600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3391900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3377000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>949900</v>
+        <v>907600</v>
       </c>
       <c r="E47" s="3">
-        <v>856800</v>
+        <v>893800</v>
       </c>
       <c r="F47" s="3">
-        <v>834700</v>
+        <v>806200</v>
       </c>
       <c r="G47" s="3">
-        <v>814500</v>
+        <v>785400</v>
       </c>
       <c r="H47" s="3">
-        <v>854100</v>
+        <v>766400</v>
       </c>
       <c r="I47" s="3">
-        <v>839000</v>
+        <v>803700</v>
       </c>
       <c r="J47" s="3">
+        <v>789400</v>
+      </c>
+      <c r="K47" s="3">
         <v>774300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>838300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>936800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1090200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1066100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1062600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1193700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1158400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1237500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1200800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1239600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1221900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1137400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1096400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1162400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1059900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2026700</v>
+        <v>1996600</v>
       </c>
       <c r="E48" s="3">
-        <v>1961000</v>
+        <v>1907000</v>
       </c>
       <c r="F48" s="3">
-        <v>1964800</v>
+        <v>1845200</v>
       </c>
       <c r="G48" s="3">
-        <v>1949700</v>
+        <v>1848800</v>
       </c>
       <c r="H48" s="3">
-        <v>1922100</v>
+        <v>1834500</v>
       </c>
       <c r="I48" s="3">
-        <v>1899000</v>
+        <v>1808600</v>
       </c>
       <c r="J48" s="3">
+        <v>1786900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1943800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2118900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2239700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2274300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2257400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2213800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2204100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2093800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2081600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1996800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1959200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1941700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1933000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1907300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1822700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1766700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>159900</v>
+        <v>148300</v>
       </c>
       <c r="E49" s="3">
-        <v>153300</v>
+        <v>150400</v>
       </c>
       <c r="F49" s="3">
-        <v>155300</v>
+        <v>144200</v>
       </c>
       <c r="G49" s="3">
-        <v>158800</v>
+        <v>146100</v>
       </c>
       <c r="H49" s="3">
-        <v>157700</v>
+        <v>149500</v>
       </c>
       <c r="I49" s="3">
-        <v>151200</v>
+        <v>148400</v>
       </c>
       <c r="J49" s="3">
+        <v>142300</v>
+      </c>
+      <c r="K49" s="3">
         <v>146500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>146900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>141800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>128200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>122900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>113600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>117300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>95900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>92400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>90600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>102200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>96900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>87500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>86800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>86400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>79700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>236000</v>
+        <v>281800</v>
       </c>
       <c r="E52" s="3">
-        <v>269300</v>
+        <v>222000</v>
       </c>
       <c r="F52" s="3">
-        <v>269100</v>
+        <v>253400</v>
       </c>
       <c r="G52" s="3">
-        <v>269600</v>
+        <v>253200</v>
       </c>
       <c r="H52" s="3">
-        <v>199400</v>
+        <v>253700</v>
       </c>
       <c r="I52" s="3">
-        <v>247000</v>
+        <v>187600</v>
       </c>
       <c r="J52" s="3">
+        <v>232400</v>
+      </c>
+      <c r="K52" s="3">
         <v>260800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>290100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>280100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>304600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>339800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>338700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>304900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>273800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>279400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>276600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>301500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>261900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>263500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>260800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>190200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>240400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7290500</v>
+        <v>7113600</v>
       </c>
       <c r="E54" s="3">
-        <v>6885600</v>
+        <v>6860000</v>
       </c>
       <c r="F54" s="3">
-        <v>6611000</v>
+        <v>6479000</v>
       </c>
       <c r="G54" s="3">
-        <v>6815000</v>
+        <v>6220600</v>
       </c>
       <c r="H54" s="3">
-        <v>6481600</v>
+        <v>6412600</v>
       </c>
       <c r="I54" s="3">
-        <v>6306900</v>
+        <v>6098900</v>
       </c>
       <c r="J54" s="3">
+        <v>5934500</v>
+      </c>
+      <c r="K54" s="3">
         <v>6126200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6997500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7000600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7417000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7334000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7436800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7861200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7611600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7576800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7275300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7310000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7429200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7158200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6878900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6653600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6523700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>997000</v>
+        <v>947400</v>
       </c>
       <c r="E57" s="3">
-        <v>919500</v>
+        <v>938200</v>
       </c>
       <c r="F57" s="3">
-        <v>835400</v>
+        <v>865200</v>
       </c>
       <c r="G57" s="3">
-        <v>939700</v>
+        <v>786100</v>
       </c>
       <c r="H57" s="3">
-        <v>899800</v>
+        <v>884200</v>
       </c>
       <c r="I57" s="3">
-        <v>818100</v>
+        <v>846600</v>
       </c>
       <c r="J57" s="3">
+        <v>769800</v>
+      </c>
+      <c r="K57" s="3">
         <v>721600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>816700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>983100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1079200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1034700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1115500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1263000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1184200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1167500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1124900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1124500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1078800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1043900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>979900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>958700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>933000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1316500</v>
+        <v>1345400</v>
       </c>
       <c r="E58" s="3">
-        <v>1211900</v>
+        <v>1250100</v>
       </c>
       <c r="F58" s="3">
-        <v>1075700</v>
+        <v>1140300</v>
       </c>
       <c r="G58" s="3">
-        <v>1268600</v>
+        <v>1012200</v>
       </c>
       <c r="H58" s="3">
-        <v>1051900</v>
+        <v>1193600</v>
       </c>
       <c r="I58" s="3">
-        <v>1220500</v>
+        <v>989800</v>
       </c>
       <c r="J58" s="3">
+        <v>1148400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1208100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1331600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1119500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1255200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1143000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1057800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1025500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1002200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1041000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>992900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2011900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1069900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1039900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1186800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>889700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>906300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>644500</v>
+        <v>597800</v>
       </c>
       <c r="E59" s="3">
-        <v>583300</v>
+        <v>595000</v>
       </c>
       <c r="F59" s="3">
-        <v>546700</v>
+        <v>548800</v>
       </c>
       <c r="G59" s="3">
-        <v>532800</v>
+        <v>514500</v>
       </c>
       <c r="H59" s="3">
-        <v>503700</v>
+        <v>501400</v>
       </c>
       <c r="I59" s="3">
-        <v>555200</v>
+        <v>474000</v>
       </c>
       <c r="J59" s="3">
+        <v>522400</v>
+      </c>
+      <c r="K59" s="3">
         <v>488300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>705500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>713500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>722800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>787200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>823100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>898400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>799400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>795000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>858300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>810600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>729400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>698800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>655700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>753700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>634400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2958000</v>
+        <v>2890500</v>
       </c>
       <c r="E60" s="3">
-        <v>2714700</v>
+        <v>2783300</v>
       </c>
       <c r="F60" s="3">
-        <v>2457800</v>
+        <v>2554400</v>
       </c>
       <c r="G60" s="3">
-        <v>2741000</v>
+        <v>2312700</v>
       </c>
       <c r="H60" s="3">
-        <v>2455400</v>
+        <v>2579200</v>
       </c>
       <c r="I60" s="3">
-        <v>2593800</v>
+        <v>2310400</v>
       </c>
       <c r="J60" s="3">
+        <v>2440600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2418100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2853900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2816100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3057300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2964900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2996400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3186900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2985700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3003400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2976100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2986200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2878200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2782600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2822400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2602100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2473700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1348600</v>
+        <v>1278100</v>
       </c>
       <c r="E61" s="3">
-        <v>1326400</v>
+        <v>1324600</v>
       </c>
       <c r="F61" s="3">
-        <v>1274700</v>
+        <v>1248100</v>
       </c>
       <c r="G61" s="3">
-        <v>1213500</v>
+        <v>1199500</v>
       </c>
       <c r="H61" s="3">
-        <v>1271200</v>
+        <v>1141900</v>
       </c>
       <c r="I61" s="3">
-        <v>1031000</v>
+        <v>1196200</v>
       </c>
       <c r="J61" s="3">
+        <v>970100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1031400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1194200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1163200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1124300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1156800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1249500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1338700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1430100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1409800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1282300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1285700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1404900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1393400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1284400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1350300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1387100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>537300</v>
+        <v>553200</v>
       </c>
       <c r="E62" s="3">
-        <v>542000</v>
+        <v>450000</v>
       </c>
       <c r="F62" s="3">
-        <v>548000</v>
+        <v>510000</v>
       </c>
       <c r="G62" s="3">
-        <v>541200</v>
+        <v>515600</v>
       </c>
       <c r="H62" s="3">
-        <v>483300</v>
+        <v>509200</v>
       </c>
       <c r="I62" s="3">
-        <v>587300</v>
+        <v>454700</v>
       </c>
       <c r="J62" s="3">
+        <v>552700</v>
+      </c>
+      <c r="K62" s="3">
         <v>593100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>643000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>615900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>660700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>664500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>666500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>645700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>603400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>610100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>590600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>578600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>632000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>612200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>605000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>598500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>669800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5115400</v>
+        <v>4981900</v>
       </c>
       <c r="E66" s="3">
-        <v>4843800</v>
+        <v>4813300</v>
       </c>
       <c r="F66" s="3">
-        <v>4535000</v>
+        <v>4557800</v>
       </c>
       <c r="G66" s="3">
-        <v>4745200</v>
+        <v>4267200</v>
       </c>
       <c r="H66" s="3">
-        <v>4457200</v>
+        <v>4465000</v>
       </c>
       <c r="I66" s="3">
-        <v>4447900</v>
+        <v>4194000</v>
       </c>
       <c r="J66" s="3">
+        <v>4185300</v>
+      </c>
+      <c r="K66" s="3">
         <v>4272000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4936700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4883700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5140700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5078600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5201600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5481200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5318700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5331200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5151200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5171900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5232100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5098300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4997900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4820100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4780100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1358200</v>
+        <v>1295100</v>
       </c>
       <c r="E72" s="3">
-        <v>1305100</v>
+        <v>1278000</v>
       </c>
       <c r="F72" s="3">
-        <v>1334600</v>
+        <v>1228100</v>
       </c>
       <c r="G72" s="3">
-        <v>1311500</v>
+        <v>1255800</v>
       </c>
       <c r="H72" s="3">
-        <v>1312900</v>
+        <v>1234100</v>
       </c>
       <c r="I72" s="3">
-        <v>1238600</v>
+        <v>1235400</v>
       </c>
       <c r="J72" s="3">
+        <v>1165500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1249000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1421000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1454500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1411200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1411100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1371500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1458300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1334100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1231100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1145200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1158300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1164400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1096400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>962100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>922000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>935100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2175100</v>
+        <v>2131700</v>
       </c>
       <c r="E76" s="3">
-        <v>2041700</v>
+        <v>2046700</v>
       </c>
       <c r="F76" s="3">
-        <v>2076000</v>
+        <v>1921200</v>
       </c>
       <c r="G76" s="3">
-        <v>2069800</v>
+        <v>1953500</v>
       </c>
       <c r="H76" s="3">
-        <v>2024400</v>
+        <v>1947600</v>
       </c>
       <c r="I76" s="3">
-        <v>1859000</v>
+        <v>1904800</v>
       </c>
       <c r="J76" s="3">
+        <v>1749200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1854200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2060800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2116900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2276300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2255400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2235100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2380000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2292900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2245600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2124100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2138100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2197100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2059900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1881000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1833500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1743600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>52600</v>
+        <v>42100</v>
       </c>
       <c r="E81" s="3">
-        <v>-30000</v>
+        <v>49500</v>
       </c>
       <c r="F81" s="3">
-        <v>23100</v>
+        <v>-28200</v>
       </c>
       <c r="G81" s="3">
-        <v>32900</v>
+        <v>21800</v>
       </c>
       <c r="H81" s="3">
-        <v>74300</v>
+        <v>31000</v>
       </c>
       <c r="I81" s="3">
-        <v>-8600</v>
+        <v>69900</v>
       </c>
       <c r="J81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-48800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>66800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>89800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>83500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>30100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>68100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>134300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>61800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>108400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>60100</v>
+        <v>68400</v>
       </c>
       <c r="E83" s="3">
-        <v>70000</v>
+        <v>56600</v>
       </c>
       <c r="F83" s="3">
-        <v>66200</v>
+        <v>65900</v>
       </c>
       <c r="G83" s="3">
-        <v>66300</v>
+        <v>62300</v>
       </c>
       <c r="H83" s="3">
-        <v>59700</v>
+        <v>62400</v>
       </c>
       <c r="I83" s="3">
-        <v>67700</v>
+        <v>56200</v>
       </c>
       <c r="J83" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K83" s="3">
         <v>61200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>73000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>66600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>59000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>67200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>58700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>60900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>55800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>60000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>53900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>57200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>49200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>55900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1907900</v>
+        <v>1873400</v>
       </c>
       <c r="E8" s="3">
-        <v>1902600</v>
+        <v>1845500</v>
       </c>
       <c r="F8" s="3">
-        <v>1639600</v>
+        <v>1840300</v>
       </c>
       <c r="G8" s="3">
-        <v>1674500</v>
+        <v>1585900</v>
       </c>
       <c r="H8" s="3">
-        <v>1603900</v>
+        <v>1619600</v>
       </c>
       <c r="I8" s="3">
-        <v>1822000</v>
+        <v>1551400</v>
       </c>
       <c r="J8" s="3">
+        <v>1762400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1528700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1386100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1505900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2099200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2013000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2103900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2072600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2430900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2371300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2291000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2189100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2386100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2222700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2102500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2033500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2114700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1839400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1638000</v>
+        <v>1604400</v>
       </c>
       <c r="E9" s="3">
-        <v>1624400</v>
+        <v>1584400</v>
       </c>
       <c r="F9" s="3">
-        <v>1417200</v>
+        <v>1571200</v>
       </c>
       <c r="G9" s="3">
-        <v>1417600</v>
+        <v>1370800</v>
       </c>
       <c r="H9" s="3">
-        <v>1344800</v>
+        <v>1371200</v>
       </c>
       <c r="I9" s="3">
-        <v>1527200</v>
+        <v>1300700</v>
       </c>
       <c r="J9" s="3">
+        <v>1477200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1277800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1174100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1270000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1756500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1673400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1754200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1742700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2038100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1933800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1917100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1828800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2011100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1840300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1727900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1665600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1714700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1490900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>269900</v>
+        <v>269000</v>
       </c>
       <c r="E10" s="3">
-        <v>278200</v>
+        <v>261100</v>
       </c>
       <c r="F10" s="3">
-        <v>222400</v>
+        <v>269100</v>
       </c>
       <c r="G10" s="3">
-        <v>256900</v>
+        <v>215100</v>
       </c>
       <c r="H10" s="3">
-        <v>259100</v>
+        <v>248500</v>
       </c>
       <c r="I10" s="3">
-        <v>294800</v>
+        <v>250600</v>
       </c>
       <c r="J10" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K10" s="3">
         <v>250900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>212000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>235900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>342700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>339600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>349600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>330000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>392800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>437500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>373900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>360400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>375000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>382400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>374600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>367900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>400000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>348500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3800</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
-        <v>3600</v>
+        <v>-3700</v>
       </c>
       <c r="F14" s="3">
-        <v>9800</v>
+        <v>3500</v>
       </c>
       <c r="G14" s="3">
-        <v>-4800</v>
+        <v>9400</v>
       </c>
       <c r="H14" s="3">
-        <v>-11900</v>
+        <v>-4700</v>
       </c>
       <c r="I14" s="3">
-        <v>24500</v>
+        <v>-11500</v>
       </c>
       <c r="J14" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K14" s="3">
         <v>6300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>39500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>40100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-3100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>106500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>22900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>142600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-45100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1896400</v>
+        <v>1850000</v>
       </c>
       <c r="E17" s="3">
-        <v>1859700</v>
+        <v>1834300</v>
       </c>
       <c r="F17" s="3">
-        <v>1665200</v>
+        <v>1798800</v>
       </c>
       <c r="G17" s="3">
-        <v>1644300</v>
+        <v>1610700</v>
       </c>
       <c r="H17" s="3">
-        <v>1564300</v>
+        <v>1590500</v>
       </c>
       <c r="I17" s="3">
-        <v>1779500</v>
+        <v>1513100</v>
       </c>
       <c r="J17" s="3">
+        <v>1721300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1515700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1415200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1556000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2039100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1980600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2063200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2034200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2373600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2244000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2208700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2114500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2388300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2141400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2002700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1941400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2125400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1701300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11600</v>
+        <v>23400</v>
       </c>
       <c r="E18" s="3">
-        <v>43000</v>
+        <v>11200</v>
       </c>
       <c r="F18" s="3">
-        <v>-25600</v>
+        <v>41600</v>
       </c>
       <c r="G18" s="3">
-        <v>30100</v>
+        <v>-24800</v>
       </c>
       <c r="H18" s="3">
-        <v>39600</v>
+        <v>29200</v>
       </c>
       <c r="I18" s="3">
-        <v>42500</v>
+        <v>38300</v>
       </c>
       <c r="J18" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K18" s="3">
         <v>13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-29100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-50100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>60100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>40700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>38400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>57300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>127300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>82300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>74600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>81300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>99800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>92100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>138000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>59800</v>
+        <v>24400</v>
       </c>
       <c r="E20" s="3">
-        <v>35100</v>
+        <v>57800</v>
       </c>
       <c r="F20" s="3">
-        <v>14500</v>
+        <v>34000</v>
       </c>
       <c r="G20" s="3">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="H20" s="3">
-        <v>21800</v>
+        <v>15400</v>
       </c>
       <c r="I20" s="3">
-        <v>71300</v>
+        <v>21100</v>
       </c>
       <c r="J20" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>162100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>87400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>27000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-15400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>13300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>36300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>75200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>13000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>18100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>139700</v>
+        <v>115800</v>
       </c>
       <c r="E21" s="3">
-        <v>134700</v>
+        <v>135100</v>
       </c>
       <c r="F21" s="3">
-        <v>54700</v>
+        <v>130300</v>
       </c>
       <c r="G21" s="3">
-        <v>108400</v>
+        <v>52900</v>
       </c>
       <c r="H21" s="3">
-        <v>123900</v>
+        <v>104900</v>
       </c>
       <c r="I21" s="3">
-        <v>170000</v>
+        <v>119800</v>
       </c>
       <c r="J21" s="3">
+        <v>164400</v>
+      </c>
+      <c r="K21" s="3">
         <v>78200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>179900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>211200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>124100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>131200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>115700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>126800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>219700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>152600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>120100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>66900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>177600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>228900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>155400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>51500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>212000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="E22" s="3">
-        <v>6700</v>
+        <v>7300</v>
       </c>
       <c r="F22" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="G22" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H22" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="I22" s="3">
-        <v>6400</v>
+        <v>5600</v>
       </c>
       <c r="J22" s="3">
         <v>6200</v>
       </c>
       <c r="K22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L22" s="3">
         <v>7500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8900</v>
-      </c>
-      <c r="V22" s="3">
-        <v>9200</v>
       </c>
       <c r="W22" s="3">
         <v>9200</v>
       </c>
       <c r="X22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Y22" s="3">
         <v>8700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>7400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>63800</v>
+        <v>38300</v>
       </c>
       <c r="E23" s="3">
-        <v>71400</v>
+        <v>61700</v>
       </c>
       <c r="F23" s="3">
-        <v>-17500</v>
+        <v>69000</v>
       </c>
       <c r="G23" s="3">
-        <v>40200</v>
+        <v>-16900</v>
       </c>
       <c r="H23" s="3">
-        <v>55700</v>
+        <v>38900</v>
       </c>
       <c r="I23" s="3">
-        <v>107500</v>
+        <v>53900</v>
       </c>
       <c r="J23" s="3">
+        <v>103900</v>
+      </c>
+      <c r="K23" s="3">
         <v>8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-52200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>104300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>138700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>41100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>39000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>57400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>142400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>84800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>50700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>108400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>165800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>89500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>148700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21800</v>
+        <v>20600</v>
       </c>
       <c r="E24" s="3">
-        <v>13200</v>
+        <v>21000</v>
       </c>
       <c r="F24" s="3">
-        <v>4500</v>
+        <v>12800</v>
       </c>
       <c r="G24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>34400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>44600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>22400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>18700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>20100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="S24" s="3">
+        <v>49000</v>
+      </c>
+      <c r="T24" s="3">
+        <v>16600</v>
+      </c>
+      <c r="U24" s="3">
         <v>14000</v>
       </c>
-      <c r="H24" s="3">
-        <v>21000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>33800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>9200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>34400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>44600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>22400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>18700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>20100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>49000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>16600</v>
-      </c>
-      <c r="T24" s="3">
-        <v>14000</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>29400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>20700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>30600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42100</v>
+        <v>17700</v>
       </c>
       <c r="E26" s="3">
-        <v>58100</v>
+        <v>40700</v>
       </c>
       <c r="F26" s="3">
-        <v>-22000</v>
+        <v>56200</v>
       </c>
       <c r="G26" s="3">
-        <v>26200</v>
+        <v>-21300</v>
       </c>
       <c r="H26" s="3">
-        <v>34700</v>
+        <v>25300</v>
       </c>
       <c r="I26" s="3">
-        <v>73700</v>
+        <v>33600</v>
       </c>
       <c r="J26" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-47000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>69900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>94200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>107400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>93400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>68200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>36700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>79000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>141400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>68700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>118000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>42100</v>
+        <v>15500</v>
       </c>
       <c r="E27" s="3">
-        <v>49500</v>
+        <v>40800</v>
       </c>
       <c r="F27" s="3">
-        <v>-28200</v>
+        <v>47900</v>
       </c>
       <c r="G27" s="3">
-        <v>21800</v>
+        <v>-27300</v>
       </c>
       <c r="H27" s="3">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="I27" s="3">
-        <v>69900</v>
+        <v>30000</v>
       </c>
       <c r="J27" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-48800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>66800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>89800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>83500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>68100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>134300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>61800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>108400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-59800</v>
+        <v>-24400</v>
       </c>
       <c r="E32" s="3">
-        <v>-35100</v>
+        <v>-57800</v>
       </c>
       <c r="F32" s="3">
-        <v>-14500</v>
+        <v>-34000</v>
       </c>
       <c r="G32" s="3">
-        <v>-16000</v>
+        <v>-14000</v>
       </c>
       <c r="H32" s="3">
-        <v>-21800</v>
+        <v>-15400</v>
       </c>
       <c r="I32" s="3">
-        <v>-71300</v>
+        <v>-21100</v>
       </c>
       <c r="J32" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-162100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-87400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-27000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>15400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-13300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-36300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-75200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-18100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>42100</v>
+        <v>15500</v>
       </c>
       <c r="E33" s="3">
-        <v>49500</v>
+        <v>40800</v>
       </c>
       <c r="F33" s="3">
-        <v>-28200</v>
+        <v>47900</v>
       </c>
       <c r="G33" s="3">
-        <v>21800</v>
+        <v>-27300</v>
       </c>
       <c r="H33" s="3">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="I33" s="3">
-        <v>69900</v>
+        <v>30000</v>
       </c>
       <c r="J33" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-48800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>66800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>89800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>83500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>30100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>68100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>134300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>61800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>108400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>42100</v>
+        <v>15500</v>
       </c>
       <c r="E35" s="3">
-        <v>49500</v>
+        <v>40800</v>
       </c>
       <c r="F35" s="3">
-        <v>-28200</v>
+        <v>47900</v>
       </c>
       <c r="G35" s="3">
-        <v>21800</v>
+        <v>-27300</v>
       </c>
       <c r="H35" s="3">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="I35" s="3">
-        <v>69900</v>
+        <v>30000</v>
       </c>
       <c r="J35" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-48800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>66800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>89800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>83500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>30100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>68100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>134300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>61800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>108400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,133 +3007,137 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>430500</v>
+        <v>438300</v>
       </c>
       <c r="E41" s="3">
-        <v>477600</v>
+        <v>416400</v>
       </c>
       <c r="F41" s="3">
-        <v>471900</v>
+        <v>461900</v>
       </c>
       <c r="G41" s="3">
-        <v>391900</v>
+        <v>456500</v>
       </c>
       <c r="H41" s="3">
-        <v>639600</v>
+        <v>379100</v>
       </c>
       <c r="I41" s="3">
-        <v>618400</v>
+        <v>618700</v>
       </c>
       <c r="J41" s="3">
+        <v>598100</v>
+      </c>
+      <c r="K41" s="3">
         <v>559200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>637100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>962100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>478900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>346200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>368300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>395300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>428900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>442600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>445400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>374100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>457700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>471100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>479700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>390800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>418400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>496400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>22900</v>
+        <v>27300</v>
       </c>
       <c r="E42" s="3">
-        <v>23900</v>
+        <v>22200</v>
       </c>
       <c r="F42" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="G42" s="3">
-        <v>23900</v>
+        <v>22200</v>
       </c>
       <c r="H42" s="3">
-        <v>24600</v>
+        <v>23200</v>
       </c>
       <c r="I42" s="3">
-        <v>21400</v>
+        <v>23800</v>
       </c>
       <c r="J42" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K42" s="3">
         <v>17100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22800</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
@@ -3058,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W42" s="3">
         <v>300</v>
@@ -3067,555 +3157,579 @@
         <v>300</v>
       </c>
       <c r="Y42" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z42" s="3">
         <v>500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1707400</v>
+        <v>1622600</v>
       </c>
       <c r="E43" s="3">
-        <v>1680600</v>
+        <v>1651500</v>
       </c>
       <c r="F43" s="3">
-        <v>1528100</v>
+        <v>1625600</v>
       </c>
       <c r="G43" s="3">
-        <v>1466100</v>
+        <v>1478100</v>
       </c>
       <c r="H43" s="3">
-        <v>1462200</v>
+        <v>1418000</v>
       </c>
       <c r="I43" s="3">
-        <v>1400300</v>
+        <v>1414300</v>
       </c>
       <c r="J43" s="3">
+        <v>1354400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1299400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1221000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1336000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1685000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1802000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1774400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1859900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2097400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2044600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2030100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1984900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2017000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2008900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1887000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1815800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1753000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1623600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1338600</v>
+        <v>1291400</v>
       </c>
       <c r="E44" s="3">
-        <v>1203000</v>
+        <v>1294800</v>
       </c>
       <c r="F44" s="3">
-        <v>1137300</v>
+        <v>1163600</v>
       </c>
       <c r="G44" s="3">
-        <v>1076100</v>
+        <v>1100100</v>
       </c>
       <c r="H44" s="3">
-        <v>1012200</v>
+        <v>1040900</v>
       </c>
       <c r="I44" s="3">
-        <v>885700</v>
+        <v>979100</v>
       </c>
       <c r="J44" s="3">
+        <v>856700</v>
+      </c>
+      <c r="K44" s="3">
         <v>883600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>922000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1042700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1020700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1206600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1150600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1183100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1181000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1242300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1166900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1121800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1028700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1110200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1068000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1019900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>925600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>931400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>279900</v>
+        <v>250800</v>
       </c>
       <c r="E45" s="3">
-        <v>301700</v>
+        <v>270700</v>
       </c>
       <c r="F45" s="3">
-        <v>269600</v>
+        <v>291800</v>
       </c>
       <c r="G45" s="3">
-        <v>229100</v>
+        <v>260800</v>
       </c>
       <c r="H45" s="3">
-        <v>269800</v>
+        <v>221600</v>
       </c>
       <c r="I45" s="3">
-        <v>224700</v>
+        <v>261000</v>
       </c>
       <c r="J45" s="3">
+        <v>217300</v>
+      </c>
+      <c r="K45" s="3">
         <v>224200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>204200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>248500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>209700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>250700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>245100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>262500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>311100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>260100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>243600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>229600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>348700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>316300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>301900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>300800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>294400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>325300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3779300</v>
+        <v>3630400</v>
       </c>
       <c r="E46" s="3">
-        <v>3686700</v>
+        <v>3655500</v>
       </c>
       <c r="F46" s="3">
-        <v>3430000</v>
+        <v>3566000</v>
       </c>
       <c r="G46" s="3">
-        <v>3187100</v>
+        <v>3317700</v>
       </c>
       <c r="H46" s="3">
-        <v>3408500</v>
+        <v>3082800</v>
       </c>
       <c r="I46" s="3">
-        <v>3150500</v>
+        <v>3296900</v>
       </c>
       <c r="J46" s="3">
+        <v>3047400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2983400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3000900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3603300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3402200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3619700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3547700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3708100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4041100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3989700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3885900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3710500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3762400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3906800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3736800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3527600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3391900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3377000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>907600</v>
+        <v>910900</v>
       </c>
       <c r="E47" s="3">
-        <v>893800</v>
+        <v>877900</v>
       </c>
       <c r="F47" s="3">
-        <v>806200</v>
+        <v>864500</v>
       </c>
       <c r="G47" s="3">
-        <v>785400</v>
+        <v>779800</v>
       </c>
       <c r="H47" s="3">
-        <v>766400</v>
+        <v>759700</v>
       </c>
       <c r="I47" s="3">
-        <v>803700</v>
+        <v>741300</v>
       </c>
       <c r="J47" s="3">
+        <v>777300</v>
+      </c>
+      <c r="K47" s="3">
         <v>789400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>774300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>838300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>936800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1090200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1066100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1062600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1193700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1158400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1237500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1200800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1239600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1221900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1137400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1096400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1162400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1059900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1996600</v>
+        <v>1994200</v>
       </c>
       <c r="E48" s="3">
-        <v>1907000</v>
+        <v>1931300</v>
       </c>
       <c r="F48" s="3">
-        <v>1845200</v>
+        <v>1844600</v>
       </c>
       <c r="G48" s="3">
-        <v>1848800</v>
+        <v>1784800</v>
       </c>
       <c r="H48" s="3">
-        <v>1834500</v>
+        <v>1788300</v>
       </c>
       <c r="I48" s="3">
-        <v>1808600</v>
+        <v>1774500</v>
       </c>
       <c r="J48" s="3">
+        <v>1749400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1786900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1943800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2118900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2239700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2274300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2257400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2213800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2204100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2093800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2081600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1996800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1959200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1941700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1933000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1907300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1822700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1766700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>148300</v>
+        <v>142600</v>
       </c>
       <c r="E49" s="3">
-        <v>150400</v>
+        <v>143500</v>
       </c>
       <c r="F49" s="3">
-        <v>144200</v>
+        <v>145500</v>
       </c>
       <c r="G49" s="3">
-        <v>146100</v>
+        <v>139500</v>
       </c>
       <c r="H49" s="3">
-        <v>149500</v>
+        <v>141300</v>
       </c>
       <c r="I49" s="3">
-        <v>148400</v>
+        <v>144600</v>
       </c>
       <c r="J49" s="3">
+        <v>143600</v>
+      </c>
+      <c r="K49" s="3">
         <v>142300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>146500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>146900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>141800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>128200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>122900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>113600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>117300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>95900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>92400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>90600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>102200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>96900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>87500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>86800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>86400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>79700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>281800</v>
+        <v>271900</v>
       </c>
       <c r="E52" s="3">
-        <v>222000</v>
+        <v>272600</v>
       </c>
       <c r="F52" s="3">
-        <v>253400</v>
+        <v>214800</v>
       </c>
       <c r="G52" s="3">
-        <v>253200</v>
+        <v>245100</v>
       </c>
       <c r="H52" s="3">
-        <v>253700</v>
+        <v>244900</v>
       </c>
       <c r="I52" s="3">
-        <v>187600</v>
+        <v>245400</v>
       </c>
       <c r="J52" s="3">
+        <v>181500</v>
+      </c>
+      <c r="K52" s="3">
         <v>232400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>260800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>290100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>280100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>304600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>339800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>338700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>304900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>273800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>279400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>276600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>301500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>261900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>263500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>260800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>190200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>240400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7113600</v>
+        <v>6949900</v>
       </c>
       <c r="E54" s="3">
-        <v>6860000</v>
+        <v>6880700</v>
       </c>
       <c r="F54" s="3">
-        <v>6479000</v>
+        <v>6635400</v>
       </c>
       <c r="G54" s="3">
-        <v>6220600</v>
+        <v>6266800</v>
       </c>
       <c r="H54" s="3">
-        <v>6412600</v>
+        <v>6017000</v>
       </c>
       <c r="I54" s="3">
-        <v>6098900</v>
+        <v>6202600</v>
       </c>
       <c r="J54" s="3">
+        <v>5899200</v>
+      </c>
+      <c r="K54" s="3">
         <v>5934500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6126200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6997500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7000600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7417000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7334000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7436800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7861200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7611600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7576800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7275300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7310000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7429200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7158200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6878900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6653600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6523700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>947400</v>
+        <v>868100</v>
       </c>
       <c r="E57" s="3">
-        <v>938200</v>
+        <v>916400</v>
       </c>
       <c r="F57" s="3">
-        <v>865200</v>
+        <v>907400</v>
       </c>
       <c r="G57" s="3">
-        <v>786100</v>
+        <v>836900</v>
       </c>
       <c r="H57" s="3">
-        <v>884200</v>
+        <v>760300</v>
       </c>
       <c r="I57" s="3">
-        <v>846600</v>
+        <v>855200</v>
       </c>
       <c r="J57" s="3">
+        <v>818900</v>
+      </c>
+      <c r="K57" s="3">
         <v>769800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>721600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>816700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>983100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1079200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1034700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1115500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1263000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1184200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1167500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1124900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1124500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1078800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1043900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>979900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>958700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>933000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1345400</v>
+        <v>1379900</v>
       </c>
       <c r="E58" s="3">
-        <v>1250100</v>
+        <v>1301300</v>
       </c>
       <c r="F58" s="3">
-        <v>1140300</v>
+        <v>1209200</v>
       </c>
       <c r="G58" s="3">
-        <v>1012200</v>
+        <v>1103000</v>
       </c>
       <c r="H58" s="3">
-        <v>1193600</v>
+        <v>979000</v>
       </c>
       <c r="I58" s="3">
-        <v>989800</v>
+        <v>1154600</v>
       </c>
       <c r="J58" s="3">
+        <v>957400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1148400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1208100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1331600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1119500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1255200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1143000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1057800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1025500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1002200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1041000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>992900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2011900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1069900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1039900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1186800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>889700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>906300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>597800</v>
+        <v>596300</v>
       </c>
       <c r="E59" s="3">
-        <v>595000</v>
+        <v>578200</v>
       </c>
       <c r="F59" s="3">
-        <v>548800</v>
+        <v>575500</v>
       </c>
       <c r="G59" s="3">
-        <v>514500</v>
+        <v>530800</v>
       </c>
       <c r="H59" s="3">
-        <v>501400</v>
+        <v>497600</v>
       </c>
       <c r="I59" s="3">
-        <v>474000</v>
+        <v>484900</v>
       </c>
       <c r="J59" s="3">
+        <v>458500</v>
+      </c>
+      <c r="K59" s="3">
         <v>522400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>488300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>705500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>713500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>722800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>787200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>823100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>898400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>799400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>795000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>858300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>810600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>729400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>698800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>655700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>753700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>634400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2890500</v>
+        <v>2844400</v>
       </c>
       <c r="E60" s="3">
-        <v>2783300</v>
+        <v>2795900</v>
       </c>
       <c r="F60" s="3">
-        <v>2554400</v>
+        <v>2692200</v>
       </c>
       <c r="G60" s="3">
-        <v>2312700</v>
+        <v>2470800</v>
       </c>
       <c r="H60" s="3">
-        <v>2579200</v>
+        <v>2237000</v>
       </c>
       <c r="I60" s="3">
-        <v>2310400</v>
+        <v>2494700</v>
       </c>
       <c r="J60" s="3">
+        <v>2234800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2440600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2418100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2853900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2816100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3057300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2964900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2996400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3186900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2985700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3003400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2976100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2986200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2878200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2782600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2822400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2602100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2473700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1278100</v>
+        <v>1169500</v>
       </c>
       <c r="E61" s="3">
-        <v>1324600</v>
+        <v>1236200</v>
       </c>
       <c r="F61" s="3">
-        <v>1248100</v>
+        <v>1281200</v>
       </c>
       <c r="G61" s="3">
-        <v>1199500</v>
+        <v>1207200</v>
       </c>
       <c r="H61" s="3">
-        <v>1141900</v>
+        <v>1160200</v>
       </c>
       <c r="I61" s="3">
-        <v>1196200</v>
+        <v>1104500</v>
       </c>
       <c r="J61" s="3">
+        <v>1157000</v>
+      </c>
+      <c r="K61" s="3">
         <v>970100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1031400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1194200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1163200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1124300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1156800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1249500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1338700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1430100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1409800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1282300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1285700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1404900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1393400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1284400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1350300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1387100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>553200</v>
+        <v>560200</v>
       </c>
       <c r="E62" s="3">
-        <v>450000</v>
+        <v>535100</v>
       </c>
       <c r="F62" s="3">
-        <v>510000</v>
+        <v>435200</v>
       </c>
       <c r="G62" s="3">
-        <v>515600</v>
+        <v>493300</v>
       </c>
       <c r="H62" s="3">
-        <v>509200</v>
+        <v>498800</v>
       </c>
       <c r="I62" s="3">
-        <v>454700</v>
+        <v>492600</v>
       </c>
       <c r="J62" s="3">
+        <v>439800</v>
+      </c>
+      <c r="K62" s="3">
         <v>552700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>593100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>643000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>615900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>660700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>664500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>666500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>645700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>603400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>610100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>590600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>578600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>632000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>612200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>605000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>598500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>669800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4981900</v>
+        <v>4834500</v>
       </c>
       <c r="E66" s="3">
-        <v>4813300</v>
+        <v>4818800</v>
       </c>
       <c r="F66" s="3">
-        <v>4557800</v>
+        <v>4655700</v>
       </c>
       <c r="G66" s="3">
-        <v>4267200</v>
+        <v>4408600</v>
       </c>
       <c r="H66" s="3">
-        <v>4465000</v>
+        <v>4127500</v>
       </c>
       <c r="I66" s="3">
-        <v>4194000</v>
+        <v>4318800</v>
       </c>
       <c r="J66" s="3">
+        <v>4056700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4185300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4272000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4936700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4883700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5140700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5078600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5201600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5481200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5318700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5331200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5151200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5171900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5232100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5098300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4997900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4820100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4780100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1295100</v>
+        <v>1268200</v>
       </c>
       <c r="E72" s="3">
-        <v>1278000</v>
+        <v>1252700</v>
       </c>
       <c r="F72" s="3">
-        <v>1228100</v>
+        <v>1236100</v>
       </c>
       <c r="G72" s="3">
-        <v>1255800</v>
+        <v>1187900</v>
       </c>
       <c r="H72" s="3">
-        <v>1234100</v>
+        <v>1214700</v>
       </c>
       <c r="I72" s="3">
-        <v>1235400</v>
+        <v>1193700</v>
       </c>
       <c r="J72" s="3">
+        <v>1195000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1165500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1249000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1421000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1454500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1411200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1411100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1371500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1458300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1334100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1231100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1145200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1158300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1164400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1096400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>962100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>922000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>935100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2131700</v>
+        <v>2115400</v>
       </c>
       <c r="E76" s="3">
-        <v>2046700</v>
+        <v>2061900</v>
       </c>
       <c r="F76" s="3">
-        <v>1921200</v>
+        <v>1979700</v>
       </c>
       <c r="G76" s="3">
-        <v>1953500</v>
+        <v>1858300</v>
       </c>
       <c r="H76" s="3">
-        <v>1947600</v>
+        <v>1889500</v>
       </c>
       <c r="I76" s="3">
-        <v>1904800</v>
+        <v>1883800</v>
       </c>
       <c r="J76" s="3">
+        <v>1842500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1749200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1854200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2060800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2116900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2276300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2255400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2235100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2380000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2292900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2245600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2124100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2138100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2197100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2059900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1881000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1833500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1743600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>42100</v>
+        <v>15500</v>
       </c>
       <c r="E81" s="3">
-        <v>49500</v>
+        <v>40800</v>
       </c>
       <c r="F81" s="3">
-        <v>-28200</v>
+        <v>47900</v>
       </c>
       <c r="G81" s="3">
-        <v>21800</v>
+        <v>-27300</v>
       </c>
       <c r="H81" s="3">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="I81" s="3">
-        <v>69900</v>
+        <v>30000</v>
       </c>
       <c r="J81" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-48800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>66800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>89800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>83500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>30100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>68100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>134300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>61800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>108400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>68400</v>
+        <v>68000</v>
       </c>
       <c r="E83" s="3">
-        <v>56600</v>
+        <v>66100</v>
       </c>
       <c r="F83" s="3">
-        <v>65900</v>
+        <v>54700</v>
       </c>
       <c r="G83" s="3">
-        <v>62300</v>
+        <v>63700</v>
       </c>
       <c r="H83" s="3">
-        <v>62400</v>
+        <v>60300</v>
       </c>
       <c r="I83" s="3">
-        <v>56200</v>
+        <v>60400</v>
       </c>
       <c r="J83" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K83" s="3">
         <v>63700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>67900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>73000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>63500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>66600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>59000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>67200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>58700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>60900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>55800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>60000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>53900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>57200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>49200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>55900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1873400</v>
+        <v>1921200</v>
       </c>
       <c r="E8" s="3">
-        <v>1845500</v>
+        <v>1942100</v>
       </c>
       <c r="F8" s="3">
-        <v>1840300</v>
+        <v>1913200</v>
       </c>
       <c r="G8" s="3">
-        <v>1585900</v>
+        <v>1907800</v>
       </c>
       <c r="H8" s="3">
-        <v>1619600</v>
+        <v>1644000</v>
       </c>
       <c r="I8" s="3">
-        <v>1551400</v>
+        <v>1679000</v>
       </c>
       <c r="J8" s="3">
+        <v>1608300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1762400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1528700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1386100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1505900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2099200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2013000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2103900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2072600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2430900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2371300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2291000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2189100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2386100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2222700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2102500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2033500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2114700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1839400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1604400</v>
+        <v>1644100</v>
       </c>
       <c r="E9" s="3">
-        <v>1584400</v>
+        <v>1663200</v>
       </c>
       <c r="F9" s="3">
-        <v>1571200</v>
+        <v>1642500</v>
       </c>
       <c r="G9" s="3">
-        <v>1370800</v>
+        <v>1628900</v>
       </c>
       <c r="H9" s="3">
-        <v>1371200</v>
+        <v>1421000</v>
       </c>
       <c r="I9" s="3">
-        <v>1300700</v>
+        <v>1421400</v>
       </c>
       <c r="J9" s="3">
+        <v>1348400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1477200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1277800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1174100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1270000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1756500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1673400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1754200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1742700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2038100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1933800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1917100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1828800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2011100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1840300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1727900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1665600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1714700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1490900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>269000</v>
+        <v>277200</v>
       </c>
       <c r="E10" s="3">
-        <v>261100</v>
+        <v>278900</v>
       </c>
       <c r="F10" s="3">
-        <v>269100</v>
+        <v>270600</v>
       </c>
       <c r="G10" s="3">
-        <v>215100</v>
+        <v>279000</v>
       </c>
       <c r="H10" s="3">
-        <v>248500</v>
+        <v>223000</v>
       </c>
       <c r="I10" s="3">
-        <v>250600</v>
+        <v>257600</v>
       </c>
       <c r="J10" s="3">
+        <v>259800</v>
+      </c>
+      <c r="K10" s="3">
         <v>285200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>250900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>212000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>235900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>342700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>339600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>349600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>330000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>392800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>437500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>373900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>360400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>375000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>382400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>374600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>367900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>400000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>348500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,88 +1222,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>9800</v>
       </c>
       <c r="E14" s="3">
-        <v>-3700</v>
+        <v>1600</v>
       </c>
       <c r="F14" s="3">
-        <v>3500</v>
+        <v>-3800</v>
       </c>
       <c r="G14" s="3">
-        <v>9400</v>
+        <v>3600</v>
       </c>
       <c r="H14" s="3">
-        <v>-4700</v>
+        <v>9800</v>
       </c>
       <c r="I14" s="3">
-        <v>-11500</v>
+        <v>-4800</v>
       </c>
       <c r="J14" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K14" s="3">
         <v>23700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>39500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>40100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-3100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>106500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>22900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>142600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-45100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1850000</v>
+        <v>1920400</v>
       </c>
       <c r="E17" s="3">
-        <v>1834300</v>
+        <v>1917800</v>
       </c>
       <c r="F17" s="3">
-        <v>1798800</v>
+        <v>1901500</v>
       </c>
       <c r="G17" s="3">
-        <v>1610700</v>
+        <v>1864700</v>
       </c>
       <c r="H17" s="3">
-        <v>1590500</v>
+        <v>1669800</v>
       </c>
       <c r="I17" s="3">
-        <v>1513100</v>
+        <v>1648800</v>
       </c>
       <c r="J17" s="3">
+        <v>1568500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1721300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1515700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1415200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1556000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2039100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1980600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2063200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2034200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2373600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2244000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2208700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2114500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2388300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2141400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2002700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1941400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2125400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1701300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23400</v>
+        <v>900</v>
       </c>
       <c r="E18" s="3">
-        <v>11200</v>
+        <v>24300</v>
       </c>
       <c r="F18" s="3">
-        <v>41600</v>
+        <v>11600</v>
       </c>
       <c r="G18" s="3">
-        <v>-24800</v>
+        <v>43100</v>
       </c>
       <c r="H18" s="3">
-        <v>29200</v>
+        <v>-25700</v>
       </c>
       <c r="I18" s="3">
-        <v>38300</v>
+        <v>30200</v>
       </c>
       <c r="J18" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K18" s="3">
         <v>41100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-29100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-50100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>60100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>40700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>38400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>57300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>127300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>82300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>74600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>81300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>99800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>92100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>138000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24400</v>
+        <v>74000</v>
       </c>
       <c r="E20" s="3">
-        <v>57800</v>
+        <v>25300</v>
       </c>
       <c r="F20" s="3">
-        <v>34000</v>
+        <v>59900</v>
       </c>
       <c r="G20" s="3">
-        <v>14000</v>
+        <v>35200</v>
       </c>
       <c r="H20" s="3">
-        <v>15400</v>
+        <v>14500</v>
       </c>
       <c r="I20" s="3">
-        <v>21100</v>
+        <v>16000</v>
       </c>
       <c r="J20" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K20" s="3">
         <v>69000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>162100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>87400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>27000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-15400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>13300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>36300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>75200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>6100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>13000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>18100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>115800</v>
+        <v>147000</v>
       </c>
       <c r="E21" s="3">
-        <v>135100</v>
+        <v>120000</v>
       </c>
       <c r="F21" s="3">
-        <v>130300</v>
+        <v>140100</v>
       </c>
       <c r="G21" s="3">
-        <v>52900</v>
+        <v>135000</v>
       </c>
       <c r="H21" s="3">
-        <v>104900</v>
+        <v>54900</v>
       </c>
       <c r="I21" s="3">
-        <v>119800</v>
+        <v>108700</v>
       </c>
       <c r="J21" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K21" s="3">
         <v>164400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>78200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>179900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>211200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>124100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>131200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>115700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>126800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>219700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>152600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>120100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>66900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>177600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>228900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>155400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>51500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>212000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9500</v>
+        <v>12400</v>
       </c>
       <c r="E22" s="3">
-        <v>7300</v>
+        <v>9800</v>
       </c>
       <c r="F22" s="3">
-        <v>6500</v>
+        <v>7600</v>
       </c>
       <c r="G22" s="3">
-        <v>6100</v>
+        <v>6700</v>
       </c>
       <c r="H22" s="3">
-        <v>5700</v>
+        <v>6400</v>
       </c>
       <c r="I22" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="J22" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="K22" s="3">
         <v>6200</v>
       </c>
       <c r="L22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8900</v>
-      </c>
-      <c r="W22" s="3">
-        <v>9200</v>
       </c>
       <c r="X22" s="3">
         <v>9200</v>
       </c>
       <c r="Y22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Z22" s="3">
         <v>8700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>7300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38300</v>
+        <v>62500</v>
       </c>
       <c r="E23" s="3">
-        <v>61700</v>
+        <v>39700</v>
       </c>
       <c r="F23" s="3">
-        <v>69000</v>
+        <v>64000</v>
       </c>
       <c r="G23" s="3">
-        <v>-16900</v>
+        <v>71600</v>
       </c>
       <c r="H23" s="3">
-        <v>38900</v>
+        <v>-17600</v>
       </c>
       <c r="I23" s="3">
-        <v>53900</v>
+        <v>40300</v>
       </c>
       <c r="J23" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K23" s="3">
         <v>103900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-52200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>104300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>138700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>41100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>39000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>57400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>142400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>84800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>50700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>108400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>165800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>89500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>148700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20600</v>
+        <v>25200</v>
       </c>
       <c r="E24" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>21800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J24" s="3">
         <v>21000</v>
       </c>
-      <c r="F24" s="3">
-        <v>12800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>13500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>20300</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>32600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-50000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>49000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>29400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>20700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>30600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17700</v>
+        <v>37300</v>
       </c>
       <c r="E26" s="3">
-        <v>40700</v>
+        <v>18400</v>
       </c>
       <c r="F26" s="3">
-        <v>56200</v>
+        <v>42200</v>
       </c>
       <c r="G26" s="3">
-        <v>-21300</v>
+        <v>58300</v>
       </c>
       <c r="H26" s="3">
-        <v>25300</v>
+        <v>-22100</v>
       </c>
       <c r="I26" s="3">
-        <v>33600</v>
+        <v>26300</v>
       </c>
       <c r="J26" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K26" s="3">
         <v>71300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-47000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>69900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>94200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>107400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>93400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>68200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>36700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>79000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>141400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>68700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>118000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15500</v>
+        <v>33000</v>
       </c>
       <c r="E27" s="3">
-        <v>40800</v>
+        <v>16100</v>
       </c>
       <c r="F27" s="3">
-        <v>47900</v>
+        <v>42300</v>
       </c>
       <c r="G27" s="3">
-        <v>-27300</v>
+        <v>49600</v>
       </c>
       <c r="H27" s="3">
-        <v>21000</v>
+        <v>-28300</v>
       </c>
       <c r="I27" s="3">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="J27" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K27" s="3">
         <v>67600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-48800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>66800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>89800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>83500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>68100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>134300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>61800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>108400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24400</v>
+        <v>-74000</v>
       </c>
       <c r="E32" s="3">
-        <v>-57800</v>
+        <v>-25300</v>
       </c>
       <c r="F32" s="3">
-        <v>-34000</v>
+        <v>-59900</v>
       </c>
       <c r="G32" s="3">
-        <v>-14000</v>
+        <v>-35200</v>
       </c>
       <c r="H32" s="3">
-        <v>-15400</v>
+        <v>-14500</v>
       </c>
       <c r="I32" s="3">
-        <v>-21100</v>
+        <v>-16000</v>
       </c>
       <c r="J32" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-69000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-162100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-87400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>15400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-13300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-36300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-75200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-18100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15500</v>
+        <v>33000</v>
       </c>
       <c r="E33" s="3">
-        <v>40800</v>
+        <v>16100</v>
       </c>
       <c r="F33" s="3">
-        <v>47900</v>
+        <v>42300</v>
       </c>
       <c r="G33" s="3">
-        <v>-27300</v>
+        <v>49600</v>
       </c>
       <c r="H33" s="3">
-        <v>21000</v>
+        <v>-28300</v>
       </c>
       <c r="I33" s="3">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="J33" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K33" s="3">
         <v>67600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-48800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>66800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>89800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>83500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>60700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>30100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>68100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>134300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>61800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>108400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15500</v>
+        <v>33000</v>
       </c>
       <c r="E35" s="3">
-        <v>40800</v>
+        <v>16100</v>
       </c>
       <c r="F35" s="3">
-        <v>47900</v>
+        <v>42300</v>
       </c>
       <c r="G35" s="3">
-        <v>-27300</v>
+        <v>49600</v>
       </c>
       <c r="H35" s="3">
-        <v>21000</v>
+        <v>-28300</v>
       </c>
       <c r="I35" s="3">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="J35" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K35" s="3">
         <v>67600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-48800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>66800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>89800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>83500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>60700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>30100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>68100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>134300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>61800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>108400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,139 +3093,143 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>438300</v>
+        <v>429200</v>
       </c>
       <c r="E41" s="3">
-        <v>416400</v>
+        <v>454400</v>
       </c>
       <c r="F41" s="3">
-        <v>461900</v>
+        <v>431700</v>
       </c>
       <c r="G41" s="3">
-        <v>456500</v>
+        <v>478900</v>
       </c>
       <c r="H41" s="3">
-        <v>379100</v>
+        <v>473200</v>
       </c>
       <c r="I41" s="3">
-        <v>618700</v>
+        <v>393000</v>
       </c>
       <c r="J41" s="3">
+        <v>641400</v>
+      </c>
+      <c r="K41" s="3">
         <v>598100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>559200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>637100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>962100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>478900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>346200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>368300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>395300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>428900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>442600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>445400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>374100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>457700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>471100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>479700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>390800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>418400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>496400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27300</v>
+        <v>28000</v>
       </c>
       <c r="E42" s="3">
-        <v>22200</v>
+        <v>28300</v>
       </c>
       <c r="F42" s="3">
-        <v>23100</v>
+        <v>23000</v>
       </c>
       <c r="G42" s="3">
-        <v>22200</v>
+        <v>23900</v>
       </c>
       <c r="H42" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="I42" s="3">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="J42" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K42" s="3">
         <v>20700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22800</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
@@ -3151,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X42" s="3">
         <v>300</v>
@@ -3160,576 +3249,600 @@
         <v>300</v>
       </c>
       <c r="Z42" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA42" s="3">
         <v>500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1622600</v>
+        <v>1632600</v>
       </c>
       <c r="E43" s="3">
-        <v>1651500</v>
+        <v>1682100</v>
       </c>
       <c r="F43" s="3">
-        <v>1625600</v>
+        <v>1712100</v>
       </c>
       <c r="G43" s="3">
-        <v>1478100</v>
+        <v>1685200</v>
       </c>
       <c r="H43" s="3">
-        <v>1418000</v>
+        <v>1532300</v>
       </c>
       <c r="I43" s="3">
-        <v>1414300</v>
+        <v>1470100</v>
       </c>
       <c r="J43" s="3">
+        <v>1466200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1354400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1299400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1221000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1336000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1685000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1802000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1774400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1859900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2097400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2044600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2030100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1984900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2017000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2008900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1887000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1815800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1753000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1623600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1291400</v>
+        <v>1420800</v>
       </c>
       <c r="E44" s="3">
-        <v>1294800</v>
+        <v>1338800</v>
       </c>
       <c r="F44" s="3">
-        <v>1163600</v>
+        <v>1342200</v>
       </c>
       <c r="G44" s="3">
-        <v>1100100</v>
+        <v>1206200</v>
       </c>
       <c r="H44" s="3">
-        <v>1040900</v>
+        <v>1140400</v>
       </c>
       <c r="I44" s="3">
-        <v>979100</v>
+        <v>1079000</v>
       </c>
       <c r="J44" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="K44" s="3">
         <v>856700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>883600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>922000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1042700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1020700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1206600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1150600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1183100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1181000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1242300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1166900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1121800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1028700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1110200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1068000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1019900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>925600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>931400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>250800</v>
+        <v>280200</v>
       </c>
       <c r="E45" s="3">
-        <v>270700</v>
+        <v>260000</v>
       </c>
       <c r="F45" s="3">
-        <v>291800</v>
+        <v>280600</v>
       </c>
       <c r="G45" s="3">
-        <v>260800</v>
+        <v>302500</v>
       </c>
       <c r="H45" s="3">
-        <v>221600</v>
+        <v>270400</v>
       </c>
       <c r="I45" s="3">
-        <v>261000</v>
+        <v>229700</v>
       </c>
       <c r="J45" s="3">
+        <v>270600</v>
+      </c>
+      <c r="K45" s="3">
         <v>217300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>224200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>204200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>248500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>209700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>250700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>245100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>262500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>311100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>260100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>243600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>229600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>348700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>316300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>301900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>300800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>294400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>325300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3630400</v>
+        <v>3790800</v>
       </c>
       <c r="E46" s="3">
-        <v>3655500</v>
+        <v>3763500</v>
       </c>
       <c r="F46" s="3">
-        <v>3566000</v>
+        <v>3789600</v>
       </c>
       <c r="G46" s="3">
-        <v>3317700</v>
+        <v>3696800</v>
       </c>
       <c r="H46" s="3">
-        <v>3082800</v>
+        <v>3439300</v>
       </c>
       <c r="I46" s="3">
-        <v>3296900</v>
+        <v>3195800</v>
       </c>
       <c r="J46" s="3">
+        <v>3417800</v>
+      </c>
+      <c r="K46" s="3">
         <v>3047400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2983400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3000900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3603300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3402200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3619700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3547700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3708100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4041100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3989700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3885900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3710500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3762400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3906800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3736800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3527600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3391900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3377000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>910900</v>
+        <v>908400</v>
       </c>
       <c r="E47" s="3">
-        <v>877900</v>
+        <v>944300</v>
       </c>
       <c r="F47" s="3">
-        <v>864500</v>
+        <v>910100</v>
       </c>
       <c r="G47" s="3">
-        <v>779800</v>
+        <v>896200</v>
       </c>
       <c r="H47" s="3">
-        <v>759700</v>
+        <v>808400</v>
       </c>
       <c r="I47" s="3">
-        <v>741300</v>
+        <v>787500</v>
       </c>
       <c r="J47" s="3">
+        <v>768500</v>
+      </c>
+      <c r="K47" s="3">
         <v>777300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>789400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>774300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>838300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>936800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1090200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1066100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1062600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1193700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1158400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1237500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1200800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1239600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1221900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1137400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1096400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1162400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1059900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1994200</v>
+        <v>1963100</v>
       </c>
       <c r="E48" s="3">
-        <v>1931300</v>
+        <v>2067300</v>
       </c>
       <c r="F48" s="3">
-        <v>1844600</v>
+        <v>2002100</v>
       </c>
       <c r="G48" s="3">
-        <v>1784800</v>
+        <v>1912200</v>
       </c>
       <c r="H48" s="3">
-        <v>1788300</v>
+        <v>1850200</v>
       </c>
       <c r="I48" s="3">
-        <v>1774500</v>
+        <v>1853800</v>
       </c>
       <c r="J48" s="3">
+        <v>1839500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1749400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1786900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1943800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2118900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2239700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2274300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2257400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2213800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2204100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2093800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2081600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1996800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1959200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1941700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1933000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1907300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1822700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1766700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>142600</v>
+        <v>144900</v>
       </c>
       <c r="E49" s="3">
-        <v>143500</v>
+        <v>147800</v>
       </c>
       <c r="F49" s="3">
-        <v>145500</v>
+        <v>148700</v>
       </c>
       <c r="G49" s="3">
-        <v>139500</v>
+        <v>150800</v>
       </c>
       <c r="H49" s="3">
-        <v>141300</v>
+        <v>144600</v>
       </c>
       <c r="I49" s="3">
-        <v>144600</v>
+        <v>146500</v>
       </c>
       <c r="J49" s="3">
+        <v>149900</v>
+      </c>
+      <c r="K49" s="3">
         <v>143600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>142300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>146500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>146900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>141800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>128200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>122900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>113600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>117300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>95900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>92400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>90600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>102200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>96900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>87500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>86800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>86400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>79700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>271900</v>
+        <v>267500</v>
       </c>
       <c r="E52" s="3">
-        <v>272600</v>
+        <v>281800</v>
       </c>
       <c r="F52" s="3">
-        <v>214800</v>
+        <v>282600</v>
       </c>
       <c r="G52" s="3">
-        <v>245100</v>
+        <v>222700</v>
       </c>
       <c r="H52" s="3">
-        <v>244900</v>
+        <v>254100</v>
       </c>
       <c r="I52" s="3">
-        <v>245400</v>
+        <v>253900</v>
       </c>
       <c r="J52" s="3">
+        <v>254400</v>
+      </c>
+      <c r="K52" s="3">
         <v>181500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>232400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>260800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>290100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>280100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>304600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>339800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>338700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>304900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>273800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>279400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>276600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>301500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>261900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>263500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>260800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>190200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>240400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6949900</v>
+        <v>7074700</v>
       </c>
       <c r="E54" s="3">
-        <v>6880700</v>
+        <v>7204800</v>
       </c>
       <c r="F54" s="3">
-        <v>6635400</v>
+        <v>7133000</v>
       </c>
       <c r="G54" s="3">
-        <v>6266800</v>
+        <v>6878700</v>
       </c>
       <c r="H54" s="3">
-        <v>6017000</v>
+        <v>6496700</v>
       </c>
       <c r="I54" s="3">
-        <v>6202600</v>
+        <v>6237600</v>
       </c>
       <c r="J54" s="3">
+        <v>6430100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5899200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5934500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6126200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6997500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7000600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7417000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7334000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7436800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7861200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7611600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7576800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7275300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7310000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7429200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7158200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6878900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6653600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6523700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>868100</v>
+        <v>970300</v>
       </c>
       <c r="E57" s="3">
-        <v>916400</v>
+        <v>900000</v>
       </c>
       <c r="F57" s="3">
-        <v>907400</v>
+        <v>950000</v>
       </c>
       <c r="G57" s="3">
-        <v>836900</v>
+        <v>940700</v>
       </c>
       <c r="H57" s="3">
-        <v>760300</v>
+        <v>867600</v>
       </c>
       <c r="I57" s="3">
-        <v>855200</v>
+        <v>788200</v>
       </c>
       <c r="J57" s="3">
+        <v>886600</v>
+      </c>
+      <c r="K57" s="3">
         <v>818900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>769800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>721600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>816700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>983100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1079200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1034700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1115500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1263000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1184200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1167500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1124900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1124500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1078800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1043900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>979900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>958700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>933000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1379900</v>
+        <v>1411800</v>
       </c>
       <c r="E58" s="3">
-        <v>1301300</v>
+        <v>1430500</v>
       </c>
       <c r="F58" s="3">
-        <v>1209200</v>
+        <v>1349000</v>
       </c>
       <c r="G58" s="3">
-        <v>1103000</v>
+        <v>1253600</v>
       </c>
       <c r="H58" s="3">
-        <v>979000</v>
+        <v>1143400</v>
       </c>
       <c r="I58" s="3">
-        <v>1154600</v>
+        <v>1014900</v>
       </c>
       <c r="J58" s="3">
+        <v>1196900</v>
+      </c>
+      <c r="K58" s="3">
         <v>957400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1148400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1208100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1331600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1119500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1255200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1143000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1057800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1025500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1002200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1041000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>992900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2011900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1069900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1039900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1186800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>889700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>906300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>596300</v>
+        <v>619600</v>
       </c>
       <c r="E59" s="3">
-        <v>578200</v>
+        <v>618200</v>
       </c>
       <c r="F59" s="3">
-        <v>575500</v>
+        <v>599400</v>
       </c>
       <c r="G59" s="3">
-        <v>530800</v>
+        <v>596600</v>
       </c>
       <c r="H59" s="3">
-        <v>497600</v>
+        <v>550300</v>
       </c>
       <c r="I59" s="3">
-        <v>484900</v>
+        <v>515900</v>
       </c>
       <c r="J59" s="3">
+        <v>502700</v>
+      </c>
+      <c r="K59" s="3">
         <v>458500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>522400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>488300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>705500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>713500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>722800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>787200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>823100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>898400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>799400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>795000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>858300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>810600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>729400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>698800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>655700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>753700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>634400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2844400</v>
+        <v>3001700</v>
       </c>
       <c r="E60" s="3">
-        <v>2795900</v>
+        <v>2948700</v>
       </c>
       <c r="F60" s="3">
-        <v>2692200</v>
+        <v>2898400</v>
       </c>
       <c r="G60" s="3">
-        <v>2470800</v>
+        <v>2790900</v>
       </c>
       <c r="H60" s="3">
-        <v>2237000</v>
+        <v>2561400</v>
       </c>
       <c r="I60" s="3">
-        <v>2494700</v>
+        <v>2319000</v>
       </c>
       <c r="J60" s="3">
+        <v>2586200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2234800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2440600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2418100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2853900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2816100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3057300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2964900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2996400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3186900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2985700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3003400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2976100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2986200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2878200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2782600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2822400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2602100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2473700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1169500</v>
+        <v>1140800</v>
       </c>
       <c r="E61" s="3">
-        <v>1236200</v>
+        <v>1212400</v>
       </c>
       <c r="F61" s="3">
-        <v>1281200</v>
+        <v>1281600</v>
       </c>
       <c r="G61" s="3">
-        <v>1207200</v>
+        <v>1328200</v>
       </c>
       <c r="H61" s="3">
-        <v>1160200</v>
+        <v>1251500</v>
       </c>
       <c r="I61" s="3">
-        <v>1104500</v>
+        <v>1202700</v>
       </c>
       <c r="J61" s="3">
+        <v>1145000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1157000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>970100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1031400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1194200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1163200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1124300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1156800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1249500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1338700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1430100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1409800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1282300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1285700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1404900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1393400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1284400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1350300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1387100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>560200</v>
+        <v>548000</v>
       </c>
       <c r="E62" s="3">
-        <v>535100</v>
+        <v>580700</v>
       </c>
       <c r="F62" s="3">
-        <v>435200</v>
+        <v>554700</v>
       </c>
       <c r="G62" s="3">
-        <v>493300</v>
+        <v>451200</v>
       </c>
       <c r="H62" s="3">
-        <v>498800</v>
+        <v>511400</v>
       </c>
       <c r="I62" s="3">
-        <v>492600</v>
+        <v>517000</v>
       </c>
       <c r="J62" s="3">
+        <v>510600</v>
+      </c>
+      <c r="K62" s="3">
         <v>439800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>552700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>593100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>643000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>615900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>660700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>664500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>666500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>645700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>603400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>610100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>590600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>578600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>632000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>612200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>605000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>598500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>669800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4834500</v>
+        <v>4890000</v>
       </c>
       <c r="E66" s="3">
-        <v>4818800</v>
+        <v>5011800</v>
       </c>
       <c r="F66" s="3">
-        <v>4655700</v>
+        <v>4995500</v>
       </c>
       <c r="G66" s="3">
-        <v>4408600</v>
+        <v>4826400</v>
       </c>
       <c r="H66" s="3">
-        <v>4127500</v>
+        <v>4570300</v>
       </c>
       <c r="I66" s="3">
-        <v>4318800</v>
+        <v>4278800</v>
       </c>
       <c r="J66" s="3">
+        <v>4477200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4056700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4185300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4272000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4936700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4883700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5140700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5078600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5201600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5481200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5318700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5331200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5151200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5171900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5232100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5098300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4997900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4820100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4780100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1268200</v>
+        <v>1347800</v>
       </c>
       <c r="E72" s="3">
-        <v>1252700</v>
+        <v>1314700</v>
       </c>
       <c r="F72" s="3">
-        <v>1236100</v>
+        <v>1298600</v>
       </c>
       <c r="G72" s="3">
-        <v>1187900</v>
+        <v>1281400</v>
       </c>
       <c r="H72" s="3">
-        <v>1214700</v>
+        <v>1231400</v>
       </c>
       <c r="I72" s="3">
-        <v>1193700</v>
+        <v>1259200</v>
       </c>
       <c r="J72" s="3">
+        <v>1237500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1195000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1165500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1249000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1421000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1454500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1411200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1411100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1371500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1458300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1334100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1231100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1145200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1158300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1164400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1096400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>962100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>922000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>935100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2115400</v>
+        <v>2184800</v>
       </c>
       <c r="E76" s="3">
-        <v>2061900</v>
+        <v>2193000</v>
       </c>
       <c r="F76" s="3">
-        <v>1979700</v>
+        <v>2137500</v>
       </c>
       <c r="G76" s="3">
-        <v>1858300</v>
+        <v>2052300</v>
       </c>
       <c r="H76" s="3">
-        <v>1889500</v>
+        <v>1926400</v>
       </c>
       <c r="I76" s="3">
-        <v>1883800</v>
+        <v>1958800</v>
       </c>
       <c r="J76" s="3">
+        <v>1952900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1842500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1749200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1854200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2060800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2116900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2276300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2255400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2235100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2380000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2292900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2245600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2124100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2138100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2197100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2059900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1881000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1833500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1743600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15500</v>
+        <v>33000</v>
       </c>
       <c r="E81" s="3">
-        <v>40800</v>
+        <v>16100</v>
       </c>
       <c r="F81" s="3">
-        <v>47900</v>
+        <v>42300</v>
       </c>
       <c r="G81" s="3">
-        <v>-27300</v>
+        <v>49600</v>
       </c>
       <c r="H81" s="3">
-        <v>21000</v>
+        <v>-28300</v>
       </c>
       <c r="I81" s="3">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="J81" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K81" s="3">
         <v>67600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-48800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>66800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>89800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>83500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>60700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>30100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>68100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>134300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>61800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>108400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>68000</v>
+        <v>72200</v>
       </c>
       <c r="E83" s="3">
-        <v>66100</v>
+        <v>70500</v>
       </c>
       <c r="F83" s="3">
-        <v>54700</v>
+        <v>68500</v>
       </c>
       <c r="G83" s="3">
+        <v>56700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>66000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>62500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>54300</v>
+      </c>
+      <c r="L83" s="3">
         <v>63700</v>
       </c>
-      <c r="H83" s="3">
-        <v>60300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>60400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>54300</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
+        <v>61200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>67900</v>
+      </c>
+      <c r="O83" s="3">
         <v>63700</v>
       </c>
-      <c r="L83" s="3">
-        <v>61200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>67900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>63700</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>73000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>63500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>66600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>59000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>67200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>58700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>60900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>55800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>60000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>53900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>57200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>49200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>55900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,380 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1921200</v>
+        <v>2021700</v>
       </c>
       <c r="E8" s="3">
-        <v>1942100</v>
+        <v>1884600</v>
       </c>
       <c r="F8" s="3">
-        <v>1913200</v>
+        <v>1905100</v>
       </c>
       <c r="G8" s="3">
-        <v>1907800</v>
+        <v>1876700</v>
       </c>
       <c r="H8" s="3">
-        <v>1644000</v>
+        <v>1871500</v>
       </c>
       <c r="I8" s="3">
-        <v>1679000</v>
+        <v>1612700</v>
       </c>
       <c r="J8" s="3">
+        <v>1647100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1608300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1762400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1528700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1386100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1505900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2099200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2013000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2103900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2072600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2430900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2371300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2291000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2189100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2386100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2222700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2102500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2033500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2114700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1839400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1644100</v>
+        <v>1702900</v>
       </c>
       <c r="E9" s="3">
-        <v>1663200</v>
+        <v>1612700</v>
       </c>
       <c r="F9" s="3">
-        <v>1642500</v>
+        <v>1631600</v>
       </c>
       <c r="G9" s="3">
-        <v>1628900</v>
+        <v>1611200</v>
       </c>
       <c r="H9" s="3">
-        <v>1421000</v>
+        <v>1597800</v>
       </c>
       <c r="I9" s="3">
-        <v>1421400</v>
+        <v>1394000</v>
       </c>
       <c r="J9" s="3">
+        <v>1394400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1348400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1477200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1277800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1174100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1270000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1756500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1673400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1754200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1742700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2038100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1933800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1917100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1828800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2011100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1840300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1727900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1665600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1714700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1490900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>277200</v>
+        <v>318900</v>
       </c>
       <c r="E10" s="3">
-        <v>278900</v>
+        <v>271900</v>
       </c>
       <c r="F10" s="3">
-        <v>270600</v>
+        <v>273600</v>
       </c>
       <c r="G10" s="3">
-        <v>279000</v>
+        <v>265500</v>
       </c>
       <c r="H10" s="3">
-        <v>223000</v>
+        <v>273600</v>
       </c>
       <c r="I10" s="3">
-        <v>257600</v>
+        <v>218800</v>
       </c>
       <c r="J10" s="3">
+        <v>252700</v>
+      </c>
+      <c r="K10" s="3">
         <v>259800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>285200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>250900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>212000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>235900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>342700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>339600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>349600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>330000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>392800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>437500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>373900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>360400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>375000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>382400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>374600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>367900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>400000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>348500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1068,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1152,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,91 +1238,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9800</v>
+        <v>25700</v>
       </c>
       <c r="E14" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
-        <v>-3800</v>
-      </c>
       <c r="G14" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H14" s="3">
         <v>3600</v>
       </c>
-      <c r="H14" s="3">
-        <v>9800</v>
-      </c>
       <c r="I14" s="3">
-        <v>-4800</v>
+        <v>9600</v>
       </c>
       <c r="J14" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-11900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>39500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>40100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-3100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>106500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>22900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>142600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-45100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1410,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1920400</v>
+        <v>1979500</v>
       </c>
       <c r="E17" s="3">
-        <v>1917800</v>
+        <v>1883800</v>
       </c>
       <c r="F17" s="3">
-        <v>1901500</v>
+        <v>1881300</v>
       </c>
       <c r="G17" s="3">
-        <v>1864700</v>
+        <v>1865300</v>
       </c>
       <c r="H17" s="3">
-        <v>1669800</v>
+        <v>1829200</v>
       </c>
       <c r="I17" s="3">
-        <v>1648800</v>
+        <v>1637900</v>
       </c>
       <c r="J17" s="3">
+        <v>1617400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1568500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1721300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1515700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1415200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1556000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2039100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1980600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2063200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2034200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2373600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2244000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2208700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2114500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2388300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2141400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2002700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1941400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2125400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1701300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3">
-        <v>24300</v>
-      </c>
       <c r="F18" s="3">
-        <v>11600</v>
+        <v>23800</v>
       </c>
       <c r="G18" s="3">
-        <v>43100</v>
+        <v>11400</v>
       </c>
       <c r="H18" s="3">
-        <v>-25700</v>
+        <v>42300</v>
       </c>
       <c r="I18" s="3">
-        <v>30200</v>
+        <v>-25200</v>
       </c>
       <c r="J18" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K18" s="3">
         <v>39700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>41100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-29100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-50100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>60100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>40700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>38400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>57300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>127300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>82300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>74600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>81300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>99800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>92100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>138000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1645,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>74000</v>
+        <v>29700</v>
       </c>
       <c r="E20" s="3">
-        <v>25300</v>
+        <v>72600</v>
       </c>
       <c r="F20" s="3">
-        <v>59900</v>
+        <v>24800</v>
       </c>
       <c r="G20" s="3">
-        <v>35200</v>
+        <v>58800</v>
       </c>
       <c r="H20" s="3">
-        <v>14500</v>
+        <v>34600</v>
       </c>
       <c r="I20" s="3">
-        <v>16000</v>
+        <v>14300</v>
       </c>
       <c r="J20" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K20" s="3">
         <v>21900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>69000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>162100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>87400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>27000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>13300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>36300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>75200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>6100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>13000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>18100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>147000</v>
+        <v>146700</v>
       </c>
       <c r="E21" s="3">
-        <v>120000</v>
+        <v>144200</v>
       </c>
       <c r="F21" s="3">
-        <v>140100</v>
+        <v>117700</v>
       </c>
       <c r="G21" s="3">
-        <v>135000</v>
+        <v>137400</v>
       </c>
       <c r="H21" s="3">
-        <v>54900</v>
+        <v>132500</v>
       </c>
       <c r="I21" s="3">
-        <v>108700</v>
+        <v>53800</v>
       </c>
       <c r="J21" s="3">
+        <v>106600</v>
+      </c>
+      <c r="K21" s="3">
         <v>124200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>164400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>78200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>179900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>211200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>124100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>131200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>115700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>126800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>219700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>152600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>120100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>66900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>177600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>228900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>155400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>51500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>212000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12400</v>
+        <v>16500</v>
       </c>
       <c r="E22" s="3">
-        <v>9800</v>
+        <v>12100</v>
       </c>
       <c r="F22" s="3">
-        <v>7600</v>
+        <v>9600</v>
       </c>
       <c r="G22" s="3">
-        <v>6700</v>
+        <v>7400</v>
       </c>
       <c r="H22" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="I22" s="3">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="J22" s="3">
         <v>5800</v>
       </c>
       <c r="K22" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="L22" s="3">
         <v>6200</v>
       </c>
       <c r="M22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8900</v>
-      </c>
-      <c r="X22" s="3">
-        <v>9200</v>
       </c>
       <c r="Y22" s="3">
         <v>9200</v>
       </c>
       <c r="Z22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="AA22" s="3">
         <v>8700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>7400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62500</v>
+        <v>55400</v>
       </c>
       <c r="E23" s="3">
-        <v>39700</v>
+        <v>61300</v>
       </c>
       <c r="F23" s="3">
-        <v>64000</v>
+        <v>39000</v>
       </c>
       <c r="G23" s="3">
-        <v>71600</v>
+        <v>62800</v>
       </c>
       <c r="H23" s="3">
-        <v>-17600</v>
+        <v>70200</v>
       </c>
       <c r="I23" s="3">
-        <v>40300</v>
+        <v>-17200</v>
       </c>
       <c r="J23" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K23" s="3">
         <v>55800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>103900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-52200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>104300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>138700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>41100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>57300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>39000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>57400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>142400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>84800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>50700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>108400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>165800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>89500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>148700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25200</v>
+        <v>9700</v>
       </c>
       <c r="E24" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G24" s="3">
         <v>21400</v>
       </c>
-      <c r="F24" s="3">
-        <v>21800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>13300</v>
-      </c>
       <c r="H24" s="3">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="I24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>32600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>34400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>44600</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>22400</v>
+      </c>
+      <c r="R24" s="3">
+        <v>18700</v>
+      </c>
+      <c r="S24" s="3">
+        <v>20100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="U24" s="3">
+        <v>49000</v>
+      </c>
+      <c r="V24" s="3">
+        <v>16600</v>
+      </c>
+      <c r="W24" s="3">
         <v>14000</v>
       </c>
-      <c r="J24" s="3">
-        <v>21000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>32600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>9200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>34400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>44600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>22400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>18700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>20100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>49000</v>
-      </c>
-      <c r="U24" s="3">
-        <v>16600</v>
-      </c>
-      <c r="V24" s="3">
-        <v>14000</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>29400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>24400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>20700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>30600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>37300</v>
+        <v>45700</v>
       </c>
       <c r="E26" s="3">
-        <v>18400</v>
+        <v>36600</v>
       </c>
       <c r="F26" s="3">
-        <v>42200</v>
+        <v>18000</v>
       </c>
       <c r="G26" s="3">
-        <v>58300</v>
+        <v>41400</v>
       </c>
       <c r="H26" s="3">
-        <v>-22100</v>
+        <v>57200</v>
       </c>
       <c r="I26" s="3">
-        <v>26300</v>
+        <v>-21600</v>
       </c>
       <c r="J26" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K26" s="3">
         <v>34800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>71300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-47000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>69900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>94200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>107400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>93400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>68200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>36700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>79000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>141400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>68700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>118000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33000</v>
+        <v>39500</v>
       </c>
       <c r="E27" s="3">
-        <v>16100</v>
+        <v>32400</v>
       </c>
       <c r="F27" s="3">
-        <v>42300</v>
+        <v>15800</v>
       </c>
       <c r="G27" s="3">
-        <v>49600</v>
+        <v>41500</v>
       </c>
       <c r="H27" s="3">
-        <v>-28300</v>
+        <v>48700</v>
       </c>
       <c r="I27" s="3">
-        <v>21800</v>
+        <v>-27800</v>
       </c>
       <c r="J27" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K27" s="3">
         <v>31100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-48800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>66800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>89800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>83500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>60700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>68100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>134300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>61800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-11700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>108400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2503,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-74000</v>
+        <v>-29700</v>
       </c>
       <c r="E32" s="3">
-        <v>-25300</v>
+        <v>-72600</v>
       </c>
       <c r="F32" s="3">
-        <v>-59900</v>
+        <v>-24800</v>
       </c>
       <c r="G32" s="3">
-        <v>-35200</v>
+        <v>-58800</v>
       </c>
       <c r="H32" s="3">
-        <v>-14500</v>
+        <v>-34600</v>
       </c>
       <c r="I32" s="3">
-        <v>-16000</v>
+        <v>-14300</v>
       </c>
       <c r="J32" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-21900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-69000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-162100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-87400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-27000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-13300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-36300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-75200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-18100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>33000</v>
+        <v>39500</v>
       </c>
       <c r="E33" s="3">
-        <v>16100</v>
+        <v>32400</v>
       </c>
       <c r="F33" s="3">
-        <v>42300</v>
+        <v>15800</v>
       </c>
       <c r="G33" s="3">
-        <v>49600</v>
+        <v>41500</v>
       </c>
       <c r="H33" s="3">
-        <v>-28300</v>
+        <v>48700</v>
       </c>
       <c r="I33" s="3">
-        <v>21800</v>
+        <v>-27800</v>
       </c>
       <c r="J33" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K33" s="3">
         <v>31100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-48800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>66800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>89800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>83500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>60700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>30100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>68100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>134300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>61800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-11700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>108400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>33000</v>
+        <v>39500</v>
       </c>
       <c r="E35" s="3">
-        <v>16100</v>
+        <v>32400</v>
       </c>
       <c r="F35" s="3">
-        <v>42300</v>
+        <v>15800</v>
       </c>
       <c r="G35" s="3">
-        <v>49600</v>
+        <v>41500</v>
       </c>
       <c r="H35" s="3">
-        <v>-28300</v>
+        <v>48700</v>
       </c>
       <c r="I35" s="3">
-        <v>21800</v>
+        <v>-27800</v>
       </c>
       <c r="J35" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K35" s="3">
         <v>31100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-48800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>66800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>89800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>83500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>60700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>30100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>68100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>134300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>61800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-11700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>108400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,145 +3176,149 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>429200</v>
+        <v>342000</v>
       </c>
       <c r="E41" s="3">
-        <v>454400</v>
+        <v>421000</v>
       </c>
       <c r="F41" s="3">
-        <v>431700</v>
+        <v>445700</v>
       </c>
       <c r="G41" s="3">
+        <v>423400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>469800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>464200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>385500</v>
+      </c>
+      <c r="K41" s="3">
+        <v>641400</v>
+      </c>
+      <c r="L41" s="3">
+        <v>598100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>559200</v>
+      </c>
+      <c r="N41" s="3">
+        <v>637100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>962100</v>
+      </c>
+      <c r="P41" s="3">
         <v>478900</v>
       </c>
-      <c r="H41" s="3">
-        <v>473200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>393000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>641400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>598100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>559200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>637100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>962100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>478900</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>346200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>368300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>395300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>428900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>442600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>445400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>374100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>457700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>471100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>479700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>390800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>418400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>496400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="E42" s="3">
-        <v>28300</v>
+        <v>27400</v>
       </c>
       <c r="F42" s="3">
-        <v>23000</v>
+        <v>27800</v>
       </c>
       <c r="G42" s="3">
-        <v>23900</v>
+        <v>22500</v>
       </c>
       <c r="H42" s="3">
-        <v>23000</v>
+        <v>23500</v>
       </c>
       <c r="I42" s="3">
-        <v>24000</v>
+        <v>22600</v>
       </c>
       <c r="J42" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K42" s="3">
         <v>24700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>22800</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
         <v>0</v>
       </c>
@@ -3243,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="3">
         <v>300</v>
@@ -3252,597 +3338,621 @@
         <v>300</v>
       </c>
       <c r="AA42" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB42" s="3">
         <v>500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1632600</v>
+        <v>1645000</v>
       </c>
       <c r="E43" s="3">
-        <v>1682100</v>
+        <v>1601600</v>
       </c>
       <c r="F43" s="3">
-        <v>1712100</v>
+        <v>1650000</v>
       </c>
       <c r="G43" s="3">
-        <v>1685200</v>
+        <v>1679500</v>
       </c>
       <c r="H43" s="3">
-        <v>1532300</v>
+        <v>1653100</v>
       </c>
       <c r="I43" s="3">
-        <v>1470100</v>
+        <v>1503100</v>
       </c>
       <c r="J43" s="3">
+        <v>1442100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1466200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1354400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1299400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1221000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1336000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1685000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1802000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1774400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1859900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2097400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2044600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2030100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1984900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2017000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2008900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1887000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1815800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1753000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1623600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1420800</v>
+        <v>1242300</v>
       </c>
       <c r="E44" s="3">
-        <v>1338800</v>
+        <v>1393700</v>
       </c>
       <c r="F44" s="3">
-        <v>1342200</v>
+        <v>1313300</v>
       </c>
       <c r="G44" s="3">
-        <v>1206200</v>
+        <v>1316700</v>
       </c>
       <c r="H44" s="3">
-        <v>1140400</v>
+        <v>1183300</v>
       </c>
       <c r="I44" s="3">
-        <v>1079000</v>
+        <v>1118700</v>
       </c>
       <c r="J44" s="3">
+        <v>1058500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1015000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>856700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>883600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>922000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1042700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1020700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1206600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1150600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1183100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1181000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1242300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1166900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1121800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1028700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1110200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1068000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1019900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>925600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>931400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>280200</v>
+        <v>243700</v>
       </c>
       <c r="E45" s="3">
-        <v>260000</v>
+        <v>274900</v>
       </c>
       <c r="F45" s="3">
-        <v>280600</v>
+        <v>255000</v>
       </c>
       <c r="G45" s="3">
-        <v>302500</v>
+        <v>275300</v>
       </c>
       <c r="H45" s="3">
-        <v>270400</v>
+        <v>296800</v>
       </c>
       <c r="I45" s="3">
-        <v>229700</v>
+        <v>265200</v>
       </c>
       <c r="J45" s="3">
+        <v>225300</v>
+      </c>
+      <c r="K45" s="3">
         <v>270600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>217300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>224200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>204200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>248500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>209700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>250700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>245100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>262500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>311100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>260100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>243600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>229600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>348700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>316300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>301900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>300800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>294400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>325300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3790800</v>
+        <v>3510000</v>
       </c>
       <c r="E46" s="3">
-        <v>3763500</v>
+        <v>3718600</v>
       </c>
       <c r="F46" s="3">
-        <v>3789600</v>
+        <v>3691800</v>
       </c>
       <c r="G46" s="3">
-        <v>3696800</v>
+        <v>3717400</v>
       </c>
       <c r="H46" s="3">
-        <v>3439300</v>
+        <v>3626400</v>
       </c>
       <c r="I46" s="3">
-        <v>3195800</v>
+        <v>3373800</v>
       </c>
       <c r="J46" s="3">
+        <v>3135000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3417800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3047400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2983400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3000900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3603300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3402200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3619700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3547700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3708100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4041100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3989700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3885900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3710500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3762400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3906800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3736800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3527600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3391900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3377000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>908400</v>
+        <v>896000</v>
       </c>
       <c r="E47" s="3">
-        <v>944300</v>
+        <v>891100</v>
       </c>
       <c r="F47" s="3">
-        <v>910100</v>
+        <v>926300</v>
       </c>
       <c r="G47" s="3">
-        <v>896200</v>
+        <v>892700</v>
       </c>
       <c r="H47" s="3">
-        <v>808400</v>
+        <v>879200</v>
       </c>
       <c r="I47" s="3">
-        <v>787500</v>
+        <v>793000</v>
       </c>
       <c r="J47" s="3">
+        <v>772500</v>
+      </c>
+      <c r="K47" s="3">
         <v>768500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>777300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>789400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>774300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>838300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>936800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1090200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1066100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1062600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1193700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1158400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1237500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1200800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1239600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1221900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1137400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1096400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1162400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1059900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1963100</v>
+        <v>1941600</v>
       </c>
       <c r="E48" s="3">
-        <v>2067300</v>
+        <v>1925700</v>
       </c>
       <c r="F48" s="3">
-        <v>2002100</v>
+        <v>2027900</v>
       </c>
       <c r="G48" s="3">
-        <v>1912200</v>
+        <v>1964000</v>
       </c>
       <c r="H48" s="3">
-        <v>1850200</v>
+        <v>1875800</v>
       </c>
       <c r="I48" s="3">
-        <v>1853800</v>
+        <v>1815000</v>
       </c>
       <c r="J48" s="3">
+        <v>1818500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1839500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1749400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1786900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1943800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2118900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2239700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2274300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2257400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2213800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2204100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2093800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2081600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1996800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1959200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1941700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1933000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1907300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1822700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1766700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>144900</v>
+        <v>145900</v>
       </c>
       <c r="E49" s="3">
-        <v>147800</v>
+        <v>142100</v>
       </c>
       <c r="F49" s="3">
-        <v>148700</v>
+        <v>145000</v>
       </c>
       <c r="G49" s="3">
-        <v>150800</v>
+        <v>145900</v>
       </c>
       <c r="H49" s="3">
-        <v>144600</v>
+        <v>147900</v>
       </c>
       <c r="I49" s="3">
+        <v>141900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>143700</v>
+      </c>
+      <c r="K49" s="3">
+        <v>149900</v>
+      </c>
+      <c r="L49" s="3">
+        <v>143600</v>
+      </c>
+      <c r="M49" s="3">
+        <v>142300</v>
+      </c>
+      <c r="N49" s="3">
         <v>146500</v>
       </c>
-      <c r="J49" s="3">
-        <v>149900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>143600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>142300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>146500</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>146900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>141800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>128200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>122900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>113600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>117300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>95900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>92400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>90600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>102200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>96900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>87500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>86800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>86400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>79700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>267500</v>
+        <v>246800</v>
       </c>
       <c r="E52" s="3">
-        <v>281800</v>
+        <v>262400</v>
       </c>
       <c r="F52" s="3">
-        <v>282600</v>
+        <v>276500</v>
       </c>
       <c r="G52" s="3">
-        <v>222700</v>
+        <v>277200</v>
       </c>
       <c r="H52" s="3">
-        <v>254100</v>
+        <v>218400</v>
       </c>
       <c r="I52" s="3">
-        <v>253900</v>
+        <v>249200</v>
       </c>
       <c r="J52" s="3">
+        <v>249100</v>
+      </c>
+      <c r="K52" s="3">
         <v>254400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>181500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>232400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>260800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>290100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>280100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>304600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>339800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>338700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>304900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>273800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>279400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>276600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>301500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>261900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>263500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>260800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>190200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>240400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7074700</v>
+        <v>6740200</v>
       </c>
       <c r="E54" s="3">
-        <v>7204800</v>
+        <v>6940000</v>
       </c>
       <c r="F54" s="3">
-        <v>7133000</v>
+        <v>7067600</v>
       </c>
       <c r="G54" s="3">
-        <v>6878700</v>
+        <v>6997100</v>
       </c>
       <c r="H54" s="3">
-        <v>6496700</v>
+        <v>6747700</v>
       </c>
       <c r="I54" s="3">
-        <v>6237600</v>
+        <v>6372900</v>
       </c>
       <c r="J54" s="3">
+        <v>6118800</v>
+      </c>
+      <c r="K54" s="3">
         <v>6430100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5899200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5934500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6126200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6997500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7000600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7417000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7334000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7436800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7861200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7611600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7576800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7275300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7310000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7429200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7158200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6878900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6653600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6523700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>970300</v>
+        <v>904200</v>
       </c>
       <c r="E57" s="3">
-        <v>900000</v>
+        <v>951800</v>
       </c>
       <c r="F57" s="3">
-        <v>950000</v>
+        <v>882800</v>
       </c>
       <c r="G57" s="3">
-        <v>940700</v>
+        <v>931900</v>
       </c>
       <c r="H57" s="3">
-        <v>867600</v>
+        <v>922800</v>
       </c>
       <c r="I57" s="3">
-        <v>788200</v>
+        <v>851100</v>
       </c>
       <c r="J57" s="3">
+        <v>773200</v>
+      </c>
+      <c r="K57" s="3">
         <v>886600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>818900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>769800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>721600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>816700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>983100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1079200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1034700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1115500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1263000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1184200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1167500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1124900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1124500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1078800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1043900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>979900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>958700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>933000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1411800</v>
+        <v>1220500</v>
       </c>
       <c r="E58" s="3">
-        <v>1430500</v>
+        <v>1384900</v>
       </c>
       <c r="F58" s="3">
-        <v>1349000</v>
+        <v>1403300</v>
       </c>
       <c r="G58" s="3">
-        <v>1253600</v>
+        <v>1323300</v>
       </c>
       <c r="H58" s="3">
-        <v>1143400</v>
+        <v>1229700</v>
       </c>
       <c r="I58" s="3">
-        <v>1014900</v>
+        <v>1121700</v>
       </c>
       <c r="J58" s="3">
+        <v>995600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1196900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>957400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1148400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1208100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1331600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1119500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1255200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1143000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1057800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1025500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1002200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1041000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>992900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2011900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1069900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1039900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1186800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>889700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>906300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>619600</v>
+        <v>622500</v>
       </c>
       <c r="E59" s="3">
-        <v>618200</v>
+        <v>607800</v>
       </c>
       <c r="F59" s="3">
-        <v>599400</v>
+        <v>606400</v>
       </c>
       <c r="G59" s="3">
-        <v>596600</v>
+        <v>588000</v>
       </c>
       <c r="H59" s="3">
-        <v>550300</v>
+        <v>585300</v>
       </c>
       <c r="I59" s="3">
-        <v>515900</v>
+        <v>539800</v>
       </c>
       <c r="J59" s="3">
+        <v>506000</v>
+      </c>
+      <c r="K59" s="3">
         <v>502700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>458500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>522400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>488300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>705500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>713500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>722800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>787200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>823100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>898400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>799400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>795000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>858300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>810600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>729400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>698800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>655700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>753700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>634400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3001700</v>
+        <v>2747200</v>
       </c>
       <c r="E60" s="3">
-        <v>2948700</v>
+        <v>2944600</v>
       </c>
       <c r="F60" s="3">
-        <v>2898400</v>
+        <v>2892500</v>
       </c>
       <c r="G60" s="3">
-        <v>2790900</v>
+        <v>2843200</v>
       </c>
       <c r="H60" s="3">
-        <v>2561400</v>
+        <v>2737800</v>
       </c>
       <c r="I60" s="3">
-        <v>2319000</v>
+        <v>2512600</v>
       </c>
       <c r="J60" s="3">
+        <v>2274800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2586200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2234800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2440600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2418100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2853900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2816100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3057300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2964900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2996400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3186900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2985700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3003400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2976100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2986200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2878200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2782600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2822400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2602100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2473700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1140800</v>
+        <v>1114300</v>
       </c>
       <c r="E61" s="3">
-        <v>1212400</v>
+        <v>1119100</v>
       </c>
       <c r="F61" s="3">
-        <v>1281600</v>
+        <v>1189300</v>
       </c>
       <c r="G61" s="3">
-        <v>1328200</v>
+        <v>1257200</v>
       </c>
       <c r="H61" s="3">
-        <v>1251500</v>
+        <v>1302900</v>
       </c>
       <c r="I61" s="3">
-        <v>1202700</v>
+        <v>1227600</v>
       </c>
       <c r="J61" s="3">
+        <v>1179800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1145000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1157000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>970100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1031400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1194200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1163200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1124300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1156800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1249500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1338700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1430100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1409800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1282300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1285700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1404900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1393400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1284400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1350300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1387100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>548000</v>
+        <v>492300</v>
       </c>
       <c r="E62" s="3">
-        <v>580700</v>
+        <v>537600</v>
       </c>
       <c r="F62" s="3">
-        <v>554700</v>
+        <v>569600</v>
       </c>
       <c r="G62" s="3">
-        <v>451200</v>
+        <v>544100</v>
       </c>
       <c r="H62" s="3">
-        <v>511400</v>
+        <v>442600</v>
       </c>
       <c r="I62" s="3">
-        <v>517000</v>
+        <v>501700</v>
       </c>
       <c r="J62" s="3">
+        <v>507200</v>
+      </c>
+      <c r="K62" s="3">
         <v>510600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>439800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>552700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>593100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>643000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>615900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>660700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>664500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>666500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>645700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>603400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>610100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>590600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>578600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>632000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>612200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>605000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>598500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>669800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4890000</v>
+        <v>4551600</v>
       </c>
       <c r="E66" s="3">
-        <v>5011800</v>
+        <v>4796800</v>
       </c>
       <c r="F66" s="3">
-        <v>4995500</v>
+        <v>4916400</v>
       </c>
       <c r="G66" s="3">
-        <v>4826400</v>
+        <v>4900400</v>
       </c>
       <c r="H66" s="3">
-        <v>4570300</v>
+        <v>4734500</v>
       </c>
       <c r="I66" s="3">
-        <v>4278800</v>
+        <v>4483200</v>
       </c>
       <c r="J66" s="3">
+        <v>4197300</v>
+      </c>
+      <c r="K66" s="3">
         <v>4477200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4056700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4185300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4272000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4936700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4883700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5140700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5078600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5201600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5481200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5318700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5331200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5151200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5171900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5232100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5098300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4997900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4820100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4780100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1347800</v>
+        <v>1361600</v>
       </c>
       <c r="E72" s="3">
-        <v>1314700</v>
+        <v>1322100</v>
       </c>
       <c r="F72" s="3">
-        <v>1298600</v>
+        <v>1289700</v>
       </c>
       <c r="G72" s="3">
-        <v>1281400</v>
+        <v>1273900</v>
       </c>
       <c r="H72" s="3">
-        <v>1231400</v>
+        <v>1257000</v>
       </c>
       <c r="I72" s="3">
-        <v>1259200</v>
+        <v>1208000</v>
       </c>
       <c r="J72" s="3">
+        <v>1235200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1237500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1195000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1165500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1249000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1421000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1454500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1411200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1411100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1371500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1458300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1334100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1231100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1145200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1158300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1164400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1096400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>962100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>922000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>935100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2184800</v>
+        <v>2188600</v>
       </c>
       <c r="E76" s="3">
-        <v>2193000</v>
+        <v>2143200</v>
       </c>
       <c r="F76" s="3">
-        <v>2137500</v>
+        <v>2151200</v>
       </c>
       <c r="G76" s="3">
-        <v>2052300</v>
+        <v>2096800</v>
       </c>
       <c r="H76" s="3">
-        <v>1926400</v>
+        <v>2013200</v>
       </c>
       <c r="I76" s="3">
-        <v>1958800</v>
+        <v>1889700</v>
       </c>
       <c r="J76" s="3">
+        <v>1921500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1952900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1842500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1749200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1854200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2060800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2116900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2276300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2255400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2235100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2380000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2292900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2245600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2124100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2138100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2197100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2059900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1881000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1833500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1743600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>33000</v>
+        <v>39500</v>
       </c>
       <c r="E81" s="3">
-        <v>16100</v>
+        <v>32400</v>
       </c>
       <c r="F81" s="3">
-        <v>42300</v>
+        <v>15800</v>
       </c>
       <c r="G81" s="3">
-        <v>49600</v>
+        <v>41500</v>
       </c>
       <c r="H81" s="3">
-        <v>-28300</v>
+        <v>48700</v>
       </c>
       <c r="I81" s="3">
-        <v>21800</v>
+        <v>-27800</v>
       </c>
       <c r="J81" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K81" s="3">
         <v>31100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-48800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>66800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>89800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>83500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>60700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>30100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>68100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>134300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>61800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-11700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>108400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>72200</v>
+        <v>74700</v>
       </c>
       <c r="E83" s="3">
-        <v>70500</v>
+        <v>70800</v>
       </c>
       <c r="F83" s="3">
-        <v>68500</v>
+        <v>69100</v>
       </c>
       <c r="G83" s="3">
-        <v>56700</v>
+        <v>67200</v>
       </c>
       <c r="H83" s="3">
-        <v>66000</v>
+        <v>55700</v>
       </c>
       <c r="I83" s="3">
-        <v>62500</v>
+        <v>64800</v>
       </c>
       <c r="J83" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K83" s="3">
         <v>62600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>61200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>67900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>63700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>73000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>63500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>66600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>59000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>67200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>58700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>60900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>55800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>60000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>53900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>57200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>49200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>55900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +6919,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6792,8 +7005,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,31 +7039,32 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-18921000</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-20335000</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-20698000</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-19316000</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-20784000</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-19927000</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-24223000</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6906,8 +7123,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7295,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7155,8 +7381,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7415,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7499,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7757,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7601,8 +7843,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +7929,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7765,6 +8013,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,394 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2021700</v>
+        <v>1692900</v>
       </c>
       <c r="E8" s="3">
-        <v>1884600</v>
+        <v>1926400</v>
       </c>
       <c r="F8" s="3">
-        <v>1905100</v>
+        <v>1795800</v>
       </c>
       <c r="G8" s="3">
-        <v>1876700</v>
+        <v>1815300</v>
       </c>
       <c r="H8" s="3">
-        <v>1871500</v>
+        <v>1788200</v>
       </c>
       <c r="I8" s="3">
-        <v>1612700</v>
+        <v>1783200</v>
       </c>
       <c r="J8" s="3">
+        <v>1536700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1647100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1608300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1762400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1528700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1386100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1505900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2099200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2013000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2103900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2072600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2430900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2371300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2291000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2189100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2386100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2222700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2102500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2033500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2114700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1839400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1702900</v>
+        <v>1460200</v>
       </c>
       <c r="E9" s="3">
-        <v>1612700</v>
+        <v>1622600</v>
       </c>
       <c r="F9" s="3">
-        <v>1631600</v>
+        <v>1536700</v>
       </c>
       <c r="G9" s="3">
-        <v>1611200</v>
+        <v>1554600</v>
       </c>
       <c r="H9" s="3">
-        <v>1597800</v>
+        <v>1535200</v>
       </c>
       <c r="I9" s="3">
-        <v>1394000</v>
+        <v>1522500</v>
       </c>
       <c r="J9" s="3">
+        <v>1328200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1394400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1348400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1477200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1277800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1174100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1270000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1756500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1673400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1754200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1742700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2038100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1933800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1917100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1828800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2011100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1840300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1727900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1665600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1714700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1490900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>318900</v>
+        <v>232600</v>
       </c>
       <c r="E10" s="3">
-        <v>271900</v>
+        <v>303800</v>
       </c>
       <c r="F10" s="3">
-        <v>273600</v>
+        <v>259100</v>
       </c>
       <c r="G10" s="3">
-        <v>265500</v>
+        <v>260700</v>
       </c>
       <c r="H10" s="3">
-        <v>273600</v>
+        <v>253000</v>
       </c>
       <c r="I10" s="3">
-        <v>218800</v>
+        <v>260700</v>
       </c>
       <c r="J10" s="3">
+        <v>208400</v>
+      </c>
+      <c r="K10" s="3">
         <v>252700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>259800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>285200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>250900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>212000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>235900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>342700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>339600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>349600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>330000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>392800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>437500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>373900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>360400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>375000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>382400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>374600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>367900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>400000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>348500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1083,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1155,8 +1170,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,94 +1259,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25700</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
-        <v>9600</v>
+        <v>24400</v>
       </c>
       <c r="F14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="M14" s="3">
+        <v>23700</v>
+      </c>
+      <c r="N14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="P14" s="3">
+        <v>39500</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="R14" s="3">
+        <v>8800</v>
+      </c>
+      <c r="S14" s="3">
+        <v>13100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>6600</v>
+      </c>
+      <c r="U14" s="3">
+        <v>40100</v>
+      </c>
+      <c r="V14" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="W14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="L14" s="3">
-        <v>23700</v>
-      </c>
-      <c r="M14" s="3">
-        <v>6300</v>
-      </c>
-      <c r="N14" s="3">
-        <v>12800</v>
-      </c>
-      <c r="O14" s="3">
-        <v>39500</v>
-      </c>
-      <c r="P14" s="3">
-        <v>12800</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>8800</v>
-      </c>
-      <c r="R14" s="3">
-        <v>13100</v>
-      </c>
-      <c r="S14" s="3">
-        <v>6600</v>
-      </c>
-      <c r="T14" s="3">
-        <v>40100</v>
-      </c>
-      <c r="U14" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1600</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>106500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>22900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>142600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-45100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1413,8 +1437,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1979500</v>
+        <v>1713400</v>
       </c>
       <c r="E17" s="3">
-        <v>1883800</v>
+        <v>1886200</v>
       </c>
       <c r="F17" s="3">
-        <v>1881300</v>
+        <v>1795000</v>
       </c>
       <c r="G17" s="3">
-        <v>1865300</v>
+        <v>1792600</v>
       </c>
       <c r="H17" s="3">
-        <v>1829200</v>
+        <v>1777700</v>
       </c>
       <c r="I17" s="3">
-        <v>1637900</v>
+        <v>1743000</v>
       </c>
       <c r="J17" s="3">
+        <v>1560700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1617400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1568500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1721300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1515700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1415200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1556000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2039100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1980600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2063200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2034200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2373600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2244000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2208700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2114500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2388300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2141400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2002700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1941400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2125400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1701300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>42200</v>
+        <v>-20600</v>
       </c>
       <c r="E18" s="3">
-        <v>900</v>
+        <v>40200</v>
       </c>
       <c r="F18" s="3">
-        <v>23800</v>
+        <v>800</v>
       </c>
       <c r="G18" s="3">
-        <v>11400</v>
+        <v>22700</v>
       </c>
       <c r="H18" s="3">
-        <v>42300</v>
+        <v>10500</v>
       </c>
       <c r="I18" s="3">
-        <v>-25200</v>
+        <v>40300</v>
       </c>
       <c r="J18" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="K18" s="3">
         <v>29700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>41100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-29100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-50100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>60100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>40700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>38400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>57300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>127300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>82300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>74600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>81300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>99800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>92100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-10700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>138000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,438 +1680,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29700</v>
+        <v>41200</v>
       </c>
       <c r="E20" s="3">
-        <v>72600</v>
+        <v>28300</v>
       </c>
       <c r="F20" s="3">
-        <v>24800</v>
+        <v>69200</v>
       </c>
       <c r="G20" s="3">
-        <v>58800</v>
+        <v>23600</v>
       </c>
       <c r="H20" s="3">
-        <v>34600</v>
+        <v>52400</v>
       </c>
       <c r="I20" s="3">
-        <v>14300</v>
+        <v>32900</v>
       </c>
       <c r="J20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K20" s="3">
         <v>15700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>69000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>162100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>87400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>27000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>11600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-15400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>13300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>36300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>75200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>6100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>13000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>18100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>146700</v>
+        <v>86200</v>
       </c>
       <c r="E21" s="3">
-        <v>144200</v>
+        <v>139700</v>
       </c>
       <c r="F21" s="3">
-        <v>117700</v>
+        <v>137400</v>
       </c>
       <c r="G21" s="3">
-        <v>137400</v>
+        <v>112200</v>
       </c>
       <c r="H21" s="3">
-        <v>132500</v>
+        <v>127000</v>
       </c>
       <c r="I21" s="3">
-        <v>53800</v>
+        <v>126200</v>
       </c>
       <c r="J21" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K21" s="3">
         <v>106600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>164400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>78200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>179900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>211200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>124100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>131200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>115700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>126800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>219700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>152600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>120100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>66900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>177600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>228900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>155400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>51500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>212000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="E22" s="3">
-        <v>12100</v>
+        <v>15700</v>
       </c>
       <c r="F22" s="3">
-        <v>9600</v>
+        <v>11600</v>
       </c>
       <c r="G22" s="3">
-        <v>7400</v>
+        <v>9200</v>
       </c>
       <c r="H22" s="3">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="I22" s="3">
         <v>6300</v>
       </c>
       <c r="J22" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="K22" s="3">
         <v>5800</v>
       </c>
       <c r="L22" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="M22" s="3">
         <v>6200</v>
       </c>
       <c r="N22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O22" s="3">
         <v>7500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8900</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>9200</v>
       </c>
       <c r="Z22" s="3">
         <v>9200</v>
       </c>
       <c r="AA22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="AB22" s="3">
         <v>8700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>7300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>7400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55400</v>
+        <v>5600</v>
       </c>
       <c r="E23" s="3">
-        <v>61300</v>
+        <v>52800</v>
       </c>
       <c r="F23" s="3">
+        <v>58400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>55900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>66900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>39500</v>
+      </c>
+      <c r="L23" s="3">
+        <v>55800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>103900</v>
+      </c>
+      <c r="N23" s="3">
+        <v>8300</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>104300</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>138700</v>
+      </c>
+      <c r="R23" s="3">
+        <v>41100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>57300</v>
+      </c>
+      <c r="T23" s="3">
         <v>39000</v>
       </c>
-      <c r="G23" s="3">
-        <v>62800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>70200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>39500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>55800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>103900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>8300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-52200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>104300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>138700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>41100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>57300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>39000</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>57400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>142400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>84800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>50700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>108400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>165800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>89500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-4900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>148700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9700</v>
+        <v>16500</v>
       </c>
       <c r="E24" s="3">
-        <v>24700</v>
+        <v>9300</v>
       </c>
       <c r="F24" s="3">
+        <v>23500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>19800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>13800</v>
+      </c>
+      <c r="L24" s="3">
         <v>21000</v>
       </c>
-      <c r="G24" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>13000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>13800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>21000</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>44600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-50000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>49000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>29400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>24400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>20700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-8200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>30600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>45700</v>
+        <v>-10900</v>
       </c>
       <c r="E26" s="3">
-        <v>36600</v>
+        <v>43500</v>
       </c>
       <c r="F26" s="3">
-        <v>18000</v>
+        <v>34900</v>
       </c>
       <c r="G26" s="3">
-        <v>41400</v>
+        <v>17200</v>
       </c>
       <c r="H26" s="3">
-        <v>57200</v>
+        <v>36100</v>
       </c>
       <c r="I26" s="3">
-        <v>-21600</v>
+        <v>54500</v>
       </c>
       <c r="J26" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="K26" s="3">
         <v>25800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>71300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-47000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>69900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>94200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>107400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>93400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>68200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>36700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>79000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>141400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>68700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>118000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>39500</v>
+        <v>-11700</v>
       </c>
       <c r="E27" s="3">
-        <v>32400</v>
+        <v>37600</v>
       </c>
       <c r="F27" s="3">
-        <v>15800</v>
+        <v>30900</v>
       </c>
       <c r="G27" s="3">
-        <v>41500</v>
+        <v>15000</v>
       </c>
       <c r="H27" s="3">
-        <v>48700</v>
+        <v>36200</v>
       </c>
       <c r="I27" s="3">
-        <v>-27800</v>
+        <v>46400</v>
       </c>
       <c r="J27" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K27" s="3">
         <v>21400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-48800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>66800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>89800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>83500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>60700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>30100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>68100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>134300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>61800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-11700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>108400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2479,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2506,8 +2568,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2746,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29700</v>
+        <v>-41200</v>
       </c>
       <c r="E32" s="3">
-        <v>-72600</v>
+        <v>-28300</v>
       </c>
       <c r="F32" s="3">
-        <v>-24800</v>
+        <v>-69200</v>
       </c>
       <c r="G32" s="3">
-        <v>-58800</v>
+        <v>-23600</v>
       </c>
       <c r="H32" s="3">
-        <v>-34600</v>
+        <v>-52400</v>
       </c>
       <c r="I32" s="3">
-        <v>-14300</v>
+        <v>-32900</v>
       </c>
       <c r="J32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-69000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-162100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-87400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-27000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-11600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>15400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-36300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-75200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-6100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-18100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>39500</v>
+        <v>-11700</v>
       </c>
       <c r="E33" s="3">
-        <v>32400</v>
+        <v>37600</v>
       </c>
       <c r="F33" s="3">
-        <v>15800</v>
+        <v>30900</v>
       </c>
       <c r="G33" s="3">
-        <v>41500</v>
+        <v>15000</v>
       </c>
       <c r="H33" s="3">
-        <v>48700</v>
+        <v>36200</v>
       </c>
       <c r="I33" s="3">
-        <v>-27800</v>
+        <v>46400</v>
       </c>
       <c r="J33" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K33" s="3">
         <v>21400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-48800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>66800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>89800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>83500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>60700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>30100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>68100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>134300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>61800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-11700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>108400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>39500</v>
+        <v>-11700</v>
       </c>
       <c r="E35" s="3">
-        <v>32400</v>
+        <v>37600</v>
       </c>
       <c r="F35" s="3">
-        <v>15800</v>
+        <v>30900</v>
       </c>
       <c r="G35" s="3">
-        <v>41500</v>
+        <v>15000</v>
       </c>
       <c r="H35" s="3">
-        <v>48700</v>
+        <v>36200</v>
       </c>
       <c r="I35" s="3">
-        <v>-27800</v>
+        <v>46400</v>
       </c>
       <c r="J35" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K35" s="3">
         <v>21400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-48800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>66800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>89800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>83500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>60700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>30100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>68100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>134300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>61800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-11700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>108400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,151 +3264,155 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>342000</v>
+        <v>383200</v>
       </c>
       <c r="E41" s="3">
-        <v>421000</v>
+        <v>325900</v>
       </c>
       <c r="F41" s="3">
-        <v>445700</v>
+        <v>401100</v>
       </c>
       <c r="G41" s="3">
-        <v>423400</v>
+        <v>424700</v>
       </c>
       <c r="H41" s="3">
-        <v>469800</v>
+        <v>403500</v>
       </c>
       <c r="I41" s="3">
-        <v>464200</v>
+        <v>447600</v>
       </c>
       <c r="J41" s="3">
+        <v>442300</v>
+      </c>
+      <c r="K41" s="3">
         <v>385500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>641400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>598100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>559200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>637100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>962100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>478900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>346200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>368300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>395300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>428900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>442600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>445400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>374100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>457700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>471100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>479700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>390800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>418400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>496400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37000</v>
+        <v>14800</v>
       </c>
       <c r="E42" s="3">
-        <v>27400</v>
+        <v>35200</v>
       </c>
       <c r="F42" s="3">
-        <v>27800</v>
+        <v>26200</v>
       </c>
       <c r="G42" s="3">
-        <v>22500</v>
+        <v>26400</v>
       </c>
       <c r="H42" s="3">
-        <v>23500</v>
+        <v>21500</v>
       </c>
       <c r="I42" s="3">
-        <v>22600</v>
+        <v>22400</v>
       </c>
       <c r="J42" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K42" s="3">
         <v>23600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>22800</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
@@ -3332,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="3">
         <v>300</v>
@@ -3341,618 +3432,642 @@
         <v>300</v>
       </c>
       <c r="AB42" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC42" s="3">
         <v>500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>200</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1645000</v>
+        <v>1556800</v>
       </c>
       <c r="E43" s="3">
-        <v>1601600</v>
+        <v>1567500</v>
       </c>
       <c r="F43" s="3">
-        <v>1650000</v>
+        <v>1526000</v>
       </c>
       <c r="G43" s="3">
-        <v>1679500</v>
+        <v>1572200</v>
       </c>
       <c r="H43" s="3">
-        <v>1653100</v>
+        <v>1600300</v>
       </c>
       <c r="I43" s="3">
-        <v>1503100</v>
+        <v>1575100</v>
       </c>
       <c r="J43" s="3">
+        <v>1432200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1442100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1466200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1354400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1299400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1221000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1336000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1685000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1802000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1774400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1859900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2097400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2044600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2030100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1984900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2017000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2008900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1887000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1815800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1753000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1623600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1280800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1183700</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1328000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1251300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1254600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1127500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1058500</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="M44" s="3">
+        <v>856700</v>
+      </c>
+      <c r="N44" s="3">
+        <v>883600</v>
+      </c>
+      <c r="O44" s="3">
+        <v>922000</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1042700</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>1020700</v>
+      </c>
+      <c r="R44" s="3">
+        <v>1206600</v>
+      </c>
+      <c r="S44" s="3">
+        <v>1150600</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1183100</v>
+      </c>
+      <c r="U44" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="V44" s="3">
         <v>1242300</v>
       </c>
-      <c r="E44" s="3">
-        <v>1393700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1313300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1316700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1183300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1118700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1058500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1015000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>856700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>883600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>922000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1042700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1020700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1206600</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1150600</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1183100</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1181000</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1242300</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1166900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1121800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1028700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1110200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1068000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1019900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>925600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>931400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>243700</v>
+        <v>263500</v>
       </c>
       <c r="E45" s="3">
-        <v>274900</v>
+        <v>232200</v>
       </c>
       <c r="F45" s="3">
-        <v>255000</v>
+        <v>261900</v>
       </c>
       <c r="G45" s="3">
-        <v>275300</v>
+        <v>243000</v>
       </c>
       <c r="H45" s="3">
-        <v>296800</v>
+        <v>262300</v>
       </c>
       <c r="I45" s="3">
-        <v>265200</v>
+        <v>282800</v>
       </c>
       <c r="J45" s="3">
+        <v>252700</v>
+      </c>
+      <c r="K45" s="3">
         <v>225300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>270600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>217300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>224200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>204200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>248500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>209700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>250700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>245100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>262500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>311100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>260100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>243600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>229600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>348700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>316300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>301900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>300800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>294400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>325300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3510000</v>
+        <v>3499000</v>
       </c>
       <c r="E46" s="3">
-        <v>3718600</v>
+        <v>3344500</v>
       </c>
       <c r="F46" s="3">
-        <v>3691800</v>
+        <v>3543300</v>
       </c>
       <c r="G46" s="3">
-        <v>3717400</v>
+        <v>3517700</v>
       </c>
       <c r="H46" s="3">
-        <v>3626400</v>
+        <v>3542100</v>
       </c>
       <c r="I46" s="3">
-        <v>3373800</v>
+        <v>3455400</v>
       </c>
       <c r="J46" s="3">
+        <v>3214700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3135000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3417800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3047400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2983400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3000900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3603300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3402200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3619700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3547700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3708100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4041100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3989700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3885900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3710500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3762400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3906800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3736800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3527600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3391900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3377000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>896000</v>
+        <v>824300</v>
       </c>
       <c r="E47" s="3">
-        <v>891100</v>
+        <v>1675000</v>
       </c>
       <c r="F47" s="3">
-        <v>926300</v>
+        <v>849100</v>
       </c>
       <c r="G47" s="3">
-        <v>892700</v>
+        <v>882700</v>
       </c>
       <c r="H47" s="3">
-        <v>879200</v>
+        <v>850600</v>
       </c>
       <c r="I47" s="3">
-        <v>793000</v>
+        <v>837700</v>
       </c>
       <c r="J47" s="3">
+        <v>755600</v>
+      </c>
+      <c r="K47" s="3">
         <v>772500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>768500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>777300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>789400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>774300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>838300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>936800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1090200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1066100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1062600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1193700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1158400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1237500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1200800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1239600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1221900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1137400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1096400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1162400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1059900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1941600</v>
+        <v>1882900</v>
       </c>
       <c r="E48" s="3">
-        <v>1925700</v>
+        <v>2175200</v>
       </c>
       <c r="F48" s="3">
-        <v>2027900</v>
+        <v>1834900</v>
       </c>
       <c r="G48" s="3">
-        <v>1964000</v>
+        <v>1932300</v>
       </c>
       <c r="H48" s="3">
-        <v>1875800</v>
+        <v>1871300</v>
       </c>
       <c r="I48" s="3">
-        <v>1815000</v>
+        <v>1787300</v>
       </c>
       <c r="J48" s="3">
+        <v>1729400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1818500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1839500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1749400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1786900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1943800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2118900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2239700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2274300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2257400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2213800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2204100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2093800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2081600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1996800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1959200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1941700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1933000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1907300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1822700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1766700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>145900</v>
+        <v>138000</v>
       </c>
       <c r="E49" s="3">
-        <v>142100</v>
+        <v>139000</v>
       </c>
       <c r="F49" s="3">
-        <v>145000</v>
+        <v>135400</v>
       </c>
       <c r="G49" s="3">
-        <v>145900</v>
+        <v>138200</v>
       </c>
       <c r="H49" s="3">
-        <v>147900</v>
+        <v>139000</v>
       </c>
       <c r="I49" s="3">
-        <v>141900</v>
+        <v>141000</v>
       </c>
       <c r="J49" s="3">
+        <v>135200</v>
+      </c>
+      <c r="K49" s="3">
         <v>143700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>149900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>143600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>142300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>146500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>146900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>141800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>128200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>122900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>113600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>117300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>95900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>92400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>90600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>102200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>96900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>87500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>86800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>86400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>79700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4241,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>246800</v>
+        <v>261600</v>
       </c>
       <c r="E52" s="3">
-        <v>262400</v>
+        <v>264400</v>
       </c>
       <c r="F52" s="3">
-        <v>276500</v>
+        <v>250000</v>
       </c>
       <c r="G52" s="3">
-        <v>277200</v>
+        <v>263400</v>
       </c>
       <c r="H52" s="3">
-        <v>218400</v>
+        <v>264100</v>
       </c>
       <c r="I52" s="3">
-        <v>249200</v>
+        <v>208100</v>
       </c>
       <c r="J52" s="3">
+        <v>237500</v>
+      </c>
+      <c r="K52" s="3">
         <v>249100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>254400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>181500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>232400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>260800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>290100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>280100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>304600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>339800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>338700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>304900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>273800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>279400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>276600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>301500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>261900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>263500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>260800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>190200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>240400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4419,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6740200</v>
+        <v>6605900</v>
       </c>
       <c r="E54" s="3">
-        <v>6940000</v>
+        <v>6412900</v>
       </c>
       <c r="F54" s="3">
-        <v>7067600</v>
+        <v>6612700</v>
       </c>
       <c r="G54" s="3">
-        <v>6997100</v>
+        <v>6734300</v>
       </c>
       <c r="H54" s="3">
-        <v>6747700</v>
+        <v>6667200</v>
       </c>
       <c r="I54" s="3">
-        <v>6372900</v>
+        <v>6429500</v>
       </c>
       <c r="J54" s="3">
+        <v>6072400</v>
+      </c>
+      <c r="K54" s="3">
         <v>6118800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6430100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5899200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5934500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6126200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6997500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7000600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7417000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7334000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7436800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7861200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7611600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7576800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7275300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7310000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7429200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7158200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6878900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6653600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6523700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,524 +4576,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>904200</v>
+        <v>853700</v>
       </c>
       <c r="E57" s="3">
-        <v>951800</v>
+        <v>861600</v>
       </c>
       <c r="F57" s="3">
-        <v>882800</v>
+        <v>906900</v>
       </c>
       <c r="G57" s="3">
-        <v>931900</v>
+        <v>841200</v>
       </c>
       <c r="H57" s="3">
-        <v>922800</v>
+        <v>888000</v>
       </c>
       <c r="I57" s="3">
-        <v>851100</v>
+        <v>879300</v>
       </c>
       <c r="J57" s="3">
+        <v>810900</v>
+      </c>
+      <c r="K57" s="3">
         <v>773200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>886600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>818900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>769800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>721600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>816700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>983100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1079200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1034700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1115500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1263000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1184200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1167500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1124900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1124500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1078800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1043900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>979900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>958700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>933000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1220500</v>
+        <v>1291200</v>
       </c>
       <c r="E58" s="3">
-        <v>1384900</v>
+        <v>2151700</v>
       </c>
       <c r="F58" s="3">
-        <v>1403300</v>
+        <v>1319600</v>
       </c>
       <c r="G58" s="3">
-        <v>1323300</v>
+        <v>1337100</v>
       </c>
       <c r="H58" s="3">
-        <v>1229700</v>
+        <v>1260900</v>
       </c>
       <c r="I58" s="3">
-        <v>1121700</v>
+        <v>1171700</v>
       </c>
       <c r="J58" s="3">
+        <v>1068800</v>
+      </c>
+      <c r="K58" s="3">
         <v>995600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1196900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>957400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1148400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1208100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1331600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1119500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1255200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1143000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1057800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1025500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1002200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1041000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>992900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2011900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1069900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1039900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1186800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>889700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>906300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>622500</v>
+        <v>607800</v>
       </c>
       <c r="E59" s="3">
-        <v>607800</v>
+        <v>1120200</v>
       </c>
       <c r="F59" s="3">
-        <v>606400</v>
+        <v>579200</v>
       </c>
       <c r="G59" s="3">
-        <v>588000</v>
+        <v>577800</v>
       </c>
       <c r="H59" s="3">
-        <v>585300</v>
+        <v>560200</v>
       </c>
       <c r="I59" s="3">
-        <v>539800</v>
+        <v>557700</v>
       </c>
       <c r="J59" s="3">
+        <v>514400</v>
+      </c>
+      <c r="K59" s="3">
         <v>506000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>502700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>458500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>522400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>488300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>705500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>713500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>722800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>787200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>823100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>898400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>799400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>795000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>858300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>810600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>729400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>698800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>655700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>753700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>634400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2747200</v>
+        <v>2752600</v>
       </c>
       <c r="E60" s="3">
-        <v>2944600</v>
+        <v>2617600</v>
       </c>
       <c r="F60" s="3">
-        <v>2892500</v>
+        <v>2805700</v>
       </c>
       <c r="G60" s="3">
-        <v>2843200</v>
+        <v>2756100</v>
       </c>
       <c r="H60" s="3">
-        <v>2737800</v>
+        <v>2709100</v>
       </c>
       <c r="I60" s="3">
-        <v>2512600</v>
+        <v>2608600</v>
       </c>
       <c r="J60" s="3">
+        <v>2394100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2274800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2586200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2234800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2440600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2418100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2853900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2816100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3057300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2964900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2996400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3186900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2985700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3003400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2976100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2986200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2878200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2782600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2822400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2602100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2473700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1114300</v>
+        <v>1061800</v>
       </c>
       <c r="E61" s="3">
-        <v>1119100</v>
+        <v>1061700</v>
       </c>
       <c r="F61" s="3">
-        <v>1189300</v>
+        <v>1066300</v>
       </c>
       <c r="G61" s="3">
-        <v>1257200</v>
+        <v>1133200</v>
       </c>
       <c r="H61" s="3">
-        <v>1302900</v>
+        <v>1197900</v>
       </c>
       <c r="I61" s="3">
-        <v>1227600</v>
+        <v>1241500</v>
       </c>
       <c r="J61" s="3">
+        <v>1169700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1179800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1145000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1157000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>970100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1031400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1194200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1163200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1124300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1156800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1249500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1338700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1430100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1409800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1282300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1285700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1404900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1393400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1284400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1350300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1387100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>492300</v>
+        <v>498000</v>
       </c>
       <c r="E62" s="3">
-        <v>537600</v>
+        <v>518100</v>
       </c>
       <c r="F62" s="3">
-        <v>569600</v>
+        <v>512200</v>
       </c>
       <c r="G62" s="3">
-        <v>544100</v>
+        <v>542800</v>
       </c>
       <c r="H62" s="3">
-        <v>442600</v>
+        <v>518500</v>
       </c>
       <c r="I62" s="3">
-        <v>501700</v>
+        <v>421700</v>
       </c>
       <c r="J62" s="3">
+        <v>478000</v>
+      </c>
+      <c r="K62" s="3">
         <v>507200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>510600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>439800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>552700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>593100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>643000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>615900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>660700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>664500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>666500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>645700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>603400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>610100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>590600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>578600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>632000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>612200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>605000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>598500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>669800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5375,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4551600</v>
+        <v>4501100</v>
       </c>
       <c r="E66" s="3">
-        <v>4796800</v>
+        <v>4340600</v>
       </c>
       <c r="F66" s="3">
-        <v>4916400</v>
+        <v>4570600</v>
       </c>
       <c r="G66" s="3">
-        <v>4900400</v>
+        <v>4684500</v>
       </c>
       <c r="H66" s="3">
-        <v>4734500</v>
+        <v>4669300</v>
       </c>
       <c r="I66" s="3">
-        <v>4483200</v>
+        <v>4511200</v>
       </c>
       <c r="J66" s="3">
+        <v>4271800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4197300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4477200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4056700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4185300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4272000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4936700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4883700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5140700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5078600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5201600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5481200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5318700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5331200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5151200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5171900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5232100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5098300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4997900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4820100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4780100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5853,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1361600</v>
+        <v>1268500</v>
       </c>
       <c r="E72" s="3">
-        <v>1322100</v>
+        <v>1317400</v>
       </c>
       <c r="F72" s="3">
-        <v>1289700</v>
+        <v>1259800</v>
       </c>
       <c r="G72" s="3">
-        <v>1273900</v>
+        <v>1228900</v>
       </c>
       <c r="H72" s="3">
-        <v>1257000</v>
+        <v>1213800</v>
       </c>
       <c r="I72" s="3">
-        <v>1208000</v>
+        <v>1197800</v>
       </c>
       <c r="J72" s="3">
+        <v>1151000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1235200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1237500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1195000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1165500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1249000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1421000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1454500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1411200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1411100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1371500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1458300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1334100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1231100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1145200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1158300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1164400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1096400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>962100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>922000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>935100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6209,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2188600</v>
+        <v>2104800</v>
       </c>
       <c r="E76" s="3">
-        <v>2143200</v>
+        <v>2072400</v>
       </c>
       <c r="F76" s="3">
-        <v>2151200</v>
+        <v>2042100</v>
       </c>
       <c r="G76" s="3">
-        <v>2096800</v>
+        <v>2049800</v>
       </c>
       <c r="H76" s="3">
-        <v>2013200</v>
+        <v>1997900</v>
       </c>
       <c r="I76" s="3">
-        <v>1889700</v>
+        <v>1918200</v>
       </c>
       <c r="J76" s="3">
+        <v>1800600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1921500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1952900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1842500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1749200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1854200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2060800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2116900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2276300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2255400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2235100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2380000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2292900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2245600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2124100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2138100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2197100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2059900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1881000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1833500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1743600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>39500</v>
+        <v>-11700</v>
       </c>
       <c r="E81" s="3">
-        <v>32400</v>
+        <v>37600</v>
       </c>
       <c r="F81" s="3">
-        <v>15800</v>
+        <v>30900</v>
       </c>
       <c r="G81" s="3">
-        <v>41500</v>
+        <v>15000</v>
       </c>
       <c r="H81" s="3">
-        <v>48700</v>
+        <v>36200</v>
       </c>
       <c r="I81" s="3">
-        <v>-27800</v>
+        <v>46400</v>
       </c>
       <c r="J81" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K81" s="3">
         <v>21400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-48800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>66800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>89800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>83500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>60700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>30100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>68100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>134300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>61800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-11700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>108400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6605,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>74700</v>
+        <v>65700</v>
       </c>
       <c r="E83" s="3">
-        <v>70800</v>
+        <v>71200</v>
       </c>
       <c r="F83" s="3">
-        <v>69100</v>
+        <v>67500</v>
       </c>
       <c r="G83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>64100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>61300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>62600</v>
+      </c>
+      <c r="M83" s="3">
+        <v>54300</v>
+      </c>
+      <c r="N83" s="3">
+        <v>63700</v>
+      </c>
+      <c r="O83" s="3">
+        <v>61200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>67900</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>63700</v>
+      </c>
+      <c r="R83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="S83" s="3">
+        <v>63500</v>
+      </c>
+      <c r="T83" s="3">
+        <v>66600</v>
+      </c>
+      <c r="U83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="V83" s="3">
         <v>67200</v>
       </c>
-      <c r="H83" s="3">
-        <v>55700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>64800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>61300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>62600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>54300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>63700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>61200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>67900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>63700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>73000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>63500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>66600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>59000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>67200</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>58700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>60900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>55800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>60000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>53900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>57200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>49200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>55900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,8 +7137,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7008,8 +7226,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,8 +7261,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7064,11 +7286,11 @@
         <v>-19927000</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24223000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -7126,8 +7348,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,8 +7526,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7384,8 +7615,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,8 +7650,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7502,8 +7737,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,8 +8004,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7846,8 +8093,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7932,8 +8182,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8016,6 +8269,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUWAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,394 +665,406 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1692900</v>
+        <v>1704500</v>
       </c>
       <c r="E8" s="3">
-        <v>1926400</v>
+        <v>1636200</v>
       </c>
       <c r="F8" s="3">
-        <v>1795800</v>
+        <v>1861900</v>
       </c>
       <c r="G8" s="3">
-        <v>1815300</v>
+        <v>1735600</v>
       </c>
       <c r="H8" s="3">
-        <v>1788200</v>
+        <v>1754500</v>
       </c>
       <c r="I8" s="3">
-        <v>1783200</v>
+        <v>1728300</v>
       </c>
       <c r="J8" s="3">
+        <v>1723500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1536700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1647100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1608300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1762400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1528700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1386100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1505900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2099200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2013000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2103900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2072600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2430900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2371300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2291000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2189100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2386100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2222700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2102500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2033500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2114700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1839400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1786300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1460200</v>
+        <v>1477900</v>
       </c>
       <c r="E9" s="3">
-        <v>1622600</v>
+        <v>1411400</v>
       </c>
       <c r="F9" s="3">
-        <v>1536700</v>
+        <v>1568200</v>
       </c>
       <c r="G9" s="3">
-        <v>1554600</v>
+        <v>1485200</v>
       </c>
       <c r="H9" s="3">
-        <v>1535200</v>
+        <v>1502600</v>
       </c>
       <c r="I9" s="3">
-        <v>1522500</v>
+        <v>1483800</v>
       </c>
       <c r="J9" s="3">
+        <v>1471500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1328200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1394400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1348400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1477200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1277800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1174100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1270000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1756500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1673400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1754200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1742700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2038100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1933800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1917100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1828800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2011100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1840300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1727900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1665600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1714700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1490900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1461500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>232600</v>
+        <v>226600</v>
       </c>
       <c r="E10" s="3">
-        <v>303800</v>
+        <v>224800</v>
       </c>
       <c r="F10" s="3">
-        <v>259100</v>
+        <v>293700</v>
       </c>
       <c r="G10" s="3">
-        <v>260700</v>
+        <v>250400</v>
       </c>
       <c r="H10" s="3">
-        <v>253000</v>
+        <v>251900</v>
       </c>
       <c r="I10" s="3">
-        <v>260700</v>
+        <v>244500</v>
       </c>
       <c r="J10" s="3">
+        <v>252000</v>
+      </c>
+      <c r="K10" s="3">
         <v>208400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>252700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>259800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>285200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>250900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>212000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>235900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>342700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>339600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>349600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>330000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>392800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>437500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>373900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>360400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>375000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>382400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>374600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>367900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>400000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>348500</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>324800</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,8 +1096,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1173,8 +1186,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,97 +1278,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>-7000</v>
       </c>
       <c r="E14" s="3">
-        <v>24400</v>
+        <v>1400</v>
       </c>
       <c r="F14" s="3">
-        <v>9100</v>
+        <v>23600</v>
       </c>
       <c r="G14" s="3">
-        <v>1500</v>
+        <v>8800</v>
       </c>
       <c r="H14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1500</v>
       </c>
-      <c r="I14" s="3">
-        <v>3400</v>
-      </c>
       <c r="J14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K14" s="3">
         <v>9200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-11900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>39500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>40100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-3100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>106500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>22900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>142600</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-45100</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1440,8 +1462,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1495,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1713400</v>
+        <v>1709700</v>
       </c>
       <c r="E17" s="3">
-        <v>1886200</v>
+        <v>1656100</v>
       </c>
       <c r="F17" s="3">
-        <v>1795000</v>
+        <v>1823100</v>
       </c>
       <c r="G17" s="3">
-        <v>1792600</v>
+        <v>1734900</v>
       </c>
       <c r="H17" s="3">
-        <v>1777700</v>
+        <v>1733800</v>
       </c>
       <c r="I17" s="3">
-        <v>1743000</v>
+        <v>1718200</v>
       </c>
       <c r="J17" s="3">
+        <v>1684600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1560700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1617400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1568500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1721300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1515700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1415200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1556000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2039100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1980600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2063200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2034200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2373600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2244000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2208700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2114500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2388300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2141400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2002700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1941400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2125400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1701300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1727500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20600</v>
+        <v>-5200</v>
       </c>
       <c r="E18" s="3">
-        <v>40200</v>
+        <v>-19900</v>
       </c>
       <c r="F18" s="3">
+        <v>38800</v>
+      </c>
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
-        <v>22700</v>
-      </c>
       <c r="H18" s="3">
-        <v>10500</v>
+        <v>20700</v>
       </c>
       <c r="I18" s="3">
-        <v>40300</v>
+        <v>10200</v>
       </c>
       <c r="J18" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-24000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>41100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-29100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-50100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>60100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>40700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>38400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>57300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>127300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>82300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>74600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>81300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>99800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>92100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-10700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>138000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1681,453 +1713,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>41200</v>
+        <v>14500</v>
       </c>
       <c r="E20" s="3">
-        <v>28300</v>
+        <v>39800</v>
       </c>
       <c r="F20" s="3">
-        <v>69200</v>
+        <v>27400</v>
       </c>
       <c r="G20" s="3">
-        <v>23600</v>
+        <v>66800</v>
       </c>
       <c r="H20" s="3">
-        <v>52400</v>
+        <v>15300</v>
       </c>
       <c r="I20" s="3">
-        <v>32900</v>
+        <v>50700</v>
       </c>
       <c r="J20" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K20" s="3">
         <v>13600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>69000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>162100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>87400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>27000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>10500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>11600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-15400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>13300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>36300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>75200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>6100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>13000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>18100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>86200</v>
+        <v>73400</v>
       </c>
       <c r="E21" s="3">
-        <v>139700</v>
+        <v>83300</v>
       </c>
       <c r="F21" s="3">
-        <v>137400</v>
+        <v>135100</v>
       </c>
       <c r="G21" s="3">
-        <v>112200</v>
+        <v>132800</v>
       </c>
       <c r="H21" s="3">
-        <v>127000</v>
+        <v>99700</v>
       </c>
       <c r="I21" s="3">
-        <v>126200</v>
+        <v>122800</v>
       </c>
       <c r="J21" s="3">
+        <v>122000</v>
+      </c>
+      <c r="K21" s="3">
         <v>51300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>106600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>124200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>164400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>78200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>179900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>211200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>124100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>131200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>115700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>126800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>219700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>152600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>120100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>66900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>177600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>228900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>155400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>51500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>212000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="E22" s="3">
-        <v>15700</v>
+        <v>14500</v>
       </c>
       <c r="F22" s="3">
-        <v>11600</v>
+        <v>15200</v>
       </c>
       <c r="G22" s="3">
-        <v>9200</v>
+        <v>11200</v>
       </c>
       <c r="H22" s="3">
-        <v>7100</v>
+        <v>8900</v>
       </c>
       <c r="I22" s="3">
-        <v>6300</v>
+        <v>6800</v>
       </c>
       <c r="J22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K22" s="3">
         <v>6000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5800</v>
       </c>
       <c r="L22" s="3">
         <v>5800</v>
       </c>
       <c r="M22" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="N22" s="3">
         <v>6200</v>
       </c>
       <c r="O22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8900</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>9200</v>
       </c>
       <c r="AA22" s="3">
         <v>9200</v>
       </c>
       <c r="AB22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="AC22" s="3">
         <v>8700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>7300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>7400</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5600</v>
+        <v>-6000</v>
       </c>
       <c r="E23" s="3">
-        <v>52800</v>
+        <v>5400</v>
       </c>
       <c r="F23" s="3">
-        <v>58400</v>
+        <v>51100</v>
       </c>
       <c r="G23" s="3">
-        <v>37100</v>
+        <v>56400</v>
       </c>
       <c r="H23" s="3">
-        <v>55900</v>
+        <v>27100</v>
       </c>
       <c r="I23" s="3">
-        <v>66900</v>
+        <v>54000</v>
       </c>
       <c r="J23" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-16400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>103900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-52200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>104300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>138700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>41100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>57300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>39000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>57400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>142400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>84800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>50700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>108400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>165800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>89500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-4900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>148700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16500</v>
+        <v>8100</v>
       </c>
       <c r="E24" s="3">
-        <v>9300</v>
+        <v>16000</v>
       </c>
       <c r="F24" s="3">
-        <v>23500</v>
+        <v>9000</v>
       </c>
       <c r="G24" s="3">
-        <v>20000</v>
+        <v>22800</v>
       </c>
       <c r="H24" s="3">
-        <v>19800</v>
+        <v>18100</v>
       </c>
       <c r="I24" s="3">
-        <v>12400</v>
+        <v>19100</v>
       </c>
       <c r="J24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K24" s="3">
         <v>4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>44600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-50000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>49000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>14000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>29400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>24400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>20700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-8200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>30600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2215,186 +2263,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10900</v>
+        <v>-14200</v>
       </c>
       <c r="E26" s="3">
-        <v>43500</v>
+        <v>-10600</v>
       </c>
       <c r="F26" s="3">
+        <v>42100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>33700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I26" s="3">
         <v>34900</v>
       </c>
-      <c r="G26" s="3">
-        <v>17200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>36100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>54500</v>
-      </c>
       <c r="J26" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-20600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>71300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-47000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>69900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>94200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>107400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>93400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>68200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>36700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>79000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>141400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>68700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>118000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>36400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>29800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>35000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>21400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>31100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>67600</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>66800</v>
+      </c>
+      <c r="R27" s="3">
+        <v>89800</v>
+      </c>
+      <c r="S27" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T27" s="3">
+        <v>35100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>20800</v>
+      </c>
+      <c r="V27" s="3">
+        <v>100200</v>
+      </c>
+      <c r="W27" s="3">
+        <v>83500</v>
+      </c>
+      <c r="X27" s="3">
+        <v>60700</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>30100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>68100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>134300</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>61800</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-11700</v>
       </c>
-      <c r="E27" s="3">
-        <v>37600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>30900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>15000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>36200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>46400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>21400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>31100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>67600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>66800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>89800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>12400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>35100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>20800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>100200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>83500</v>
-      </c>
-      <c r="W27" s="3">
-        <v>60700</v>
-      </c>
-      <c r="X27" s="3">
-        <v>30100</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>68100</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>134300</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>61800</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>108400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2482,8 +2539,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2571,8 +2631,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2660,8 +2723,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2749,186 +2815,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-41200</v>
+        <v>-14500</v>
       </c>
       <c r="E32" s="3">
-        <v>-28300</v>
+        <v>-39800</v>
       </c>
       <c r="F32" s="3">
-        <v>-69200</v>
+        <v>-27400</v>
       </c>
       <c r="G32" s="3">
-        <v>-23600</v>
+        <v>-66800</v>
       </c>
       <c r="H32" s="3">
-        <v>-52400</v>
+        <v>-15300</v>
       </c>
       <c r="I32" s="3">
-        <v>-32900</v>
+        <v>-50700</v>
       </c>
       <c r="J32" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-69000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-162100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-87400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-27000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-10500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-11600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>15400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-13300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-36300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-75200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-13000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-18100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>36400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>29800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>35000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>21400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>31100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>67600</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>66800</v>
+      </c>
+      <c r="R33" s="3">
+        <v>89800</v>
+      </c>
+      <c r="S33" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T33" s="3">
+        <v>35100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>20800</v>
+      </c>
+      <c r="V33" s="3">
+        <v>100200</v>
+      </c>
+      <c r="W33" s="3">
+        <v>83500</v>
+      </c>
+      <c r="X33" s="3">
+        <v>60700</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>30100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>68100</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>134300</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>61800</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-11700</v>
       </c>
-      <c r="E33" s="3">
-        <v>37600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>30900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>15000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>36200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>46400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>21400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>31100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>67600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>66800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>89800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>12400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>35100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>20800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>100200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>83500</v>
-      </c>
-      <c r="W33" s="3">
-        <v>60700</v>
-      </c>
-      <c r="X33" s="3">
-        <v>30100</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>68100</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>134300</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>61800</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>108400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3016,191 +3091,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>36400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>29800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>35000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>21400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>31100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>67600</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>66800</v>
+      </c>
+      <c r="R35" s="3">
+        <v>89800</v>
+      </c>
+      <c r="S35" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T35" s="3">
+        <v>35100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>20800</v>
+      </c>
+      <c r="V35" s="3">
+        <v>100200</v>
+      </c>
+      <c r="W35" s="3">
+        <v>83500</v>
+      </c>
+      <c r="X35" s="3">
+        <v>60700</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>30100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>68100</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>134300</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>61800</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-11700</v>
       </c>
-      <c r="E35" s="3">
-        <v>37600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>30900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>15000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>36200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>46400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>21400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>31100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>67600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>66800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>89800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>12400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>35100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>20800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>100200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>83500</v>
-      </c>
-      <c r="W35" s="3">
-        <v>60700</v>
-      </c>
-      <c r="X35" s="3">
-        <v>30100</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>68100</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>134300</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>61800</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>108400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3232,8 +3316,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3265,157 +3350,161 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>383200</v>
+        <v>357400</v>
       </c>
       <c r="E41" s="3">
-        <v>325900</v>
+        <v>370400</v>
       </c>
       <c r="F41" s="3">
-        <v>401100</v>
+        <v>314900</v>
       </c>
       <c r="G41" s="3">
-        <v>424700</v>
+        <v>387700</v>
       </c>
       <c r="H41" s="3">
-        <v>403500</v>
+        <v>410500</v>
       </c>
       <c r="I41" s="3">
-        <v>447600</v>
+        <v>390000</v>
       </c>
       <c r="J41" s="3">
+        <v>432600</v>
+      </c>
+      <c r="K41" s="3">
         <v>442300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>385500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>641400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>598100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>559200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>637100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>962100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>478900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>346200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>368300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>395300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>428900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>442600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>445400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>374100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>457700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>471100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>479700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>390800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>418400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>496400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>415700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14800</v>
+        <v>20300</v>
       </c>
       <c r="E42" s="3">
-        <v>35200</v>
+        <v>14300</v>
       </c>
       <c r="F42" s="3">
-        <v>26200</v>
+        <v>34000</v>
       </c>
       <c r="G42" s="3">
-        <v>26400</v>
+        <v>25300</v>
       </c>
       <c r="H42" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>20800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K42" s="3">
         <v>21500</v>
       </c>
-      <c r="I42" s="3">
-        <v>22400</v>
-      </c>
-      <c r="J42" s="3">
-        <v>21500</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>23600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>22800</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
       <c r="W42" s="3">
         <v>0</v>
       </c>
@@ -3426,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="3">
         <v>300</v>
@@ -3435,639 +3524,663 @@
         <v>300</v>
       </c>
       <c r="AC42" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD42" s="3">
         <v>500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>200</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1556800</v>
+        <v>1499500</v>
       </c>
       <c r="E43" s="3">
-        <v>1567500</v>
+        <v>1504600</v>
       </c>
       <c r="F43" s="3">
-        <v>1526000</v>
+        <v>1515000</v>
       </c>
       <c r="G43" s="3">
-        <v>1572200</v>
+        <v>1474900</v>
       </c>
       <c r="H43" s="3">
-        <v>1600300</v>
+        <v>1519600</v>
       </c>
       <c r="I43" s="3">
-        <v>1575100</v>
+        <v>1546700</v>
       </c>
       <c r="J43" s="3">
+        <v>1522400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1432200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1442100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1466200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1354400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1299400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1221000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1685000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1802000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1774400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1859900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2097400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2044600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2030100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1984900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2017000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2008900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1887000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1815800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1753000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1623600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1499600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1280800</v>
+        <v>1246100</v>
       </c>
       <c r="E44" s="3">
-        <v>1183700</v>
+        <v>1237900</v>
       </c>
       <c r="F44" s="3">
-        <v>1328000</v>
+        <v>1144000</v>
       </c>
       <c r="G44" s="3">
-        <v>1251300</v>
+        <v>1283600</v>
       </c>
       <c r="H44" s="3">
-        <v>1254600</v>
+        <v>1209400</v>
       </c>
       <c r="I44" s="3">
-        <v>1127500</v>
+        <v>1212600</v>
       </c>
       <c r="J44" s="3">
+        <v>1089700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1066000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1058500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1015000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>856700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>883600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>922000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1042700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1020700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1206600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1150600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1183100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1181000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1242300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1166900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1121800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1028700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1110200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1068000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1019900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>925600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>931400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>806700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>263500</v>
+        <v>245300</v>
       </c>
       <c r="E45" s="3">
-        <v>232200</v>
+        <v>254700</v>
       </c>
       <c r="F45" s="3">
-        <v>261900</v>
+        <v>224500</v>
       </c>
       <c r="G45" s="3">
-        <v>243000</v>
+        <v>253200</v>
       </c>
       <c r="H45" s="3">
-        <v>262300</v>
+        <v>234900</v>
       </c>
       <c r="I45" s="3">
-        <v>282800</v>
+        <v>253500</v>
       </c>
       <c r="J45" s="3">
+        <v>273300</v>
+      </c>
+      <c r="K45" s="3">
         <v>252700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>225300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>270600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>217300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>224200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>204200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>248500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>209700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>250700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>245100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>262500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>311100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>260100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>243600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>229600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>348700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>316300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>301900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>300800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>294400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>325300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>321100</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3499000</v>
+        <v>3368600</v>
       </c>
       <c r="E46" s="3">
-        <v>3344500</v>
+        <v>3381900</v>
       </c>
       <c r="F46" s="3">
-        <v>3543300</v>
+        <v>3232500</v>
       </c>
       <c r="G46" s="3">
-        <v>3517700</v>
+        <v>3424600</v>
       </c>
       <c r="H46" s="3">
-        <v>3542100</v>
+        <v>3399900</v>
       </c>
       <c r="I46" s="3">
-        <v>3455400</v>
+        <v>3423500</v>
       </c>
       <c r="J46" s="3">
+        <v>3339700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3214700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3135000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3417800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3047400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2983400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3000900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3603300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3402200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3619700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3547700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3708100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4041100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3989700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3885900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3710500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3762400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3906800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3736800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3527600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3391900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3377000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>3043500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>824300</v>
+        <v>829400</v>
       </c>
       <c r="E47" s="3">
-        <v>1675000</v>
+        <v>796700</v>
       </c>
       <c r="F47" s="3">
-        <v>849100</v>
+        <v>1619000</v>
       </c>
       <c r="G47" s="3">
-        <v>882700</v>
+        <v>820700</v>
       </c>
       <c r="H47" s="3">
-        <v>850600</v>
+        <v>853100</v>
       </c>
       <c r="I47" s="3">
-        <v>837700</v>
+        <v>822200</v>
       </c>
       <c r="J47" s="3">
+        <v>809700</v>
+      </c>
+      <c r="K47" s="3">
         <v>755600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>772500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>768500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>777300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>789400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>774300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>838300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>936800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1090200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1066100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1062600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1193700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1158400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1237500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1200800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1239600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1221900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1137400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1096400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1162400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1059900</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>986800</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1882900</v>
+        <v>1839700</v>
       </c>
       <c r="E48" s="3">
-        <v>2175200</v>
+        <v>1819900</v>
       </c>
       <c r="F48" s="3">
-        <v>1834900</v>
+        <v>2102400</v>
       </c>
       <c r="G48" s="3">
-        <v>1932300</v>
+        <v>1773500</v>
       </c>
       <c r="H48" s="3">
-        <v>1871300</v>
+        <v>1867600</v>
       </c>
       <c r="I48" s="3">
-        <v>1787300</v>
+        <v>1808700</v>
       </c>
       <c r="J48" s="3">
+        <v>1727500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1729400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1818500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1839500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1749400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1786900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1943800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2118900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2239700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2274300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2257400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2213800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2204100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2093800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2081600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1996800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1959200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1941700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1933000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1907300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1822700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1766700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>138000</v>
+        <v>131400</v>
       </c>
       <c r="E49" s="3">
-        <v>139000</v>
+        <v>133400</v>
       </c>
       <c r="F49" s="3">
-        <v>135400</v>
+        <v>134400</v>
       </c>
       <c r="G49" s="3">
-        <v>138200</v>
+        <v>130900</v>
       </c>
       <c r="H49" s="3">
-        <v>139000</v>
+        <v>133500</v>
       </c>
       <c r="I49" s="3">
-        <v>141000</v>
+        <v>134300</v>
       </c>
       <c r="J49" s="3">
+        <v>136300</v>
+      </c>
+      <c r="K49" s="3">
         <v>135200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>143700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>149900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>143600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>142300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>146500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>146900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>141800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>128200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>122900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>113600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>117300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>95900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>92400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>90600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>102200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>96900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>87500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>86800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>86400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>79700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4155,8 +4268,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4244,97 +4360,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>261600</v>
+        <v>251900</v>
       </c>
       <c r="E52" s="3">
-        <v>264400</v>
+        <v>252800</v>
       </c>
       <c r="F52" s="3">
-        <v>250000</v>
+        <v>255600</v>
       </c>
       <c r="G52" s="3">
-        <v>263400</v>
+        <v>241700</v>
       </c>
       <c r="H52" s="3">
-        <v>264100</v>
+        <v>254600</v>
       </c>
       <c r="I52" s="3">
-        <v>208100</v>
+        <v>255300</v>
       </c>
       <c r="J52" s="3">
+        <v>201100</v>
+      </c>
+      <c r="K52" s="3">
         <v>237500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>249100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>254400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>181500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>232400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>260800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>290100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>280100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>304600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>339800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>338700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>304900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>273800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>279400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>276600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>301500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>261900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>263500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>260800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>190200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>240400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4422,97 +4544,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6605900</v>
+        <v>6421000</v>
       </c>
       <c r="E54" s="3">
-        <v>6412900</v>
+        <v>6384700</v>
       </c>
       <c r="F54" s="3">
-        <v>6612700</v>
+        <v>6198200</v>
       </c>
       <c r="G54" s="3">
-        <v>6734300</v>
+        <v>6391300</v>
       </c>
       <c r="H54" s="3">
-        <v>6667200</v>
+        <v>6508800</v>
       </c>
       <c r="I54" s="3">
-        <v>6429500</v>
+        <v>6444000</v>
       </c>
       <c r="J54" s="3">
+        <v>6214200</v>
+      </c>
+      <c r="K54" s="3">
         <v>6072400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6118800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6430100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5899200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5934500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6126200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6997500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7000600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7417000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7334000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7436800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7861200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7611600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7576800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7275300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7310000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7429200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7158200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6878900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6653600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>6523700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>6038700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4544,8 +4672,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4577,542 +4706,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>853700</v>
+        <v>836400</v>
       </c>
       <c r="E57" s="3">
-        <v>861600</v>
+        <v>825100</v>
       </c>
       <c r="F57" s="3">
-        <v>906900</v>
+        <v>832700</v>
       </c>
       <c r="G57" s="3">
-        <v>841200</v>
+        <v>876600</v>
       </c>
       <c r="H57" s="3">
-        <v>888000</v>
+        <v>813000</v>
       </c>
       <c r="I57" s="3">
-        <v>879300</v>
+        <v>858200</v>
       </c>
       <c r="J57" s="3">
+        <v>849800</v>
+      </c>
+      <c r="K57" s="3">
         <v>810900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>773200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>886600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>818900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>769800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>721600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>816700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>983100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1079200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1034700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1115500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1263000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1184200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1167500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1124900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1124500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1078800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1043900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>979900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>958700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>933000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>807800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1291200</v>
+        <v>1246800</v>
       </c>
       <c r="E58" s="3">
-        <v>2151700</v>
+        <v>1247900</v>
       </c>
       <c r="F58" s="3">
-        <v>1319600</v>
+        <v>2079700</v>
       </c>
       <c r="G58" s="3">
-        <v>1337100</v>
+        <v>1275400</v>
       </c>
       <c r="H58" s="3">
-        <v>1260900</v>
+        <v>1292300</v>
       </c>
       <c r="I58" s="3">
-        <v>1171700</v>
+        <v>1218700</v>
       </c>
       <c r="J58" s="3">
+        <v>1132500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1068800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>995600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1196900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>957400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1148400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1208100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1331600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1119500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1255200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1143000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1057800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1025500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1002200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1041000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>992900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2011900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1069900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1039900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1186800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>889700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>906300</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>901000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>607800</v>
+        <v>582800</v>
       </c>
       <c r="E59" s="3">
-        <v>1120200</v>
+        <v>587500</v>
       </c>
       <c r="F59" s="3">
-        <v>579200</v>
+        <v>1082700</v>
       </c>
       <c r="G59" s="3">
-        <v>577800</v>
+        <v>559800</v>
       </c>
       <c r="H59" s="3">
-        <v>560200</v>
+        <v>558500</v>
       </c>
       <c r="I59" s="3">
-        <v>557700</v>
+        <v>541500</v>
       </c>
       <c r="J59" s="3">
+        <v>539000</v>
+      </c>
+      <c r="K59" s="3">
         <v>514400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>506000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>502700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>458500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>522400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>488300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>705500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>713500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>722800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>787200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>823100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>898400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>799400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>795000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>858300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>810600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>729400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>698800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>655700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>753700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>634400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>607500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2752600</v>
+        <v>2666000</v>
       </c>
       <c r="E60" s="3">
-        <v>2617600</v>
+        <v>2660500</v>
       </c>
       <c r="F60" s="3">
-        <v>2805700</v>
+        <v>2530000</v>
       </c>
       <c r="G60" s="3">
-        <v>2756100</v>
+        <v>2711800</v>
       </c>
       <c r="H60" s="3">
-        <v>2709100</v>
+        <v>2663900</v>
       </c>
       <c r="I60" s="3">
-        <v>2608600</v>
+        <v>2618400</v>
       </c>
       <c r="J60" s="3">
+        <v>2521300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2394100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2274800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2586200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2234800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2440600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2418100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2853900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2816100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3057300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2964900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2996400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3186900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2985700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3003400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2976100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2986200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2878200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2782600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2822400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2602100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2473700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2316200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1061800</v>
+        <v>1033700</v>
       </c>
       <c r="E61" s="3">
-        <v>1061700</v>
+        <v>1026300</v>
       </c>
       <c r="F61" s="3">
-        <v>1066300</v>
+        <v>1026200</v>
       </c>
       <c r="G61" s="3">
-        <v>1133200</v>
+        <v>1030600</v>
       </c>
       <c r="H61" s="3">
-        <v>1197900</v>
+        <v>1095200</v>
       </c>
       <c r="I61" s="3">
-        <v>1241500</v>
+        <v>1157800</v>
       </c>
       <c r="J61" s="3">
+        <v>1199900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1169700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1179800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1145000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1157000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>970100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1031400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1194200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1163200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1124300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1156800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1249500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1338700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1430100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1409800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1282300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1285700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1404900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1393400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1284400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1350300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1387100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1298000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>498000</v>
+        <v>491200</v>
       </c>
       <c r="E62" s="3">
-        <v>518100</v>
+        <v>481300</v>
       </c>
       <c r="F62" s="3">
-        <v>512200</v>
+        <v>500800</v>
       </c>
       <c r="G62" s="3">
-        <v>542800</v>
+        <v>495100</v>
       </c>
       <c r="H62" s="3">
-        <v>518500</v>
+        <v>524600</v>
       </c>
       <c r="I62" s="3">
-        <v>421700</v>
+        <v>501100</v>
       </c>
       <c r="J62" s="3">
+        <v>407600</v>
+      </c>
+      <c r="K62" s="3">
         <v>478000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>507200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>510600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>439800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>552700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>593100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>643000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>615900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>660700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>664500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>666500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>645700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>603400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>610100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>590600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>578600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>632000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>612200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>605000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>598500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>669800</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>648200</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5200,8 +5348,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5289,8 +5440,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5378,97 +5532,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4501100</v>
+        <v>4378400</v>
       </c>
       <c r="E66" s="3">
-        <v>4340600</v>
+        <v>4350400</v>
       </c>
       <c r="F66" s="3">
-        <v>4570600</v>
+        <v>4195300</v>
       </c>
       <c r="G66" s="3">
-        <v>4684500</v>
+        <v>4417600</v>
       </c>
       <c r="H66" s="3">
-        <v>4669300</v>
+        <v>4527700</v>
       </c>
       <c r="I66" s="3">
-        <v>4511200</v>
+        <v>4513000</v>
       </c>
       <c r="J66" s="3">
+        <v>4360200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4271800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4197300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4477200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4056700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4185300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4272000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4936700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4883700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5140700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5078600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5201600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5481200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5318700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5331200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5151200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5171900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5232100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5098300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4997900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4820100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4780100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>4492300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5500,8 +5660,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5589,8 +5750,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5678,8 +5842,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5767,8 +5934,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5856,97 +6026,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1268500</v>
+        <v>1209800</v>
       </c>
       <c r="E72" s="3">
-        <v>1317400</v>
+        <v>1226000</v>
       </c>
       <c r="F72" s="3">
-        <v>1259800</v>
+        <v>1273300</v>
       </c>
       <c r="G72" s="3">
-        <v>1228900</v>
+        <v>1217600</v>
       </c>
       <c r="H72" s="3">
-        <v>1213800</v>
+        <v>1187700</v>
       </c>
       <c r="I72" s="3">
-        <v>1197800</v>
+        <v>1173200</v>
       </c>
       <c r="J72" s="3">
+        <v>1157700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1151000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1235200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1237500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1195000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1165500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1249000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1421000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1454500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1411200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1411100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1371500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1458300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1334100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1231100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1145200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1158300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1164400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1096400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>962100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>922000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>935100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>827300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6034,8 +6210,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6123,8 +6302,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6212,97 +6394,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2104800</v>
+        <v>2042600</v>
       </c>
       <c r="E76" s="3">
-        <v>2072400</v>
+        <v>2034300</v>
       </c>
       <c r="F76" s="3">
-        <v>2042100</v>
+        <v>2003000</v>
       </c>
       <c r="G76" s="3">
-        <v>2049800</v>
+        <v>1973700</v>
       </c>
       <c r="H76" s="3">
-        <v>1997900</v>
+        <v>1981100</v>
       </c>
       <c r="I76" s="3">
-        <v>1918200</v>
+        <v>1931000</v>
       </c>
       <c r="J76" s="3">
+        <v>1854000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1800600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1921500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1952900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1842500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1749200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1854200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2060800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2116900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2276300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2255400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2235100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2380000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2292900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2245600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2124100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2138100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2197100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2059900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1881000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1833500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1743600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1546400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6390,191 +6578,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>36400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>29800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>35000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>21400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>31100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>67600</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>66800</v>
+      </c>
+      <c r="R81" s="3">
+        <v>89800</v>
+      </c>
+      <c r="S81" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>35100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>20800</v>
+      </c>
+      <c r="V81" s="3">
+        <v>100200</v>
+      </c>
+      <c r="W81" s="3">
+        <v>83500</v>
+      </c>
+      <c r="X81" s="3">
+        <v>60700</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>30100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>68100</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>134300</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>61800</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-11700</v>
       </c>
-      <c r="E81" s="3">
-        <v>37600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>30900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>15000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>36200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>46400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>21400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>31100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>67600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>66800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>89800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>12400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>35100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>20800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>100200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>83500</v>
-      </c>
-      <c r="W81" s="3">
-        <v>60700</v>
-      </c>
-      <c r="X81" s="3">
-        <v>30100</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>68100</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>134300</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>61800</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>108400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6606,97 +6803,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>65700</v>
+        <v>64200</v>
       </c>
       <c r="E83" s="3">
-        <v>71200</v>
+        <v>63500</v>
       </c>
       <c r="F83" s="3">
-        <v>67500</v>
+        <v>68800</v>
       </c>
       <c r="G83" s="3">
-        <v>65900</v>
+        <v>65200</v>
       </c>
       <c r="H83" s="3">
-        <v>64100</v>
+        <v>63700</v>
       </c>
       <c r="I83" s="3">
-        <v>53000</v>
+        <v>61900</v>
       </c>
       <c r="J83" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K83" s="3">
         <v>61700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>62600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>61200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>67900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>63700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>73000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>63500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>66600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>59000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>67200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>58700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>60900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>55800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>60000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>53900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>57200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>49200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>55900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6784,8 +6985,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6873,8 +7077,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7169,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7051,8 +7261,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7140,8 +7353,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7229,8 +7445,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7262,38 +7481,39 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21210000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18921000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20335000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20698000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19316000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20784000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19927000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-24223000</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -7351,8 +7571,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7440,8 +7663,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7529,8 +7755,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7618,8 +7847,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7651,8 +7883,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7740,8 +7973,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7829,8 +8065,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7918,8 +8157,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8007,8 +8249,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8096,8 +8341,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8185,8 +8433,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8272,6 +8523,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
